--- a/Guatemala Primera Division/Guatemala Primera Division.xlsx
+++ b/Guatemala Primera Division/Guatemala Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -115,13 +115,13 @@
     <t>Solola FC</t>
   </si>
   <si>
-    <t>San Juan La Laguna FC</t>
+    <t>Aurora</t>
   </si>
   <si>
     <t>Deportivo Barberena FC</t>
   </si>
   <si>
-    <t>Aurora</t>
+    <t>San Juan La Laguna FC</t>
   </si>
   <si>
     <t>Deportivo Sanarate FC</t>
@@ -555,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC378"/>
+  <dimension ref="A1:AC379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6139619</v>
+        <v>6139616</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1023,7 +1023,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1035,61 +1035,61 @@
         <v>59</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q6">
+        <v>-0.75</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1.8</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>2.025</v>
+      </c>
+      <c r="V6">
+        <v>1.775</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>2.1</v>
+      </c>
+      <c r="Y6">
+        <v>-1</v>
+      </c>
+      <c r="Z6">
+        <v>-1</v>
+      </c>
+      <c r="AA6">
+        <v>0.8</v>
+      </c>
+      <c r="AB6">
         <v>0</v>
       </c>
-      <c r="R6">
-        <v>1.8</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>2.5</v>
-      </c>
-      <c r="U6">
-        <v>1.85</v>
-      </c>
-      <c r="V6">
-        <v>1.95</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>2.2</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>-0</v>
-      </c>
-      <c r="AB6">
-        <v>-1</v>
-      </c>
-      <c r="AC6">
-        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6139616</v>
+        <v>6139619</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1201,7 +1201,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1213,61 +1213,61 @@
         <v>59</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1646,7 +1646,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2091,7 +2091,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2622,7 +2622,7 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2711,7 +2711,7 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>38</v>
@@ -3248,7 +3248,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3693,7 +3693,7 @@
         <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>44968.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>34</v>
@@ -4405,7 +4405,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4672,7 +4672,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -5280,7 +5280,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6307006</v>
+        <v>6307936</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5292,13 +5292,13 @@
         <v>44979.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -5307,25 +5307,25 @@
         <v>58</v>
       </c>
       <c r="K54">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>4.8</v>
+        <v>2.55</v>
       </c>
       <c r="N54">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P54">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q54">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
         <v>1.95</v>
@@ -5337,13 +5337,13 @@
         <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>0.444</v>
+        <v>0.7</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5352,13 +5352,13 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA54">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5369,7 +5369,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6312955</v>
+        <v>6307006</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5381,58 +5381,58 @@
         <v>44979.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>58</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L55">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="O55">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S55">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0.444</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5441,16 +5441,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC55">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5458,7 +5458,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6307936</v>
+        <v>6312955</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5470,58 +5470,58 @@
         <v>44979.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>58</v>
       </c>
       <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>3.1</v>
+      </c>
+      <c r="M56">
+        <v>3.4</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>3.1</v>
+      </c>
+      <c r="P56">
+        <v>3.4</v>
+      </c>
+      <c r="Q56">
+        <v>-0.25</v>
+      </c>
+      <c r="R56">
+        <v>1.775</v>
+      </c>
+      <c r="S56">
+        <v>2.025</v>
+      </c>
+      <c r="T56">
         <v>2.25</v>
       </c>
-      <c r="L56">
-        <v>3.6</v>
-      </c>
-      <c r="M56">
-        <v>2.55</v>
-      </c>
-      <c r="N56">
-        <v>1.7</v>
-      </c>
-      <c r="O56">
-        <v>3.8</v>
-      </c>
-      <c r="P56">
-        <v>3.8</v>
-      </c>
-      <c r="Q56">
-        <v>-0.75</v>
-      </c>
-      <c r="R56">
+      <c r="U56">
+        <v>1.85</v>
+      </c>
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="S56">
-        <v>1.85</v>
-      </c>
-      <c r="T56">
-        <v>2.5</v>
-      </c>
-      <c r="U56">
-        <v>1.95</v>
-      </c>
-      <c r="V56">
-        <v>1.85</v>
-      </c>
       <c r="W56">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5530,16 +5530,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5547,7 +5547,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6308094</v>
+        <v>6307007</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5559,58 +5559,58 @@
         <v>44979.75</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>58</v>
       </c>
       <c r="K57">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L57">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M57">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N57">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O57">
+        <v>3.2</v>
+      </c>
+      <c r="P57">
         <v>3.1</v>
       </c>
-      <c r="P57">
-        <v>4.5</v>
-      </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
         <v>2</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5619,16 +5619,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5636,7 +5636,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6307007</v>
+        <v>6308094</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5648,58 +5648,58 @@
         <v>44979.75</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
         <v>1</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>58</v>
       </c>
       <c r="K58">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L58">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M58">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O58">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P58">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>2</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W58">
-        <v>1.1</v>
+        <v>0.75</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5708,16 +5708,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5740,7 +5740,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6538,7 +6538,7 @@
         <v>44983.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
         <v>47</v>
@@ -6627,7 +6627,7 @@
         <v>44983.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
         <v>43</v>
@@ -6986,7 +6986,7 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>46</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7861,7 +7861,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6368315</v>
+        <v>6368316</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7873,76 +7873,76 @@
         <v>44996.95833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K83">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L83">
+        <v>2.9</v>
+      </c>
+      <c r="M83">
         <v>4</v>
-      </c>
-      <c r="M83">
-        <v>5</v>
       </c>
       <c r="N83">
         <v>1.5</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q83">
         <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7950,7 +7950,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6368316</v>
+        <v>6368315</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7962,76 +7962,76 @@
         <v>44996.95833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L84">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N84">
         <v>1.5</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q84">
         <v>-1</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T84">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8321,7 +8321,7 @@
         <v>44</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8674,7 +8674,7 @@
         <v>45003.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
         <v>45</v>
@@ -9374,7 +9374,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6448663</v>
+        <v>6448662</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9386,76 +9386,76 @@
         <v>45011.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K100">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L100">
         <v>3.2</v>
       </c>
       <c r="M100">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N100">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="O100">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
         <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X100">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9463,7 +9463,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6448661</v>
+        <v>6448663</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9475,16 +9475,16 @@
         <v>45011.58333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>59</v>
@@ -9493,44 +9493,44 @@
         <v>1.909</v>
       </c>
       <c r="L101">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N101">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O101">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P101">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
+        <v>2.25</v>
+      </c>
+      <c r="U101">
+        <v>1.875</v>
+      </c>
+      <c r="V101">
+        <v>1.925</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
         <v>2.5</v>
       </c>
-      <c r="U101">
-        <v>1.975</v>
-      </c>
-      <c r="V101">
-        <v>1.825</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>2.4</v>
-      </c>
       <c r="Y101">
         <v>-1</v>
       </c>
@@ -9538,13 +9538,13 @@
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9552,7 +9552,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6448662</v>
+        <v>6448661</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9564,76 +9564,76 @@
         <v>45011.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>35</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K102">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L102">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P102">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10098,7 +10098,7 @@
         <v>45017.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10454,7 +10454,7 @@
         <v>45018.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
         <v>42</v>
@@ -10724,7 +10724,7 @@
         <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11243,7 +11243,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6487835</v>
+        <v>6487836</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11255,76 +11255,76 @@
         <v>45021.95833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K121">
-        <v>2.45</v>
+        <v>1.142</v>
       </c>
       <c r="L121">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M121">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="N121">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="P121">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S121">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V121">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11332,7 +11332,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6487836</v>
+        <v>6487835</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11344,76 +11344,76 @@
         <v>45021.95833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J122" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K122">
-        <v>1.142</v>
+        <v>2.45</v>
       </c>
       <c r="L122">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M122">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="N122">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O122">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="P122">
-        <v>19</v>
+        <v>2.875</v>
       </c>
       <c r="Q122">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T122">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U122">
+        <v>1.975</v>
+      </c>
+      <c r="V122">
+        <v>1.825</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
         <v>1.875</v>
       </c>
-      <c r="V122">
-        <v>1.925</v>
-      </c>
-      <c r="W122">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
-      <c r="Y122">
-        <v>-1</v>
-      </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11789,7 +11789,7 @@
         <v>45028.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
         <v>36</v>
@@ -12949,7 +12949,7 @@
         <v>47</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -13127,7 +13127,7 @@
         <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -13836,7 +13836,7 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>
@@ -14462,7 +14462,7 @@
         <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14637,7 +14637,7 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
         <v>31</v>
@@ -14726,7 +14726,7 @@
         <v>45052.75</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
         <v>36</v>
@@ -15349,7 +15349,7 @@
         <v>45057.83333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
         <v>46</v>
@@ -15619,7 +15619,7 @@
         <v>46</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -16598,7 +16598,7 @@
         <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16773,7 +16773,7 @@
         <v>45142.66666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
         <v>53</v>
@@ -17740,7 +17740,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7060394</v>
+        <v>7060392</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17752,58 +17752,58 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G194" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>58</v>
       </c>
       <c r="K194">
-        <v>1.615</v>
+        <v>1.952</v>
       </c>
       <c r="L194">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M194">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N194">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O194">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P194">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q194">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S194">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T194">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V194">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W194">
-        <v>0.6659999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17812,16 +17812,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17829,7 +17829,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7060392</v>
+        <v>7060394</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17841,58 +17841,58 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H195">
+        <v>3</v>
+      </c>
+      <c r="I195">
         <v>1</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>58</v>
       </c>
       <c r="K195">
-        <v>1.952</v>
+        <v>1.615</v>
       </c>
       <c r="L195">
+        <v>3.5</v>
+      </c>
+      <c r="M195">
+        <v>5</v>
+      </c>
+      <c r="N195">
+        <v>1.666</v>
+      </c>
+      <c r="O195">
         <v>3.3</v>
       </c>
-      <c r="M195">
-        <v>3.4</v>
-      </c>
-      <c r="N195">
-        <v>1.8</v>
-      </c>
-      <c r="O195">
-        <v>3.6</v>
-      </c>
       <c r="P195">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
+        <v>1.9</v>
+      </c>
+      <c r="S195">
+        <v>1.9</v>
+      </c>
+      <c r="T195">
+        <v>2</v>
+      </c>
+      <c r="U195">
         <v>1.825</v>
       </c>
-      <c r="S195">
+      <c r="V195">
         <v>1.975</v>
       </c>
-      <c r="T195">
-        <v>2.5</v>
-      </c>
-      <c r="U195">
-        <v>2</v>
-      </c>
-      <c r="V195">
-        <v>1.8</v>
-      </c>
       <c r="W195">
-        <v>0.8</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17901,16 +17901,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA195">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
         <v>0.825</v>
       </c>
-      <c r="AA195">
-        <v>-1</v>
-      </c>
-      <c r="AB195">
-        <v>-1</v>
-      </c>
       <c r="AC195">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17918,7 +17918,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7060342</v>
+        <v>7060393</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17930,76 +17930,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H196">
         <v>0</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K196">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="L196">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M196">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N196">
+        <v>1.5</v>
+      </c>
+      <c r="O196">
+        <v>3.8</v>
+      </c>
+      <c r="P196">
+        <v>5.75</v>
+      </c>
+      <c r="Q196">
+        <v>-1</v>
+      </c>
+      <c r="R196">
+        <v>1.85</v>
+      </c>
+      <c r="S196">
+        <v>1.95</v>
+      </c>
+      <c r="T196">
+        <v>2.75</v>
+      </c>
+      <c r="U196">
+        <v>1.825</v>
+      </c>
+      <c r="V196">
+        <v>1.975</v>
+      </c>
+      <c r="W196">
+        <v>-1</v>
+      </c>
+      <c r="X196">
         <v>2.8</v>
       </c>
-      <c r="O196">
-        <v>3.1</v>
-      </c>
-      <c r="P196">
-        <v>2.25</v>
-      </c>
-      <c r="Q196">
-        <v>0.25</v>
-      </c>
-      <c r="R196">
-        <v>1.775</v>
-      </c>
-      <c r="S196">
-        <v>2.025</v>
-      </c>
-      <c r="T196">
-        <v>2.25</v>
-      </c>
-      <c r="U196">
-        <v>2</v>
-      </c>
-      <c r="V196">
-        <v>1.8</v>
-      </c>
-      <c r="W196">
-        <v>-1</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
       <c r="Y196">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18007,7 +18007,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7060393</v>
+        <v>7060342</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18019,76 +18019,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G197" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K197">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="L197">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M197">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N197">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O197">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P197">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q197">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S197">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V197">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18375,7 +18375,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
         <v>34</v>
@@ -18541,7 +18541,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7072459</v>
+        <v>7072448</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18553,10 +18553,10 @@
         <v>45154.75</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -18568,61 +18568,61 @@
         <v>59</v>
       </c>
       <c r="K203">
+        <v>1.727</v>
+      </c>
+      <c r="L203">
+        <v>3.5</v>
+      </c>
+      <c r="M203">
+        <v>4</v>
+      </c>
+      <c r="N203">
+        <v>1.6</v>
+      </c>
+      <c r="O203">
+        <v>3.6</v>
+      </c>
+      <c r="P203">
+        <v>4.75</v>
+      </c>
+      <c r="Q203">
+        <v>-0.75</v>
+      </c>
+      <c r="R203">
+        <v>1.8</v>
+      </c>
+      <c r="S203">
+        <v>2</v>
+      </c>
+      <c r="T203">
         <v>2.25</v>
       </c>
-      <c r="L203">
-        <v>3</v>
-      </c>
-      <c r="M203">
-        <v>3</v>
-      </c>
-      <c r="N203">
-        <v>2.5</v>
-      </c>
-      <c r="O203">
-        <v>2.8</v>
-      </c>
-      <c r="P203">
-        <v>3</v>
-      </c>
-      <c r="Q203">
-        <v>0</v>
-      </c>
-      <c r="R203">
-        <v>1.725</v>
-      </c>
-      <c r="S203">
-        <v>2.075</v>
-      </c>
-      <c r="T203">
-        <v>2</v>
-      </c>
       <c r="U203">
+        <v>1.95</v>
+      </c>
+      <c r="V203">
         <v>1.85</v>
       </c>
-      <c r="V203">
-        <v>1.95</v>
-      </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB203">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC203">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18630,7 +18630,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7072542</v>
+        <v>7072447</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18642,76 +18642,76 @@
         <v>45154.75</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G204" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K204">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L204">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N204">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O204">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P204">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S204">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T204">
         <v>2.25</v>
       </c>
       <c r="U204">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W204">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z204">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB204">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18808,7 +18808,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7072447</v>
+        <v>7072459</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18820,76 +18820,76 @@
         <v>45154.75</v>
       </c>
       <c r="F206" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G206" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206">
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K206">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="L206">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M206">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N206">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O206">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P206">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q206">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R206">
+        <v>1.725</v>
+      </c>
+      <c r="S206">
+        <v>2.075</v>
+      </c>
+      <c r="T206">
+        <v>2</v>
+      </c>
+      <c r="U206">
+        <v>1.85</v>
+      </c>
+      <c r="V206">
+        <v>1.95</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
         <v>1.8</v>
       </c>
-      <c r="S206">
-        <v>2</v>
-      </c>
-      <c r="T206">
-        <v>2.25</v>
-      </c>
-      <c r="U206">
-        <v>1.9</v>
-      </c>
-      <c r="V206">
-        <v>1.9</v>
-      </c>
-      <c r="W206">
-        <v>-1</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
       <c r="Y206">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA206">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC206">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18897,7 +18897,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7072448</v>
+        <v>7072542</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18909,34 +18909,34 @@
         <v>45154.75</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207">
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K207">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L207">
+        <v>3.25</v>
+      </c>
+      <c r="M207">
         <v>3.5</v>
       </c>
-      <c r="M207">
-        <v>4</v>
-      </c>
       <c r="N207">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O207">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P207">
         <v>4.75</v>
@@ -18945,40 +18945,40 @@
         <v>-0.75</v>
       </c>
       <c r="R207">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S207">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T207">
         <v>2.25</v>
       </c>
       <c r="U207">
+        <v>1.85</v>
+      </c>
+      <c r="V207">
         <v>1.95</v>
       </c>
-      <c r="V207">
-        <v>1.85</v>
-      </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X207">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA207">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB207">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC207">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19342,7 +19342,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7106041</v>
+        <v>7106173</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19354,13 +19354,13 @@
         <v>45161.75</v>
       </c>
       <c r="F212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G212" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -19369,43 +19369,43 @@
         <v>58</v>
       </c>
       <c r="K212">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L212">
         <v>3.2</v>
       </c>
       <c r="M212">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N212">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O212">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P212">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R212">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S212">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T212">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V212">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W212">
-        <v>1.3</v>
+        <v>0.571</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19414,16 +19414,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC212">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19431,7 +19431,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7106173</v>
+        <v>7106041</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19443,13 +19443,13 @@
         <v>45161.75</v>
       </c>
       <c r="F213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G213" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H213">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19458,43 +19458,43 @@
         <v>58</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L213">
         <v>3.2</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N213">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O213">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P213">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R213">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S213">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U213">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
-        <v>0.571</v>
+        <v>1.3</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19503,16 +19503,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19535,7 +19535,7 @@
         <v>38</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -20155,7 +20155,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
         <v>39</v>
@@ -20600,7 +20600,7 @@
         <v>45170.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G226" t="s">
         <v>47</v>
@@ -21567,7 +21567,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7189791</v>
+        <v>7189246</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21579,40 +21579,40 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G237" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K237">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L237">
+        <v>3.5</v>
+      </c>
+      <c r="M237">
         <v>4</v>
       </c>
-      <c r="M237">
-        <v>1.833</v>
-      </c>
       <c r="N237">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O237">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P237">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
         <v>1.825</v>
@@ -21624,28 +21624,28 @@
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V237">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W237">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z237">
+        <v>-1</v>
+      </c>
+      <c r="AA237">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB237">
         <v>0.825</v>
-      </c>
-      <c r="AA237">
-        <v>-1</v>
-      </c>
-      <c r="AB237">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21745,7 +21745,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7189246</v>
+        <v>7189791</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21757,40 +21757,40 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G239" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H239">
+        <v>2</v>
+      </c>
+      <c r="I239">
         <v>1</v>
       </c>
-      <c r="I239">
-        <v>3</v>
-      </c>
       <c r="J239" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K239">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L239">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M239">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N239">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O239">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P239">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
         <v>1.825</v>
@@ -21802,28 +21802,28 @@
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -22113,7 +22113,7 @@
         <v>45182.58333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G243" t="s">
         <v>52</v>
@@ -22279,7 +22279,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7203472</v>
+        <v>7203437</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22291,46 +22291,46 @@
         <v>45182.75</v>
       </c>
       <c r="F245" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G245" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J245" t="s">
         <v>58</v>
       </c>
       <c r="K245">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L245">
         <v>3.2</v>
       </c>
       <c r="M245">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N245">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P245">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q245">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R245">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S245">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T245">
         <v>2.5</v>
@@ -22339,10 +22339,10 @@
         <v>1.95</v>
       </c>
       <c r="V245">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W245">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22351,10 +22351,10 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA245">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
         <v>0.95</v>
@@ -22457,7 +22457,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7203437</v>
+        <v>7203472</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22469,46 +22469,46 @@
         <v>45182.75</v>
       </c>
       <c r="F247" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G247" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H247">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
         <v>58</v>
       </c>
       <c r="K247">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L247">
         <v>3.2</v>
       </c>
       <c r="M247">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N247">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O247">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P247">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q247">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R247">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S247">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T247">
         <v>2.5</v>
@@ -22517,10 +22517,10 @@
         <v>1.95</v>
       </c>
       <c r="V247">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W247">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22529,10 +22529,10 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB247">
         <v>0.95</v>
@@ -23092,7 +23092,7 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G254" t="s">
         <v>29</v>
@@ -24160,7 +24160,7 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G266" t="s">
         <v>48</v>
@@ -25216,7 +25216,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7281782</v>
+        <v>7281758</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25228,73 +25228,73 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F278" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G278" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I278">
         <v>3</v>
       </c>
       <c r="J278" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K278">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L278">
+        <v>3.2</v>
+      </c>
+      <c r="M278">
+        <v>3.75</v>
+      </c>
+      <c r="N278">
+        <v>1.8</v>
+      </c>
+      <c r="O278">
         <v>3.3</v>
       </c>
-      <c r="M278">
-        <v>2.5</v>
-      </c>
-      <c r="N278">
-        <v>1.909</v>
-      </c>
-      <c r="O278">
-        <v>3.5</v>
-      </c>
       <c r="P278">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q278">
         <v>-0.5</v>
       </c>
       <c r="R278">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S278">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T278">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U278">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V278">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA278">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC278">
         <v>-1</v>
@@ -25305,7 +25305,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7281758</v>
+        <v>7281782</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25317,73 +25317,73 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F279" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G279" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H279">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I279">
         <v>3</v>
       </c>
       <c r="J279" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K279">
+        <v>2.5</v>
+      </c>
+      <c r="L279">
+        <v>3.3</v>
+      </c>
+      <c r="M279">
+        <v>2.5</v>
+      </c>
+      <c r="N279">
         <v>1.909</v>
       </c>
-      <c r="L279">
-        <v>3.2</v>
-      </c>
-      <c r="M279">
-        <v>3.75</v>
-      </c>
-      <c r="N279">
-        <v>1.8</v>
-      </c>
       <c r="O279">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P279">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q279">
         <v>-0.5</v>
       </c>
       <c r="R279">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S279">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T279">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U279">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V279">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W279">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X279">
         <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z279">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB279">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC279">
         <v>-1</v>
@@ -25587,7 +25587,7 @@
         <v>34</v>
       </c>
       <c r="G282" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H282">
         <v>3</v>
@@ -25854,7 +25854,7 @@
         <v>47</v>
       </c>
       <c r="G285" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -26029,7 +26029,7 @@
         <v>45221.58333333334</v>
       </c>
       <c r="F287" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G287" t="s">
         <v>38</v>
@@ -26373,7 +26373,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7387943</v>
+        <v>7387211</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26385,13 +26385,13 @@
         <v>45224.75</v>
       </c>
       <c r="F291" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G291" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H291">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I291">
         <v>0</v>
@@ -26400,34 +26400,34 @@
         <v>58</v>
       </c>
       <c r="K291">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L291">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M291">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N291">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O291">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P291">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q291">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R291">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S291">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T291">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U291">
         <v>1.9</v>
@@ -26436,7 +26436,7 @@
         <v>1.9</v>
       </c>
       <c r="W291">
-        <v>0.5329999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X291">
         <v>-1</v>
@@ -26445,16 +26445,16 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA291">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB291">
+        <v>-1</v>
+      </c>
+      <c r="AC291">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC291">
-        <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26462,7 +26462,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7387211</v>
+        <v>7387942</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26474,61 +26474,61 @@
         <v>45224.75</v>
       </c>
       <c r="F292" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G292" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292">
         <v>0</v>
       </c>
       <c r="J292" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K292">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L292">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M292">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N292">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O292">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P292">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q292">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R292">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S292">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T292">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U292">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V292">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W292">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X292">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y292">
         <v>-1</v>
@@ -26537,13 +26537,13 @@
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB292">
         <v>-1</v>
       </c>
       <c r="AC292">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26551,7 +26551,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7387942</v>
+        <v>7387943</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26563,76 +26563,76 @@
         <v>45224.75</v>
       </c>
       <c r="F293" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G293" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I293">
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K293">
+        <v>1.727</v>
+      </c>
+      <c r="L293">
+        <v>3.4</v>
+      </c>
+      <c r="M293">
+        <v>4.2</v>
+      </c>
+      <c r="N293">
+        <v>1.533</v>
+      </c>
+      <c r="O293">
+        <v>3.6</v>
+      </c>
+      <c r="P293">
+        <v>5.5</v>
+      </c>
+      <c r="Q293">
+        <v>-0.75</v>
+      </c>
+      <c r="R293">
+        <v>1.75</v>
+      </c>
+      <c r="S293">
+        <v>1.95</v>
+      </c>
+      <c r="T293">
         <v>2.5</v>
       </c>
-      <c r="L293">
-        <v>3</v>
-      </c>
-      <c r="M293">
-        <v>2.6</v>
-      </c>
-      <c r="N293">
-        <v>1.909</v>
-      </c>
-      <c r="O293">
-        <v>3.2</v>
-      </c>
-      <c r="P293">
-        <v>3.6</v>
-      </c>
-      <c r="Q293">
-        <v>-0.5</v>
-      </c>
-      <c r="R293">
-        <v>2</v>
-      </c>
-      <c r="S293">
-        <v>1.8</v>
-      </c>
-      <c r="T293">
-        <v>2.25</v>
-      </c>
       <c r="U293">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V293">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W293">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X293">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y293">
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA293">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC293">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -27008,7 +27008,7 @@
         <v>45227.72916666666</v>
       </c>
       <c r="F298" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G298" t="s">
         <v>56</v>
@@ -27441,7 +27441,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7400383</v>
+        <v>7400381</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27453,73 +27453,73 @@
         <v>45228.75</v>
       </c>
       <c r="F303" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G303" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H303">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J303" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K303">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L303">
+        <v>3.4</v>
+      </c>
+      <c r="M303">
+        <v>3.75</v>
+      </c>
+      <c r="N303">
+        <v>1.65</v>
+      </c>
+      <c r="O303">
         <v>3.6</v>
       </c>
-      <c r="M303">
-        <v>5</v>
-      </c>
-      <c r="N303">
-        <v>1.45</v>
-      </c>
-      <c r="O303">
-        <v>3.8</v>
-      </c>
       <c r="P303">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q303">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R303">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S303">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U303">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V303">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W303">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB303">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC303">
         <v>-1</v>
@@ -27530,7 +27530,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7400381</v>
+        <v>7400383</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27542,73 +27542,73 @@
         <v>45228.75</v>
       </c>
       <c r="F304" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G304" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K304">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L304">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M304">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N304">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O304">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P304">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q304">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R304">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S304">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T304">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U304">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V304">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W304">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X304">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA304">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -28346,7 +28346,7 @@
         <v>52</v>
       </c>
       <c r="G313" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -28420,7 +28420,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7451046</v>
+        <v>7451058</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28432,76 +28432,76 @@
         <v>45238.75</v>
       </c>
       <c r="F314" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G314" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I314">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J314" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K314">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L314">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M314">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N314">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O314">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P314">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q314">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R314">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S314">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T314">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U314">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V314">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W314">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X314">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y314">
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA314">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC314">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28509,7 +28509,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7451058</v>
+        <v>7451046</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28521,76 +28521,76 @@
         <v>45238.75</v>
       </c>
       <c r="F315" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G315" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H315">
+        <v>0</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315" t="s">
+        <v>59</v>
+      </c>
+      <c r="K315">
         <v>3</v>
       </c>
-      <c r="I315">
-        <v>2</v>
-      </c>
-      <c r="J315" t="s">
-        <v>58</v>
-      </c>
-      <c r="K315">
-        <v>1.909</v>
-      </c>
       <c r="L315">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M315">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N315">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O315">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P315">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q315">
+        <v>-0.25</v>
+      </c>
+      <c r="R315">
+        <v>1.9</v>
+      </c>
+      <c r="S315">
+        <v>1.9</v>
+      </c>
+      <c r="T315">
+        <v>2.5</v>
+      </c>
+      <c r="U315">
+        <v>1.825</v>
+      </c>
+      <c r="V315">
+        <v>1.975</v>
+      </c>
+      <c r="W315">
+        <v>-1</v>
+      </c>
+      <c r="X315">
+        <v>2.3</v>
+      </c>
+      <c r="Y315">
+        <v>-1</v>
+      </c>
+      <c r="Z315">
         <v>-0.5</v>
       </c>
-      <c r="R315">
-        <v>2</v>
-      </c>
-      <c r="S315">
-        <v>1.8</v>
-      </c>
-      <c r="T315">
-        <v>2.75</v>
-      </c>
-      <c r="U315">
-        <v>1.875</v>
-      </c>
-      <c r="V315">
-        <v>1.925</v>
-      </c>
-      <c r="W315">
-        <v>0.909</v>
-      </c>
-      <c r="X315">
-        <v>-1</v>
-      </c>
-      <c r="Y315">
-        <v>-1</v>
-      </c>
-      <c r="Z315">
-        <v>1</v>
-      </c>
       <c r="AA315">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB315">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28687,7 +28687,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7477706</v>
+        <v>7477707</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28699,40 +28699,40 @@
         <v>45245.95833333334</v>
       </c>
       <c r="F317" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G317" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I317">
         <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K317">
         <v>2</v>
       </c>
       <c r="L317">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M317">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N317">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O317">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P317">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q317">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
         <v>1.9</v>
@@ -28741,34 +28741,34 @@
         <v>1.9</v>
       </c>
       <c r="T317">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U317">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V317">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W317">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X317">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA317">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC317">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28776,7 +28776,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7477707</v>
+        <v>7477706</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28788,40 +28788,40 @@
         <v>45245.95833333334</v>
       </c>
       <c r="F318" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G318" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H318">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318">
         <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K318">
         <v>2</v>
       </c>
       <c r="L318">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M318">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N318">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O318">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P318">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q318">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R318">
         <v>1.9</v>
@@ -28830,34 +28830,34 @@
         <v>1.9</v>
       </c>
       <c r="T318">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U318">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V318">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W318">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X318">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
+        <v>-1</v>
+      </c>
+      <c r="AA318">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA318">
-        <v>-1</v>
-      </c>
       <c r="AB318">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC318">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28877,7 +28877,7 @@
         <v>45246.72916666666</v>
       </c>
       <c r="F319" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G319" t="s">
         <v>46</v>
@@ -28969,7 +28969,7 @@
         <v>46</v>
       </c>
       <c r="G320" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H320">
         <v>3</v>
@@ -29144,7 +29144,7 @@
         <v>45253.58333333334</v>
       </c>
       <c r="F322" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G322" t="s">
         <v>47</v>
@@ -29681,7 +29681,7 @@
         <v>47</v>
       </c>
       <c r="G328" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H328">
         <v>3</v>
@@ -30378,7 +30378,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7693875</v>
+        <v>7694909</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30390,76 +30390,76 @@
         <v>45304.75</v>
       </c>
       <c r="F336" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G336" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J336" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K336">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L336">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M336">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N336">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O336">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P336">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q336">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R336">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S336">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T336">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U336">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V336">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W336">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X336">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA336">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB336">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC336">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30467,7 +30467,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7694909</v>
+        <v>7693875</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30479,76 +30479,76 @@
         <v>45304.75</v>
       </c>
       <c r="F337" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G337" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H337">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K337">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L337">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M337">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N337">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O337">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P337">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q337">
+        <v>-0.25</v>
+      </c>
+      <c r="R337">
+        <v>1.85</v>
+      </c>
+      <c r="S337">
+        <v>1.95</v>
+      </c>
+      <c r="T337">
+        <v>2.5</v>
+      </c>
+      <c r="U337">
+        <v>2</v>
+      </c>
+      <c r="V337">
+        <v>1.8</v>
+      </c>
+      <c r="W337">
+        <v>-1</v>
+      </c>
+      <c r="X337">
+        <v>2.1</v>
+      </c>
+      <c r="Y337">
+        <v>-1</v>
+      </c>
+      <c r="Z337">
         <v>-0.5</v>
       </c>
-      <c r="R337">
-        <v>1.975</v>
-      </c>
-      <c r="S337">
-        <v>1.825</v>
-      </c>
-      <c r="T337">
-        <v>3</v>
-      </c>
-      <c r="U337">
-        <v>1.975</v>
-      </c>
-      <c r="V337">
-        <v>1.825</v>
-      </c>
-      <c r="W337">
-        <v>0.909</v>
-      </c>
-      <c r="X337">
-        <v>-1</v>
-      </c>
-      <c r="Y337">
-        <v>-1</v>
-      </c>
-      <c r="Z337">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA337">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB337">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC337">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30556,7 +30556,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7697287</v>
+        <v>7697288</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30568,13 +30568,13 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F338" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G338" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H338">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I338">
         <v>1</v>
@@ -30583,31 +30583,31 @@
         <v>58</v>
       </c>
       <c r="K338">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L338">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M338">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N338">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O338">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P338">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q338">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R338">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S338">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T338">
         <v>2.75</v>
@@ -30619,7 +30619,7 @@
         <v>1.9</v>
       </c>
       <c r="W338">
-        <v>1.05</v>
+        <v>0.444</v>
       </c>
       <c r="X338">
         <v>-1</v>
@@ -30628,16 +30628,16 @@
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA338">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB338">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC338">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -30645,7 +30645,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7697288</v>
+        <v>7697287</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30657,13 +30657,13 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F339" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G339" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I339">
         <v>1</v>
@@ -30672,31 +30672,31 @@
         <v>58</v>
       </c>
       <c r="K339">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L339">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M339">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N339">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O339">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P339">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q339">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R339">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S339">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T339">
         <v>2.75</v>
@@ -30708,7 +30708,7 @@
         <v>1.9</v>
       </c>
       <c r="W339">
-        <v>0.444</v>
+        <v>1.05</v>
       </c>
       <c r="X339">
         <v>-1</v>
@@ -30717,16 +30717,16 @@
         <v>-1</v>
       </c>
       <c r="Z339">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA339">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB339">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC339">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30924,7 +30924,7 @@
         <v>45311.75</v>
       </c>
       <c r="F342" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G342" t="s">
         <v>29</v>
@@ -32259,7 +32259,7 @@
         <v>45319.75</v>
       </c>
       <c r="F357" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G357" t="s">
         <v>53</v>
@@ -32514,7 +32514,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7785358</v>
+        <v>7785346</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32526,76 +32526,76 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F360" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G360" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I360">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J360" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K360">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L360">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M360">
-        <v>2.4</v>
+        <v>1.952</v>
       </c>
       <c r="N360">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O360">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P360">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q360">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R360">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S360">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T360">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U360">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V360">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W360">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X360">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y360">
         <v>-1</v>
       </c>
       <c r="Z360">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA360">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB360">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC360">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32603,7 +32603,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7785346</v>
+        <v>7785358</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32615,76 +32615,76 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F361" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G361" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H361">
+        <v>2</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361" t="s">
+        <v>58</v>
+      </c>
+      <c r="K361">
+        <v>2.5</v>
+      </c>
+      <c r="L361">
+        <v>3.3</v>
+      </c>
+      <c r="M361">
+        <v>2.4</v>
+      </c>
+      <c r="N361">
+        <v>1.833</v>
+      </c>
+      <c r="O361">
+        <v>3.6</v>
+      </c>
+      <c r="P361">
+        <v>3.4</v>
+      </c>
+      <c r="Q361">
+        <v>-0.5</v>
+      </c>
+      <c r="R361">
+        <v>1.9</v>
+      </c>
+      <c r="S361">
+        <v>1.9</v>
+      </c>
+      <c r="T361">
         <v>3</v>
       </c>
-      <c r="I361">
-        <v>3</v>
-      </c>
-      <c r="J361" t="s">
-        <v>59</v>
-      </c>
-      <c r="K361">
-        <v>3.75</v>
-      </c>
-      <c r="L361">
-        <v>3</v>
-      </c>
-      <c r="M361">
-        <v>1.952</v>
-      </c>
-      <c r="N361">
-        <v>2.6</v>
-      </c>
-      <c r="O361">
-        <v>2.7</v>
-      </c>
-      <c r="P361">
-        <v>2.75</v>
-      </c>
-      <c r="Q361">
+      <c r="U361">
+        <v>1.95</v>
+      </c>
+      <c r="V361">
+        <v>1.85</v>
+      </c>
+      <c r="W361">
+        <v>0.833</v>
+      </c>
+      <c r="X361">
+        <v>-1</v>
+      </c>
+      <c r="Y361">
+        <v>-1</v>
+      </c>
+      <c r="Z361">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA361">
+        <v>-1</v>
+      </c>
+      <c r="AB361">
         <v>0</v>
       </c>
-      <c r="R361">
-        <v>1.85</v>
-      </c>
-      <c r="S361">
-        <v>1.95</v>
-      </c>
-      <c r="T361">
-        <v>2</v>
-      </c>
-      <c r="U361">
-        <v>1.8</v>
-      </c>
-      <c r="V361">
-        <v>2</v>
-      </c>
-      <c r="W361">
-        <v>-1</v>
-      </c>
-      <c r="X361">
-        <v>1.7</v>
-      </c>
-      <c r="Y361">
-        <v>-1</v>
-      </c>
-      <c r="Z361">
-        <v>0</v>
-      </c>
-      <c r="AA361">
+      <c r="AC361">
         <v>-0</v>
-      </c>
-      <c r="AB361">
-        <v>0.8</v>
-      </c>
-      <c r="AC361">
-        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32692,7 +32692,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7785359</v>
+        <v>7785360</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32704,58 +32704,58 @@
         <v>45326.75</v>
       </c>
       <c r="F362" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G362" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H362">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J362" t="s">
         <v>58</v>
       </c>
       <c r="K362">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L362">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M362">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N362">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O362">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P362">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q362">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R362">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S362">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T362">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U362">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V362">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W362">
-        <v>0.571</v>
+        <v>0.75</v>
       </c>
       <c r="X362">
         <v>-1</v>
@@ -32764,13 +32764,13 @@
         <v>-1</v>
       </c>
       <c r="Z362">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA362">
         <v>-1</v>
       </c>
       <c r="AB362">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC362">
         <v>-1</v>
@@ -32781,7 +32781,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>7785360</v>
+        <v>7785359</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32793,58 +32793,58 @@
         <v>45326.75</v>
       </c>
       <c r="F363" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G363" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H363">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J363" t="s">
         <v>58</v>
       </c>
       <c r="K363">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L363">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M363">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N363">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O363">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P363">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q363">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R363">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S363">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T363">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U363">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V363">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W363">
-        <v>0.75</v>
+        <v>0.571</v>
       </c>
       <c r="X363">
         <v>-1</v>
@@ -32853,13 +32853,13 @@
         <v>-1</v>
       </c>
       <c r="Z363">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA363">
         <v>-1</v>
       </c>
       <c r="AB363">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC363">
         <v>-1</v>
@@ -33238,7 +33238,7 @@
         <v>45329.75</v>
       </c>
       <c r="F368" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G368" t="s">
         <v>47</v>
@@ -33404,7 +33404,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>7797366</v>
+        <v>7797361</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33416,13 +33416,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F370" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G370" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H370">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I370">
         <v>0</v>
@@ -33431,25 +33431,25 @@
         <v>58</v>
       </c>
       <c r="K370">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L370">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M370">
+        <v>2.6</v>
+      </c>
+      <c r="N370">
+        <v>1.8</v>
+      </c>
+      <c r="O370">
+        <v>3.6</v>
+      </c>
+      <c r="P370">
         <v>3.5</v>
       </c>
-      <c r="N370">
-        <v>1.25</v>
-      </c>
-      <c r="O370">
-        <v>6</v>
-      </c>
-      <c r="P370">
-        <v>7.5</v>
-      </c>
       <c r="Q370">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R370">
         <v>1.85</v>
@@ -33458,16 +33458,16 @@
         <v>1.95</v>
       </c>
       <c r="T370">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U370">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V370">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W370">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="X370">
         <v>-1</v>
@@ -33482,7 +33482,7 @@
         <v>-1</v>
       </c>
       <c r="AB370">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC370">
         <v>-1</v>
@@ -33493,7 +33493,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7797361</v>
+        <v>7797367</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33505,10 +33505,10 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F371" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G371" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H371">
         <v>3</v>
@@ -33520,34 +33520,34 @@
         <v>58</v>
       </c>
       <c r="K371">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L371">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M371">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N371">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O371">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P371">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q371">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R371">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S371">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T371">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U371">
         <v>1.9</v>
@@ -33556,7 +33556,7 @@
         <v>1.9</v>
       </c>
       <c r="W371">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X371">
         <v>-1</v>
@@ -33565,7 +33565,7 @@
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA371">
         <v>-1</v>
@@ -33582,7 +33582,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7797367</v>
+        <v>7797366</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33594,13 +33594,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G372" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H372">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I372">
         <v>0</v>
@@ -33609,43 +33609,43 @@
         <v>58</v>
       </c>
       <c r="K372">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L372">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M372">
+        <v>3.5</v>
+      </c>
+      <c r="N372">
+        <v>1.25</v>
+      </c>
+      <c r="O372">
+        <v>6</v>
+      </c>
+      <c r="P372">
+        <v>7.5</v>
+      </c>
+      <c r="Q372">
+        <v>-1.75</v>
+      </c>
+      <c r="R372">
+        <v>1.85</v>
+      </c>
+      <c r="S372">
+        <v>1.95</v>
+      </c>
+      <c r="T372">
         <v>3</v>
       </c>
-      <c r="N372">
-        <v>1.5</v>
-      </c>
-      <c r="O372">
-        <v>3.75</v>
-      </c>
-      <c r="P372">
-        <v>6</v>
-      </c>
-      <c r="Q372">
-        <v>-1</v>
-      </c>
-      <c r="R372">
-        <v>1.9</v>
-      </c>
-      <c r="S372">
-        <v>1.9</v>
-      </c>
-      <c r="T372">
-        <v>2.5</v>
-      </c>
       <c r="U372">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V372">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W372">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X372">
         <v>-1</v>
@@ -33654,13 +33654,13 @@
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA372">
         <v>-1</v>
       </c>
       <c r="AB372">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC372">
         <v>-1</v>
@@ -33686,7 +33686,7 @@
         <v>39</v>
       </c>
       <c r="G373" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H373">
         <v>0</v>
@@ -34198,6 +34198,80 @@
       </c>
       <c r="AC378">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>7847505</v>
+      </c>
+      <c r="C379" t="s">
+        <v>28</v>
+      </c>
+      <c r="D379" t="s">
+        <v>28</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45339.58333333334</v>
+      </c>
+      <c r="F379" t="s">
+        <v>29</v>
+      </c>
+      <c r="G379" t="s">
+        <v>34</v>
+      </c>
+      <c r="K379">
+        <v>1.533</v>
+      </c>
+      <c r="L379">
+        <v>3.75</v>
+      </c>
+      <c r="M379">
+        <v>5</v>
+      </c>
+      <c r="N379">
+        <v>1.333</v>
+      </c>
+      <c r="O379">
+        <v>4.333</v>
+      </c>
+      <c r="P379">
+        <v>7.5</v>
+      </c>
+      <c r="Q379">
+        <v>-1.5</v>
+      </c>
+      <c r="R379">
+        <v>1.95</v>
+      </c>
+      <c r="S379">
+        <v>1.85</v>
+      </c>
+      <c r="T379">
+        <v>2.75</v>
+      </c>
+      <c r="U379">
+        <v>1.925</v>
+      </c>
+      <c r="V379">
+        <v>1.875</v>
+      </c>
+      <c r="W379">
+        <v>0</v>
+      </c>
+      <c r="X379">
+        <v>0</v>
+      </c>
+      <c r="Y379">
+        <v>0</v>
+      </c>
+      <c r="Z379">
+        <v>0</v>
+      </c>
+      <c r="AA379">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Guatemala Primera Division/Guatemala Primera Division.xlsx
+++ b/Guatemala Primera Division/Guatemala Primera Division.xlsx
@@ -115,13 +115,13 @@
     <t>Solola FC</t>
   </si>
   <si>
-    <t>Aurora</t>
+    <t>San Juan La Laguna FC</t>
   </si>
   <si>
     <t>Deportivo Barberena FC</t>
   </si>
   <si>
-    <t>San Juan La Laguna FC</t>
+    <t>Aurora</t>
   </si>
   <si>
     <t>Deportivo Sanarate FC</t>
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6139616</v>
+        <v>6139619</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1023,7 +1023,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1035,61 +1035,61 @@
         <v>59</v>
       </c>
       <c r="K6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N6">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O6">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6139619</v>
+        <v>6139616</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1201,7 +1201,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1213,61 +1213,61 @@
         <v>59</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N8">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q8">
+        <v>-0.75</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>2.025</v>
+      </c>
+      <c r="V8">
+        <v>1.775</v>
+      </c>
+      <c r="W8">
+        <v>-1</v>
+      </c>
+      <c r="X8">
+        <v>2.1</v>
+      </c>
+      <c r="Y8">
+        <v>-1</v>
+      </c>
+      <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
+        <v>0.8</v>
+      </c>
+      <c r="AB8">
         <v>0</v>
       </c>
-      <c r="R8">
-        <v>1.8</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>2.5</v>
-      </c>
-      <c r="U8">
-        <v>1.85</v>
-      </c>
-      <c r="V8">
-        <v>1.95</v>
-      </c>
-      <c r="W8">
-        <v>-1</v>
-      </c>
-      <c r="X8">
-        <v>2.2</v>
-      </c>
-      <c r="Y8">
-        <v>-1</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>-0</v>
-      </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
-      <c r="AC8">
-        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1646,7 +1646,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2091,7 +2091,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2622,7 +2622,7 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2711,7 +2711,7 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
         <v>38</v>
@@ -3248,7 +3248,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3693,7 +3693,7 @@
         <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>44968.66666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
         <v>34</v>
@@ -4405,7 +4405,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4672,7 +4672,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -5280,7 +5280,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6307936</v>
+        <v>6312955</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5292,58 +5292,58 @@
         <v>44979.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>58</v>
       </c>
       <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>3.1</v>
+      </c>
+      <c r="M54">
+        <v>3.4</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>3.1</v>
+      </c>
+      <c r="P54">
+        <v>3.4</v>
+      </c>
+      <c r="Q54">
+        <v>-0.25</v>
+      </c>
+      <c r="R54">
+        <v>1.775</v>
+      </c>
+      <c r="S54">
+        <v>2.025</v>
+      </c>
+      <c r="T54">
         <v>2.25</v>
       </c>
-      <c r="L54">
-        <v>3.6</v>
-      </c>
-      <c r="M54">
-        <v>2.55</v>
-      </c>
-      <c r="N54">
-        <v>1.7</v>
-      </c>
-      <c r="O54">
-        <v>3.8</v>
-      </c>
-      <c r="P54">
-        <v>3.8</v>
-      </c>
-      <c r="Q54">
-        <v>-0.75</v>
-      </c>
-      <c r="R54">
+      <c r="U54">
+        <v>1.85</v>
+      </c>
+      <c r="V54">
         <v>1.95</v>
       </c>
-      <c r="S54">
-        <v>1.85</v>
-      </c>
-      <c r="T54">
-        <v>2.5</v>
-      </c>
-      <c r="U54">
-        <v>1.95</v>
-      </c>
-      <c r="V54">
-        <v>1.85</v>
-      </c>
       <c r="W54">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5352,16 +5352,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5381,7 +5381,7 @@
         <v>44979.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>53</v>
@@ -5458,7 +5458,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6312955</v>
+        <v>6307936</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5470,58 +5470,58 @@
         <v>44979.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>58</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L56">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M56">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O56">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P56">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
+        <v>1.95</v>
+      </c>
+      <c r="V56">
         <v>1.85</v>
       </c>
-      <c r="V56">
-        <v>1.95</v>
-      </c>
       <c r="W56">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5530,16 +5530,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC56">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5740,7 +5740,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6170,7 +6170,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6318694</v>
+        <v>6318695</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6182,58 +6182,58 @@
         <v>44982.95833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H64">
         <v>2</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>58</v>
       </c>
       <c r="K64">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N64">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O64">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q64">
         <v>-0.75</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V64">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W64">
-        <v>0.6499999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6242,16 +6242,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
+        <v>-1</v>
+      </c>
+      <c r="AB64">
         <v>-0.5</v>
       </c>
-      <c r="AB64">
-        <v>1</v>
-      </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6259,7 +6259,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6318695</v>
+        <v>6318694</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6271,58 +6271,58 @@
         <v>44982.95833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>58</v>
       </c>
       <c r="K65">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M65">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O65">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P65">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q65">
         <v>-0.75</v>
       </c>
       <c r="R65">
+        <v>1.875</v>
+      </c>
+      <c r="S65">
+        <v>1.925</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+      <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65">
         <v>1.8</v>
       </c>
-      <c r="S65">
-        <v>2</v>
-      </c>
-      <c r="T65">
-        <v>2.25</v>
-      </c>
-      <c r="U65">
-        <v>1.975</v>
-      </c>
-      <c r="V65">
-        <v>1.825</v>
-      </c>
       <c r="W65">
-        <v>0.6000000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6331,16 +6331,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB65">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC65">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6348,7 +6348,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6318697</v>
+        <v>6318698</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6360,76 +6360,76 @@
         <v>44983.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K66">
+        <v>2.75</v>
+      </c>
+      <c r="L66">
+        <v>3.1</v>
+      </c>
+      <c r="M66">
+        <v>2.375</v>
+      </c>
+      <c r="N66">
+        <v>2.2</v>
+      </c>
+      <c r="O66">
+        <v>3</v>
+      </c>
+      <c r="P66">
+        <v>3.1</v>
+      </c>
+      <c r="Q66">
+        <v>-0.25</v>
+      </c>
+      <c r="R66">
+        <v>1.975</v>
+      </c>
+      <c r="S66">
+        <v>1.825</v>
+      </c>
+      <c r="T66">
+        <v>1.75</v>
+      </c>
+      <c r="U66">
         <v>1.8</v>
       </c>
-      <c r="L66">
-        <v>3.2</v>
-      </c>
-      <c r="M66">
-        <v>4</v>
-      </c>
-      <c r="N66">
-        <v>1.615</v>
-      </c>
-      <c r="O66">
-        <v>3.5</v>
-      </c>
-      <c r="P66">
-        <v>4.75</v>
-      </c>
-      <c r="Q66">
-        <v>-0.75</v>
-      </c>
-      <c r="R66">
-        <v>1.85</v>
-      </c>
-      <c r="S66">
-        <v>1.95</v>
-      </c>
-      <c r="T66">
-        <v>2</v>
-      </c>
-      <c r="U66">
-        <v>1.9</v>
-      </c>
       <c r="V66">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6437,7 +6437,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6318698</v>
+        <v>6318697</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6449,76 +6449,76 @@
         <v>44983.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K67">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L67">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M67">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N67">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6538,7 +6538,7 @@
         <v>44983.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>47</v>
@@ -6627,7 +6627,7 @@
         <v>44983.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
         <v>43</v>
@@ -6986,7 +6986,7 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>46</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7861,7 +7861,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6368316</v>
+        <v>6368315</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7873,76 +7873,76 @@
         <v>44996.95833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K83">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L83">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N83">
         <v>1.5</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q83">
         <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W83">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7950,7 +7950,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6368315</v>
+        <v>6368316</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7962,76 +7962,76 @@
         <v>44996.95833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K84">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L84">
+        <v>2.9</v>
+      </c>
+      <c r="M84">
         <v>4</v>
-      </c>
-      <c r="M84">
-        <v>5</v>
       </c>
       <c r="N84">
         <v>1.5</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q84">
         <v>-1</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X84">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8321,7 +8321,7 @@
         <v>44</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8674,7 +8674,7 @@
         <v>45003.66666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>45</v>
@@ -9374,7 +9374,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6448662</v>
+        <v>6448663</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9386,76 +9386,76 @@
         <v>45011.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K100">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L100">
         <v>3.2</v>
       </c>
       <c r="M100">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N100">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
         <v>2.25</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9463,7 +9463,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6448663</v>
+        <v>6448661</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9475,16 +9475,16 @@
         <v>45011.58333333334</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>59</v>
@@ -9493,43 +9493,43 @@
         <v>1.909</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M101">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N101">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O101">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y101">
         <v>-1</v>
@@ -9538,13 +9538,13 @@
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9552,7 +9552,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6448661</v>
+        <v>6448662</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9564,76 +9564,76 @@
         <v>45011.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
         <v>35</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K102">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N102">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="O102">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
+        <v>1.925</v>
+      </c>
+      <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
+        <v>2</v>
+      </c>
+      <c r="V102">
         <v>1.8</v>
       </c>
-      <c r="T102">
-        <v>2.5</v>
-      </c>
-      <c r="U102">
-        <v>1.975</v>
-      </c>
-      <c r="V102">
-        <v>1.825</v>
-      </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X102">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
+        <v>-1</v>
+      </c>
+      <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.8</v>
-      </c>
-      <c r="AB102">
-        <v>-1</v>
-      </c>
-      <c r="AC102">
-        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10098,7 +10098,7 @@
         <v>45017.66666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10454,7 +10454,7 @@
         <v>45018.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
         <v>42</v>
@@ -10724,7 +10724,7 @@
         <v>34</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -11243,7 +11243,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6487836</v>
+        <v>6487835</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11255,76 +11255,76 @@
         <v>45021.95833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J121" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K121">
-        <v>1.142</v>
+        <v>2.45</v>
       </c>
       <c r="L121">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M121">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="N121">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="O121">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="P121">
-        <v>19</v>
+        <v>2.875</v>
       </c>
       <c r="Q121">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T121">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U121">
+        <v>1.975</v>
+      </c>
+      <c r="V121">
+        <v>1.825</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>-1</v>
+      </c>
+      <c r="Y121">
         <v>1.875</v>
       </c>
-      <c r="V121">
-        <v>1.925</v>
-      </c>
-      <c r="W121">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
-      <c r="Y121">
-        <v>-1</v>
-      </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB121">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC121">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11332,7 +11332,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6487835</v>
+        <v>6487836</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11344,76 +11344,76 @@
         <v>45021.95833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K122">
-        <v>2.45</v>
+        <v>1.142</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M122">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="N122">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="O122">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="P122">
-        <v>2.875</v>
+        <v>19</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11789,7 +11789,7 @@
         <v>45028.66666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>36</v>
@@ -12949,7 +12949,7 @@
         <v>47</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -13127,7 +13127,7 @@
         <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -13836,7 +13836,7 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>
@@ -14462,7 +14462,7 @@
         <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14637,7 +14637,7 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
         <v>31</v>
@@ -14726,7 +14726,7 @@
         <v>45052.75</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G160" t="s">
         <v>36</v>
@@ -15349,7 +15349,7 @@
         <v>45057.83333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
         <v>46</v>
@@ -15619,7 +15619,7 @@
         <v>46</v>
       </c>
       <c r="G170" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -16598,7 +16598,7 @@
         <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16773,7 +16773,7 @@
         <v>45142.66666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
         <v>53</v>
@@ -17740,7 +17740,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7060392</v>
+        <v>7060394</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17752,58 +17752,58 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H194">
+        <v>3</v>
+      </c>
+      <c r="I194">
         <v>1</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>58</v>
       </c>
       <c r="K194">
-        <v>1.952</v>
+        <v>1.615</v>
       </c>
       <c r="L194">
+        <v>3.5</v>
+      </c>
+      <c r="M194">
+        <v>5</v>
+      </c>
+      <c r="N194">
+        <v>1.666</v>
+      </c>
+      <c r="O194">
         <v>3.3</v>
       </c>
-      <c r="M194">
-        <v>3.4</v>
-      </c>
-      <c r="N194">
-        <v>1.8</v>
-      </c>
-      <c r="O194">
-        <v>3.6</v>
-      </c>
       <c r="P194">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q194">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R194">
+        <v>1.9</v>
+      </c>
+      <c r="S194">
+        <v>1.9</v>
+      </c>
+      <c r="T194">
+        <v>2</v>
+      </c>
+      <c r="U194">
         <v>1.825</v>
       </c>
-      <c r="S194">
+      <c r="V194">
         <v>1.975</v>
       </c>
-      <c r="T194">
-        <v>2.5</v>
-      </c>
-      <c r="U194">
-        <v>2</v>
-      </c>
-      <c r="V194">
-        <v>1.8</v>
-      </c>
       <c r="W194">
-        <v>0.8</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17812,16 +17812,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA194">
+        <v>-1</v>
+      </c>
+      <c r="AB194">
         <v>0.825</v>
       </c>
-      <c r="AA194">
-        <v>-1</v>
-      </c>
-      <c r="AB194">
-        <v>-1</v>
-      </c>
       <c r="AC194">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17829,7 +17829,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7060394</v>
+        <v>7060392</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17841,58 +17841,58 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G195" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>58</v>
       </c>
       <c r="K195">
-        <v>1.615</v>
+        <v>1.952</v>
       </c>
       <c r="L195">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M195">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N195">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O195">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P195">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T195">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V195">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W195">
-        <v>0.6659999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17901,16 +17901,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17918,7 +17918,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7060393</v>
+        <v>7060342</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17930,76 +17930,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G196" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H196">
         <v>0</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K196">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="L196">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M196">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O196">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P196">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V196">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18007,7 +18007,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7060342</v>
+        <v>7060393</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18019,76 +18019,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K197">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="L197">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M197">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N197">
+        <v>1.5</v>
+      </c>
+      <c r="O197">
+        <v>3.8</v>
+      </c>
+      <c r="P197">
+        <v>5.75</v>
+      </c>
+      <c r="Q197">
+        <v>-1</v>
+      </c>
+      <c r="R197">
+        <v>1.85</v>
+      </c>
+      <c r="S197">
+        <v>1.95</v>
+      </c>
+      <c r="T197">
+        <v>2.75</v>
+      </c>
+      <c r="U197">
+        <v>1.825</v>
+      </c>
+      <c r="V197">
+        <v>1.975</v>
+      </c>
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
         <v>2.8</v>
       </c>
-      <c r="O197">
-        <v>3.1</v>
-      </c>
-      <c r="P197">
-        <v>2.25</v>
-      </c>
-      <c r="Q197">
-        <v>0.25</v>
-      </c>
-      <c r="R197">
-        <v>1.775</v>
-      </c>
-      <c r="S197">
-        <v>2.025</v>
-      </c>
-      <c r="T197">
-        <v>2.25</v>
-      </c>
-      <c r="U197">
-        <v>2</v>
-      </c>
-      <c r="V197">
-        <v>1.8</v>
-      </c>
-      <c r="W197">
-        <v>-1</v>
-      </c>
-      <c r="X197">
-        <v>-1</v>
-      </c>
       <c r="Y197">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18375,7 +18375,7 @@
         <v>45154.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G201" t="s">
         <v>34</v>
@@ -18541,7 +18541,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7072448</v>
+        <v>7072447</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18553,40 +18553,40 @@
         <v>45154.75</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K203">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="L203">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N203">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O203">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P203">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
         <v>1.8</v>
@@ -18598,19 +18598,19 @@
         <v>2.25</v>
       </c>
       <c r="U203">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z203">
         <v>-1</v>
@@ -18619,10 +18619,10 @@
         <v>1</v>
       </c>
       <c r="AB203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18630,7 +18630,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7072447</v>
+        <v>7072448</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18642,40 +18642,40 @@
         <v>45154.75</v>
       </c>
       <c r="F204" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K204">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M204">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N204">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="O204">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P204">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q204">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R204">
         <v>1.8</v>
@@ -18687,19 +18687,19 @@
         <v>2.25</v>
       </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V204">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y204">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
         <v>-1</v>
@@ -18708,10 +18708,10 @@
         <v>1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC204">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18719,7 +18719,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7072543</v>
+        <v>7072542</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18731,10 +18731,10 @@
         <v>45154.75</v>
       </c>
       <c r="F205" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -18746,58 +18746,58 @@
         <v>58</v>
       </c>
       <c r="K205">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L205">
+        <v>3.25</v>
+      </c>
+      <c r="M205">
         <v>3.5</v>
       </c>
-      <c r="M205">
-        <v>4</v>
-      </c>
       <c r="N205">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O205">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P205">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q205">
+        <v>-0.75</v>
+      </c>
+      <c r="R205">
+        <v>1.925</v>
+      </c>
+      <c r="S205">
+        <v>1.875</v>
+      </c>
+      <c r="T205">
+        <v>2.25</v>
+      </c>
+      <c r="U205">
+        <v>1.85</v>
+      </c>
+      <c r="V205">
+        <v>1.95</v>
+      </c>
+      <c r="W205">
+        <v>0.7</v>
+      </c>
+      <c r="X205">
+        <v>-1</v>
+      </c>
+      <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>0.4625</v>
+      </c>
+      <c r="AA205">
         <v>-0.5</v>
       </c>
-      <c r="R205">
-        <v>1.85</v>
-      </c>
-      <c r="S205">
-        <v>1.95</v>
-      </c>
-      <c r="T205">
-        <v>2</v>
-      </c>
-      <c r="U205">
-        <v>1.975</v>
-      </c>
-      <c r="V205">
-        <v>1.725</v>
-      </c>
-      <c r="W205">
-        <v>0.8</v>
-      </c>
-      <c r="X205">
-        <v>-1</v>
-      </c>
-      <c r="Y205">
-        <v>-1</v>
-      </c>
-      <c r="Z205">
+      <c r="AB205">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA205">
-        <v>-1</v>
-      </c>
-      <c r="AB205">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -18897,7 +18897,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7072542</v>
+        <v>7072543</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18909,10 +18909,10 @@
         <v>45154.75</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G207" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -18924,43 +18924,43 @@
         <v>58</v>
       </c>
       <c r="K207">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L207">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M207">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N207">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O207">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P207">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S207">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T207">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V207">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W207">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18969,13 +18969,13 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -19164,7 +19164,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7106032</v>
+        <v>7106174</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19176,49 +19176,49 @@
         <v>45161.75</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K210">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M210">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N210">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P210">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q210">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S210">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U210">
         <v>1.85</v>
@@ -19227,25 +19227,25 @@
         <v>1.95</v>
       </c>
       <c r="W210">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB210">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19253,7 +19253,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7106174</v>
+        <v>7106032</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19265,49 +19265,49 @@
         <v>45161.75</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K211">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L211">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M211">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N211">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O211">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P211">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q211">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R211">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T211">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
         <v>1.85</v>
@@ -19316,25 +19316,25 @@
         <v>1.95</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X211">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC211">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19342,7 +19342,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7106173</v>
+        <v>7106041</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19354,13 +19354,13 @@
         <v>45161.75</v>
       </c>
       <c r="F212" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -19369,43 +19369,43 @@
         <v>58</v>
       </c>
       <c r="K212">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L212">
         <v>3.2</v>
       </c>
       <c r="M212">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N212">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O212">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P212">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q212">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S212">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W212">
-        <v>0.571</v>
+        <v>1.3</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19414,16 +19414,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19431,7 +19431,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7106041</v>
+        <v>7106173</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19443,13 +19443,13 @@
         <v>45161.75</v>
       </c>
       <c r="F213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G213" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -19458,43 +19458,43 @@
         <v>58</v>
       </c>
       <c r="K213">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L213">
         <v>3.2</v>
       </c>
       <c r="M213">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N213">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O213">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P213">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R213">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S213">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W213">
-        <v>1.3</v>
+        <v>0.571</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19503,16 +19503,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC213">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19535,7 +19535,7 @@
         <v>38</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19609,7 +19609,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7107137</v>
+        <v>7107133</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19621,40 +19621,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215" t="s">
+        <v>59</v>
+      </c>
+      <c r="K215">
+        <v>1.8</v>
+      </c>
+      <c r="L215">
+        <v>3.2</v>
+      </c>
+      <c r="M215">
         <v>4</v>
       </c>
-      <c r="I215">
-        <v>1</v>
-      </c>
-      <c r="J215" t="s">
-        <v>58</v>
-      </c>
-      <c r="K215">
-        <v>2.1</v>
-      </c>
-      <c r="L215">
-        <v>3.3</v>
-      </c>
-      <c r="M215">
+      <c r="N215">
+        <v>1.85</v>
+      </c>
+      <c r="O215">
         <v>3</v>
       </c>
-      <c r="N215">
-        <v>1.45</v>
-      </c>
-      <c r="O215">
-        <v>4</v>
-      </c>
       <c r="P215">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
         <v>1.9</v>
@@ -19663,34 +19663,34 @@
         <v>1.9</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V215">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W215">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
+        <v>-1</v>
+      </c>
+      <c r="AA215">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA215">
-        <v>-1</v>
-      </c>
       <c r="AB215">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19698,7 +19698,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7107133</v>
+        <v>7107137</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19710,40 +19710,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F216" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K216">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L216">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M216">
+        <v>3</v>
+      </c>
+      <c r="N216">
+        <v>1.45</v>
+      </c>
+      <c r="O216">
         <v>4</v>
       </c>
-      <c r="N216">
-        <v>1.85</v>
-      </c>
-      <c r="O216">
-        <v>3</v>
-      </c>
       <c r="P216">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R216">
         <v>1.9</v>
@@ -19752,34 +19752,34 @@
         <v>1.9</v>
       </c>
       <c r="T216">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X216">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA216">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC216">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20155,7 +20155,7 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
         <v>39</v>
@@ -20600,7 +20600,7 @@
         <v>45170.66666666666</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G226" t="s">
         <v>47</v>
@@ -21567,7 +21567,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7189246</v>
+        <v>7189791</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21579,40 +21579,40 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G237" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H237">
+        <v>2</v>
+      </c>
+      <c r="I237">
         <v>1</v>
       </c>
-      <c r="I237">
-        <v>3</v>
-      </c>
       <c r="J237" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K237">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L237">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M237">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N237">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O237">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P237">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q237">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
         <v>1.825</v>
@@ -21624,28 +21624,28 @@
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA237">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21745,7 +21745,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7189791</v>
+        <v>7189246</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21757,40 +21757,40 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J239" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K239">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L239">
+        <v>3.5</v>
+      </c>
+      <c r="M239">
         <v>4</v>
       </c>
-      <c r="M239">
-        <v>1.833</v>
-      </c>
       <c r="N239">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O239">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P239">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
         <v>1.825</v>
@@ -21802,28 +21802,28 @@
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V239">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z239">
+        <v>-1</v>
+      </c>
+      <c r="AA239">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB239">
         <v>0.825</v>
-      </c>
-      <c r="AA239">
-        <v>-1</v>
-      </c>
-      <c r="AB239">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -22113,7 +22113,7 @@
         <v>45182.58333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G243" t="s">
         <v>52</v>
@@ -22279,7 +22279,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7203437</v>
+        <v>7203472</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22291,46 +22291,46 @@
         <v>45182.75</v>
       </c>
       <c r="F245" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G245" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H245">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="s">
         <v>58</v>
       </c>
       <c r="K245">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L245">
         <v>3.2</v>
       </c>
       <c r="M245">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N245">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O245">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P245">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q245">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R245">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S245">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T245">
         <v>2.5</v>
@@ -22339,10 +22339,10 @@
         <v>1.95</v>
       </c>
       <c r="V245">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W245">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22351,10 +22351,10 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB245">
         <v>0.95</v>
@@ -22457,7 +22457,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7203472</v>
+        <v>7203437</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22469,46 +22469,46 @@
         <v>45182.75</v>
       </c>
       <c r="F247" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G247" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
         <v>58</v>
       </c>
       <c r="K247">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L247">
         <v>3.2</v>
       </c>
       <c r="M247">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N247">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O247">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P247">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q247">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R247">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S247">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
         <v>2.5</v>
@@ -22517,10 +22517,10 @@
         <v>1.95</v>
       </c>
       <c r="V247">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W247">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22529,10 +22529,10 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA247">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
         <v>0.95</v>
@@ -22991,7 +22991,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7223489</v>
+        <v>7223342</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -23003,76 +23003,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F253" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G253" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H253">
         <v>2</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J253" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K253">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L253">
         <v>3.2</v>
       </c>
       <c r="M253">
+        <v>4</v>
+      </c>
+      <c r="N253">
+        <v>1.8</v>
+      </c>
+      <c r="O253">
+        <v>3</v>
+      </c>
+      <c r="P253">
+        <v>4.75</v>
+      </c>
+      <c r="Q253">
+        <v>-0.5</v>
+      </c>
+      <c r="R253">
+        <v>1.85</v>
+      </c>
+      <c r="S253">
+        <v>1.95</v>
+      </c>
+      <c r="T253">
+        <v>2</v>
+      </c>
+      <c r="U253">
+        <v>1.975</v>
+      </c>
+      <c r="V253">
+        <v>1.825</v>
+      </c>
+      <c r="W253">
+        <v>-1</v>
+      </c>
+      <c r="X253">
+        <v>-1</v>
+      </c>
+      <c r="Y253">
         <v>3.75</v>
       </c>
-      <c r="N253">
-        <v>1.666</v>
-      </c>
-      <c r="O253">
-        <v>3.4</v>
-      </c>
-      <c r="P253">
-        <v>4.5</v>
-      </c>
-      <c r="Q253">
-        <v>-0.75</v>
-      </c>
-      <c r="R253">
-        <v>1.9</v>
-      </c>
-      <c r="S253">
-        <v>1.9</v>
-      </c>
-      <c r="T253">
-        <v>2.25</v>
-      </c>
-      <c r="U253">
-        <v>1.85</v>
-      </c>
-      <c r="V253">
-        <v>1.95</v>
-      </c>
-      <c r="W253">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X253">
-        <v>-1</v>
-      </c>
-      <c r="Y253">
-        <v>-1</v>
-      </c>
       <c r="Z253">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB253">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC253">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23080,7 +23080,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7223342</v>
+        <v>7223489</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23092,76 +23092,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G254" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H254">
         <v>2</v>
       </c>
       <c r="I254">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K254">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L254">
         <v>3.2</v>
       </c>
       <c r="M254">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N254">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O254">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P254">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q254">
+        <v>-0.75</v>
+      </c>
+      <c r="R254">
+        <v>1.9</v>
+      </c>
+      <c r="S254">
+        <v>1.9</v>
+      </c>
+      <c r="T254">
+        <v>2.25</v>
+      </c>
+      <c r="U254">
+        <v>1.85</v>
+      </c>
+      <c r="V254">
+        <v>1.95</v>
+      </c>
+      <c r="W254">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X254">
+        <v>-1</v>
+      </c>
+      <c r="Y254">
+        <v>-1</v>
+      </c>
+      <c r="Z254">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA254">
+        <v>-1</v>
+      </c>
+      <c r="AB254">
         <v>-0.5</v>
       </c>
-      <c r="R254">
-        <v>1.85</v>
-      </c>
-      <c r="S254">
-        <v>1.95</v>
-      </c>
-      <c r="T254">
-        <v>2</v>
-      </c>
-      <c r="U254">
-        <v>1.975</v>
-      </c>
-      <c r="V254">
-        <v>1.825</v>
-      </c>
-      <c r="W254">
-        <v>-1</v>
-      </c>
-      <c r="X254">
-        <v>-1</v>
-      </c>
-      <c r="Y254">
-        <v>3.75</v>
-      </c>
-      <c r="Z254">
-        <v>-1</v>
-      </c>
-      <c r="AA254">
-        <v>0.95</v>
-      </c>
-      <c r="AB254">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC254">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23792,7 +23792,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7249890</v>
+        <v>7249889</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23804,10 +23804,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G262" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H262">
         <v>1</v>
@@ -23819,46 +23819,46 @@
         <v>59</v>
       </c>
       <c r="K262">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L262">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M262">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N262">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O262">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P262">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q262">
         <v>-0.5</v>
       </c>
       <c r="R262">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S262">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T262">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U262">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V262">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W262">
         <v>-1</v>
       </c>
       <c r="X262">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y262">
         <v>-1</v>
@@ -23867,13 +23867,13 @@
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB262">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23881,7 +23881,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7249889</v>
+        <v>7249890</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23893,10 +23893,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G263" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H263">
         <v>1</v>
@@ -23908,46 +23908,46 @@
         <v>59</v>
       </c>
       <c r="K263">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L263">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M263">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N263">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O263">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P263">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q263">
         <v>-0.5</v>
       </c>
       <c r="R263">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S263">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T263">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U263">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V263">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Y263">
         <v>-1</v>
@@ -23956,13 +23956,13 @@
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC263">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24160,7 +24160,7 @@
         <v>45196.58333333334</v>
       </c>
       <c r="F266" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G266" t="s">
         <v>48</v>
@@ -24326,7 +24326,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7265138</v>
+        <v>7265140</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24338,76 +24338,76 @@
         <v>45196.75</v>
       </c>
       <c r="F268" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G268" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H268">
         <v>1</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K268">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L268">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M268">
+        <v>2.75</v>
+      </c>
+      <c r="N268">
+        <v>2.5</v>
+      </c>
+      <c r="O268">
         <v>3.2</v>
       </c>
-      <c r="N268">
-        <v>1.65</v>
-      </c>
-      <c r="O268">
-        <v>3.6</v>
-      </c>
       <c r="P268">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q268">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R268">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S268">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T268">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V268">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X268">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA268">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24415,7 +24415,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7265140</v>
+        <v>7265138</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24427,76 +24427,76 @@
         <v>45196.75</v>
       </c>
       <c r="F269" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G269" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H269">
         <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K269">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L269">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M269">
+        <v>3.2</v>
+      </c>
+      <c r="N269">
+        <v>1.65</v>
+      </c>
+      <c r="O269">
+        <v>3.6</v>
+      </c>
+      <c r="P269">
+        <v>4.5</v>
+      </c>
+      <c r="Q269">
+        <v>-0.75</v>
+      </c>
+      <c r="R269">
+        <v>1.8</v>
+      </c>
+      <c r="S269">
+        <v>2</v>
+      </c>
+      <c r="T269">
         <v>2.75</v>
       </c>
-      <c r="N269">
-        <v>2.5</v>
-      </c>
-      <c r="O269">
-        <v>3.2</v>
-      </c>
-      <c r="P269">
-        <v>2.625</v>
-      </c>
-      <c r="Q269">
-        <v>0</v>
-      </c>
-      <c r="R269">
+      <c r="U269">
+        <v>1.95</v>
+      </c>
+      <c r="V269">
         <v>1.85</v>
       </c>
-      <c r="S269">
-        <v>1.95</v>
-      </c>
-      <c r="T269">
-        <v>2.25</v>
-      </c>
-      <c r="U269">
-        <v>1.9</v>
-      </c>
-      <c r="V269">
-        <v>1.9</v>
-      </c>
       <c r="W269">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
+        <v>-1</v>
+      </c>
+      <c r="AA269">
+        <v>1</v>
+      </c>
+      <c r="AB269">
+        <v>-1</v>
+      </c>
+      <c r="AC269">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA269">
-        <v>-1</v>
-      </c>
-      <c r="AB269">
-        <v>-1</v>
-      </c>
-      <c r="AC269">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -25587,7 +25587,7 @@
         <v>34</v>
       </c>
       <c r="G282" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H282">
         <v>3</v>
@@ -25854,7 +25854,7 @@
         <v>47</v>
       </c>
       <c r="G285" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H285">
         <v>1</v>
@@ -26029,7 +26029,7 @@
         <v>45221.58333333334</v>
       </c>
       <c r="F287" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G287" t="s">
         <v>38</v>
@@ -26373,7 +26373,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7387211</v>
+        <v>7387943</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26385,13 +26385,13 @@
         <v>45224.75</v>
       </c>
       <c r="F291" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G291" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I291">
         <v>0</v>
@@ -26400,34 +26400,34 @@
         <v>58</v>
       </c>
       <c r="K291">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L291">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M291">
+        <v>4.2</v>
+      </c>
+      <c r="N291">
+        <v>1.533</v>
+      </c>
+      <c r="O291">
+        <v>3.6</v>
+      </c>
+      <c r="P291">
         <v>5.5</v>
       </c>
-      <c r="N291">
-        <v>1.363</v>
-      </c>
-      <c r="O291">
-        <v>4.5</v>
-      </c>
-      <c r="P291">
-        <v>7</v>
-      </c>
       <c r="Q291">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R291">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S291">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T291">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U291">
         <v>1.9</v>
@@ -26436,7 +26436,7 @@
         <v>1.9</v>
       </c>
       <c r="W291">
-        <v>0.363</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X291">
         <v>-1</v>
@@ -26445,16 +26445,16 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA291">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC291">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -26551,7 +26551,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7387943</v>
+        <v>7387211</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26563,13 +26563,13 @@
         <v>45224.75</v>
       </c>
       <c r="F293" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G293" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I293">
         <v>0</v>
@@ -26578,34 +26578,34 @@
         <v>58</v>
       </c>
       <c r="K293">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L293">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M293">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N293">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O293">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P293">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q293">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R293">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S293">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T293">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U293">
         <v>1.9</v>
@@ -26614,7 +26614,7 @@
         <v>1.9</v>
       </c>
       <c r="W293">
-        <v>0.5329999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X293">
         <v>-1</v>
@@ -26623,16 +26623,16 @@
         <v>-1</v>
       </c>
       <c r="Z293">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA293">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB293">
+        <v>-1</v>
+      </c>
+      <c r="AC293">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC293">
-        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -27008,7 +27008,7 @@
         <v>45227.72916666666</v>
       </c>
       <c r="F298" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G298" t="s">
         <v>56</v>
@@ -27975,7 +27975,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7452316</v>
+        <v>7450477</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27987,40 +27987,40 @@
         <v>45238.75</v>
       </c>
       <c r="F309" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G309" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H309">
+        <v>2</v>
+      </c>
+      <c r="I309">
         <v>1</v>
       </c>
-      <c r="I309">
+      <c r="J309" t="s">
+        <v>58</v>
+      </c>
+      <c r="K309">
+        <v>2.1</v>
+      </c>
+      <c r="L309">
+        <v>3.3</v>
+      </c>
+      <c r="M309">
         <v>3</v>
       </c>
-      <c r="J309" t="s">
-        <v>57</v>
-      </c>
-      <c r="K309">
-        <v>5</v>
-      </c>
-      <c r="L309">
-        <v>3.6</v>
-      </c>
-      <c r="M309">
-        <v>1.615</v>
-      </c>
       <c r="N309">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="O309">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P309">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="Q309">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R309">
         <v>1.9</v>
@@ -28032,31 +28032,31 @@
         <v>2.75</v>
       </c>
       <c r="U309">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V309">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W309">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X309">
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA309">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB309">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AC309">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28064,7 +28064,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7450477</v>
+        <v>7451044</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28076,76 +28076,76 @@
         <v>45238.75</v>
       </c>
       <c r="F310" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G310" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310">
         <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K310">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L310">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M310">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N310">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O310">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P310">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q310">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R310">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S310">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T310">
         <v>2.75</v>
       </c>
       <c r="U310">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V310">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W310">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X310">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA310">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB310">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC310">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28153,7 +28153,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7451044</v>
+        <v>7448182</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28165,76 +28165,76 @@
         <v>45238.75</v>
       </c>
       <c r="F311" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G311" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I311">
         <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K311">
+        <v>1.727</v>
+      </c>
+      <c r="L311">
         <v>3.6</v>
       </c>
-      <c r="L311">
-        <v>3.5</v>
-      </c>
       <c r="M311">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="N311">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O311">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P311">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="Q311">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R311">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S311">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T311">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U311">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V311">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W311">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X311">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA311">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC311">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28242,7 +28242,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7448182</v>
+        <v>7452316</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28254,40 +28254,40 @@
         <v>45238.75</v>
       </c>
       <c r="F312" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G312" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H312">
+        <v>1</v>
+      </c>
+      <c r="I312">
         <v>3</v>
       </c>
-      <c r="I312">
-        <v>1</v>
-      </c>
       <c r="J312" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K312">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="L312">
         <v>3.6</v>
       </c>
       <c r="M312">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="N312">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O312">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P312">
-        <v>7.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q312">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R312">
         <v>1.9</v>
@@ -28296,31 +28296,31 @@
         <v>1.9</v>
       </c>
       <c r="T312">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U312">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V312">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W312">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X312">
         <v>-1</v>
       </c>
       <c r="Y312">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z312">
+        <v>-1</v>
+      </c>
+      <c r="AA312">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA312">
-        <v>-1</v>
-      </c>
       <c r="AB312">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC312">
         <v>-1</v>
@@ -28331,7 +28331,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7451045</v>
+        <v>7451046</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28343,76 +28343,76 @@
         <v>45238.75</v>
       </c>
       <c r="F313" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G313" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J313" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K313">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L313">
         <v>3.2</v>
       </c>
       <c r="M313">
+        <v>2.2</v>
+      </c>
+      <c r="N313">
+        <v>2.2</v>
+      </c>
+      <c r="O313">
+        <v>3.3</v>
+      </c>
+      <c r="P313">
+        <v>2.8</v>
+      </c>
+      <c r="Q313">
+        <v>-0.25</v>
+      </c>
+      <c r="R313">
+        <v>1.9</v>
+      </c>
+      <c r="S313">
+        <v>1.9</v>
+      </c>
+      <c r="T313">
         <v>2.5</v>
       </c>
-      <c r="N313">
-        <v>3.2</v>
-      </c>
-      <c r="O313">
-        <v>3.4</v>
-      </c>
-      <c r="P313">
-        <v>2</v>
-      </c>
-      <c r="Q313">
-        <v>0.25</v>
-      </c>
-      <c r="R313">
-        <v>2</v>
-      </c>
-      <c r="S313">
-        <v>1.8</v>
-      </c>
-      <c r="T313">
-        <v>2.25</v>
-      </c>
       <c r="U313">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V313">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W313">
         <v>-1</v>
       </c>
       <c r="X313">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y313">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z313">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA313">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB313">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC313">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28509,7 +28509,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7451046</v>
+        <v>7451045</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28521,76 +28521,76 @@
         <v>45238.75</v>
       </c>
       <c r="F315" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G315" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J315" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K315">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L315">
         <v>3.2</v>
       </c>
       <c r="M315">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N315">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O315">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P315">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q315">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R315">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S315">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T315">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U315">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V315">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W315">
         <v>-1</v>
       </c>
       <c r="X315">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y315">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z315">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB315">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC315">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28687,7 +28687,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7477707</v>
+        <v>7477706</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28699,40 +28699,40 @@
         <v>45245.95833333334</v>
       </c>
       <c r="F317" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G317" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H317">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317">
         <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K317">
         <v>2</v>
       </c>
       <c r="L317">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M317">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N317">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O317">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P317">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R317">
         <v>1.9</v>
@@ -28741,34 +28741,34 @@
         <v>1.9</v>
       </c>
       <c r="T317">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U317">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V317">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W317">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X317">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
+        <v>-1</v>
+      </c>
+      <c r="AA317">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA317">
-        <v>-1</v>
-      </c>
       <c r="AB317">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC317">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28776,7 +28776,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7477706</v>
+        <v>7477707</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28788,40 +28788,40 @@
         <v>45245.95833333334</v>
       </c>
       <c r="F318" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G318" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I318">
         <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K318">
         <v>2</v>
       </c>
       <c r="L318">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M318">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N318">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O318">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P318">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q318">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
         <v>1.9</v>
@@ -28830,34 +28830,34 @@
         <v>1.9</v>
       </c>
       <c r="T318">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U318">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V318">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W318">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X318">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA318">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC318">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28877,7 +28877,7 @@
         <v>45246.72916666666</v>
       </c>
       <c r="F319" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G319" t="s">
         <v>46</v>
@@ -28969,7 +28969,7 @@
         <v>46</v>
       </c>
       <c r="G320" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H320">
         <v>3</v>
@@ -29144,7 +29144,7 @@
         <v>45253.58333333334</v>
       </c>
       <c r="F322" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G322" t="s">
         <v>47</v>
@@ -29681,7 +29681,7 @@
         <v>47</v>
       </c>
       <c r="G328" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H328">
         <v>3</v>
@@ -30924,7 +30924,7 @@
         <v>45311.75</v>
       </c>
       <c r="F342" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G342" t="s">
         <v>29</v>
@@ -31802,7 +31802,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7749789</v>
+        <v>7749669</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31814,76 +31814,76 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F352" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G352" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352">
         <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K352">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L352">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M352">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N352">
         <v>1.65</v>
       </c>
       <c r="O352">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P352">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q352">
         <v>-0.75</v>
       </c>
       <c r="R352">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S352">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T352">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U352">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V352">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W352">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y352">
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA352">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB352">
         <v>-1</v>
       </c>
       <c r="AC352">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31980,7 +31980,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>7749669</v>
+        <v>7749789</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31992,76 +31992,76 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F354" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G354" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I354">
         <v>0</v>
       </c>
       <c r="J354" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K354">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="L354">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M354">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N354">
         <v>1.65</v>
       </c>
       <c r="O354">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P354">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q354">
         <v>-0.75</v>
       </c>
       <c r="R354">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S354">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T354">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U354">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V354">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W354">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X354">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y354">
         <v>-1</v>
       </c>
       <c r="Z354">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA354">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB354">
         <v>-1</v>
       </c>
       <c r="AC354">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32259,7 +32259,7 @@
         <v>45319.75</v>
       </c>
       <c r="F357" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G357" t="s">
         <v>53</v>
@@ -32529,7 +32529,7 @@
         <v>48</v>
       </c>
       <c r="G360" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H360">
         <v>3</v>
@@ -32692,7 +32692,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7785360</v>
+        <v>7785359</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32704,58 +32704,58 @@
         <v>45326.75</v>
       </c>
       <c r="F362" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G362" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H362">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J362" t="s">
         <v>58</v>
       </c>
       <c r="K362">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L362">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M362">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N362">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O362">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P362">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q362">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R362">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S362">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T362">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U362">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V362">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W362">
-        <v>0.75</v>
+        <v>0.571</v>
       </c>
       <c r="X362">
         <v>-1</v>
@@ -32764,13 +32764,13 @@
         <v>-1</v>
       </c>
       <c r="Z362">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA362">
         <v>-1</v>
       </c>
       <c r="AB362">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC362">
         <v>-1</v>
@@ -32781,7 +32781,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>7785359</v>
+        <v>7785360</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32793,58 +32793,58 @@
         <v>45326.75</v>
       </c>
       <c r="F363" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G363" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H363">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J363" t="s">
         <v>58</v>
       </c>
       <c r="K363">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L363">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M363">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N363">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O363">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P363">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q363">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R363">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S363">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T363">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U363">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V363">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W363">
-        <v>0.571</v>
+        <v>0.75</v>
       </c>
       <c r="X363">
         <v>-1</v>
@@ -32853,13 +32853,13 @@
         <v>-1</v>
       </c>
       <c r="Z363">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA363">
         <v>-1</v>
       </c>
       <c r="AB363">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC363">
         <v>-1</v>
@@ -33238,7 +33238,7 @@
         <v>45329.75</v>
       </c>
       <c r="F368" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G368" t="s">
         <v>47</v>
@@ -33404,7 +33404,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>7797361</v>
+        <v>7797366</v>
       </c>
       <c r="C370" t="s">
         <v>28</v>
@@ -33416,13 +33416,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F370" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G370" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H370">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I370">
         <v>0</v>
@@ -33431,25 +33431,25 @@
         <v>58</v>
       </c>
       <c r="K370">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L370">
+        <v>3.3</v>
+      </c>
+      <c r="M370">
         <v>3.5</v>
       </c>
-      <c r="M370">
-        <v>2.6</v>
-      </c>
       <c r="N370">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O370">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P370">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q370">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R370">
         <v>1.85</v>
@@ -33458,16 +33458,16 @@
         <v>1.95</v>
       </c>
       <c r="T370">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U370">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V370">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W370">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="X370">
         <v>-1</v>
@@ -33482,7 +33482,7 @@
         <v>-1</v>
       </c>
       <c r="AB370">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC370">
         <v>-1</v>
@@ -33493,7 +33493,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7797367</v>
+        <v>7797361</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33505,10 +33505,10 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F371" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G371" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H371">
         <v>3</v>
@@ -33520,34 +33520,34 @@
         <v>58</v>
       </c>
       <c r="K371">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L371">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M371">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N371">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O371">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P371">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q371">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R371">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S371">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T371">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U371">
         <v>1.9</v>
@@ -33556,7 +33556,7 @@
         <v>1.9</v>
       </c>
       <c r="W371">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="X371">
         <v>-1</v>
@@ -33565,7 +33565,7 @@
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA371">
         <v>-1</v>
@@ -33582,7 +33582,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7797366</v>
+        <v>7797367</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33594,13 +33594,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G372" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H372">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I372">
         <v>0</v>
@@ -33609,43 +33609,43 @@
         <v>58</v>
       </c>
       <c r="K372">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L372">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M372">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N372">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="O372">
+        <v>3.75</v>
+      </c>
+      <c r="P372">
         <v>6</v>
       </c>
-      <c r="P372">
-        <v>7.5</v>
-      </c>
       <c r="Q372">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R372">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S372">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T372">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U372">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V372">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W372">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="X372">
         <v>-1</v>
@@ -33654,13 +33654,13 @@
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA372">
         <v>-1</v>
       </c>
       <c r="AB372">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC372">
         <v>-1</v>
@@ -33686,7 +33686,7 @@
         <v>39</v>
       </c>
       <c r="G373" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H373">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7847505</v>
+        <v>7847507</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34214,49 +34214,49 @@
         <v>28</v>
       </c>
       <c r="E379" s="2">
-        <v>45339.58333333334</v>
+        <v>45339.95833333334</v>
       </c>
       <c r="F379" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G379" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K379">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L379">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M379">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N379">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O379">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P379">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q379">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R379">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S379">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T379">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U379">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V379">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W379">
         <v>0</v>

--- a/Guatemala Primera Division/Guatemala Primera Division.xlsx
+++ b/Guatemala Primera Division/Guatemala Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -115,13 +115,13 @@
     <t>Aurora</t>
   </si>
   <si>
+    <t>Solola FC</t>
+  </si>
+  <si>
     <t>San Juan La Laguna FC</t>
   </si>
   <si>
     <t>Deportivo Barberena FC</t>
-  </si>
-  <si>
-    <t>Solola FC</t>
   </si>
   <si>
     <t>Deportivo Sanarate FC</t>
@@ -151,10 +151,10 @@
     <t>Catarina FC</t>
   </si>
   <si>
-    <t>Chimaltenango FC</t>
+    <t>Suchitepequez</t>
   </si>
   <si>
-    <t>Suchitepequez</t>
+    <t>Chimaltenango FC</t>
   </si>
   <si>
     <t>Juventud Pinulteca FC</t>
@@ -163,10 +163,10 @@
     <t>Cuilapa FC</t>
   </si>
   <si>
-    <t>Sta Lucia FC</t>
+    <t>Deportivo Iztapa</t>
   </si>
   <si>
-    <t>Deportivo Iztapa</t>
+    <t>Sta Lucia FC</t>
   </si>
   <si>
     <t>Juventud Copalera</t>
@@ -555,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC391"/>
+  <dimension ref="A1:AC392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6139619</v>
+        <v>6139618</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1023,73 +1023,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M6">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O6">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1097,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6139617</v>
+        <v>6139619</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1112,73 +1112,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>59</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
         <v>3.4</v>
       </c>
       <c r="N7">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O7">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P7">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6139618</v>
+        <v>6139617</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1201,46 +1201,46 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
+        <v>2.1</v>
+      </c>
+      <c r="L8">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8">
-        <v>1.5</v>
-      </c>
-      <c r="L8">
-        <v>3.75</v>
-      </c>
       <c r="M8">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="P8">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U8">
         <v>1.9</v>
@@ -1252,22 +1252,22 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y8">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC8">
-        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1379,7 +1379,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1646,7 +1646,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1913,7 +1913,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2076,7 +2076,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6166903</v>
+        <v>6166654</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2091,10 +2091,10 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2103,43 +2103,43 @@
         <v>58</v>
       </c>
       <c r="K18">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L18">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O18">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P18">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>1.1</v>
+        <v>0.75</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2148,16 +2148,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6166654</v>
+        <v>6166903</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2180,10 +2180,10 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2192,43 +2192,43 @@
         <v>58</v>
       </c>
       <c r="K19">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N19">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W19">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2237,16 +2237,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2269,7 +2269,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2358,7 +2358,7 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2800,10 +2800,10 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
         <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3156,7 +3156,7 @@
         <v>44961.58333333334</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
         <v>37</v>
@@ -3423,7 +3423,7 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
         <v>42</v>
@@ -3601,7 +3601,7 @@
         <v>44962.60277777778</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
         <v>53</v>
@@ -3693,7 +3693,7 @@
         <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>44962.75</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3960,7 +3960,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4123,7 +4123,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6256681</v>
+        <v>6256682</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4135,76 +4135,76 @@
         <v>44969.625</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="N41">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="O41">
+        <v>3.25</v>
+      </c>
+      <c r="P41">
         <v>4.5</v>
       </c>
-      <c r="P41">
-        <v>7</v>
-      </c>
       <c r="Q41">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.475</v>
-      </c>
-      <c r="AB41">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4212,7 +4212,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6256682</v>
+        <v>6256681</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4224,76 +4224,76 @@
         <v>44969.625</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N42">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O42">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P42">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
+        <v>1.75</v>
+      </c>
+      <c r="S42">
         <v>1.95</v>
       </c>
-      <c r="S42">
+      <c r="T42">
+        <v>2.5</v>
+      </c>
+      <c r="U42">
         <v>1.85</v>
       </c>
-      <c r="T42">
-        <v>2.25</v>
-      </c>
-      <c r="U42">
-        <v>1.925</v>
-      </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X42">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA42">
+        <v>0.475</v>
+      </c>
+      <c r="AB42">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB42">
-        <v>-0.5</v>
-      </c>
       <c r="AC42">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4316,7 +4316,7 @@
         <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4402,7 +4402,7 @@
         <v>44969.75</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s">
         <v>47</v>
@@ -4491,7 +4491,7 @@
         <v>44969.75</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
         <v>43</v>
@@ -4583,7 +4583,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4847,7 +4847,7 @@
         <v>44976.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
         <v>29</v>
@@ -5028,7 +5028,7 @@
         <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5381,7 +5381,7 @@
         <v>44979.58333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s">
         <v>40</v>
@@ -5648,7 +5648,7 @@
         <v>44979.75</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -5740,7 +5740,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6007,7 +6007,7 @@
         <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6093,10 +6093,10 @@
         <v>44982.66666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6437,7 +6437,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6318692</v>
+        <v>6318696</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6449,10 +6449,10 @@
         <v>44983.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6464,31 +6464,31 @@
         <v>59</v>
       </c>
       <c r="K67">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M67">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N67">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P67">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
         <v>2</v>
@@ -6503,16 +6503,16 @@
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -6526,7 +6526,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6318696</v>
+        <v>6318692</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6538,10 +6538,10 @@
         <v>44983.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6553,31 +6553,31 @@
         <v>59</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L68">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N68">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O68">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P68">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
         <v>2</v>
@@ -6592,16 +6592,16 @@
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB68">
         <v>-1</v>
@@ -6627,10 +6627,10 @@
         <v>44983.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6704,7 +6704,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6318700</v>
+        <v>6318740</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6716,76 +6716,76 @@
         <v>44983.75</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
       <c r="J70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K70">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M70">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N70">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q70">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R70">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
+        <v>1.95</v>
+      </c>
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="V70">
-        <v>1.95</v>
-      </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6793,7 +6793,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6318740</v>
+        <v>6318700</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6805,76 +6805,76 @@
         <v>44983.75</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K71">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N71">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P71">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q71">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U71">
+        <v>1.85</v>
+      </c>
+      <c r="V71">
         <v>1.95</v>
       </c>
-      <c r="V71">
-        <v>1.85</v>
-      </c>
       <c r="W71">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB71">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6897,7 +6897,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7253,7 +7253,7 @@
         <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7517,7 +7517,7 @@
         <v>44990.75</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7606,10 +7606,10 @@
         <v>44990.75</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7784,7 +7784,7 @@
         <v>44996.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
@@ -7861,7 +7861,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6368315</v>
+        <v>6368316</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7873,76 +7873,76 @@
         <v>44996.95833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K83">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L83">
+        <v>2.9</v>
+      </c>
+      <c r="M83">
         <v>4</v>
-      </c>
-      <c r="M83">
-        <v>5</v>
       </c>
       <c r="N83">
         <v>1.5</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q83">
         <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7950,7 +7950,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6368316</v>
+        <v>6368315</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7962,76 +7962,76 @@
         <v>44996.95833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L84">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N84">
         <v>1.5</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q84">
         <v>-1</v>
       </c>
       <c r="R84">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T84">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W84">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8054,7 +8054,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>44</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8407,7 +8407,7 @@
         <v>44997.75</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G89" t="s">
         <v>53</v>
@@ -8677,7 +8677,7 @@
         <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8852,7 +8852,7 @@
         <v>45004.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>43</v>
@@ -8941,7 +8941,7 @@
         <v>45004.58333333334</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
         <v>47</v>
@@ -9033,7 +9033,7 @@
         <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9386,10 +9386,10 @@
         <v>45011.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>45011.58333333334</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9831,7 +9831,7 @@
         <v>45011.75</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G105" t="s">
         <v>29</v>
@@ -10368,7 +10368,7 @@
         <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -10454,7 +10454,7 @@
         <v>45018.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
         <v>43</v>
@@ -10546,7 +10546,7 @@
         <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10635,7 +10635,7 @@
         <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10721,7 +10721,7 @@
         <v>45021.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10798,7 +10798,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6487889</v>
+        <v>6487890</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10810,49 +10810,49 @@
         <v>45021.75</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K116">
+        <v>2.5</v>
+      </c>
+      <c r="L116">
+        <v>3.1</v>
+      </c>
+      <c r="M116">
         <v>2.625</v>
       </c>
-      <c r="L116">
+      <c r="N116">
+        <v>2.05</v>
+      </c>
+      <c r="O116">
+        <v>3.1</v>
+      </c>
+      <c r="P116">
         <v>3.2</v>
-      </c>
-      <c r="M116">
-        <v>2.375</v>
-      </c>
-      <c r="N116">
-        <v>2</v>
-      </c>
-      <c r="O116">
-        <v>3.4</v>
-      </c>
-      <c r="P116">
-        <v>3.1</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
         <v>1.8</v>
@@ -10864,22 +10864,22 @@
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
+        <v>0.4875</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
         <v>1</v>
-      </c>
-      <c r="AB116">
-        <v>0.8</v>
-      </c>
-      <c r="AC116">
-        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10887,7 +10887,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6487890</v>
+        <v>6487886</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10899,10 +10899,10 @@
         <v>45021.75</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10914,61 +10914,61 @@
         <v>59</v>
       </c>
       <c r="K117">
+        <v>2.2</v>
+      </c>
+      <c r="L117">
+        <v>3.2</v>
+      </c>
+      <c r="M117">
+        <v>2.9</v>
+      </c>
+      <c r="N117">
+        <v>1.444</v>
+      </c>
+      <c r="O117">
+        <v>4</v>
+      </c>
+      <c r="P117">
+        <v>6.5</v>
+      </c>
+      <c r="Q117">
+        <v>-1.25</v>
+      </c>
+      <c r="R117">
+        <v>1.95</v>
+      </c>
+      <c r="S117">
+        <v>1.85</v>
+      </c>
+      <c r="T117">
         <v>2.5</v>
       </c>
-      <c r="L117">
-        <v>3.1</v>
-      </c>
-      <c r="M117">
-        <v>2.625</v>
-      </c>
-      <c r="N117">
-        <v>2.05</v>
-      </c>
-      <c r="O117">
-        <v>3.1</v>
-      </c>
-      <c r="P117">
-        <v>3.2</v>
-      </c>
-      <c r="Q117">
-        <v>-0.25</v>
-      </c>
-      <c r="R117">
-        <v>1.825</v>
-      </c>
-      <c r="S117">
-        <v>1.975</v>
-      </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11065,7 +11065,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6487886</v>
+        <v>6487889</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11077,76 +11077,76 @@
         <v>45021.75</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L119">
         <v>3.2</v>
       </c>
       <c r="M119">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="N119">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11169,7 +11169,7 @@
         <v>47</v>
       </c>
       <c r="G120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11436,7 +11436,7 @@
         <v>43</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -11522,7 +11522,7 @@
         <v>45027.91666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G124" t="s">
         <v>44</v>
@@ -11703,7 +11703,7 @@
         <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11866,7 +11866,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6514547</v>
+        <v>6514544</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11878,76 +11878,76 @@
         <v>45028.75</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K128">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M128">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N128">
         <v>1.666</v>
       </c>
       <c r="O128">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q128">
         <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
         <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X128">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA128">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
         <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>0.4625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11955,7 +11955,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6514544</v>
+        <v>6514547</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11967,76 +11967,76 @@
         <v>45028.75</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K129">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L129">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M129">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N129">
         <v>1.666</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P129">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q129">
         <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
         <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W129">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB129">
         <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12148,7 +12148,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12237,7 +12237,7 @@
         <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -12311,7 +12311,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6530989</v>
+        <v>6530937</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12326,73 +12326,73 @@
         <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K133">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N133">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O133">
+        <v>3.1</v>
+      </c>
+      <c r="P133">
         <v>3.75</v>
       </c>
-      <c r="P133">
-        <v>5.25</v>
-      </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y133">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12400,7 +12400,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6530937</v>
+        <v>6530989</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12412,76 +12412,76 @@
         <v>45032.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K134">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L134">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O134">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R134">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13216,7 +13216,7 @@
         <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13391,10 +13391,10 @@
         <v>45039.75</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -13480,10 +13480,10 @@
         <v>45039.875</v>
       </c>
       <c r="F146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13569,7 +13569,7 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>44</v>
@@ -13735,7 +13735,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6574901</v>
+        <v>6574893</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13747,13 +13747,13 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13762,43 +13762,43 @@
         <v>58</v>
       </c>
       <c r="K149">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L149">
         <v>3.2</v>
       </c>
       <c r="M149">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N149">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="O149">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R149">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T149">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V149">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W149">
-        <v>0.833</v>
+        <v>0.45</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13807,16 +13807,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC149">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13824,7 +13824,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6574897</v>
+        <v>6574901</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13836,58 +13836,58 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>58</v>
       </c>
       <c r="K150">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L150">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M150">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N150">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O150">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P150">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
+        <v>1.875</v>
+      </c>
+      <c r="S150">
         <v>1.925</v>
-      </c>
-      <c r="S150">
-        <v>1.875</v>
       </c>
       <c r="T150">
         <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V150">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W150">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13896,16 +13896,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14002,7 +14002,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6574893</v>
+        <v>6574897</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14014,58 +14014,58 @@
         <v>45046.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H152">
         <v>3</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>58</v>
       </c>
       <c r="K152">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L152">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M152">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N152">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P152">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q152">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S152">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
-        <v>0.45</v>
+        <v>1.15</v>
       </c>
       <c r="X152">
         <v>-1</v>
@@ -14074,13 +14074,13 @@
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC152">
         <v>-1</v>
@@ -14281,7 +14281,7 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
         <v>42</v>
@@ -14726,7 +14726,7 @@
         <v>45052.75</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
         <v>36</v>
@@ -14907,7 +14907,7 @@
         <v>42</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15260,7 +15260,7 @@
         <v>45057.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
         <v>41</v>
@@ -15352,7 +15352,7 @@
         <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15441,7 +15441,7 @@
         <v>41</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>5</v>
@@ -15527,7 +15527,7 @@
         <v>45060.625</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G169" t="s">
         <v>32</v>
@@ -15705,7 +15705,7 @@
         <v>45067.625</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G171" t="s">
         <v>43</v>
@@ -15975,7 +15975,7 @@
         <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H174">
         <v>5</v>
@@ -16239,10 +16239,10 @@
         <v>45136.75</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16331,7 +16331,7 @@
         <v>31</v>
       </c>
       <c r="G178" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -16405,7 +16405,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6996285</v>
+        <v>6996288</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16417,49 +16417,49 @@
         <v>45137.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K179">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L179">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M179">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N179">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O179">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q179">
         <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
         <v>1.95</v>
@@ -16468,25 +16468,25 @@
         <v>1.85</v>
       </c>
       <c r="W179">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC179">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16494,7 +16494,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6996288</v>
+        <v>6996285</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16506,49 +16506,49 @@
         <v>45137.58333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K180">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L180">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M180">
+        <v>3.5</v>
+      </c>
+      <c r="N180">
+        <v>1.727</v>
+      </c>
+      <c r="O180">
         <v>3.4</v>
       </c>
-      <c r="N180">
-        <v>1.65</v>
-      </c>
-      <c r="O180">
-        <v>3.6</v>
-      </c>
       <c r="P180">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q180">
         <v>-0.75</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
         <v>1.95</v>
@@ -16557,25 +16557,25 @@
         <v>1.85</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X180">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA180">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16684,7 +16684,7 @@
         <v>45137.625</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>47</v>
@@ -16939,7 +16939,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7025213</v>
+        <v>7025214</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16954,46 +16954,46 @@
         <v>49</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K185">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L185">
         <v>3.2</v>
       </c>
       <c r="M185">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N185">
+        <v>1.55</v>
+      </c>
+      <c r="O185">
+        <v>3.8</v>
+      </c>
+      <c r="P185">
+        <v>4.75</v>
+      </c>
+      <c r="Q185">
+        <v>-0.75</v>
+      </c>
+      <c r="R185">
         <v>1.75</v>
       </c>
-      <c r="O185">
-        <v>3.3</v>
-      </c>
-      <c r="P185">
-        <v>4.333</v>
-      </c>
-      <c r="Q185">
-        <v>-0.5</v>
-      </c>
-      <c r="R185">
-        <v>1.8</v>
-      </c>
       <c r="S185">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
         <v>1.8</v>
@@ -17002,25 +17002,25 @@
         <v>2</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC185">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17028,7 +17028,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7025214</v>
+        <v>7025213</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17043,46 +17043,46 @@
         <v>50</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K186">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L186">
         <v>3.2</v>
       </c>
       <c r="M186">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N186">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O186">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P186">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
         <v>1.8</v>
@@ -17091,25 +17091,25 @@
         <v>2</v>
       </c>
       <c r="W186">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z186">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB186">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17295,7 +17295,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7025358</v>
+        <v>7025357</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17307,19 +17307,19 @@
         <v>45144.75</v>
       </c>
       <c r="F189" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K189">
         <v>1.615</v>
@@ -17331,52 +17331,52 @@
         <v>5</v>
       </c>
       <c r="N189">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P189">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R189">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S189">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U189">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="V189">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y189">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB189">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17384,7 +17384,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7025357</v>
+        <v>7025358</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17396,19 +17396,19 @@
         <v>45144.75</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K190">
         <v>1.615</v>
@@ -17420,52 +17420,52 @@
         <v>5</v>
       </c>
       <c r="N190">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="O190">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R190">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S190">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="V190">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AC190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17488,7 +17488,7 @@
         <v>38</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17663,7 +17663,7 @@
         <v>45151.5</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
         <v>42</v>
@@ -17740,7 +17740,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7060392</v>
+        <v>7060394</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17752,58 +17752,58 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H194">
+        <v>3</v>
+      </c>
+      <c r="I194">
         <v>1</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>58</v>
       </c>
       <c r="K194">
-        <v>1.952</v>
+        <v>1.615</v>
       </c>
       <c r="L194">
+        <v>3.5</v>
+      </c>
+      <c r="M194">
+        <v>5</v>
+      </c>
+      <c r="N194">
+        <v>1.666</v>
+      </c>
+      <c r="O194">
         <v>3.3</v>
       </c>
-      <c r="M194">
-        <v>3.4</v>
-      </c>
-      <c r="N194">
-        <v>1.8</v>
-      </c>
-      <c r="O194">
-        <v>3.6</v>
-      </c>
       <c r="P194">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q194">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R194">
+        <v>1.9</v>
+      </c>
+      <c r="S194">
+        <v>1.9</v>
+      </c>
+      <c r="T194">
+        <v>2</v>
+      </c>
+      <c r="U194">
         <v>1.825</v>
       </c>
-      <c r="S194">
+      <c r="V194">
         <v>1.975</v>
       </c>
-      <c r="T194">
-        <v>2.5</v>
-      </c>
-      <c r="U194">
-        <v>2</v>
-      </c>
-      <c r="V194">
-        <v>1.8</v>
-      </c>
       <c r="W194">
-        <v>0.8</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17812,16 +17812,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA194">
+        <v>-1</v>
+      </c>
+      <c r="AB194">
         <v>0.825</v>
       </c>
-      <c r="AA194">
-        <v>-1</v>
-      </c>
-      <c r="AB194">
-        <v>-1</v>
-      </c>
       <c r="AC194">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17829,7 +17829,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7060393</v>
+        <v>7060392</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17841,76 +17841,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F195" t="s">
+        <v>45</v>
+      </c>
+      <c r="G195" t="s">
         <v>50</v>
       </c>
-      <c r="G195" t="s">
-        <v>40</v>
-      </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195">
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K195">
-        <v>1.615</v>
+        <v>1.952</v>
       </c>
       <c r="L195">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M195">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O195">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P195">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T195">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V195">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X195">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17918,7 +17918,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7060394</v>
+        <v>7060393</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17930,19 +17930,19 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G196" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K196">
         <v>1.615</v>
@@ -17954,25 +17954,25 @@
         <v>5</v>
       </c>
       <c r="N196">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P196">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
         <v>1.825</v>
@@ -17981,25 +17981,25 @@
         <v>1.975</v>
       </c>
       <c r="W196">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB196">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18197,7 +18197,7 @@
         <v>45151.625</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G199" t="s">
         <v>39</v>
@@ -18378,7 +18378,7 @@
         <v>32</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18464,10 +18464,10 @@
         <v>45154.63194444445</v>
       </c>
       <c r="F202" t="s">
+        <v>50</v>
+      </c>
+      <c r="G202" t="s">
         <v>49</v>
-      </c>
-      <c r="G202" t="s">
-        <v>50</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18541,7 +18541,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7072542</v>
+        <v>7072447</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18553,76 +18553,76 @@
         <v>45154.75</v>
       </c>
       <c r="F203" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G203" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K203">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L203">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N203">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O203">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P203">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S203">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T203">
         <v>2.25</v>
       </c>
       <c r="U203">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z203">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB203">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18630,7 +18630,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7072459</v>
+        <v>7072448</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18642,10 +18642,10 @@
         <v>45154.75</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18657,61 +18657,61 @@
         <v>59</v>
       </c>
       <c r="K204">
+        <v>1.727</v>
+      </c>
+      <c r="L204">
+        <v>3.5</v>
+      </c>
+      <c r="M204">
+        <v>4</v>
+      </c>
+      <c r="N204">
+        <v>1.6</v>
+      </c>
+      <c r="O204">
+        <v>3.6</v>
+      </c>
+      <c r="P204">
+        <v>4.75</v>
+      </c>
+      <c r="Q204">
+        <v>-0.75</v>
+      </c>
+      <c r="R204">
+        <v>1.8</v>
+      </c>
+      <c r="S204">
+        <v>2</v>
+      </c>
+      <c r="T204">
         <v>2.25</v>
       </c>
-      <c r="L204">
-        <v>3</v>
-      </c>
-      <c r="M204">
-        <v>3</v>
-      </c>
-      <c r="N204">
-        <v>2.5</v>
-      </c>
-      <c r="O204">
-        <v>2.8</v>
-      </c>
-      <c r="P204">
-        <v>3</v>
-      </c>
-      <c r="Q204">
-        <v>0</v>
-      </c>
-      <c r="R204">
-        <v>1.725</v>
-      </c>
-      <c r="S204">
-        <v>2.075</v>
-      </c>
-      <c r="T204">
-        <v>2</v>
-      </c>
       <c r="U204">
+        <v>1.95</v>
+      </c>
+      <c r="V204">
         <v>1.85</v>
       </c>
-      <c r="V204">
-        <v>1.95</v>
-      </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB204">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC204">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18808,7 +18808,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7072447</v>
+        <v>7072459</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18820,76 +18820,76 @@
         <v>45154.75</v>
       </c>
       <c r="F206" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206">
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K206">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="L206">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M206">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N206">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O206">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P206">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q206">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R206">
+        <v>1.725</v>
+      </c>
+      <c r="S206">
+        <v>2.075</v>
+      </c>
+      <c r="T206">
+        <v>2</v>
+      </c>
+      <c r="U206">
+        <v>1.85</v>
+      </c>
+      <c r="V206">
+        <v>1.95</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
         <v>1.8</v>
       </c>
-      <c r="S206">
-        <v>2</v>
-      </c>
-      <c r="T206">
-        <v>2.25</v>
-      </c>
-      <c r="U206">
-        <v>1.9</v>
-      </c>
-      <c r="V206">
-        <v>1.9</v>
-      </c>
-      <c r="W206">
-        <v>-1</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
       <c r="Y206">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA206">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC206">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18897,7 +18897,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7072448</v>
+        <v>7072542</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18909,34 +18909,34 @@
         <v>45154.75</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207">
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K207">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L207">
+        <v>3.25</v>
+      </c>
+      <c r="M207">
         <v>3.5</v>
       </c>
-      <c r="M207">
-        <v>4</v>
-      </c>
       <c r="N207">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O207">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P207">
         <v>4.75</v>
@@ -18945,40 +18945,40 @@
         <v>-0.75</v>
       </c>
       <c r="R207">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S207">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T207">
         <v>2.25</v>
       </c>
       <c r="U207">
+        <v>1.85</v>
+      </c>
+      <c r="V207">
         <v>1.95</v>
       </c>
-      <c r="V207">
-        <v>1.85</v>
-      </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X207">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA207">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB207">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC207">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19087,7 +19087,7 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G209" t="s">
         <v>40</v>
@@ -19176,7 +19176,7 @@
         <v>45161.75</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
         <v>51</v>
@@ -19253,7 +19253,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7106041</v>
+        <v>7106032</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19265,58 +19265,58 @@
         <v>45161.75</v>
       </c>
       <c r="F211" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H211">
+        <v>3</v>
+      </c>
+      <c r="I211">
         <v>1</v>
-      </c>
-      <c r="I211">
-        <v>0</v>
       </c>
       <c r="J211" t="s">
         <v>58</v>
       </c>
       <c r="K211">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L211">
         <v>3.2</v>
       </c>
       <c r="M211">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N211">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O211">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P211">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R211">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T211">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V211">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W211">
-        <v>1.3</v>
+        <v>0.615</v>
       </c>
       <c r="X211">
         <v>-1</v>
@@ -19325,16 +19325,16 @@
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA211">
         <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC211">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19354,7 +19354,7 @@
         <v>45161.75</v>
       </c>
       <c r="F212" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G212" t="s">
         <v>37</v>
@@ -19431,7 +19431,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7106032</v>
+        <v>7106041</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19443,58 +19443,58 @@
         <v>45161.75</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G213" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
         <v>58</v>
       </c>
       <c r="K213">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L213">
         <v>3.2</v>
       </c>
       <c r="M213">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N213">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O213">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P213">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q213">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R213">
+        <v>1.75</v>
+      </c>
+      <c r="S213">
+        <v>2.05</v>
+      </c>
+      <c r="T213">
+        <v>2</v>
+      </c>
+      <c r="U213">
+        <v>1.925</v>
+      </c>
+      <c r="V213">
         <v>1.875</v>
       </c>
-      <c r="S213">
-        <v>1.925</v>
-      </c>
-      <c r="T213">
-        <v>2.25</v>
-      </c>
-      <c r="U213">
-        <v>1.85</v>
-      </c>
-      <c r="V213">
-        <v>1.95</v>
-      </c>
       <c r="W213">
-        <v>0.615</v>
+        <v>1.3</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19503,16 +19503,16 @@
         <v>-1</v>
       </c>
       <c r="Z213">
+        <v>0.75</v>
+      </c>
+      <c r="AA213">
+        <v>-1</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
         <v>0.875</v>
-      </c>
-      <c r="AA213">
-        <v>-1</v>
-      </c>
-      <c r="AB213">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC213">
-        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19609,7 +19609,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7107133</v>
+        <v>7107137</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19621,40 +19621,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K215">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L215">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M215">
+        <v>3</v>
+      </c>
+      <c r="N215">
+        <v>1.45</v>
+      </c>
+      <c r="O215">
         <v>4</v>
       </c>
-      <c r="N215">
-        <v>1.85</v>
-      </c>
-      <c r="O215">
-        <v>3</v>
-      </c>
       <c r="P215">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R215">
         <v>1.9</v>
@@ -19663,34 +19663,34 @@
         <v>1.9</v>
       </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V215">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X215">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA215">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC215">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19698,7 +19698,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7107137</v>
+        <v>7107133</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19710,40 +19710,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G216" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216" t="s">
+        <v>59</v>
+      </c>
+      <c r="K216">
+        <v>1.8</v>
+      </c>
+      <c r="L216">
+        <v>3.2</v>
+      </c>
+      <c r="M216">
         <v>4</v>
       </c>
-      <c r="I216">
-        <v>1</v>
-      </c>
-      <c r="J216" t="s">
-        <v>58</v>
-      </c>
-      <c r="K216">
-        <v>2.1</v>
-      </c>
-      <c r="L216">
-        <v>3.3</v>
-      </c>
-      <c r="M216">
+      <c r="N216">
+        <v>1.85</v>
+      </c>
+      <c r="O216">
         <v>3</v>
       </c>
-      <c r="N216">
-        <v>1.45</v>
-      </c>
-      <c r="O216">
-        <v>4</v>
-      </c>
       <c r="P216">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
         <v>1.9</v>
@@ -19752,34 +19752,34 @@
         <v>1.9</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W216">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
+        <v>-1</v>
+      </c>
+      <c r="AA216">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA216">
-        <v>-1</v>
-      </c>
       <c r="AB216">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19799,7 +19799,7 @@
         <v>45162.625</v>
       </c>
       <c r="F217" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G217" t="s">
         <v>42</v>
@@ -19891,7 +19891,7 @@
         <v>40</v>
       </c>
       <c r="G218" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -20069,7 +20069,7 @@
         <v>52</v>
       </c>
       <c r="G220" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -20336,7 +20336,7 @@
         <v>42</v>
       </c>
       <c r="G223" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20425,7 +20425,7 @@
         <v>37</v>
       </c>
       <c r="G224" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H224">
         <v>3</v>
@@ -20778,7 +20778,7 @@
         <v>45171.875</v>
       </c>
       <c r="F228" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G228" t="s">
         <v>51</v>
@@ -20959,7 +20959,7 @@
         <v>31</v>
       </c>
       <c r="G230" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -21033,7 +21033,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7158484</v>
+        <v>7158507</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21045,73 +21045,73 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G231" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J231" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K231">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L231">
         <v>3.2</v>
       </c>
       <c r="M231">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N231">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O231">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q231">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S231">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T231">
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA231">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB231">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21122,7 +21122,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7158507</v>
+        <v>7158484</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21134,73 +21134,73 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G232" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H232">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K232">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L232">
         <v>3.2</v>
       </c>
       <c r="M232">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N232">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O232">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P232">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q232">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S232">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T232">
         <v>2.25</v>
       </c>
       <c r="U232">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W232">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z232">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB232">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC232">
         <v>-1</v>
@@ -21223,7 +21223,7 @@
         <v>45172.625</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
         <v>29</v>
@@ -21757,10 +21757,10 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -21938,7 +21938,7 @@
         <v>51</v>
       </c>
       <c r="G241" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H241">
         <v>4</v>
@@ -22101,7 +22101,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7203080</v>
+        <v>7203412</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22113,13 +22113,13 @@
         <v>45182.58333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G243" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -22128,31 +22128,31 @@
         <v>58</v>
       </c>
       <c r="K243">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L243">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M243">
+        <v>2.5</v>
+      </c>
+      <c r="N243">
+        <v>1.571</v>
+      </c>
+      <c r="O243">
+        <v>3.6</v>
+      </c>
+      <c r="P243">
         <v>5</v>
-      </c>
-      <c r="N243">
-        <v>1.6</v>
-      </c>
-      <c r="O243">
-        <v>3.4</v>
-      </c>
-      <c r="P243">
-        <v>5.5</v>
       </c>
       <c r="Q243">
         <v>-0.75</v>
       </c>
       <c r="R243">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S243">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T243">
         <v>2.25</v>
@@ -22164,7 +22164,7 @@
         <v>1.825</v>
       </c>
       <c r="W243">
-        <v>0.6000000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X243">
         <v>-1</v>
@@ -22173,16 +22173,16 @@
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AA243">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC243">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22190,7 +22190,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7203412</v>
+        <v>7203080</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22202,13 +22202,13 @@
         <v>45182.58333333334</v>
       </c>
       <c r="F244" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G244" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -22217,31 +22217,31 @@
         <v>58</v>
       </c>
       <c r="K244">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L244">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M244">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N244">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O244">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P244">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q244">
         <v>-0.75</v>
       </c>
       <c r="R244">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S244">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T244">
         <v>2.25</v>
@@ -22253,7 +22253,7 @@
         <v>1.825</v>
       </c>
       <c r="W244">
-        <v>0.571</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22262,16 +22262,16 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB244">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22291,10 +22291,10 @@
         <v>45182.75</v>
       </c>
       <c r="F245" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G245" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H245">
         <v>5</v>
@@ -22558,7 +22558,7 @@
         <v>45182.875</v>
       </c>
       <c r="F248" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G248" t="s">
         <v>31</v>
@@ -22736,7 +22736,7 @@
         <v>45183.75</v>
       </c>
       <c r="F250" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G250" t="s">
         <v>48</v>
@@ -22828,7 +22828,7 @@
         <v>40</v>
       </c>
       <c r="G251" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H251">
         <v>4</v>
@@ -23092,10 +23092,10 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G254" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H254">
         <v>2</v>
@@ -23362,7 +23362,7 @@
         <v>47</v>
       </c>
       <c r="G257" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H257">
         <v>4</v>
@@ -23451,7 +23451,7 @@
         <v>31</v>
       </c>
       <c r="G258" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -23525,7 +23525,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7249889</v>
+        <v>7249890</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23537,10 +23537,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G259" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H259">
         <v>1</v>
@@ -23552,46 +23552,46 @@
         <v>59</v>
       </c>
       <c r="K259">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L259">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M259">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N259">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O259">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P259">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q259">
         <v>-0.5</v>
       </c>
       <c r="R259">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S259">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T259">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U259">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V259">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W259">
         <v>-1</v>
       </c>
       <c r="X259">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="Y259">
         <v>-1</v>
@@ -23600,13 +23600,13 @@
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB259">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC259">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23614,7 +23614,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7249890</v>
+        <v>7249817</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23626,61 +23626,61 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G260" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H260">
         <v>1</v>
       </c>
       <c r="I260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K260">
+        <v>1.363</v>
+      </c>
+      <c r="L260">
+        <v>4</v>
+      </c>
+      <c r="M260">
+        <v>7.5</v>
+      </c>
+      <c r="N260">
+        <v>1.25</v>
+      </c>
+      <c r="O260">
+        <v>4.75</v>
+      </c>
+      <c r="P260">
+        <v>9</v>
+      </c>
+      <c r="Q260">
+        <v>-1.5</v>
+      </c>
+      <c r="R260">
+        <v>1.9</v>
+      </c>
+      <c r="S260">
+        <v>1.9</v>
+      </c>
+      <c r="T260">
         <v>2.75</v>
       </c>
-      <c r="L260">
-        <v>3</v>
-      </c>
-      <c r="M260">
-        <v>2.4</v>
-      </c>
-      <c r="N260">
-        <v>1.85</v>
-      </c>
-      <c r="O260">
-        <v>3.25</v>
-      </c>
-      <c r="P260">
-        <v>3.8</v>
-      </c>
-      <c r="Q260">
-        <v>-0.5</v>
-      </c>
-      <c r="R260">
-        <v>1.95</v>
-      </c>
-      <c r="S260">
-        <v>1.85</v>
-      </c>
-      <c r="T260">
-        <v>2.25</v>
-      </c>
       <c r="U260">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V260">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X260">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
@@ -23689,13 +23689,13 @@
         <v>-1</v>
       </c>
       <c r="AA260">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB260">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23703,7 +23703,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7249817</v>
+        <v>7249889</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23715,40 +23715,40 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G261" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H261">
         <v>1</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K261">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M261">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N261">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O261">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P261">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q261">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R261">
         <v>1.9</v>
@@ -23760,16 +23760,16 @@
         <v>2.75</v>
       </c>
       <c r="U261">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V261">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W261">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y261">
         <v>-1</v>
@@ -23784,7 +23784,7 @@
         <v>-1</v>
       </c>
       <c r="AC261">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23792,7 +23792,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7249833</v>
+        <v>7249832</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23804,58 +23804,58 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G262" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H262">
         <v>3</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
         <v>58</v>
       </c>
       <c r="K262">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L262">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M262">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N262">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O262">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P262">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q262">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R262">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S262">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T262">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U262">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V262">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W262">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="X262">
         <v>-1</v>
@@ -23864,13 +23864,13 @@
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA262">
         <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -23881,7 +23881,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7249832</v>
+        <v>7249833</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23893,58 +23893,58 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G263" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H263">
         <v>3</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
         <v>58</v>
       </c>
       <c r="K263">
+        <v>2.75</v>
+      </c>
+      <c r="L263">
+        <v>3.2</v>
+      </c>
+      <c r="M263">
+        <v>2.3</v>
+      </c>
+      <c r="N263">
+        <v>2.1</v>
+      </c>
+      <c r="O263">
         <v>3.25</v>
       </c>
-      <c r="L263">
-        <v>3.25</v>
-      </c>
-      <c r="M263">
-        <v>2</v>
-      </c>
-      <c r="N263">
-        <v>2.55</v>
-      </c>
-      <c r="O263">
+      <c r="P263">
         <v>3.1</v>
       </c>
-      <c r="P263">
-        <v>2.5</v>
-      </c>
       <c r="Q263">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R263">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S263">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T263">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U263">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V263">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W263">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="X263">
         <v>-1</v>
@@ -23953,13 +23953,13 @@
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA263">
         <v>-1</v>
       </c>
       <c r="AB263">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC263">
         <v>-1</v>
@@ -24071,7 +24071,7 @@
         <v>45193.625</v>
       </c>
       <c r="F265" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G265" t="s">
         <v>38</v>
@@ -24249,10 +24249,10 @@
         <v>45196.625</v>
       </c>
       <c r="F267" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G267" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H267">
         <v>4</v>
@@ -24519,7 +24519,7 @@
         <v>42</v>
       </c>
       <c r="G270" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H270">
         <v>1</v>
@@ -24697,7 +24697,7 @@
         <v>39</v>
       </c>
       <c r="G272" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H272">
         <v>1</v>
@@ -24786,7 +24786,7 @@
         <v>40</v>
       </c>
       <c r="G273" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H273">
         <v>2</v>
@@ -25050,10 +25050,10 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F276" t="s">
+        <v>49</v>
+      </c>
+      <c r="G276" t="s">
         <v>50</v>
-      </c>
-      <c r="G276" t="s">
-        <v>49</v>
       </c>
       <c r="H276">
         <v>5</v>
@@ -25139,7 +25139,7 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F277" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
         <v>54</v>
@@ -25216,7 +25216,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7281758</v>
+        <v>7281783</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25228,16 +25228,16 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F278" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G278" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H278">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I278">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J278" t="s">
         <v>58</v>
@@ -25252,34 +25252,34 @@
         <v>3.75</v>
       </c>
       <c r="N278">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O278">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P278">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q278">
         <v>-0.5</v>
       </c>
       <c r="R278">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S278">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T278">
         <v>2.25</v>
       </c>
       <c r="U278">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V278">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W278">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X278">
         <v>-1</v>
@@ -25288,16 +25288,16 @@
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA278">
         <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25394,7 +25394,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7281783</v>
+        <v>7281758</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25406,16 +25406,16 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F280" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G280" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J280" t="s">
         <v>58</v>
@@ -25430,34 +25430,34 @@
         <v>3.75</v>
       </c>
       <c r="N280">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O280">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P280">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q280">
         <v>-0.5</v>
       </c>
       <c r="R280">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S280">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T280">
         <v>2.25</v>
       </c>
       <c r="U280">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V280">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W280">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X280">
         <v>-1</v>
@@ -25466,16 +25466,16 @@
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA280">
         <v>-1</v>
       </c>
       <c r="AB280">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC280">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25584,7 +25584,7 @@
         <v>45200.75</v>
       </c>
       <c r="F282" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G282" t="s">
         <v>32</v>
@@ -25676,7 +25676,7 @@
         <v>29</v>
       </c>
       <c r="G283" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H283">
         <v>2</v>
@@ -26106,7 +26106,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7372552</v>
+        <v>7373217</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26118,40 +26118,40 @@
         <v>45221.75</v>
       </c>
       <c r="F288" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G288" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K288">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L288">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M288">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N288">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="O288">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P288">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q288">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R288">
         <v>1.9</v>
@@ -26163,31 +26163,31 @@
         <v>2.25</v>
       </c>
       <c r="U288">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V288">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X288">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA288">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC288">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26195,7 +26195,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>7373217</v>
+        <v>7372552</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26207,40 +26207,40 @@
         <v>45221.75</v>
       </c>
       <c r="F289" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G289" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H289">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K289">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L289">
+        <v>3.1</v>
+      </c>
+      <c r="M289">
+        <v>2.8</v>
+      </c>
+      <c r="N289">
+        <v>1.85</v>
+      </c>
+      <c r="O289">
         <v>3.2</v>
       </c>
-      <c r="M289">
-        <v>4.333</v>
-      </c>
-      <c r="N289">
-        <v>1.666</v>
-      </c>
-      <c r="O289">
-        <v>3.4</v>
-      </c>
       <c r="P289">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q289">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R289">
         <v>1.9</v>
@@ -26252,31 +26252,31 @@
         <v>2.25</v>
       </c>
       <c r="U289">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V289">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W289">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X289">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
+        <v>-1</v>
+      </c>
+      <c r="AA289">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA289">
-        <v>-1</v>
-      </c>
       <c r="AB289">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC289">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26296,7 +26296,7 @@
         <v>45224.58333333334</v>
       </c>
       <c r="F290" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G290" t="s">
         <v>37</v>
@@ -26385,7 +26385,7 @@
         <v>45224.75</v>
       </c>
       <c r="F291" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G291" t="s">
         <v>42</v>
@@ -26474,7 +26474,7 @@
         <v>45224.75</v>
       </c>
       <c r="F292" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G292" t="s">
         <v>52</v>
@@ -26563,7 +26563,7 @@
         <v>45224.75</v>
       </c>
       <c r="F293" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G293" t="s">
         <v>40</v>
@@ -26741,7 +26741,7 @@
         <v>45224.875</v>
       </c>
       <c r="F295" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G295" t="s">
         <v>54</v>
@@ -27186,10 +27186,10 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G300" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H300">
         <v>4</v>
@@ -27275,7 +27275,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F301" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G301" t="s">
         <v>54</v>
@@ -27542,7 +27542,7 @@
         <v>45228.75</v>
       </c>
       <c r="F304" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G304" t="s">
         <v>53</v>
@@ -27809,7 +27809,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F307" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G307" t="s">
         <v>31</v>
@@ -27901,7 +27901,7 @@
         <v>51</v>
       </c>
       <c r="G308" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H308">
         <v>6</v>
@@ -27987,10 +27987,10 @@
         <v>45238.75</v>
       </c>
       <c r="F309" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G309" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H309">
         <v>1</v>
@@ -28079,7 +28079,7 @@
         <v>51</v>
       </c>
       <c r="G310" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H310">
         <v>3</v>
@@ -28257,7 +28257,7 @@
         <v>31</v>
       </c>
       <c r="G312" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H312">
         <v>2</v>
@@ -28346,7 +28346,7 @@
         <v>48</v>
       </c>
       <c r="G313" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -28687,7 +28687,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7477707</v>
+        <v>7477706</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28699,40 +28699,40 @@
         <v>45245.95833333334</v>
       </c>
       <c r="F317" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G317" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H317">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317">
         <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K317">
         <v>2</v>
       </c>
       <c r="L317">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M317">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N317">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O317">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P317">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R317">
         <v>1.9</v>
@@ -28741,34 +28741,34 @@
         <v>1.9</v>
       </c>
       <c r="T317">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U317">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V317">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W317">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X317">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
+        <v>-1</v>
+      </c>
+      <c r="AA317">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA317">
-        <v>-1</v>
-      </c>
       <c r="AB317">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC317">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28776,7 +28776,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7477706</v>
+        <v>7477707</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28788,40 +28788,40 @@
         <v>45245.95833333334</v>
       </c>
       <c r="F318" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G318" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I318">
         <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K318">
         <v>2</v>
       </c>
       <c r="L318">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M318">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N318">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O318">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P318">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q318">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
         <v>1.9</v>
@@ -28830,34 +28830,34 @@
         <v>1.9</v>
       </c>
       <c r="T318">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U318">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V318">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W318">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X318">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA318">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC318">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28880,7 +28880,7 @@
         <v>32</v>
       </c>
       <c r="G319" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H319">
         <v>0</v>
@@ -28966,7 +28966,7 @@
         <v>45249.58333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G320" t="s">
         <v>32</v>
@@ -29055,7 +29055,7 @@
         <v>45249.72916666666</v>
       </c>
       <c r="F321" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G321" t="s">
         <v>40</v>
@@ -29233,7 +29233,7 @@
         <v>45253.77083333334</v>
       </c>
       <c r="F323" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G323" t="s">
         <v>53</v>
@@ -29414,7 +29414,7 @@
         <v>31</v>
       </c>
       <c r="G325" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H325">
         <v>1</v>
@@ -29589,7 +29589,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F327" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G327" t="s">
         <v>31</v>
@@ -30556,7 +30556,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7697287</v>
+        <v>7697288</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30568,13 +30568,13 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F338" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G338" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H338">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I338">
         <v>1</v>
@@ -30583,31 +30583,31 @@
         <v>58</v>
       </c>
       <c r="K338">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L338">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M338">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N338">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O338">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P338">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q338">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R338">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S338">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T338">
         <v>2.75</v>
@@ -30619,7 +30619,7 @@
         <v>1.9</v>
       </c>
       <c r="W338">
-        <v>1.05</v>
+        <v>0.444</v>
       </c>
       <c r="X338">
         <v>-1</v>
@@ -30628,16 +30628,16 @@
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA338">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB338">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC338">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -30645,7 +30645,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7697288</v>
+        <v>7697287</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30657,13 +30657,13 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F339" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G339" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I339">
         <v>1</v>
@@ -30672,31 +30672,31 @@
         <v>58</v>
       </c>
       <c r="K339">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L339">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M339">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N339">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O339">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P339">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q339">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R339">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S339">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T339">
         <v>2.75</v>
@@ -30708,7 +30708,7 @@
         <v>1.9</v>
       </c>
       <c r="W339">
-        <v>0.444</v>
+        <v>1.05</v>
       </c>
       <c r="X339">
         <v>-1</v>
@@ -30717,16 +30717,16 @@
         <v>-1</v>
       </c>
       <c r="Z339">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA339">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB339">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC339">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30838,7 +30838,7 @@
         <v>51</v>
       </c>
       <c r="G341" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H341">
         <v>3</v>
@@ -31016,7 +31016,7 @@
         <v>39</v>
       </c>
       <c r="G343" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H343">
         <v>0</v>
@@ -31102,7 +31102,7 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F344" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G344" t="s">
         <v>40</v>
@@ -31191,10 +31191,10 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F345" t="s">
+        <v>49</v>
+      </c>
+      <c r="G345" t="s">
         <v>50</v>
-      </c>
-      <c r="G345" t="s">
-        <v>49</v>
       </c>
       <c r="H345">
         <v>1</v>
@@ -31636,7 +31636,7 @@
         <v>45312.875</v>
       </c>
       <c r="F350" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G350" t="s">
         <v>31</v>
@@ -31817,7 +31817,7 @@
         <v>40</v>
       </c>
       <c r="G352" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H352">
         <v>1</v>
@@ -32081,7 +32081,7 @@
         <v>45319.58333333334</v>
       </c>
       <c r="F355" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G355" t="s">
         <v>52</v>
@@ -32170,7 +32170,7 @@
         <v>45319.58333333334</v>
       </c>
       <c r="F356" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G356" t="s">
         <v>42</v>
@@ -32351,7 +32351,7 @@
         <v>40</v>
       </c>
       <c r="G358" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H358">
         <v>0</v>
@@ -32692,7 +32692,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7785360</v>
+        <v>7785359</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32704,58 +32704,58 @@
         <v>45326.75</v>
       </c>
       <c r="F362" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G362" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H362">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J362" t="s">
         <v>58</v>
       </c>
       <c r="K362">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L362">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M362">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N362">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O362">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P362">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q362">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R362">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S362">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T362">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U362">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V362">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W362">
-        <v>0.75</v>
+        <v>0.571</v>
       </c>
       <c r="X362">
         <v>-1</v>
@@ -32764,13 +32764,13 @@
         <v>-1</v>
       </c>
       <c r="Z362">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA362">
         <v>-1</v>
       </c>
       <c r="AB362">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC362">
         <v>-1</v>
@@ -32781,7 +32781,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>7785359</v>
+        <v>7785360</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32793,58 +32793,58 @@
         <v>45326.75</v>
       </c>
       <c r="F363" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G363" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H363">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J363" t="s">
         <v>58</v>
       </c>
       <c r="K363">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L363">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M363">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N363">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O363">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P363">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q363">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R363">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S363">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T363">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U363">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V363">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W363">
-        <v>0.571</v>
+        <v>0.75</v>
       </c>
       <c r="X363">
         <v>-1</v>
@@ -32853,13 +32853,13 @@
         <v>-1</v>
       </c>
       <c r="Z363">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA363">
         <v>-1</v>
       </c>
       <c r="AB363">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC363">
         <v>-1</v>
@@ -32882,10 +32882,10 @@
         <v>45326.875</v>
       </c>
       <c r="F364" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G364" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H364">
         <v>2</v>
@@ -33238,10 +33238,10 @@
         <v>45329.75</v>
       </c>
       <c r="F368" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G368" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H368">
         <v>1</v>
@@ -33597,7 +33597,7 @@
         <v>38</v>
       </c>
       <c r="G372" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H372">
         <v>3</v>
@@ -33861,7 +33861,7 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F375" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G375" t="s">
         <v>56</v>
@@ -34027,7 +34027,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7813338</v>
+        <v>7813339</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34039,73 +34039,73 @@
         <v>45333.75</v>
       </c>
       <c r="F377" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G377" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H377">
         <v>3</v>
       </c>
       <c r="I377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J377" t="s">
         <v>58</v>
       </c>
       <c r="K377">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L377">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M377">
-        <v>2.6</v>
+        <v>8.5</v>
       </c>
       <c r="N377">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="O377">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P377">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="Q377">
+        <v>-1.75</v>
+      </c>
+      <c r="R377">
+        <v>1.975</v>
+      </c>
+      <c r="S377">
+        <v>1.825</v>
+      </c>
+      <c r="T377">
+        <v>2.75</v>
+      </c>
+      <c r="U377">
+        <v>1.75</v>
+      </c>
+      <c r="V377">
+        <v>1.95</v>
+      </c>
+      <c r="W377">
+        <v>0.25</v>
+      </c>
+      <c r="X377">
+        <v>-1</v>
+      </c>
+      <c r="Y377">
+        <v>-1</v>
+      </c>
+      <c r="Z377">
+        <v>0.4875</v>
+      </c>
+      <c r="AA377">
         <v>-0.5</v>
       </c>
-      <c r="R377">
-        <v>1.95</v>
-      </c>
-      <c r="S377">
-        <v>1.85</v>
-      </c>
-      <c r="T377">
-        <v>2.5</v>
-      </c>
-      <c r="U377">
-        <v>1.95</v>
-      </c>
-      <c r="V377">
-        <v>1.75</v>
-      </c>
-      <c r="W377">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X377">
-        <v>-1</v>
-      </c>
-      <c r="Y377">
-        <v>-1</v>
-      </c>
-      <c r="Z377">
-        <v>0.95</v>
-      </c>
-      <c r="AA377">
-        <v>-1</v>
-      </c>
       <c r="AB377">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC377">
         <v>-1</v>
@@ -34116,7 +34116,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7813339</v>
+        <v>7813338</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34128,58 +34128,58 @@
         <v>45333.75</v>
       </c>
       <c r="F378" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G378" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H378">
         <v>3</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J378" t="s">
         <v>58</v>
       </c>
       <c r="K378">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L378">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M378">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="N378">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O378">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P378">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="Q378">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R378">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S378">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T378">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U378">
+        <v>1.95</v>
+      </c>
+      <c r="V378">
         <v>1.75</v>
       </c>
-      <c r="V378">
-        <v>1.95</v>
-      </c>
       <c r="W378">
-        <v>0.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X378">
         <v>-1</v>
@@ -34188,13 +34188,13 @@
         <v>-1</v>
       </c>
       <c r="Z378">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA378">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC378">
         <v>-1</v>
@@ -34220,7 +34220,7 @@
         <v>29</v>
       </c>
       <c r="G379" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H379">
         <v>1</v>
@@ -34306,7 +34306,7 @@
         <v>45339.875</v>
       </c>
       <c r="F380" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G380" t="s">
         <v>42</v>
@@ -34484,7 +34484,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F382" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G382" t="s">
         <v>54</v>
@@ -34840,7 +34840,7 @@
         <v>45343.58333333334</v>
       </c>
       <c r="F386" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G386" t="s">
         <v>32</v>
@@ -34917,7 +34917,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7864156</v>
+        <v>7864114</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34929,76 +34929,76 @@
         <v>45343.75</v>
       </c>
       <c r="F387" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G387" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K387">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L387">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M387">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N387">
-        <v>1.952</v>
+        <v>1.571</v>
       </c>
       <c r="O387">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P387">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q387">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R387">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S387">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T387">
         <v>2.75</v>
       </c>
       <c r="U387">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V387">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W387">
-        <v>0.952</v>
+        <v>-1</v>
       </c>
       <c r="X387">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y387">
         <v>-1</v>
       </c>
       <c r="Z387">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA387">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB387">
         <v>-1</v>
       </c>
       <c r="AC387">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -35006,7 +35006,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7864114</v>
+        <v>7864156</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -35018,76 +35018,76 @@
         <v>45343.75</v>
       </c>
       <c r="F388" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G388" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K388">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L388">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M388">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N388">
-        <v>1.571</v>
+        <v>1.952</v>
       </c>
       <c r="O388">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P388">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q388">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R388">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S388">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T388">
         <v>2.75</v>
       </c>
       <c r="U388">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V388">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W388">
-        <v>-1</v>
+        <v>0.952</v>
       </c>
       <c r="X388">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y388">
         <v>-1</v>
       </c>
       <c r="Z388">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA388">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB388">
         <v>-1</v>
       </c>
       <c r="AC388">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="389" spans="1:29">
@@ -35184,7 +35184,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>7864117</v>
+        <v>7864116</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35196,34 +35196,34 @@
         <v>45343.95833333334</v>
       </c>
       <c r="F390" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G390" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H390">
         <v>3</v>
       </c>
       <c r="I390">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J390" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K390">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L390">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M390">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N390">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O390">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P390">
         <v>6</v>
@@ -35232,13 +35232,13 @@
         <v>-1.25</v>
       </c>
       <c r="R390">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S390">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T390">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U390">
         <v>1.8</v>
@@ -35247,25 +35247,25 @@
         <v>2</v>
       </c>
       <c r="W390">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X390">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y390">
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA390">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB390">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC390">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391" spans="1:29">
@@ -35273,7 +35273,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7864116</v>
+        <v>7864117</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35285,34 +35285,34 @@
         <v>45343.95833333334</v>
       </c>
       <c r="F391" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G391" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H391">
         <v>3</v>
       </c>
       <c r="I391">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J391" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K391">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L391">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M391">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N391">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O391">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P391">
         <v>6</v>
@@ -35321,13 +35321,13 @@
         <v>-1.25</v>
       </c>
       <c r="R391">
+        <v>1.75</v>
+      </c>
+      <c r="S391">
         <v>1.95</v>
       </c>
-      <c r="S391">
-        <v>1.85</v>
-      </c>
       <c r="T391">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U391">
         <v>1.8</v>
@@ -35336,25 +35336,99 @@
         <v>2</v>
       </c>
       <c r="W391">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X391">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y391">
         <v>-1</v>
       </c>
       <c r="Z391">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA391">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB391">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC391">
-        <v>-1</v>
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:29">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>7877535</v>
+      </c>
+      <c r="C392" t="s">
+        <v>28</v>
+      </c>
+      <c r="D392" t="s">
+        <v>28</v>
+      </c>
+      <c r="E392" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F392" t="s">
+        <v>29</v>
+      </c>
+      <c r="G392" t="s">
+        <v>56</v>
+      </c>
+      <c r="K392">
+        <v>1.727</v>
+      </c>
+      <c r="L392">
+        <v>3.4</v>
+      </c>
+      <c r="M392">
+        <v>4</v>
+      </c>
+      <c r="N392">
+        <v>1.333</v>
+      </c>
+      <c r="O392">
+        <v>4.2</v>
+      </c>
+      <c r="P392">
+        <v>8</v>
+      </c>
+      <c r="Q392">
+        <v>-1.5</v>
+      </c>
+      <c r="R392">
+        <v>1.95</v>
+      </c>
+      <c r="S392">
+        <v>1.85</v>
+      </c>
+      <c r="T392">
+        <v>2.75</v>
+      </c>
+      <c r="U392">
+        <v>1.875</v>
+      </c>
+      <c r="V392">
+        <v>1.925</v>
+      </c>
+      <c r="W392">
+        <v>0</v>
+      </c>
+      <c r="X392">
+        <v>0</v>
+      </c>
+      <c r="Y392">
+        <v>0</v>
+      </c>
+      <c r="Z392">
+        <v>0</v>
+      </c>
+      <c r="AA392">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Guatemala Primera Division/Guatemala Primera Division.xlsx
+++ b/Guatemala Primera Division/Guatemala Primera Division.xlsx
@@ -31179,7 +31179,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>7726352</v>
+        <v>7726349</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31191,13 +31191,13 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F345" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G345" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345">
         <v>0</v>
@@ -31206,34 +31206,34 @@
         <v>58</v>
       </c>
       <c r="K345">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L345">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M345">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N345">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="O345">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P345">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q345">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R345">
+        <v>1.85</v>
+      </c>
+      <c r="S345">
         <v>1.95</v>
       </c>
-      <c r="S345">
-        <v>1.85</v>
-      </c>
       <c r="T345">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U345">
         <v>1.95</v>
@@ -31242,7 +31242,7 @@
         <v>1.85</v>
       </c>
       <c r="W345">
-        <v>0.444</v>
+        <v>1.45</v>
       </c>
       <c r="X345">
         <v>-1</v>
@@ -31251,10 +31251,10 @@
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA345">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
         <v>-1</v>
@@ -31268,7 +31268,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7726349</v>
+        <v>7726348</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31280,76 +31280,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F346" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G346" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K346">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L346">
         <v>3.3</v>
       </c>
       <c r="M346">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N346">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O346">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P346">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q346">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R346">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S346">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T346">
         <v>2.75</v>
       </c>
       <c r="U346">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V346">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W346">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z346">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB346">
         <v>-1</v>
       </c>
       <c r="AC346">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31357,7 +31357,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7726348</v>
+        <v>7726352</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31369,76 +31369,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F347" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G347" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H347">
+        <v>1</v>
+      </c>
+      <c r="I347">
         <v>0</v>
       </c>
-      <c r="I347">
-        <v>1</v>
-      </c>
       <c r="J347" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K347">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L347">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M347">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N347">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="O347">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P347">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q347">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R347">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S347">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U347">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V347">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X347">
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA347">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:29">

--- a/Guatemala Primera Division/Guatemala Primera Division.xlsx
+++ b/Guatemala Primera Division/Guatemala Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Marquense</t>
   </si>
   <si>
-    <t>Cuilapa FC</t>
+    <t>Suchitepequez</t>
   </si>
   <si>
-    <t>Suchitepequez</t>
+    <t>Cuilapa FC</t>
   </si>
   <si>
     <t>Universidad de San Carlos</t>
@@ -133,10 +133,10 @@
     <t>Quiche FC</t>
   </si>
   <si>
-    <t>Sta Lucia FC</t>
+    <t>Deportivo Iztapa</t>
   </si>
   <si>
-    <t>Deportivo Iztapa</t>
+    <t>Sta Lucia FC</t>
   </si>
   <si>
     <t>Nueva Concepcion</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC224"/>
+  <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -830,7 +830,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -919,7 +919,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6997109</v>
+        <v>6996288</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1008,46 +1008,46 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M6">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N6">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O6">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
         <v>1.95</v>
@@ -1059,22 +1059,22 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y6">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6996288</v>
+        <v>6997109</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1097,46 +1097,46 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N7">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P7">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
         <v>1.95</v>
@@ -1148,22 +1148,22 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1527,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7025213</v>
+        <v>7025214</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,46 +1542,46 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L12">
         <v>3.2</v>
       </c>
       <c r="M12">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N12">
+        <v>1.55</v>
+      </c>
+      <c r="O12">
+        <v>3.8</v>
+      </c>
+      <c r="P12">
+        <v>4.75</v>
+      </c>
+      <c r="Q12">
+        <v>-0.75</v>
+      </c>
+      <c r="R12">
         <v>1.75</v>
       </c>
-      <c r="O12">
-        <v>3.3</v>
-      </c>
-      <c r="P12">
-        <v>4.333</v>
-      </c>
-      <c r="Q12">
-        <v>-0.5</v>
-      </c>
-      <c r="R12">
-        <v>1.8</v>
-      </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
         <v>1.8</v>
@@ -1590,25 +1590,25 @@
         <v>2</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC12">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1616,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7025214</v>
+        <v>7025213</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,46 +1631,46 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
         <v>3.2</v>
       </c>
       <c r="M13">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N13">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O13">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P13">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
         <v>1.8</v>
@@ -1679,25 +1679,25 @@
         <v>2</v>
       </c>
       <c r="W13">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z13">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1809,7 +1809,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7060342</v>
+        <v>7060394</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2340,76 +2340,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21">
+        <v>1.615</v>
+      </c>
+      <c r="L21">
+        <v>3.5</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>1.666</v>
+      </c>
+      <c r="O21">
         <v>3.3</v>
       </c>
-      <c r="L21">
-        <v>3.2</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>2.8</v>
-      </c>
-      <c r="O21">
-        <v>3.1</v>
-      </c>
       <c r="P21">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7060393</v>
+        <v>7060342</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,76 +2429,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O22">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P22">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q22">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7060394</v>
+        <v>7060393</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2518,19 +2518,19 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K23">
         <v>1.615</v>
@@ -2542,25 +2542,25 @@
         <v>5</v>
       </c>
       <c r="N23">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
         <v>1.825</v>
@@ -2569,25 +2569,25 @@
         <v>1.975</v>
       </c>
       <c r="W23">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2607,10 +2607,10 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -3052,10 +3052,10 @@
         <v>45154.63194444445</v>
       </c>
       <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
         <v>39</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7072542</v>
+        <v>7072459</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3230,49 +3230,49 @@
         <v>45154.75</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L31">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P31">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U31">
         <v>1.85</v>
@@ -3281,25 +3281,25 @@
         <v>1.95</v>
       </c>
       <c r="W31">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3307,7 +3307,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7072459</v>
+        <v>7072542</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3319,49 +3319,49 @@
         <v>45154.75</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K32">
+        <v>1.909</v>
+      </c>
+      <c r="L32">
+        <v>3.25</v>
+      </c>
+      <c r="M32">
+        <v>3.5</v>
+      </c>
+      <c r="N32">
+        <v>1.7</v>
+      </c>
+      <c r="O32">
+        <v>3.1</v>
+      </c>
+      <c r="P32">
+        <v>4.75</v>
+      </c>
+      <c r="Q32">
+        <v>-0.75</v>
+      </c>
+      <c r="R32">
+        <v>1.925</v>
+      </c>
+      <c r="S32">
+        <v>1.875</v>
+      </c>
+      <c r="T32">
         <v>2.25</v>
-      </c>
-      <c r="L32">
-        <v>3</v>
-      </c>
-      <c r="M32">
-        <v>3</v>
-      </c>
-      <c r="N32">
-        <v>2.5</v>
-      </c>
-      <c r="O32">
-        <v>2.8</v>
-      </c>
-      <c r="P32">
-        <v>3</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.725</v>
-      </c>
-      <c r="S32">
-        <v>2.075</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
       </c>
       <c r="U32">
         <v>1.85</v>
@@ -3370,25 +3370,25 @@
         <v>1.95</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X32">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA32">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3675,7 +3675,7 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
         <v>38</v>
@@ -3752,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7106174</v>
+        <v>7106041</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3764,76 +3764,76 @@
         <v>45161.75</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L37">
+        <v>3.2</v>
+      </c>
+      <c r="M37">
+        <v>2.3</v>
+      </c>
+      <c r="N37">
+        <v>2.3</v>
+      </c>
+      <c r="O37">
         <v>3</v>
       </c>
-      <c r="M37">
-        <v>3.5</v>
-      </c>
-      <c r="N37">
+      <c r="P37">
+        <v>2.875</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
         <v>1.75</v>
       </c>
-      <c r="O37">
-        <v>3.1</v>
-      </c>
-      <c r="P37">
-        <v>4.333</v>
-      </c>
-      <c r="Q37">
-        <v>-0.5</v>
-      </c>
-      <c r="R37">
-        <v>1.85</v>
-      </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X37">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3841,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7106041</v>
+        <v>7106174</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3853,76 +3853,76 @@
         <v>45161.75</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>3.5</v>
+      </c>
+      <c r="N38">
+        <v>1.75</v>
+      </c>
+      <c r="O38">
+        <v>3.1</v>
+      </c>
+      <c r="P38">
+        <v>4.333</v>
+      </c>
+      <c r="Q38">
+        <v>-0.5</v>
+      </c>
+      <c r="R38">
+        <v>1.85</v>
+      </c>
+      <c r="S38">
+        <v>1.95</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>1.85</v>
+      </c>
+      <c r="V38">
+        <v>1.95</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>2.1</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>0.95</v>
+      </c>
+      <c r="AB38">
         <v>0</v>
       </c>
-      <c r="J38" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38">
-        <v>2.75</v>
-      </c>
-      <c r="L38">
-        <v>3.2</v>
-      </c>
-      <c r="M38">
-        <v>2.3</v>
-      </c>
-      <c r="N38">
-        <v>2.3</v>
-      </c>
-      <c r="O38">
-        <v>3</v>
-      </c>
-      <c r="P38">
-        <v>2.875</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>1.75</v>
-      </c>
-      <c r="S38">
-        <v>2.05</v>
-      </c>
-      <c r="T38">
-        <v>2</v>
-      </c>
-      <c r="U38">
-        <v>1.925</v>
-      </c>
-      <c r="V38">
-        <v>1.875</v>
-      </c>
-      <c r="W38">
-        <v>1.3</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>0.75</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3942,7 +3942,7 @@
         <v>45161.75</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
         <v>44</v>
@@ -4197,7 +4197,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7107133</v>
+        <v>7107137</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4209,40 +4209,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>1.45</v>
+      </c>
+      <c r="O42">
         <v>4</v>
       </c>
-      <c r="N42">
-        <v>1.85</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
       <c r="P42">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R42">
         <v>1.9</v>
@@ -4251,34 +4251,34 @@
         <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7107137</v>
+        <v>7107133</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4298,40 +4298,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43">
+        <v>1.8</v>
+      </c>
+      <c r="L43">
+        <v>3.2</v>
+      </c>
+      <c r="M43">
         <v>4</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43">
-        <v>2.1</v>
-      </c>
-      <c r="L43">
-        <v>3.3</v>
-      </c>
-      <c r="M43">
+      <c r="N43">
+        <v>1.85</v>
+      </c>
+      <c r="O43">
         <v>3</v>
       </c>
-      <c r="N43">
-        <v>1.45</v>
-      </c>
-      <c r="O43">
-        <v>4</v>
-      </c>
       <c r="P43">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
         <v>1.9</v>
@@ -4340,34 +4340,34 @@
         <v>1.9</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
       <c r="AB43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4387,7 +4387,7 @@
         <v>45162.625</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7128524</v>
+        <v>7128481</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,43 +4565,43 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M46">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N46">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O46">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P46">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S46">
         <v>1.975</v>
@@ -4610,31 +4610,31 @@
         <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X46">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4642,7 +4642,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7128481</v>
+        <v>7128480</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4654,13 +4654,13 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4669,43 +4669,43 @@
         <v>52</v>
       </c>
       <c r="K47">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
+        <v>3.1</v>
+      </c>
+      <c r="M47">
         <v>3.75</v>
       </c>
-      <c r="M47">
-        <v>4.75</v>
-      </c>
       <c r="N47">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O47">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>0.444</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4714,16 +4714,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4731,7 +4731,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7128480</v>
+        <v>7128524</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4743,76 +4743,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48" t="s">
+        <v>54</v>
+      </c>
+      <c r="K48">
+        <v>2.4</v>
+      </c>
+      <c r="L48">
+        <v>3.2</v>
+      </c>
+      <c r="M48">
+        <v>2.6</v>
+      </c>
+      <c r="N48">
+        <v>2.4</v>
+      </c>
+      <c r="O48">
+        <v>3.2</v>
+      </c>
+      <c r="P48">
+        <v>2.6</v>
+      </c>
+      <c r="Q48">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48">
-        <v>1.909</v>
-      </c>
-      <c r="L48">
-        <v>3.1</v>
-      </c>
-      <c r="M48">
-        <v>3.75</v>
-      </c>
-      <c r="N48">
-        <v>1.65</v>
-      </c>
-      <c r="O48">
-        <v>3.25</v>
-      </c>
-      <c r="P48">
-        <v>5</v>
-      </c>
-      <c r="Q48">
-        <v>-0.5</v>
-      </c>
       <c r="R48">
+        <v>1.825</v>
+      </c>
+      <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
+        <v>2.25</v>
+      </c>
+      <c r="U48">
+        <v>1.95</v>
+      </c>
+      <c r="V48">
         <v>1.85</v>
       </c>
-      <c r="S48">
-        <v>1.95</v>
-      </c>
-      <c r="T48">
-        <v>1.75</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4924,7 +4924,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5013,7 +5013,7 @@
         <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5366,7 +5366,7 @@
         <v>45171.875</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5532,7 +5532,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7158484</v>
+        <v>7158508</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5544,76 +5544,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K57">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L57">
         <v>3.2</v>
       </c>
       <c r="M57">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P57">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5633,7 +5633,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
         <v>41</v>
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7158508</v>
+        <v>7158484</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5722,76 +5722,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K59">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L59">
         <v>3.2</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N59">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6155,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7189205</v>
+        <v>7189246</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6167,76 +6167,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
         <v>53</v>
       </c>
       <c r="K64">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L64">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>1.8</v>
+      </c>
+      <c r="O64">
+        <v>3.25</v>
+      </c>
+      <c r="P64">
+        <v>4</v>
+      </c>
+      <c r="Q64">
+        <v>-0.5</v>
+      </c>
+      <c r="R64">
+        <v>1.825</v>
+      </c>
+      <c r="S64">
+        <v>1.975</v>
+      </c>
+      <c r="T64">
+        <v>2.25</v>
+      </c>
+      <c r="U64">
+        <v>1.825</v>
+      </c>
+      <c r="V64">
+        <v>1.975</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
         <v>3</v>
       </c>
-      <c r="N64">
-        <v>2.15</v>
-      </c>
-      <c r="O64">
-        <v>2.8</v>
-      </c>
-      <c r="P64">
-        <v>3.4</v>
-      </c>
-      <c r="Q64">
-        <v>-0.25</v>
-      </c>
-      <c r="R64">
-        <v>1.85</v>
-      </c>
-      <c r="S64">
-        <v>1.95</v>
-      </c>
-      <c r="T64">
-        <v>2</v>
-      </c>
-      <c r="U64">
-        <v>1.95</v>
-      </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>2.4</v>
-      </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6345,7 +6345,7 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6422,7 +6422,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7189246</v>
+        <v>7189205</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6434,55 +6434,55 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>1</v>
-      </c>
-      <c r="I67">
-        <v>3</v>
       </c>
       <c r="J67" t="s">
         <v>53</v>
       </c>
       <c r="K67">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O67">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P67">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6491,19 +6491,19 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6526,7 +6526,7 @@
         <v>46</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>4</v>
@@ -6701,7 +6701,7 @@
         <v>45182.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6867,7 +6867,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7203452</v>
+        <v>7203472</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6879,58 +6879,58 @@
         <v>45182.75</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
         <v>1</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>52</v>
       </c>
       <c r="K72">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N72">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
+        <v>1.975</v>
+      </c>
+      <c r="T72">
+        <v>2.5</v>
+      </c>
+      <c r="U72">
         <v>1.95</v>
       </c>
-      <c r="T72">
-        <v>3</v>
-      </c>
-      <c r="U72">
-        <v>1.9</v>
-      </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6939,16 +6939,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
+        <v>0.4125</v>
+      </c>
+      <c r="AA72">
         <v>-0.5</v>
       </c>
-      <c r="AA72">
-        <v>0.475</v>
-      </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6968,7 +6968,7 @@
         <v>45182.75</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
         <v>31</v>
@@ -7045,7 +7045,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7203472</v>
+        <v>7203452</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7057,58 +7057,58 @@
         <v>45182.75</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L74">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N74">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P74">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7117,16 +7117,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7146,7 +7146,7 @@
         <v>45182.875</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -7327,7 +7327,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>5</v>
@@ -7416,7 +7416,7 @@
         <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7579,7 +7579,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7223489</v>
+        <v>7223342</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7591,76 +7591,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K80">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L80">
         <v>3.2</v>
       </c>
       <c r="M80">
+        <v>4</v>
+      </c>
+      <c r="N80">
+        <v>1.8</v>
+      </c>
+      <c r="O80">
+        <v>3</v>
+      </c>
+      <c r="P80">
+        <v>4.75</v>
+      </c>
+      <c r="Q80">
+        <v>-0.5</v>
+      </c>
+      <c r="R80">
+        <v>1.85</v>
+      </c>
+      <c r="S80">
+        <v>1.95</v>
+      </c>
+      <c r="T80">
+        <v>2</v>
+      </c>
+      <c r="U80">
+        <v>1.975</v>
+      </c>
+      <c r="V80">
+        <v>1.825</v>
+      </c>
+      <c r="W80">
+        <v>-1</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
         <v>3.75</v>
       </c>
-      <c r="N80">
-        <v>1.666</v>
-      </c>
-      <c r="O80">
-        <v>3.4</v>
-      </c>
-      <c r="P80">
-        <v>4.5</v>
-      </c>
-      <c r="Q80">
-        <v>-0.75</v>
-      </c>
-      <c r="R80">
-        <v>1.9</v>
-      </c>
-      <c r="S80">
-        <v>1.9</v>
-      </c>
-      <c r="T80">
-        <v>2.25</v>
-      </c>
-      <c r="U80">
-        <v>1.85</v>
-      </c>
-      <c r="V80">
-        <v>1.95</v>
-      </c>
-      <c r="W80">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
       <c r="Z80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB80">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7668,7 +7668,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7223342</v>
+        <v>7223489</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7680,76 +7680,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K81">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L81">
         <v>3.2</v>
       </c>
       <c r="M81">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N81">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O81">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q81">
+        <v>-0.75</v>
+      </c>
+      <c r="R81">
+        <v>1.9</v>
+      </c>
+      <c r="S81">
+        <v>1.9</v>
+      </c>
+      <c r="T81">
+        <v>2.25</v>
+      </c>
+      <c r="U81">
+        <v>1.85</v>
+      </c>
+      <c r="V81">
+        <v>1.95</v>
+      </c>
+      <c r="W81">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
+        <v>-1</v>
+      </c>
+      <c r="Z81">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
         <v>-0.5</v>
       </c>
-      <c r="R81">
-        <v>1.85</v>
-      </c>
-      <c r="S81">
-        <v>1.95</v>
-      </c>
-      <c r="T81">
-        <v>2</v>
-      </c>
-      <c r="U81">
-        <v>1.975</v>
-      </c>
-      <c r="V81">
-        <v>1.825</v>
-      </c>
-      <c r="W81">
-        <v>-1</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>3.75</v>
-      </c>
-      <c r="Z81">
-        <v>-1</v>
-      </c>
-      <c r="AA81">
-        <v>0.95</v>
-      </c>
-      <c r="AB81">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7772,7 +7772,7 @@
         <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8039,7 +8039,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8113,7 +8113,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7249817</v>
+        <v>7249890</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8125,61 +8125,61 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K86">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="N86">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O86">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P86">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q86">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y86">
         <v>-1</v>
@@ -8188,13 +8188,13 @@
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8202,7 +8202,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7249890</v>
+        <v>7249889</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8214,10 +8214,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8229,46 +8229,46 @@
         <v>54</v>
       </c>
       <c r="K87">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M87">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N87">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O87">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q87">
         <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
         <v>-1</v>
@@ -8277,13 +8277,13 @@
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8392,7 +8392,7 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
         <v>42</v>
@@ -8469,7 +8469,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7249889</v>
+        <v>7249817</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8481,40 +8481,40 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K90">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L90">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M90">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P90">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R90">
         <v>1.9</v>
@@ -8526,16 +8526,16 @@
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X90">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8550,7 +8550,7 @@
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8751,7 +8751,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8837,10 +8837,10 @@
         <v>45196.625</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8914,7 +8914,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7265138</v>
+        <v>7265140</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8926,76 +8926,76 @@
         <v>45196.75</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L95">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M95">
+        <v>2.75</v>
+      </c>
+      <c r="N95">
+        <v>2.5</v>
+      </c>
+      <c r="O95">
         <v>3.2</v>
       </c>
-      <c r="N95">
-        <v>1.65</v>
-      </c>
-      <c r="O95">
-        <v>3.6</v>
-      </c>
       <c r="P95">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X95">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7265139</v>
+        <v>7265138</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,16 +9015,16 @@
         <v>45196.75</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>54</v>
@@ -9033,43 +9033,43 @@
         <v>2</v>
       </c>
       <c r="L96">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M96">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N96">
+        <v>1.65</v>
+      </c>
+      <c r="O96">
+        <v>3.6</v>
+      </c>
+      <c r="P96">
+        <v>4.5</v>
+      </c>
+      <c r="Q96">
+        <v>-0.75</v>
+      </c>
+      <c r="R96">
+        <v>1.8</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>2.75</v>
+      </c>
+      <c r="U96">
         <v>1.95</v>
       </c>
-      <c r="O96">
-        <v>2.9</v>
-      </c>
-      <c r="P96">
-        <v>4.2</v>
-      </c>
-      <c r="Q96">
-        <v>-0.5</v>
-      </c>
-      <c r="R96">
-        <v>1.975</v>
-      </c>
-      <c r="S96">
-        <v>1.725</v>
-      </c>
-      <c r="T96">
-        <v>2</v>
-      </c>
-      <c r="U96">
-        <v>1.775</v>
-      </c>
       <c r="V96">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y96">
         <v>-1</v>
@@ -9078,13 +9078,13 @@
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB96">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9092,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7265140</v>
+        <v>7265139</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9104,76 +9104,76 @@
         <v>45196.75</v>
       </c>
       <c r="F97" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K97">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L97">
         <v>3</v>
       </c>
       <c r="M97">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N97">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O97">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P97">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U97">
+        <v>1.775</v>
+      </c>
+      <c r="V97">
+        <v>2.025</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
         <v>1.9</v>
       </c>
-      <c r="V97">
-        <v>1.9</v>
-      </c>
-      <c r="W97">
-        <v>1.5</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC97">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7265144</v>
+        <v>7265142</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9282,16 +9282,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>1</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>52</v>
@@ -9300,40 +9300,40 @@
         <v>2</v>
       </c>
       <c r="L99">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N99">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O99">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P99">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9342,16 +9342,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9359,7 +9359,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7265142</v>
+        <v>7265144</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9371,16 +9371,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
@@ -9389,40 +9389,40 @@
         <v>2</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M100">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N100">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
         <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9431,16 +9431,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
+        <v>0.75</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>0.95</v>
-      </c>
-      <c r="AC100">
-        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9626,7 +9626,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7281757</v>
+        <v>7281756</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9638,58 +9638,58 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H103">
         <v>5</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>52</v>
       </c>
       <c r="K103">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q103">
         <v>-0.75</v>
       </c>
       <c r="R103">
+        <v>1.8</v>
+      </c>
+      <c r="S103">
+        <v>2</v>
+      </c>
+      <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
         <v>1.9</v>
       </c>
-      <c r="S103">
+      <c r="V103">
         <v>1.9</v>
       </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.8</v>
-      </c>
-      <c r="V103">
-        <v>2</v>
-      </c>
       <c r="W103">
-        <v>0.6659999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9698,13 +9698,13 @@
         <v>-1</v>
       </c>
       <c r="Z103">
+        <v>0.8</v>
+      </c>
+      <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>0.8</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9715,7 +9715,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7281782</v>
+        <v>7281757</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9727,73 +9727,73 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I104">
         <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N104">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O104">
         <v>3.5</v>
       </c>
       <c r="P104">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9804,7 +9804,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7281756</v>
+        <v>7281782</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9816,73 +9816,73 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K105">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L105">
+        <v>3.3</v>
+      </c>
+      <c r="M105">
+        <v>2.5</v>
+      </c>
+      <c r="N105">
+        <v>1.909</v>
+      </c>
+      <c r="O105">
         <v>3.5</v>
       </c>
-      <c r="M105">
-        <v>4</v>
-      </c>
-      <c r="N105">
-        <v>1.6</v>
-      </c>
-      <c r="O105">
-        <v>3.6</v>
-      </c>
       <c r="P105">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
         <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB105">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9893,7 +9893,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7281758</v>
+        <v>7281783</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9905,16 +9905,16 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>52</v>
@@ -9929,34 +9929,34 @@
         <v>3.75</v>
       </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O106">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P106">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q106">
         <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
         <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9965,16 +9965,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9982,7 +9982,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7281783</v>
+        <v>7281758</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9994,16 +9994,16 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
         <v>52</v>
@@ -10018,34 +10018,34 @@
         <v>3.75</v>
       </c>
       <c r="N107">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10054,16 +10054,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10531,7 +10531,7 @@
         <v>47</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>5</v>
@@ -10694,7 +10694,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7373217</v>
+        <v>7372552</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10706,40 +10706,40 @@
         <v>45221.75</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K115">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L115">
+        <v>3.1</v>
+      </c>
+      <c r="M115">
+        <v>2.8</v>
+      </c>
+      <c r="N115">
+        <v>1.85</v>
+      </c>
+      <c r="O115">
         <v>3.2</v>
       </c>
-      <c r="M115">
-        <v>4.333</v>
-      </c>
-      <c r="N115">
-        <v>1.666</v>
-      </c>
-      <c r="O115">
-        <v>3.4</v>
-      </c>
       <c r="P115">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
         <v>1.9</v>
@@ -10751,31 +10751,31 @@
         <v>2.25</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10783,7 +10783,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7372552</v>
+        <v>7373217</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10795,40 +10795,40 @@
         <v>45221.75</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N116">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
         <v>1.9</v>
@@ -10840,31 +10840,31 @@
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X116">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10884,7 +10884,7 @@
         <v>45224.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
         <v>44</v>
@@ -10961,7 +10961,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7387211</v>
+        <v>7387942</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10973,61 +10973,61 @@
         <v>45224.75</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K118">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M118">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N118">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q118">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
@@ -11036,13 +11036,13 @@
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11050,7 +11050,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7387942</v>
+        <v>7387943</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11062,76 +11062,76 @@
         <v>45224.75</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K119">
+        <v>1.727</v>
+      </c>
+      <c r="L119">
+        <v>3.4</v>
+      </c>
+      <c r="M119">
+        <v>4.2</v>
+      </c>
+      <c r="N119">
+        <v>1.533</v>
+      </c>
+      <c r="O119">
+        <v>3.6</v>
+      </c>
+      <c r="P119">
+        <v>5.5</v>
+      </c>
+      <c r="Q119">
+        <v>-0.75</v>
+      </c>
+      <c r="R119">
+        <v>1.75</v>
+      </c>
+      <c r="S119">
+        <v>1.95</v>
+      </c>
+      <c r="T119">
         <v>2.5</v>
       </c>
-      <c r="L119">
-        <v>3</v>
-      </c>
-      <c r="M119">
-        <v>2.6</v>
-      </c>
-      <c r="N119">
-        <v>1.909</v>
-      </c>
-      <c r="O119">
-        <v>3.2</v>
-      </c>
-      <c r="P119">
-        <v>3.6</v>
-      </c>
-      <c r="Q119">
-        <v>-0.5</v>
-      </c>
-      <c r="R119">
-        <v>2</v>
-      </c>
-      <c r="S119">
-        <v>1.8</v>
-      </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X119">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7387943</v>
+        <v>7387211</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11151,13 +11151,13 @@
         <v>45224.75</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -11166,34 +11166,34 @@
         <v>52</v>
       </c>
       <c r="K120">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M120">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N120">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P120">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R120">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U120">
         <v>1.9</v>
@@ -11202,7 +11202,7 @@
         <v>1.9</v>
       </c>
       <c r="W120">
-        <v>0.5329999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11211,16 +11211,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC120">
-        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11240,7 +11240,7 @@
         <v>45224.77083333334</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
         <v>35</v>
@@ -11329,7 +11329,7 @@
         <v>45224.875</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
         <v>49</v>
@@ -11685,7 +11685,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
         <v>31</v>
@@ -11762,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7400384</v>
+        <v>7400380</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11774,13 +11774,13 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -11789,25 +11789,25 @@
         <v>52</v>
       </c>
       <c r="K127">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L127">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M127">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N127">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O127">
         <v>3</v>
       </c>
       <c r="P127">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
         <v>1.85</v>
@@ -11816,16 +11816,16 @@
         <v>1.95</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W127">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11840,7 +11840,7 @@
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11851,7 +11851,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7400380</v>
+        <v>7400384</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11863,13 +11863,13 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -11878,25 +11878,25 @@
         <v>52</v>
       </c>
       <c r="K128">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L128">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N128">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O128">
         <v>3</v>
       </c>
       <c r="P128">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
         <v>1.85</v>
@@ -11905,16 +11905,16 @@
         <v>1.95</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W128">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11929,7 +11929,7 @@
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7400381</v>
+        <v>7400383</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,73 +12041,73 @@
         <v>45228.75</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K130">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12118,7 +12118,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7400383</v>
+        <v>7400381</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12130,73 +12130,73 @@
         <v>45228.75</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K131">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>3.75</v>
+      </c>
+      <c r="N131">
+        <v>1.65</v>
+      </c>
+      <c r="O131">
         <v>3.6</v>
       </c>
-      <c r="M131">
-        <v>5</v>
-      </c>
-      <c r="N131">
-        <v>1.45</v>
-      </c>
-      <c r="O131">
-        <v>3.8</v>
-      </c>
       <c r="P131">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12222,7 +12222,7 @@
         <v>43</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12489,7 +12489,7 @@
         <v>46</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>6</v>
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7452316</v>
+        <v>7451046</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,40 +12575,40 @@
         <v>45238.75</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>54</v>
+      </c>
+      <c r="K136">
         <v>3</v>
       </c>
-      <c r="J136" t="s">
-        <v>53</v>
-      </c>
-      <c r="K136">
-        <v>5</v>
-      </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="N136">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P136">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q136">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
         <v>1.9</v>
@@ -12617,34 +12617,34 @@
         <v>1.9</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7451046</v>
+        <v>7448182</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,40 +12664,40 @@
         <v>45238.75</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N137">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O137">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
         <v>1.9</v>
@@ -12709,31 +12709,31 @@
         <v>2.5</v>
       </c>
       <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
         <v>1.825</v>
       </c>
-      <c r="V137">
-        <v>1.975</v>
-      </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X137">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12741,7 +12741,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7451058</v>
+        <v>7450477</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12753,58 +12753,58 @@
         <v>45238.75</v>
       </c>
       <c r="F138" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
         <v>52</v>
       </c>
       <c r="K138">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M138">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N138">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P138">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12813,16 +12813,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB138">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12919,7 +12919,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7451044</v>
+        <v>7451058</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12931,76 +12931,76 @@
         <v>45238.75</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K140">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
+        <v>3.4</v>
+      </c>
+      <c r="M140">
         <v>3.5</v>
       </c>
-      <c r="M140">
-        <v>1.8</v>
-      </c>
       <c r="N140">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O140">
         <v>3.4</v>
       </c>
       <c r="P140">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
         <v>1.8</v>
-      </c>
-      <c r="S140">
-        <v>2</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X140">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13008,7 +13008,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7450477</v>
+        <v>7452316</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13020,40 +13020,40 @@
         <v>45238.75</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N141">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="O141">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R141">
         <v>1.9</v>
@@ -13065,31 +13065,31 @@
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB141">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7448182</v>
+        <v>7451044</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,76 +13109,76 @@
         <v>45238.75</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K142">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13275,7 +13275,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7477707</v>
+        <v>7477706</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13287,40 +13287,40 @@
         <v>45245.95833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K144">
         <v>2</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M144">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N144">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O144">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R144">
         <v>1.9</v>
@@ -13329,34 +13329,34 @@
         <v>1.9</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
       <c r="AB144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13364,7 +13364,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7477706</v>
+        <v>7477707</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13376,40 +13376,40 @@
         <v>45245.95833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K145">
         <v>2</v>
       </c>
       <c r="L145">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M145">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N145">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P145">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
         <v>1.9</v>
@@ -13418,34 +13418,34 @@
         <v>1.9</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X145">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC145">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13468,7 +13468,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13554,7 +13554,7 @@
         <v>45249.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>37</v>
@@ -14002,7 +14002,7 @@
         <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14177,7 +14177,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -14966,7 +14966,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7693875</v>
+        <v>7694909</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14978,76 +14978,76 @@
         <v>45304.75</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L163">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N163">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7694909</v>
+        <v>7693875</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45304.75</v>
       </c>
       <c r="F164" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L164">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M164">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N164">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q164">
+        <v>-0.25</v>
+      </c>
+      <c r="R164">
+        <v>1.85</v>
+      </c>
+      <c r="S164">
+        <v>1.95</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
+        <v>2</v>
+      </c>
+      <c r="V164">
+        <v>1.8</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
+        <v>2.1</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
         <v>-0.5</v>
       </c>
-      <c r="R164">
-        <v>1.975</v>
-      </c>
-      <c r="S164">
-        <v>1.825</v>
-      </c>
-      <c r="T164">
-        <v>3</v>
-      </c>
-      <c r="U164">
-        <v>1.975</v>
-      </c>
-      <c r="V164">
-        <v>1.825</v>
-      </c>
-      <c r="W164">
-        <v>0.909</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
-      <c r="Y164">
-        <v>-1</v>
-      </c>
-      <c r="Z164">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB164">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15144,7 +15144,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7697288</v>
+        <v>7697287</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15156,13 +15156,13 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -15171,31 +15171,31 @@
         <v>52</v>
       </c>
       <c r="K165">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N165">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P165">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q165">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
         <v>2.75</v>
@@ -15207,7 +15207,7 @@
         <v>1.9</v>
       </c>
       <c r="W165">
-        <v>0.444</v>
+        <v>1.05</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15216,16 +15216,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA165">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15233,7 +15233,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7697287</v>
+        <v>7697288</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15245,13 +15245,13 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H166">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -15260,31 +15260,31 @@
         <v>52</v>
       </c>
       <c r="K166">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L166">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N166">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O166">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P166">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
         <v>2.75</v>
@@ -15296,7 +15296,7 @@
         <v>1.9</v>
       </c>
       <c r="W166">
-        <v>1.05</v>
+        <v>0.444</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15305,16 +15305,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB166">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15337,7 +15337,7 @@
         <v>45</v>
       </c>
       <c r="G167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H167">
         <v>5</v>
@@ -15426,7 +15426,7 @@
         <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15678,7 +15678,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7726352</v>
+        <v>7726349</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15690,13 +15690,13 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -15705,34 +15705,34 @@
         <v>52</v>
       </c>
       <c r="K171">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L171">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M171">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N171">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="O171">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P171">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q171">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R171">
+        <v>1.85</v>
+      </c>
+      <c r="S171">
         <v>1.95</v>
       </c>
-      <c r="S171">
-        <v>1.85</v>
-      </c>
       <c r="T171">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
         <v>1.95</v>
@@ -15741,7 +15741,7 @@
         <v>1.85</v>
       </c>
       <c r="W171">
-        <v>0.444</v>
+        <v>1.45</v>
       </c>
       <c r="X171">
         <v>-1</v>
@@ -15750,10 +15750,10 @@
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA171">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
         <v>-1</v>
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7726349</v>
+        <v>7726352</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,13 +15779,13 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G172" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -15794,34 +15794,34 @@
         <v>52</v>
       </c>
       <c r="K172">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L172">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M172">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N172">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P172">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R172">
+        <v>1.95</v>
+      </c>
+      <c r="S172">
         <v>1.85</v>
       </c>
-      <c r="S172">
-        <v>1.95</v>
-      </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U172">
         <v>1.95</v>
@@ -15830,7 +15830,7 @@
         <v>1.85</v>
       </c>
       <c r="W172">
-        <v>1.45</v>
+        <v>0.444</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15839,10 +15839,10 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB172">
         <v>-1</v>
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7726348</v>
+        <v>7728658</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,55 +15868,55 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
         <v>53</v>
       </c>
       <c r="K173">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M173">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N173">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="O173">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P173">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V173">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
         <v>-1</v>
@@ -15925,19 +15925,19 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>3.333</v>
+        <v>0.571</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7728658</v>
+        <v>7726348</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15957,55 +15957,55 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
         <v>53</v>
       </c>
       <c r="K174">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L174">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N174">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="O174">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="Q174">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W174">
         <v>-1</v>
@@ -16014,19 +16014,19 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.571</v>
+        <v>3.333</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16034,7 +16034,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7726350</v>
+        <v>7726351</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16046,13 +16046,13 @@
         <v>45312.75</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -16061,43 +16061,43 @@
         <v>52</v>
       </c>
       <c r="K175">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M175">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N175">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P175">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q175">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R175">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
         <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16106,16 +16106,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7726351</v>
+        <v>7726350</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,13 +16135,13 @@
         <v>45312.75</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16150,43 +16150,43 @@
         <v>52</v>
       </c>
       <c r="K176">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M176">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N176">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="O176">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q176">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T176">
         <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16195,16 +16195,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA176">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16224,7 +16224,7 @@
         <v>45312.875</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -16316,7 +16316,7 @@
         <v>35</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7749789</v>
+        <v>7749669</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,76 +16402,76 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K179">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L179">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M179">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N179">
         <v>1.65</v>
       </c>
       <c r="O179">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P179">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q179">
         <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W179">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7749669</v>
+        <v>7749789</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K181">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="L181">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M181">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N181">
         <v>1.65</v>
       </c>
       <c r="O181">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P181">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q181">
         <v>-0.75</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X181">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA181">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7754830</v>
+        <v>7754831</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16669,73 +16669,73 @@
         <v>45319.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K182">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="L182">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M182">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N182">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O182">
         <v>3.8</v>
       </c>
       <c r="P182">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q182">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R182">
+        <v>1.85</v>
+      </c>
+      <c r="S182">
+        <v>1.95</v>
+      </c>
+      <c r="T182">
+        <v>2.5</v>
+      </c>
+      <c r="U182">
+        <v>1.875</v>
+      </c>
+      <c r="V182">
         <v>1.925</v>
       </c>
-      <c r="S182">
-        <v>1.875</v>
-      </c>
-      <c r="T182">
-        <v>2.75</v>
-      </c>
-      <c r="U182">
-        <v>1.825</v>
-      </c>
-      <c r="V182">
-        <v>1.975</v>
-      </c>
       <c r="W182">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16746,7 +16746,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7754831</v>
+        <v>7754830</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16758,73 +16758,73 @@
         <v>45319.58333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K183">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="L183">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M183">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N183">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="O183">
         <v>3.8</v>
       </c>
       <c r="P183">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X183">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -16939,7 +16939,7 @@
         <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17203,7 +17203,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
         <v>37</v>
@@ -17470,10 +17470,10 @@
         <v>45326.875</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17636,7 +17636,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7797364</v>
+        <v>7797362</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17648,10 +17648,10 @@
         <v>45329.75</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G193" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17663,43 +17663,43 @@
         <v>52</v>
       </c>
       <c r="K193">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L193">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
+        <v>4.75</v>
+      </c>
+      <c r="N193">
+        <v>1.4</v>
+      </c>
+      <c r="O193">
+        <v>4</v>
+      </c>
+      <c r="P193">
+        <v>7</v>
+      </c>
+      <c r="Q193">
+        <v>-1.5</v>
+      </c>
+      <c r="R193">
+        <v>1.925</v>
+      </c>
+      <c r="S193">
+        <v>1.775</v>
+      </c>
+      <c r="T193">
         <v>3</v>
       </c>
-      <c r="N193">
-        <v>1.909</v>
-      </c>
-      <c r="O193">
-        <v>3.4</v>
-      </c>
-      <c r="P193">
-        <v>3.5</v>
-      </c>
-      <c r="Q193">
-        <v>-0.5</v>
-      </c>
-      <c r="R193">
-        <v>1.95</v>
-      </c>
-      <c r="S193">
-        <v>1.85</v>
-      </c>
-      <c r="T193">
-        <v>2</v>
-      </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W193">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17708,16 +17708,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7797362</v>
+        <v>7797364</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,10 +17826,10 @@
         <v>45329.75</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17841,43 +17841,43 @@
         <v>52</v>
       </c>
       <c r="K195">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L195">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M195">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N195">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O195">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P195">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q195">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17886,16 +17886,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA195">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17915,7 +17915,7 @@
         <v>45329.79861111111</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
         <v>48</v>
@@ -18081,7 +18081,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7797361</v>
+        <v>7797366</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18093,13 +18093,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -18108,25 +18108,25 @@
         <v>52</v>
       </c>
       <c r="K198">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L198">
+        <v>3.3</v>
+      </c>
+      <c r="M198">
         <v>3.5</v>
       </c>
-      <c r="M198">
-        <v>2.6</v>
-      </c>
       <c r="N198">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O198">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="P198">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R198">
         <v>1.85</v>
@@ -18135,16 +18135,16 @@
         <v>1.95</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W198">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18159,7 +18159,7 @@
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18170,7 +18170,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7797366</v>
+        <v>7797361</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18182,13 +18182,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H199">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -18197,25 +18197,25 @@
         <v>52</v>
       </c>
       <c r="K199">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L199">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M199">
+        <v>2.6</v>
+      </c>
+      <c r="N199">
+        <v>1.8</v>
+      </c>
+      <c r="O199">
+        <v>3.6</v>
+      </c>
+      <c r="P199">
         <v>3.5</v>
       </c>
-      <c r="N199">
-        <v>1.25</v>
-      </c>
-      <c r="O199">
-        <v>6</v>
-      </c>
-      <c r="P199">
-        <v>7.5</v>
-      </c>
       <c r="Q199">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
         <v>1.85</v>
@@ -18224,16 +18224,16 @@
         <v>1.95</v>
       </c>
       <c r="T199">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U199">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18248,7 +18248,7 @@
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC199">
         <v>-1</v>
@@ -18630,7 +18630,7 @@
         <v>44</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H204">
         <v>3</v>
@@ -18719,7 +18719,7 @@
         <v>43</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H205">
         <v>3</v>
@@ -18894,7 +18894,7 @@
         <v>45339.875</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G207" t="s">
         <v>41</v>
@@ -19072,7 +19072,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G209" t="s">
         <v>49</v>
@@ -19250,7 +19250,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
         <v>42</v>
@@ -19520,7 +19520,7 @@
         <v>47</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19609,7 +19609,7 @@
         <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7864117</v>
+        <v>7864116</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,34 +19784,34 @@
         <v>45343.95833333334</v>
       </c>
       <c r="F217" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G217" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H217">
         <v>3</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K217">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L217">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M217">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N217">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O217">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P217">
         <v>6</v>
@@ -19820,13 +19820,13 @@
         <v>-1.25</v>
       </c>
       <c r="R217">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T217">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U217">
         <v>1.8</v>
@@ -19835,25 +19835,25 @@
         <v>2</v>
       </c>
       <c r="W217">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB217">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC217">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7864116</v>
+        <v>7864117</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,34 +19873,34 @@
         <v>45343.95833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G218" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H218">
         <v>3</v>
       </c>
       <c r="I218">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K218">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L218">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M218">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N218">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O218">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P218">
         <v>6</v>
@@ -19909,13 +19909,13 @@
         <v>-1.25</v>
       </c>
       <c r="R218">
+        <v>1.75</v>
+      </c>
+      <c r="S218">
         <v>1.95</v>
       </c>
-      <c r="S218">
-        <v>1.85</v>
-      </c>
       <c r="T218">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U218">
         <v>1.8</v>
@@ -19924,25 +19924,25 @@
         <v>2</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X218">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA218">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7881213</v>
+        <v>7881216</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,10 +20051,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H220">
         <v>4</v>
@@ -20066,43 +20066,43 @@
         <v>52</v>
       </c>
       <c r="K220">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L220">
+        <v>3.2</v>
+      </c>
+      <c r="M220">
         <v>3.5</v>
       </c>
-      <c r="M220">
-        <v>2.375</v>
-      </c>
       <c r="N220">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O220">
         <v>3.6</v>
       </c>
       <c r="P220">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q220">
         <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W220">
-        <v>0.615</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20111,13 +20111,13 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC220">
         <v>-1</v>
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7881214</v>
+        <v>7881215</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,40 +20140,40 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K221">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L221">
         <v>3.2</v>
       </c>
       <c r="M221">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N221">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R221">
         <v>1.775</v>
@@ -20182,7 +20182,7 @@
         <v>2.025</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
         <v>2</v>
@@ -20191,25 +20191,25 @@
         <v>1.8</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA221">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7881215</v>
+        <v>7881214</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,40 +20229,40 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K222">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L222">
         <v>3.2</v>
       </c>
       <c r="M222">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N222">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O222">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q222">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R222">
         <v>1.775</v>
@@ -20271,7 +20271,7 @@
         <v>2.025</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
         <v>2</v>
@@ -20280,25 +20280,25 @@
         <v>1.8</v>
       </c>
       <c r="W222">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z222">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC222">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7881216</v>
+        <v>7881213</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,10 +20318,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F223" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G223" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H223">
         <v>4</v>
@@ -20333,43 +20333,43 @@
         <v>52</v>
       </c>
       <c r="K223">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L223">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N223">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O223">
         <v>3.6</v>
       </c>
       <c r="P223">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q223">
         <v>-0.75</v>
       </c>
       <c r="R223">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S223">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V223">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W223">
-        <v>0.5329999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20378,13 +20378,13 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20477,6 +20477,95 @@
       </c>
       <c r="AC224">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>7881218</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45347.875</v>
+      </c>
+      <c r="F225" t="s">
+        <v>33</v>
+      </c>
+      <c r="G225" t="s">
+        <v>49</v>
+      </c>
+      <c r="H225">
+        <v>4</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225" t="s">
+        <v>52</v>
+      </c>
+      <c r="K225">
+        <v>1.909</v>
+      </c>
+      <c r="L225">
+        <v>3.3</v>
+      </c>
+      <c r="M225">
+        <v>3.75</v>
+      </c>
+      <c r="N225">
+        <v>1.45</v>
+      </c>
+      <c r="O225">
+        <v>4</v>
+      </c>
+      <c r="P225">
+        <v>6</v>
+      </c>
+      <c r="Q225">
+        <v>-1</v>
+      </c>
+      <c r="R225">
+        <v>1.775</v>
+      </c>
+      <c r="S225">
+        <v>2.025</v>
+      </c>
+      <c r="T225">
+        <v>2.75</v>
+      </c>
+      <c r="U225">
+        <v>1.975</v>
+      </c>
+      <c r="V225">
+        <v>1.825</v>
+      </c>
+      <c r="W225">
+        <v>0.45</v>
+      </c>
+      <c r="X225">
+        <v>-1</v>
+      </c>
+      <c r="Y225">
+        <v>-1</v>
+      </c>
+      <c r="Z225">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA225">
+        <v>-1</v>
+      </c>
+      <c r="AB225">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC225">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Guatemala Primera Division/Guatemala Primera Division.xlsx
+++ b/Guatemala Primera Division/Guatemala Primera Division.xlsx
@@ -118,10 +118,10 @@
     <t>Suchitepequez</t>
   </si>
   <si>
-    <t>Cuilapa FC</t>
+    <t>Universidad de San Carlos</t>
   </si>
   <si>
-    <t>Universidad de San Carlos</t>
+    <t>Cuilapa FC</t>
   </si>
   <si>
     <t>Deportivo Barberena FC</t>
@@ -133,10 +133,10 @@
     <t>Quiche FC</t>
   </si>
   <si>
-    <t>Deportivo Iztapa</t>
+    <t>Sta Lucia FC</t>
   </si>
   <si>
-    <t>Sta Lucia FC</t>
+    <t>Deportivo Iztapa</t>
   </si>
   <si>
     <t>Nueva Concepcion</t>
@@ -830,7 +830,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -919,7 +919,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6997109</v>
+        <v>6996285</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1097,43 +1097,43 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M7">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N7">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
+        <v>1.975</v>
+      </c>
+      <c r="S7">
         <v>1.825</v>
-      </c>
-      <c r="S7">
-        <v>1.975</v>
       </c>
       <c r="T7">
         <v>2.25</v>
@@ -1145,19 +1145,19 @@
         <v>1.85</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA7">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -1171,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6996285</v>
+        <v>6997109</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1186,43 +1186,43 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N8">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
+        <v>1.825</v>
+      </c>
+      <c r="S8">
         <v>1.975</v>
-      </c>
-      <c r="S8">
-        <v>1.825</v>
       </c>
       <c r="T8">
         <v>2.25</v>
@@ -1234,19 +1234,19 @@
         <v>1.85</v>
       </c>
       <c r="W8">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z8">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB8">
         <v>-1</v>
@@ -1527,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7025214</v>
+        <v>7025213</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,46 +1542,46 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
         <v>3.2</v>
       </c>
       <c r="M12">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
         <v>1.8</v>
@@ -1590,25 +1590,25 @@
         <v>2</v>
       </c>
       <c r="W12">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z12">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1616,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7025213</v>
+        <v>7025214</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,46 +1631,46 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L13">
         <v>3.2</v>
       </c>
       <c r="M13">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N13">
+        <v>1.55</v>
+      </c>
+      <c r="O13">
+        <v>3.8</v>
+      </c>
+      <c r="P13">
+        <v>4.75</v>
+      </c>
+      <c r="Q13">
+        <v>-0.75</v>
+      </c>
+      <c r="R13">
         <v>1.75</v>
       </c>
-      <c r="O13">
-        <v>3.3</v>
-      </c>
-      <c r="P13">
-        <v>4.333</v>
-      </c>
-      <c r="Q13">
-        <v>-0.5</v>
-      </c>
-      <c r="R13">
-        <v>1.8</v>
-      </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
         <v>1.8</v>
@@ -1679,25 +1679,25 @@
         <v>2</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1809,7 +1809,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7060394</v>
+        <v>7060392</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2340,58 +2340,58 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>52</v>
       </c>
       <c r="K21">
-        <v>1.615</v>
+        <v>1.952</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N21">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
-        <v>0.6659999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2400,16 +2400,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7060342</v>
+        <v>7060393</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,76 +2429,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="L22">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N22">
+        <v>1.5</v>
+      </c>
+      <c r="O22">
+        <v>3.8</v>
+      </c>
+      <c r="P22">
+        <v>5.75</v>
+      </c>
+      <c r="Q22">
+        <v>-1</v>
+      </c>
+      <c r="R22">
+        <v>1.85</v>
+      </c>
+      <c r="S22">
+        <v>1.95</v>
+      </c>
+      <c r="T22">
+        <v>2.75</v>
+      </c>
+      <c r="U22">
+        <v>1.825</v>
+      </c>
+      <c r="V22">
+        <v>1.975</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
         <v>2.8</v>
       </c>
-      <c r="O22">
-        <v>3.1</v>
-      </c>
-      <c r="P22">
-        <v>2.25</v>
-      </c>
-      <c r="Q22">
-        <v>0.25</v>
-      </c>
-      <c r="R22">
-        <v>1.775</v>
-      </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
-      <c r="V22">
-        <v>1.8</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
       <c r="Y22">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7060393</v>
+        <v>7060342</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2518,76 +2518,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P23">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2595,7 +2595,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7060392</v>
+        <v>7060394</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2607,58 +2607,58 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
         <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>52</v>
       </c>
       <c r="K24">
-        <v>1.952</v>
+        <v>1.615</v>
       </c>
       <c r="L24">
+        <v>3.5</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>1.666</v>
+      </c>
+      <c r="O24">
         <v>3.3</v>
       </c>
-      <c r="M24">
-        <v>3.4</v>
-      </c>
-      <c r="N24">
-        <v>1.8</v>
-      </c>
-      <c r="O24">
-        <v>3.6</v>
-      </c>
       <c r="P24">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
+        <v>1.9</v>
+      </c>
+      <c r="S24">
+        <v>1.9</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
         <v>1.825</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>1.975</v>
       </c>
-      <c r="T24">
-        <v>2.5</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <v>1.8</v>
-      </c>
       <c r="W24">
-        <v>0.8</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2667,16 +2667,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
         <v>0.825</v>
       </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3052,10 +3052,10 @@
         <v>45154.63194444445</v>
       </c>
       <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
         <v>40</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7072447</v>
+        <v>7072543</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3141,76 +3141,76 @@
         <v>45154.75</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="L30">
+        <v>3.5</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>1.8</v>
+      </c>
+      <c r="O30">
         <v>3.2</v>
       </c>
-      <c r="M30">
-        <v>2.45</v>
-      </c>
-      <c r="N30">
-        <v>1.75</v>
-      </c>
-      <c r="O30">
-        <v>3.3</v>
-      </c>
       <c r="P30">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q30">
         <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3218,7 +3218,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7072459</v>
+        <v>7072447</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3230,76 +3230,76 @@
         <v>45154.75</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K31">
+        <v>2.55</v>
+      </c>
+      <c r="L31">
+        <v>3.2</v>
+      </c>
+      <c r="M31">
+        <v>2.45</v>
+      </c>
+      <c r="N31">
+        <v>1.75</v>
+      </c>
+      <c r="O31">
+        <v>3.3</v>
+      </c>
+      <c r="P31">
+        <v>4.2</v>
+      </c>
+      <c r="Q31">
+        <v>-0.5</v>
+      </c>
+      <c r="R31">
+        <v>1.8</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
         <v>2.25</v>
       </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
-      <c r="M31">
-        <v>3</v>
-      </c>
-      <c r="N31">
-        <v>2.5</v>
-      </c>
-      <c r="O31">
-        <v>2.8</v>
-      </c>
-      <c r="P31">
-        <v>3</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>1.725</v>
-      </c>
-      <c r="S31">
-        <v>2.075</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3307,7 +3307,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7072542</v>
+        <v>7072459</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3319,49 +3319,49 @@
         <v>45154.75</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L32">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N32">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P32">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U32">
         <v>1.85</v>
@@ -3370,25 +3370,25 @@
         <v>1.95</v>
       </c>
       <c r="W32">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB32">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7072543</v>
+        <v>7072448</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,19 +3408,19 @@
         <v>45154.75</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K33">
         <v>1.727</v>
@@ -3432,52 +3432,52 @@
         <v>4</v>
       </c>
       <c r="N33">
+        <v>1.6</v>
+      </c>
+      <c r="O33">
+        <v>3.6</v>
+      </c>
+      <c r="P33">
+        <v>4.75</v>
+      </c>
+      <c r="Q33">
+        <v>-0.75</v>
+      </c>
+      <c r="R33">
         <v>1.8</v>
       </c>
-      <c r="O33">
-        <v>3.2</v>
-      </c>
-      <c r="P33">
-        <v>4</v>
-      </c>
-      <c r="Q33">
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>1.95</v>
+      </c>
+      <c r="V33">
+        <v>1.85</v>
+      </c>
+      <c r="W33">
+        <v>-1</v>
+      </c>
+      <c r="X33">
+        <v>2.6</v>
+      </c>
+      <c r="Y33">
+        <v>-1</v>
+      </c>
+      <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
         <v>-0.5</v>
       </c>
-      <c r="R33">
-        <v>1.85</v>
-      </c>
-      <c r="S33">
-        <v>1.95</v>
-      </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-      <c r="U33">
-        <v>1.975</v>
-      </c>
-      <c r="V33">
-        <v>1.725</v>
-      </c>
-      <c r="W33">
-        <v>0.8</v>
-      </c>
-      <c r="X33">
-        <v>-1</v>
-      </c>
-      <c r="Y33">
-        <v>-1</v>
-      </c>
-      <c r="Z33">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
-      <c r="AB33">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7072448</v>
+        <v>7072542</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,34 +3497,34 @@
         <v>45154.75</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L34">
+        <v>3.25</v>
+      </c>
+      <c r="M34">
         <v>3.5</v>
       </c>
-      <c r="M34">
-        <v>4</v>
-      </c>
       <c r="N34">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P34">
         <v>4.75</v>
@@ -3533,40 +3533,40 @@
         <v>-0.75</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
         <v>2.25</v>
       </c>
       <c r="U34">
+        <v>1.85</v>
+      </c>
+      <c r="V34">
         <v>1.95</v>
       </c>
-      <c r="V34">
-        <v>1.85</v>
-      </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X34">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC34">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3675,7 +3675,7 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
         <v>38</v>
@@ -3752,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7106041</v>
+        <v>7106173</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3764,13 +3764,13 @@
         <v>45161.75</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3779,43 +3779,43 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>3.2</v>
       </c>
       <c r="M37">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N37">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S37">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>1.3</v>
+        <v>0.571</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3824,16 +3824,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3841,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7106174</v>
+        <v>7106032</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3853,49 +3853,49 @@
         <v>45161.75</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O38">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
         <v>1.85</v>
@@ -3904,25 +3904,25 @@
         <v>1.95</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X38">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA38">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7106173</v>
+        <v>7106041</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3942,13 +3942,13 @@
         <v>45161.75</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3957,43 +3957,43 @@
         <v>52</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L39">
         <v>3.2</v>
       </c>
       <c r="M39">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N39">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>0.571</v>
+        <v>1.3</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4002,16 +4002,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4019,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7106032</v>
+        <v>7106174</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4031,49 +4031,49 @@
         <v>45161.75</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N40">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P40">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
         <v>1.85</v>
@@ -4082,25 +4082,25 @@
         <v>1.95</v>
       </c>
       <c r="W40">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4197,7 +4197,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7107137</v>
+        <v>7107133</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4209,40 +4209,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>1.8</v>
+      </c>
+      <c r="L42">
+        <v>3.2</v>
+      </c>
+      <c r="M42">
         <v>4</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42">
-        <v>2.1</v>
-      </c>
-      <c r="L42">
-        <v>3.3</v>
-      </c>
-      <c r="M42">
+      <c r="N42">
+        <v>1.85</v>
+      </c>
+      <c r="O42">
         <v>3</v>
       </c>
-      <c r="N42">
-        <v>1.45</v>
-      </c>
-      <c r="O42">
-        <v>4</v>
-      </c>
       <c r="P42">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
         <v>1.9</v>
@@ -4251,34 +4251,34 @@
         <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
       <c r="AB42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7107133</v>
+        <v>7107137</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4298,40 +4298,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>1.45</v>
+      </c>
+      <c r="O43">
         <v>4</v>
       </c>
-      <c r="N43">
-        <v>1.85</v>
-      </c>
-      <c r="O43">
-        <v>3</v>
-      </c>
       <c r="P43">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R43">
         <v>1.9</v>
@@ -4340,34 +4340,34 @@
         <v>1.9</v>
       </c>
       <c r="T43">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X43">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7128481</v>
+        <v>7128524</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,43 +4565,43 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>54</v>
+      </c>
+      <c r="K46">
+        <v>2.4</v>
+      </c>
+      <c r="L46">
+        <v>3.2</v>
+      </c>
+      <c r="M46">
+        <v>2.6</v>
+      </c>
+      <c r="N46">
+        <v>2.4</v>
+      </c>
+      <c r="O46">
+        <v>3.2</v>
+      </c>
+      <c r="P46">
+        <v>2.6</v>
+      </c>
+      <c r="Q46">
         <v>0</v>
       </c>
-      <c r="J46" t="s">
-        <v>52</v>
-      </c>
-      <c r="K46">
-        <v>1.571</v>
-      </c>
-      <c r="L46">
-        <v>3.75</v>
-      </c>
-      <c r="M46">
-        <v>4.75</v>
-      </c>
-      <c r="N46">
-        <v>1.444</v>
-      </c>
-      <c r="O46">
-        <v>3.8</v>
-      </c>
-      <c r="P46">
-        <v>7</v>
-      </c>
-      <c r="Q46">
-        <v>-1</v>
-      </c>
       <c r="R46">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
         <v>1.975</v>
@@ -4610,31 +4610,31 @@
         <v>2.25</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4642,7 +4642,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7128480</v>
+        <v>7128481</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4654,13 +4654,13 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4669,61 +4669,61 @@
         <v>52</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L47">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M47">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N47">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q47">
+        <v>-1</v>
+      </c>
+      <c r="R47">
+        <v>1.725</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
+        <v>1.8</v>
+      </c>
+      <c r="W47">
+        <v>0.444</v>
+      </c>
+      <c r="X47">
+        <v>-1</v>
+      </c>
+      <c r="Y47">
+        <v>-1</v>
+      </c>
+      <c r="Z47">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>-1</v>
+      </c>
+      <c r="AB47">
         <v>-0.5</v>
       </c>
-      <c r="R47">
-        <v>1.85</v>
-      </c>
-      <c r="S47">
-        <v>1.95</v>
-      </c>
-      <c r="T47">
-        <v>1.75</v>
-      </c>
-      <c r="U47">
-        <v>1.85</v>
-      </c>
-      <c r="V47">
-        <v>1.95</v>
-      </c>
-      <c r="W47">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
-      <c r="Y47">
-        <v>-1</v>
-      </c>
-      <c r="Z47">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA47">
-        <v>-1</v>
-      </c>
-      <c r="AB47">
-        <v>-1</v>
-      </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4731,7 +4731,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7128524</v>
+        <v>7128480</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4743,76 +4743,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K48">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N48">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P48">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U48">
+        <v>1.85</v>
+      </c>
+      <c r="V48">
         <v>1.95</v>
       </c>
-      <c r="V48">
-        <v>1.85</v>
-      </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
+        <v>-1</v>
+      </c>
+      <c r="AC48">
         <v>0.95</v>
-      </c>
-      <c r="AC48">
-        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4924,7 +4924,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5013,7 +5013,7 @@
         <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5532,7 +5532,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7158508</v>
+        <v>7158484</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5544,76 +5544,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K57">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L57">
         <v>3.2</v>
       </c>
       <c r="M57">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N57">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P57">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5633,7 +5633,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
         <v>41</v>
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7158484</v>
+        <v>7158508</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5722,76 +5722,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K59">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L59">
         <v>3.2</v>
       </c>
       <c r="M59">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5814,7 +5814,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6155,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7189246</v>
+        <v>7189205</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6167,55 +6167,55 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>1</v>
-      </c>
-      <c r="I64">
-        <v>3</v>
       </c>
       <c r="J64" t="s">
         <v>53</v>
       </c>
       <c r="K64">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O64">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6224,19 +6224,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6256,7 +6256,7 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>45</v>
@@ -6345,7 +6345,7 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6422,7 +6422,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7189205</v>
+        <v>7189246</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6434,76 +6434,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
         <v>53</v>
       </c>
       <c r="K67">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L67">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
+        <v>4</v>
+      </c>
+      <c r="N67">
+        <v>1.8</v>
+      </c>
+      <c r="O67">
+        <v>3.25</v>
+      </c>
+      <c r="P67">
+        <v>4</v>
+      </c>
+      <c r="Q67">
+        <v>-0.5</v>
+      </c>
+      <c r="R67">
+        <v>1.825</v>
+      </c>
+      <c r="S67">
+        <v>1.975</v>
+      </c>
+      <c r="T67">
+        <v>2.25</v>
+      </c>
+      <c r="U67">
+        <v>1.825</v>
+      </c>
+      <c r="V67">
+        <v>1.975</v>
+      </c>
+      <c r="W67">
+        <v>-1</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
         <v>3</v>
       </c>
-      <c r="N67">
-        <v>2.15</v>
-      </c>
-      <c r="O67">
-        <v>2.8</v>
-      </c>
-      <c r="P67">
-        <v>3.4</v>
-      </c>
-      <c r="Q67">
-        <v>-0.25</v>
-      </c>
-      <c r="R67">
-        <v>1.85</v>
-      </c>
-      <c r="S67">
-        <v>1.95</v>
-      </c>
-      <c r="T67">
-        <v>2</v>
-      </c>
-      <c r="U67">
-        <v>1.95</v>
-      </c>
-      <c r="V67">
-        <v>1.85</v>
-      </c>
-      <c r="W67">
-        <v>-1</v>
-      </c>
-      <c r="X67">
-        <v>-1</v>
-      </c>
-      <c r="Y67">
-        <v>2.4</v>
-      </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6526,7 +6526,7 @@
         <v>46</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <v>4</v>
@@ -6701,7 +6701,7 @@
         <v>45182.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6867,7 +6867,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7203472</v>
+        <v>7203437</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6879,46 +6879,46 @@
         <v>45182.75</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>52</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L72">
         <v>3.2</v>
       </c>
       <c r="M72">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N72">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P72">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
         <v>2.5</v>
@@ -6927,10 +6927,10 @@
         <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W72">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6939,10 +6939,10 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>0.95</v>
@@ -6956,7 +6956,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7203437</v>
+        <v>7203472</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6968,46 +6968,46 @@
         <v>45182.75</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L73">
         <v>3.2</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N73">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q73">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
         <v>2.5</v>
@@ -7016,10 +7016,10 @@
         <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7028,10 +7028,10 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
         <v>0.95</v>
@@ -7327,7 +7327,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>5</v>
@@ -7594,7 +7594,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7680,7 +7680,7 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
         <v>31</v>
@@ -7772,7 +7772,7 @@
         <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8039,7 +8039,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8113,7 +8113,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7249890</v>
+        <v>7249817</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8125,61 +8125,61 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K86">
+        <v>1.363</v>
+      </c>
+      <c r="L86">
+        <v>4</v>
+      </c>
+      <c r="M86">
+        <v>7.5</v>
+      </c>
+      <c r="N86">
+        <v>1.25</v>
+      </c>
+      <c r="O86">
+        <v>4.75</v>
+      </c>
+      <c r="P86">
+        <v>9</v>
+      </c>
+      <c r="Q86">
+        <v>-1.5</v>
+      </c>
+      <c r="R86">
+        <v>1.9</v>
+      </c>
+      <c r="S86">
+        <v>1.9</v>
+      </c>
+      <c r="T86">
         <v>2.75</v>
       </c>
-      <c r="L86">
-        <v>3</v>
-      </c>
-      <c r="M86">
-        <v>2.4</v>
-      </c>
-      <c r="N86">
-        <v>1.85</v>
-      </c>
-      <c r="O86">
-        <v>3.25</v>
-      </c>
-      <c r="P86">
-        <v>3.8</v>
-      </c>
-      <c r="Q86">
-        <v>-0.5</v>
-      </c>
-      <c r="R86">
-        <v>1.95</v>
-      </c>
-      <c r="S86">
-        <v>1.85</v>
-      </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X86">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
@@ -8188,13 +8188,13 @@
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8202,7 +8202,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7249889</v>
+        <v>7249832</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8214,76 +8214,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="L87">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M87">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P87">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X87">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8380,7 +8380,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7249832</v>
+        <v>7249889</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8392,76 +8392,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K89">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="N89">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W89">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8469,7 +8469,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7249817</v>
+        <v>7249890</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8481,61 +8481,61 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K90">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="N90">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O90">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P90">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q90">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8544,13 +8544,13 @@
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC90">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8751,7 +8751,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8837,7 +8837,7 @@
         <v>45196.625</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
         <v>33</v>
@@ -8914,7 +8914,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7265140</v>
+        <v>7265139</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8926,76 +8926,76 @@
         <v>45196.75</v>
       </c>
       <c r="F95" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K95">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L95">
         <v>3</v>
       </c>
       <c r="M95">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O95">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P95">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U95">
+        <v>1.775</v>
+      </c>
+      <c r="V95">
+        <v>2.025</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
         <v>1.9</v>
       </c>
-      <c r="V95">
-        <v>1.9</v>
-      </c>
-      <c r="W95">
-        <v>1.5</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7265138</v>
+        <v>7265140</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,76 +9015,76 @@
         <v>45196.75</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L96">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M96">
+        <v>2.75</v>
+      </c>
+      <c r="N96">
+        <v>2.5</v>
+      </c>
+      <c r="O96">
         <v>3.2</v>
       </c>
-      <c r="N96">
-        <v>1.65</v>
-      </c>
-      <c r="O96">
-        <v>3.6</v>
-      </c>
       <c r="P96">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X96">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9092,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7265139</v>
+        <v>7265138</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9104,16 +9104,16 @@
         <v>45196.75</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>54</v>
@@ -9122,43 +9122,43 @@
         <v>2</v>
       </c>
       <c r="L97">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M97">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N97">
+        <v>1.65</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
+        <v>4.5</v>
+      </c>
+      <c r="Q97">
+        <v>-0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
         <v>1.95</v>
       </c>
-      <c r="O97">
-        <v>2.9</v>
-      </c>
-      <c r="P97">
-        <v>4.2</v>
-      </c>
-      <c r="Q97">
-        <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.975</v>
-      </c>
-      <c r="S97">
-        <v>1.725</v>
-      </c>
-      <c r="T97">
-        <v>2</v>
-      </c>
-      <c r="U97">
-        <v>1.775</v>
-      </c>
       <c r="V97">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9167,13 +9167,13 @@
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB97">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9285,7 +9285,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9638,10 +9638,10 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F103" t="s">
+        <v>40</v>
+      </c>
+      <c r="G103" t="s">
         <v>39</v>
-      </c>
-      <c r="G103" t="s">
-        <v>40</v>
       </c>
       <c r="H103">
         <v>5</v>
@@ -9715,7 +9715,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7281757</v>
+        <v>7281783</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9727,16 +9727,16 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>52</v>
@@ -9751,34 +9751,34 @@
         <v>3.75</v>
       </c>
       <c r="N104">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9787,16 +9787,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9893,7 +9893,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7281783</v>
+        <v>7281757</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9905,16 +9905,16 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
         <v>52</v>
@@ -9929,34 +9929,34 @@
         <v>3.75</v>
       </c>
       <c r="N106">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O106">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
         <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9965,16 +9965,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC106">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9994,7 +9994,7 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
         <v>43</v>
@@ -10261,7 +10261,7 @@
         <v>45217.66666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
         <v>36</v>
@@ -10531,7 +10531,7 @@
         <v>47</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>5</v>
@@ -10709,7 +10709,7 @@
         <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10884,7 +10884,7 @@
         <v>45224.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
         <v>44</v>
@@ -10961,7 +10961,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7387942</v>
+        <v>7387943</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10973,76 +10973,76 @@
         <v>45224.75</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K118">
+        <v>1.727</v>
+      </c>
+      <c r="L118">
+        <v>3.4</v>
+      </c>
+      <c r="M118">
+        <v>4.2</v>
+      </c>
+      <c r="N118">
+        <v>1.533</v>
+      </c>
+      <c r="O118">
+        <v>3.6</v>
+      </c>
+      <c r="P118">
+        <v>5.5</v>
+      </c>
+      <c r="Q118">
+        <v>-0.75</v>
+      </c>
+      <c r="R118">
+        <v>1.75</v>
+      </c>
+      <c r="S118">
+        <v>1.95</v>
+      </c>
+      <c r="T118">
         <v>2.5</v>
       </c>
-      <c r="L118">
-        <v>3</v>
-      </c>
-      <c r="M118">
-        <v>2.6</v>
-      </c>
-      <c r="N118">
-        <v>1.909</v>
-      </c>
-      <c r="O118">
-        <v>3.2</v>
-      </c>
-      <c r="P118">
-        <v>3.6</v>
-      </c>
-      <c r="Q118">
-        <v>-0.5</v>
-      </c>
-      <c r="R118">
-        <v>2</v>
-      </c>
-      <c r="S118">
-        <v>1.8</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X118">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11050,7 +11050,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7387943</v>
+        <v>7387211</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11062,13 +11062,13 @@
         <v>45224.75</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -11077,34 +11077,34 @@
         <v>52</v>
       </c>
       <c r="K119">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M119">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N119">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P119">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R119">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U119">
         <v>1.9</v>
@@ -11113,7 +11113,7 @@
         <v>1.9</v>
       </c>
       <c r="W119">
-        <v>0.5329999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11122,16 +11122,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC119">
-        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7387211</v>
+        <v>7387942</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11151,61 +11151,61 @@
         <v>45224.75</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K120">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M120">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N120">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O120">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q120">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11214,13 +11214,13 @@
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11240,10 +11240,10 @@
         <v>45224.77083333334</v>
       </c>
       <c r="F121" t="s">
+        <v>35</v>
+      </c>
+      <c r="G121" t="s">
         <v>34</v>
-      </c>
-      <c r="G121" t="s">
-        <v>35</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11673,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7400385</v>
+        <v>7400380</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11685,58 +11685,58 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
         <v>52</v>
       </c>
       <c r="K126">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L126">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M126">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N126">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O126">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P126">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q126">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
+        <v>1.95</v>
+      </c>
+      <c r="T126">
+        <v>2</v>
+      </c>
+      <c r="U126">
         <v>1.975</v>
       </c>
-      <c r="T126">
-        <v>2.75</v>
-      </c>
-      <c r="U126">
-        <v>1.8</v>
-      </c>
       <c r="V126">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W126">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11745,13 +11745,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11762,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7400380</v>
+        <v>7400384</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11774,13 +11774,13 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -11789,25 +11789,25 @@
         <v>52</v>
       </c>
       <c r="K127">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L127">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M127">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N127">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O127">
         <v>3</v>
       </c>
       <c r="P127">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
         <v>1.85</v>
@@ -11816,16 +11816,16 @@
         <v>1.95</v>
       </c>
       <c r="T127">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11840,7 +11840,7 @@
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11851,7 +11851,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7400384</v>
+        <v>7400385</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11863,73 +11863,73 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H128">
         <v>4</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>52</v>
       </c>
       <c r="K128">
+        <v>1.5</v>
+      </c>
+      <c r="L128">
+        <v>3.75</v>
+      </c>
+      <c r="M128">
+        <v>5.5</v>
+      </c>
+      <c r="N128">
+        <v>1.4</v>
+      </c>
+      <c r="O128">
+        <v>4.2</v>
+      </c>
+      <c r="P128">
+        <v>6.5</v>
+      </c>
+      <c r="Q128">
+        <v>-1.25</v>
+      </c>
+      <c r="R128">
+        <v>1.825</v>
+      </c>
+      <c r="S128">
+        <v>1.975</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
         <v>1.8</v>
       </c>
-      <c r="L128">
-        <v>3</v>
-      </c>
-      <c r="M128">
-        <v>4.5</v>
-      </c>
-      <c r="N128">
-        <v>1.8</v>
-      </c>
-      <c r="O128">
-        <v>3</v>
-      </c>
-      <c r="P128">
-        <v>4.333</v>
-      </c>
-      <c r="Q128">
-        <v>-0.5</v>
-      </c>
-      <c r="R128">
-        <v>1.85</v>
-      </c>
-      <c r="S128">
-        <v>1.95</v>
-      </c>
-      <c r="T128">
-        <v>2.5</v>
-      </c>
-      <c r="U128">
-        <v>1.95</v>
-      </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W128">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
+        <v>-1</v>
+      </c>
+      <c r="Z128">
+        <v>0.825</v>
+      </c>
+      <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
         <v>0.8</v>
-      </c>
-      <c r="X128">
-        <v>-1</v>
-      </c>
-      <c r="Y128">
-        <v>-1</v>
-      </c>
-      <c r="Z128">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
-      <c r="AB128">
-        <v>0.95</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11955,7 +11955,7 @@
         <v>45</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7400383</v>
+        <v>7400381</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,73 +12041,73 @@
         <v>45228.75</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K130">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L130">
+        <v>3.4</v>
+      </c>
+      <c r="M130">
+        <v>3.75</v>
+      </c>
+      <c r="N130">
+        <v>1.65</v>
+      </c>
+      <c r="O130">
         <v>3.6</v>
       </c>
-      <c r="M130">
-        <v>5</v>
-      </c>
-      <c r="N130">
-        <v>1.45</v>
-      </c>
-      <c r="O130">
-        <v>3.8</v>
-      </c>
       <c r="P130">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12118,7 +12118,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7400381</v>
+        <v>7400383</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12130,73 +12130,73 @@
         <v>45228.75</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K131">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N131">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X131">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12222,7 +12222,7 @@
         <v>43</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7451046</v>
+        <v>7451058</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,76 +12575,76 @@
         <v>45238.75</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M136">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N136">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O136">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P136">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X136">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA136">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC136">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12664,7 +12664,7 @@
         <v>45238.75</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
         <v>42</v>
@@ -12741,7 +12741,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7450477</v>
+        <v>7452316</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12753,40 +12753,40 @@
         <v>45238.75</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L138">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N138">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="O138">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P138">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q138">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R138">
         <v>1.9</v>
@@ -12798,31 +12798,31 @@
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W138">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB138">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AC138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12830,7 +12830,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7451045</v>
+        <v>7451046</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12842,76 +12842,76 @@
         <v>45238.75</v>
       </c>
       <c r="F139" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K139">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L139">
         <v>3.2</v>
       </c>
       <c r="M139">
+        <v>2.2</v>
+      </c>
+      <c r="N139">
+        <v>2.2</v>
+      </c>
+      <c r="O139">
+        <v>3.3</v>
+      </c>
+      <c r="P139">
+        <v>2.8</v>
+      </c>
+      <c r="Q139">
+        <v>-0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.9</v>
+      </c>
+      <c r="S139">
+        <v>1.9</v>
+      </c>
+      <c r="T139">
         <v>2.5</v>
       </c>
-      <c r="N139">
-        <v>3.2</v>
-      </c>
-      <c r="O139">
-        <v>3.4</v>
-      </c>
-      <c r="P139">
-        <v>2</v>
-      </c>
-      <c r="Q139">
-        <v>0.25</v>
-      </c>
-      <c r="R139">
-        <v>2</v>
-      </c>
-      <c r="S139">
-        <v>1.8</v>
-      </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA139">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12919,7 +12919,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7451058</v>
+        <v>7451045</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12931,40 +12931,40 @@
         <v>45238.75</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K140">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M140">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N140">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O140">
         <v>3.4</v>
       </c>
       <c r="P140">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
         <v>2</v>
@@ -12973,31 +12973,31 @@
         <v>1.8</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W140">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB140">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13008,7 +13008,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7452316</v>
+        <v>7451044</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13020,76 +13020,76 @@
         <v>45238.75</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K141">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="N141">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="O141">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q141">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7451044</v>
+        <v>7450477</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,76 +13109,76 @@
         <v>45238.75</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K142">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M142">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P142">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
         <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC142">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13913,7 +13913,7 @@
         <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14002,7 +14002,7 @@
         <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14088,7 +14088,7 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
         <v>42</v>
@@ -14177,7 +14177,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -14358,7 +14358,7 @@
         <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14533,7 +14533,7 @@
         <v>45269.70833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
         <v>32</v>
@@ -14889,7 +14889,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
         <v>48</v>
@@ -14966,7 +14966,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7694909</v>
+        <v>7693875</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14978,76 +14978,76 @@
         <v>45304.75</v>
       </c>
       <c r="F163" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K163">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M163">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N163">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O163">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>1.85</v>
+      </c>
+      <c r="S163">
+        <v>1.95</v>
+      </c>
+      <c r="T163">
+        <v>2.5</v>
+      </c>
+      <c r="U163">
+        <v>2</v>
+      </c>
+      <c r="V163">
+        <v>1.8</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
+        <v>2.1</v>
+      </c>
+      <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
         <v>-0.5</v>
       </c>
-      <c r="R163">
-        <v>1.975</v>
-      </c>
-      <c r="S163">
-        <v>1.825</v>
-      </c>
-      <c r="T163">
-        <v>3</v>
-      </c>
-      <c r="U163">
-        <v>1.975</v>
-      </c>
-      <c r="V163">
-        <v>1.825</v>
-      </c>
-      <c r="W163">
-        <v>0.909</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
-      </c>
-      <c r="Y163">
-        <v>-1</v>
-      </c>
-      <c r="Z163">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7693875</v>
+        <v>7694909</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45304.75</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K164">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N164">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X164">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA164">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC164">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15245,7 +15245,7 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G166" t="s">
         <v>41</v>
@@ -15337,7 +15337,7 @@
         <v>45</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H167">
         <v>5</v>
@@ -15515,7 +15515,7 @@
         <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15678,7 +15678,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7726349</v>
+        <v>7728658</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15690,40 +15690,40 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K171">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L171">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M171">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N171">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P171">
-        <v>2.55</v>
+        <v>1.571</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R171">
         <v>1.85</v>
@@ -15732,34 +15732,34 @@
         <v>1.95</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
+        <v>1.85</v>
+      </c>
+      <c r="V171">
         <v>1.95</v>
       </c>
-      <c r="V171">
-        <v>1.85</v>
-      </c>
       <c r="W171">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
+        <v>0.95</v>
+      </c>
+      <c r="AB171">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA171">
-        <v>-1</v>
-      </c>
-      <c r="AB171">
-        <v>-1</v>
-      </c>
       <c r="AC171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7726352</v>
+        <v>7726348</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,76 +15779,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
         <v>1</v>
       </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
       <c r="J172" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K172">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L172">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M172">
+        <v>3.5</v>
+      </c>
+      <c r="N172">
+        <v>1.666</v>
+      </c>
+      <c r="O172">
+        <v>3.5</v>
+      </c>
+      <c r="P172">
         <v>4.333</v>
       </c>
-      <c r="N172">
-        <v>1.444</v>
-      </c>
-      <c r="O172">
-        <v>4</v>
-      </c>
-      <c r="P172">
-        <v>6.5</v>
-      </c>
       <c r="Q172">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T172">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7728658</v>
+        <v>7726349</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,40 +15868,40 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
         <v>0</v>
       </c>
-      <c r="I173">
-        <v>3</v>
-      </c>
       <c r="J173" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K173">
+        <v>3.5</v>
+      </c>
+      <c r="L173">
+        <v>3.3</v>
+      </c>
+      <c r="M173">
+        <v>1.909</v>
+      </c>
+      <c r="N173">
+        <v>2.45</v>
+      </c>
+      <c r="O173">
         <v>3.2</v>
       </c>
-      <c r="L173">
-        <v>3</v>
-      </c>
-      <c r="M173">
-        <v>2.2</v>
-      </c>
-      <c r="N173">
-        <v>5.5</v>
-      </c>
-      <c r="O173">
-        <v>3.4</v>
-      </c>
       <c r="P173">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="Q173">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R173">
         <v>1.85</v>
@@ -15910,34 +15910,34 @@
         <v>1.95</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
+        <v>1.95</v>
+      </c>
+      <c r="V173">
         <v>1.85</v>
       </c>
-      <c r="V173">
-        <v>1.95</v>
-      </c>
       <c r="W173">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7726348</v>
+        <v>7726352</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15957,76 +15957,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G174" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
         <v>0</v>
       </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
       <c r="J174" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K174">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M174">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N174">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P174">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R174">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S174">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T174">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U174">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V174">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16034,7 +16034,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7726351</v>
+        <v>7726350</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16046,13 +16046,13 @@
         <v>45312.75</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -16061,43 +16061,43 @@
         <v>52</v>
       </c>
       <c r="K175">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N175">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="O175">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P175">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q175">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T175">
         <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16106,16 +16106,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA175">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7726350</v>
+        <v>7726351</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,13 +16135,13 @@
         <v>45312.75</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16150,43 +16150,43 @@
         <v>52</v>
       </c>
       <c r="K176">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L176">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M176">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N176">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P176">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q176">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R176">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S176">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
         <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W176">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16195,16 +16195,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16313,10 +16313,10 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F178" t="s">
+        <v>34</v>
+      </c>
+      <c r="G178" t="s">
         <v>35</v>
-      </c>
-      <c r="G178" t="s">
-        <v>34</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7749669</v>
+        <v>7749670</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,76 +16402,76 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K179">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L179">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N179">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O179">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P179">
-        <v>5.75</v>
+        <v>9</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R179">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V179">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X179">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC179">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7749670</v>
+        <v>7749789</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,40 +16491,40 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>52</v>
       </c>
       <c r="K180">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M180">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="N180">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P180">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q180">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R180">
         <v>1.85</v>
@@ -16536,13 +16536,13 @@
         <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W180">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16551,16 +16551,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
+        <v>0.425</v>
+      </c>
+      <c r="AA180">
         <v>-0.5</v>
       </c>
-      <c r="AA180">
-        <v>0.475</v>
-      </c>
       <c r="AB180">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7749789</v>
+        <v>7749669</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K181">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L181">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M181">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N181">
         <v>1.65</v>
       </c>
       <c r="O181">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P181">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q181">
         <v>-0.75</v>
       </c>
       <c r="R181">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V181">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W181">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16758,7 +16758,7 @@
         <v>45319.58333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16939,7 +16939,7 @@
         <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17102,7 +17102,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7785358</v>
+        <v>7785346</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17114,76 +17114,76 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K187">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L187">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M187">
-        <v>2.4</v>
+        <v>1.952</v>
       </c>
       <c r="N187">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O187">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P187">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W187">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC187">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17191,7 +17191,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7785346</v>
+        <v>7785358</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17203,76 +17203,76 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>52</v>
+      </c>
+      <c r="K188">
+        <v>2.5</v>
+      </c>
+      <c r="L188">
+        <v>3.3</v>
+      </c>
+      <c r="M188">
+        <v>2.4</v>
+      </c>
+      <c r="N188">
+        <v>1.833</v>
+      </c>
+      <c r="O188">
+        <v>3.6</v>
+      </c>
+      <c r="P188">
+        <v>3.4</v>
+      </c>
+      <c r="Q188">
+        <v>-0.5</v>
+      </c>
+      <c r="R188">
+        <v>1.9</v>
+      </c>
+      <c r="S188">
+        <v>1.9</v>
+      </c>
+      <c r="T188">
         <v>3</v>
       </c>
-      <c r="I188">
-        <v>3</v>
-      </c>
-      <c r="J188" t="s">
-        <v>54</v>
-      </c>
-      <c r="K188">
-        <v>3.75</v>
-      </c>
-      <c r="L188">
-        <v>3</v>
-      </c>
-      <c r="M188">
-        <v>1.952</v>
-      </c>
-      <c r="N188">
-        <v>2.6</v>
-      </c>
-      <c r="O188">
-        <v>2.7</v>
-      </c>
-      <c r="P188">
-        <v>2.75</v>
-      </c>
-      <c r="Q188">
+      <c r="U188">
+        <v>1.95</v>
+      </c>
+      <c r="V188">
+        <v>1.85</v>
+      </c>
+      <c r="W188">
+        <v>0.833</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
         <v>0</v>
       </c>
-      <c r="R188">
-        <v>1.85</v>
-      </c>
-      <c r="S188">
-        <v>1.95</v>
-      </c>
-      <c r="T188">
-        <v>2</v>
-      </c>
-      <c r="U188">
-        <v>1.8</v>
-      </c>
-      <c r="V188">
-        <v>2</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>1.7</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
-      <c r="Z188">
-        <v>0</v>
-      </c>
-      <c r="AA188">
+      <c r="AC188">
         <v>-0</v>
-      </c>
-      <c r="AB188">
-        <v>0.8</v>
-      </c>
-      <c r="AC188">
-        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17280,7 +17280,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7785359</v>
+        <v>7785360</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17292,58 +17292,58 @@
         <v>45326.75</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H189">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>52</v>
       </c>
       <c r="K189">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L189">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M189">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N189">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S189">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W189">
-        <v>0.571</v>
+        <v>0.75</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17352,13 +17352,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17369,7 +17369,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7785360</v>
+        <v>7785359</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17381,58 +17381,58 @@
         <v>45326.75</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
         <v>52</v>
       </c>
       <c r="K190">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L190">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M190">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N190">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R190">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W190">
-        <v>0.75</v>
+        <v>0.571</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17441,13 +17441,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17473,7 +17473,7 @@
         <v>33</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17636,7 +17636,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7797362</v>
+        <v>7797364</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17648,10 +17648,10 @@
         <v>45329.75</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17663,43 +17663,43 @@
         <v>52</v>
       </c>
       <c r="K193">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N193">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O193">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q193">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U193">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17708,16 +17708,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA193">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17725,7 +17725,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7797363</v>
+        <v>7797362</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17737,58 +17737,58 @@
         <v>45329.75</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>52</v>
       </c>
       <c r="K194">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L194">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M194">
         <v>4.75</v>
       </c>
       <c r="N194">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O194">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P194">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q194">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R194">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S194">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U194">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V194">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W194">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17797,16 +17797,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB194">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7797364</v>
+        <v>7797363</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,58 +17826,58 @@
         <v>45329.75</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H195">
+        <v>3</v>
+      </c>
+      <c r="I195">
         <v>1</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>52</v>
       </c>
       <c r="K195">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L195">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M195">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N195">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O195">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P195">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R195">
+        <v>1.825</v>
+      </c>
+      <c r="S195">
+        <v>1.975</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
         <v>1.95</v>
       </c>
-      <c r="S195">
+      <c r="V195">
         <v>1.85</v>
       </c>
-      <c r="T195">
-        <v>2</v>
-      </c>
-      <c r="U195">
-        <v>1.9</v>
-      </c>
-      <c r="V195">
-        <v>1.9</v>
-      </c>
       <c r="W195">
-        <v>0.909</v>
+        <v>0.45</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17886,16 +17886,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
+        <v>0.825</v>
+      </c>
+      <c r="AA195">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
         <v>0.95</v>
       </c>
-      <c r="AA195">
-        <v>-1</v>
-      </c>
-      <c r="AB195">
-        <v>-1</v>
-      </c>
       <c r="AC195">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17915,7 +17915,7 @@
         <v>45329.79861111111</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G196" t="s">
         <v>48</v>
@@ -17992,7 +17992,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7797367</v>
+        <v>7797361</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18004,10 +18004,10 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G197" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -18019,34 +18019,34 @@
         <v>52</v>
       </c>
       <c r="K197">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L197">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M197">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N197">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O197">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P197">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S197">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
         <v>1.9</v>
@@ -18055,7 +18055,7 @@
         <v>1.9</v>
       </c>
       <c r="W197">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18064,7 +18064,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18170,7 +18170,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7797361</v>
+        <v>7797367</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18182,10 +18182,10 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H199">
         <v>3</v>
@@ -18197,34 +18197,34 @@
         <v>52</v>
       </c>
       <c r="K199">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L199">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M199">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N199">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O199">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P199">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R199">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
         <v>1.9</v>
@@ -18233,7 +18233,7 @@
         <v>1.9</v>
       </c>
       <c r="W199">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18242,7 +18242,7 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA199">
         <v>-1</v>
@@ -18348,7 +18348,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7813335</v>
+        <v>7813122</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18360,61 +18360,61 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K201">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="L201">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N201">
+        <v>1.6</v>
+      </c>
+      <c r="O201">
+        <v>3.5</v>
+      </c>
+      <c r="P201">
+        <v>5</v>
+      </c>
+      <c r="Q201">
+        <v>-1</v>
+      </c>
+      <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>1.75</v>
+      </c>
+      <c r="T201">
         <v>2.5</v>
       </c>
-      <c r="O201">
-        <v>3.2</v>
-      </c>
-      <c r="P201">
-        <v>2.45</v>
-      </c>
-      <c r="Q201">
-        <v>0</v>
-      </c>
-      <c r="R201">
-        <v>1.925</v>
-      </c>
-      <c r="S201">
-        <v>1.875</v>
-      </c>
-      <c r="T201">
-        <v>2.75</v>
-      </c>
       <c r="U201">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X201">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
@@ -18429,7 +18429,7 @@
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7813122</v>
+        <v>7813335</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,61 +18449,61 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202" t="s">
+        <v>54</v>
+      </c>
+      <c r="K202">
+        <v>2.75</v>
+      </c>
+      <c r="L202">
+        <v>3.3</v>
+      </c>
+      <c r="M202">
+        <v>2.25</v>
+      </c>
+      <c r="N202">
+        <v>2.5</v>
+      </c>
+      <c r="O202">
+        <v>3.2</v>
+      </c>
+      <c r="P202">
+        <v>2.45</v>
+      </c>
+      <c r="Q202">
         <v>0</v>
       </c>
-      <c r="J202" t="s">
-        <v>52</v>
-      </c>
-      <c r="K202">
-        <v>1.7</v>
-      </c>
-      <c r="L202">
-        <v>3.4</v>
-      </c>
-      <c r="M202">
-        <v>4.333</v>
-      </c>
-      <c r="N202">
-        <v>1.6</v>
-      </c>
-      <c r="O202">
-        <v>3.5</v>
-      </c>
-      <c r="P202">
-        <v>5</v>
-      </c>
-      <c r="Q202">
-        <v>-1</v>
-      </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W202">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y202">
         <v>-1</v>
@@ -18518,7 +18518,7 @@
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18630,7 +18630,7 @@
         <v>44</v>
       </c>
       <c r="G204" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H204">
         <v>3</v>
@@ -18719,7 +18719,7 @@
         <v>43</v>
       </c>
       <c r="G205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H205">
         <v>3</v>
@@ -18805,7 +18805,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
         <v>36</v>
@@ -19060,7 +19060,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7851261</v>
+        <v>7851262</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19072,76 +19072,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G209" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209" t="s">
+        <v>53</v>
+      </c>
+      <c r="K209">
+        <v>2.3</v>
+      </c>
+      <c r="L209">
+        <v>3.3</v>
+      </c>
+      <c r="M209">
+        <v>2.75</v>
+      </c>
+      <c r="N209">
+        <v>1.333</v>
+      </c>
+      <c r="O209">
+        <v>5</v>
+      </c>
+      <c r="P209">
+        <v>6.5</v>
+      </c>
+      <c r="Q209">
+        <v>-1.5</v>
+      </c>
+      <c r="R209">
+        <v>1.9</v>
+      </c>
+      <c r="S209">
+        <v>1.9</v>
+      </c>
+      <c r="T209">
         <v>3</v>
       </c>
-      <c r="I209">
+      <c r="U209">
+        <v>1.9</v>
+      </c>
+      <c r="V209">
+        <v>1.9</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>5.5</v>
+      </c>
+      <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB209">
         <v>0</v>
       </c>
-      <c r="J209" t="s">
-        <v>52</v>
-      </c>
-      <c r="K209">
-        <v>1.909</v>
-      </c>
-      <c r="L209">
-        <v>3.4</v>
-      </c>
-      <c r="M209">
-        <v>3.5</v>
-      </c>
-      <c r="N209">
-        <v>1.444</v>
-      </c>
-      <c r="O209">
-        <v>4</v>
-      </c>
-      <c r="P209">
-        <v>5.5</v>
-      </c>
-      <c r="Q209">
-        <v>-1.25</v>
-      </c>
-      <c r="R209">
-        <v>1.925</v>
-      </c>
-      <c r="S209">
-        <v>1.875</v>
-      </c>
-      <c r="T209">
-        <v>3.25</v>
-      </c>
-      <c r="U209">
-        <v>1.85</v>
-      </c>
-      <c r="V209">
-        <v>1.95</v>
-      </c>
-      <c r="W209">
-        <v>0.444</v>
-      </c>
-      <c r="X209">
-        <v>-1</v>
-      </c>
-      <c r="Y209">
-        <v>-1</v>
-      </c>
-      <c r="Z209">
-        <v>0.925</v>
-      </c>
-      <c r="AA209">
-        <v>-1</v>
-      </c>
-      <c r="AB209">
-        <v>-0.5</v>
-      </c>
       <c r="AC209">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19149,7 +19149,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7851262</v>
+        <v>7851261</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19161,76 +19161,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G210" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K210">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L210">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M210">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N210">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="O210">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P210">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q210">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T210">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U210">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V210">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC210">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19250,7 +19250,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
         <v>42</v>
@@ -19520,7 +19520,7 @@
         <v>47</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19698,7 +19698,7 @@
         <v>45</v>
       </c>
       <c r="G216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19962,7 +19962,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
         <v>51</v>
@@ -20140,7 +20140,7 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
         <v>36</v>

--- a/Guatemala Primera Division/Guatemala Primera Division.xlsx
+++ b/Guatemala Primera Division/Guatemala Primera Division.xlsx
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7060393</v>
+        <v>7060342</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,76 +2429,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O22">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P22">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q22">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7060342</v>
+        <v>7060394</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2518,76 +2518,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23">
+        <v>1.615</v>
+      </c>
+      <c r="L23">
+        <v>3.5</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>1.666</v>
+      </c>
+      <c r="O23">
         <v>3.3</v>
       </c>
-      <c r="L23">
-        <v>3.2</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23">
-        <v>2.8</v>
-      </c>
-      <c r="O23">
-        <v>3.1</v>
-      </c>
       <c r="P23">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2595,7 +2595,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7060394</v>
+        <v>7060393</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2607,19 +2607,19 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K24">
         <v>1.615</v>
@@ -2631,25 +2631,25 @@
         <v>5</v>
       </c>
       <c r="N24">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
         <v>1.825</v>
@@ -2658,25 +2658,25 @@
         <v>1.975</v>
       </c>
       <c r="W24">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3129,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7072543</v>
+        <v>7072447</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3141,76 +3141,76 @@
         <v>45154.75</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N30">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O30">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q30">
         <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3218,7 +3218,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7072447</v>
+        <v>7072542</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3230,76 +3230,76 @@
         <v>45154.75</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M31">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N31">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P31">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7072542</v>
+        <v>7072543</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,10 +3497,10 @@
         <v>45154.75</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3512,43 +3512,43 @@
         <v>52</v>
       </c>
       <c r="K34">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L34">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N34">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O34">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P34">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W34">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3557,13 +3557,13 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3752,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7106173</v>
+        <v>7106032</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3764,58 +3764,58 @@
         <v>45161.75</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
         <v>52</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L37">
         <v>3.2</v>
       </c>
       <c r="M37">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q37">
         <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
         <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>0.571</v>
+        <v>0.615</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3824,13 +3824,13 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3841,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7106032</v>
+        <v>7106041</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3853,58 +3853,58 @@
         <v>45161.75</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>52</v>
       </c>
       <c r="K38">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L38">
         <v>3.2</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N38">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R38">
+        <v>1.75</v>
+      </c>
+      <c r="S38">
+        <v>2.05</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>1.925</v>
+      </c>
+      <c r="V38">
         <v>1.875</v>
       </c>
-      <c r="S38">
-        <v>1.925</v>
-      </c>
-      <c r="T38">
-        <v>2.25</v>
-      </c>
-      <c r="U38">
-        <v>1.85</v>
-      </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
       <c r="W38">
-        <v>0.615</v>
+        <v>1.3</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3913,16 +3913,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
+        <v>0.75</v>
+      </c>
+      <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.875</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7106041</v>
+        <v>7106174</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3942,76 +3942,76 @@
         <v>45161.75</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>3.5</v>
+      </c>
+      <c r="N39">
+        <v>1.75</v>
+      </c>
+      <c r="O39">
+        <v>3.1</v>
+      </c>
+      <c r="P39">
+        <v>4.333</v>
+      </c>
+      <c r="Q39">
+        <v>-0.5</v>
+      </c>
+      <c r="R39">
+        <v>1.85</v>
+      </c>
+      <c r="S39">
+        <v>1.95</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>1.85</v>
+      </c>
+      <c r="V39">
+        <v>1.95</v>
+      </c>
+      <c r="W39">
+        <v>-1</v>
+      </c>
+      <c r="X39">
+        <v>2.1</v>
+      </c>
+      <c r="Y39">
+        <v>-1</v>
+      </c>
+      <c r="Z39">
+        <v>-1</v>
+      </c>
+      <c r="AA39">
+        <v>0.95</v>
+      </c>
+      <c r="AB39">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39">
-        <v>2.75</v>
-      </c>
-      <c r="L39">
-        <v>3.2</v>
-      </c>
-      <c r="M39">
-        <v>2.3</v>
-      </c>
-      <c r="N39">
-        <v>2.3</v>
-      </c>
-      <c r="O39">
-        <v>3</v>
-      </c>
-      <c r="P39">
-        <v>2.875</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>1.75</v>
-      </c>
-      <c r="S39">
-        <v>2.05</v>
-      </c>
-      <c r="T39">
-        <v>2</v>
-      </c>
-      <c r="U39">
-        <v>1.925</v>
-      </c>
-      <c r="V39">
-        <v>1.875</v>
-      </c>
-      <c r="W39">
-        <v>1.3</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
-      <c r="Y39">
-        <v>-1</v>
-      </c>
-      <c r="Z39">
-        <v>0.75</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4019,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7106174</v>
+        <v>7106173</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4031,76 +4031,76 @@
         <v>45161.75</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K40">
         <v>2</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
         <v>3.5</v>
       </c>
       <c r="N40">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O40">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X40">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4197,7 +4197,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7107133</v>
+        <v>7107137</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4209,40 +4209,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>1.45</v>
+      </c>
+      <c r="O42">
         <v>4</v>
       </c>
-      <c r="N42">
-        <v>1.85</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
       <c r="P42">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R42">
         <v>1.9</v>
@@ -4251,34 +4251,34 @@
         <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7107137</v>
+        <v>7107133</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4298,40 +4298,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43">
+        <v>1.8</v>
+      </c>
+      <c r="L43">
+        <v>3.2</v>
+      </c>
+      <c r="M43">
         <v>4</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43">
-        <v>2.1</v>
-      </c>
-      <c r="L43">
-        <v>3.3</v>
-      </c>
-      <c r="M43">
+      <c r="N43">
+        <v>1.85</v>
+      </c>
+      <c r="O43">
         <v>3</v>
       </c>
-      <c r="N43">
-        <v>1.45</v>
-      </c>
-      <c r="O43">
-        <v>4</v>
-      </c>
       <c r="P43">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
         <v>1.9</v>
@@ -4340,34 +4340,34 @@
         <v>1.9</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
       <c r="AB43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4642,7 +4642,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7128481</v>
+        <v>7128480</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4654,13 +4654,13 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4669,43 +4669,43 @@
         <v>52</v>
       </c>
       <c r="K47">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
+        <v>3.1</v>
+      </c>
+      <c r="M47">
         <v>3.75</v>
       </c>
-      <c r="M47">
-        <v>4.75</v>
-      </c>
       <c r="N47">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O47">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>0.444</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4714,16 +4714,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4731,7 +4731,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7128480</v>
+        <v>7128481</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4743,13 +4743,13 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -4758,61 +4758,61 @@
         <v>52</v>
       </c>
       <c r="K48">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L48">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M48">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N48">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O48">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q48">
+        <v>-1</v>
+      </c>
+      <c r="R48">
+        <v>1.725</v>
+      </c>
+      <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
+        <v>2.25</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>1.8</v>
+      </c>
+      <c r="W48">
+        <v>0.444</v>
+      </c>
+      <c r="X48">
+        <v>-1</v>
+      </c>
+      <c r="Y48">
+        <v>-1</v>
+      </c>
+      <c r="Z48">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>-1</v>
+      </c>
+      <c r="AB48">
         <v>-0.5</v>
       </c>
-      <c r="R48">
-        <v>1.85</v>
-      </c>
-      <c r="S48">
-        <v>1.95</v>
-      </c>
-      <c r="T48">
-        <v>1.75</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
-      <c r="W48">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X48">
-        <v>-1</v>
-      </c>
-      <c r="Y48">
-        <v>-1</v>
-      </c>
-      <c r="Z48">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA48">
-        <v>-1</v>
-      </c>
-      <c r="AB48">
-        <v>-1</v>
-      </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -6155,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7189205</v>
+        <v>7189246</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6167,76 +6167,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
         <v>53</v>
       </c>
       <c r="K64">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L64">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>1.8</v>
+      </c>
+      <c r="O64">
+        <v>3.25</v>
+      </c>
+      <c r="P64">
+        <v>4</v>
+      </c>
+      <c r="Q64">
+        <v>-0.5</v>
+      </c>
+      <c r="R64">
+        <v>1.825</v>
+      </c>
+      <c r="S64">
+        <v>1.975</v>
+      </c>
+      <c r="T64">
+        <v>2.25</v>
+      </c>
+      <c r="U64">
+        <v>1.825</v>
+      </c>
+      <c r="V64">
+        <v>1.975</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
         <v>3</v>
       </c>
-      <c r="N64">
-        <v>2.15</v>
-      </c>
-      <c r="O64">
-        <v>2.8</v>
-      </c>
-      <c r="P64">
-        <v>3.4</v>
-      </c>
-      <c r="Q64">
-        <v>-0.25</v>
-      </c>
-      <c r="R64">
-        <v>1.85</v>
-      </c>
-      <c r="S64">
-        <v>1.95</v>
-      </c>
-      <c r="T64">
-        <v>2</v>
-      </c>
-      <c r="U64">
-        <v>1.95</v>
-      </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>2.4</v>
-      </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6422,7 +6422,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7189246</v>
+        <v>7189205</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6434,55 +6434,55 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>1</v>
-      </c>
-      <c r="I67">
-        <v>3</v>
       </c>
       <c r="J67" t="s">
         <v>53</v>
       </c>
       <c r="K67">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O67">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P67">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6491,19 +6491,19 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6689,7 +6689,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7203412</v>
+        <v>7203080</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6701,13 +6701,13 @@
         <v>45182.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6716,31 +6716,31 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q70">
         <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
         <v>2.25</v>
@@ -6752,7 +6752,7 @@
         <v>1.825</v>
       </c>
       <c r="W70">
-        <v>0.571</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6761,16 +6761,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6778,7 +6778,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7203080</v>
+        <v>7203412</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6790,13 +6790,13 @@
         <v>45182.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6805,31 +6805,31 @@
         <v>52</v>
       </c>
       <c r="K71">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
+        <v>2.5</v>
+      </c>
+      <c r="N71">
+        <v>1.571</v>
+      </c>
+      <c r="O71">
+        <v>3.6</v>
+      </c>
+      <c r="P71">
         <v>5</v>
-      </c>
-      <c r="N71">
-        <v>1.6</v>
-      </c>
-      <c r="O71">
-        <v>3.4</v>
-      </c>
-      <c r="P71">
-        <v>5.5</v>
       </c>
       <c r="Q71">
         <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T71">
         <v>2.25</v>
@@ -6841,7 +6841,7 @@
         <v>1.825</v>
       </c>
       <c r="W71">
-        <v>0.6000000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6850,16 +6850,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6867,7 +6867,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7203437</v>
+        <v>7203472</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6879,46 +6879,46 @@
         <v>45182.75</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>52</v>
       </c>
       <c r="K72">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L72">
         <v>3.2</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N72">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O72">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
         <v>2.5</v>
@@ -6927,10 +6927,10 @@
         <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6939,10 +6939,10 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
         <v>0.95</v>
@@ -6956,7 +6956,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7203472</v>
+        <v>7203452</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6968,58 +6968,58 @@
         <v>45182.75</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N73">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P73">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7028,16 +7028,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7045,7 +7045,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7203452</v>
+        <v>7203437</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7057,13 +7057,13 @@
         <v>45182.75</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -7072,40 +7072,40 @@
         <v>52</v>
       </c>
       <c r="K74">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L74">
+        <v>3.2</v>
+      </c>
+      <c r="M74">
         <v>4</v>
-      </c>
-      <c r="M74">
-        <v>7</v>
       </c>
       <c r="N74">
         <v>1.363</v>
       </c>
       <c r="O74">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q74">
         <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
         <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W74">
         <v>0.363</v>
@@ -7117,16 +7117,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -8291,7 +8291,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7249833</v>
+        <v>7249890</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8303,76 +8303,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K88">
         <v>2.75</v>
       </c>
       <c r="L88">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M88">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N88">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
         <v>3.25</v>
       </c>
       <c r="P88">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
         <v>1.85</v>
-      </c>
-      <c r="S88">
-        <v>1.95</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
+        <v>1.95</v>
+      </c>
+      <c r="V88">
         <v>1.85</v>
       </c>
-      <c r="V88">
-        <v>1.95</v>
-      </c>
       <c r="W88">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
       <c r="AB88">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8380,7 +8380,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7249889</v>
+        <v>7249833</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8392,76 +8392,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L89">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N89">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P89">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X89">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC89">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8469,7 +8469,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7249890</v>
+        <v>7249889</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8481,10 +8481,10 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8496,46 +8496,46 @@
         <v>54</v>
       </c>
       <c r="K90">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L90">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M90">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N90">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O90">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q90">
         <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8544,13 +8544,13 @@
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8914,7 +8914,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7265139</v>
+        <v>7265140</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8926,76 +8926,76 @@
         <v>45196.75</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L95">
         <v>3</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N95">
+        <v>2.5</v>
+      </c>
+      <c r="O95">
+        <v>3.2</v>
+      </c>
+      <c r="P95">
+        <v>2.625</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>1.85</v>
+      </c>
+      <c r="S95">
         <v>1.95</v>
       </c>
-      <c r="O95">
-        <v>2.9</v>
-      </c>
-      <c r="P95">
-        <v>4.2</v>
-      </c>
-      <c r="Q95">
-        <v>-0.5</v>
-      </c>
-      <c r="R95">
-        <v>1.975</v>
-      </c>
-      <c r="S95">
-        <v>1.725</v>
-      </c>
       <c r="T95">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X95">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA95">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7265140</v>
+        <v>7265138</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,76 +9015,76 @@
         <v>45196.75</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K96">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L96">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M96">
+        <v>3.2</v>
+      </c>
+      <c r="N96">
+        <v>1.65</v>
+      </c>
+      <c r="O96">
+        <v>3.6</v>
+      </c>
+      <c r="P96">
+        <v>4.5</v>
+      </c>
+      <c r="Q96">
+        <v>-0.75</v>
+      </c>
+      <c r="R96">
+        <v>1.8</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
         <v>2.75</v>
       </c>
-      <c r="N96">
-        <v>2.5</v>
-      </c>
-      <c r="O96">
-        <v>3.2</v>
-      </c>
-      <c r="P96">
-        <v>2.625</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96">
+      <c r="U96">
+        <v>1.95</v>
+      </c>
+      <c r="V96">
         <v>1.85</v>
       </c>
-      <c r="S96">
-        <v>1.95</v>
-      </c>
-      <c r="T96">
-        <v>2.25</v>
-      </c>
-      <c r="U96">
-        <v>1.9</v>
-      </c>
-      <c r="V96">
-        <v>1.9</v>
-      </c>
       <c r="W96">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
+        <v>-1</v>
+      </c>
+      <c r="AA96">
+        <v>1</v>
+      </c>
+      <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA96">
-        <v>-1</v>
-      </c>
-      <c r="AB96">
-        <v>-1</v>
-      </c>
-      <c r="AC96">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9092,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7265138</v>
+        <v>7265139</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9104,16 +9104,16 @@
         <v>45196.75</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
         <v>54</v>
@@ -9122,43 +9122,43 @@
         <v>2</v>
       </c>
       <c r="L97">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M97">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N97">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P97">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9167,13 +9167,13 @@
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7265142</v>
+        <v>7265144</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9282,16 +9282,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>52</v>
@@ -9300,40 +9300,40 @@
         <v>2</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M99">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9342,16 +9342,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
+        <v>0.75</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>0.95</v>
-      </c>
-      <c r="AC99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9359,7 +9359,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7265144</v>
+        <v>7265142</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9371,16 +9371,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
         <v>1</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
@@ -9389,40 +9389,40 @@
         <v>2</v>
       </c>
       <c r="L100">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N100">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O100">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P100">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
         <v>2.25</v>
       </c>
       <c r="U100">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9431,16 +9431,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9626,7 +9626,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7281756</v>
+        <v>7281783</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9638,13 +9638,13 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9653,34 +9653,34 @@
         <v>52</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N103">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O103">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
         <v>1.9</v>
@@ -9689,7 +9689,7 @@
         <v>1.9</v>
       </c>
       <c r="W103">
-        <v>0.6000000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9698,16 +9698,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9715,7 +9715,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7281783</v>
+        <v>7281782</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9727,37 +9727,37 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H104">
         <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K104">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M104">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N104">
         <v>1.909</v>
       </c>
       <c r="O104">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q104">
         <v>-0.5</v>
@@ -9769,34 +9769,34 @@
         <v>1.85</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB104">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9804,7 +9804,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7281782</v>
+        <v>7281758</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9816,73 +9816,73 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I105">
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K105">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
+        <v>3.2</v>
+      </c>
+      <c r="M105">
+        <v>3.75</v>
+      </c>
+      <c r="N105">
+        <v>1.8</v>
+      </c>
+      <c r="O105">
         <v>3.3</v>
       </c>
-      <c r="M105">
-        <v>2.5</v>
-      </c>
-      <c r="N105">
-        <v>1.909</v>
-      </c>
-      <c r="O105">
-        <v>3.5</v>
-      </c>
       <c r="P105">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q105">
         <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9982,7 +9982,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7281758</v>
+        <v>7281756</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9994,73 +9994,73 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>52</v>
       </c>
       <c r="K107">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N107">
+        <v>1.6</v>
+      </c>
+      <c r="O107">
+        <v>3.6</v>
+      </c>
+      <c r="P107">
+        <v>4.5</v>
+      </c>
+      <c r="Q107">
+        <v>-0.75</v>
+      </c>
+      <c r="R107">
         <v>1.8</v>
       </c>
-      <c r="O107">
-        <v>3.3</v>
-      </c>
-      <c r="P107">
-        <v>4.2</v>
-      </c>
-      <c r="Q107">
-        <v>-0.5</v>
-      </c>
-      <c r="R107">
-        <v>1.825</v>
-      </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
         <v>0.8</v>
       </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>-1</v>
-      </c>
-      <c r="Z107">
-        <v>0.825</v>
-      </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10516,7 +10516,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7376644</v>
+        <v>7372551</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10528,58 +10528,58 @@
         <v>45221.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
         <v>52</v>
       </c>
       <c r="K113">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L113">
         <v>3.6</v>
       </c>
       <c r="M113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N113">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P113">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
-        <v>0.7270000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10588,13 +10588,13 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10605,7 +10605,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7372551</v>
+        <v>7376644</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10617,58 +10617,58 @@
         <v>45221.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G114" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
         <v>52</v>
       </c>
       <c r="K114">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L114">
         <v>3.6</v>
       </c>
       <c r="M114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N114">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O114">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="W114">
-        <v>0.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10677,13 +10677,13 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10961,7 +10961,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7387943</v>
+        <v>7387211</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10973,13 +10973,13 @@
         <v>45224.75</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -10988,34 +10988,34 @@
         <v>52</v>
       </c>
       <c r="K118">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M118">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N118">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P118">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R118">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U118">
         <v>1.9</v>
@@ -11024,7 +11024,7 @@
         <v>1.9</v>
       </c>
       <c r="W118">
-        <v>0.5329999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11033,16 +11033,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11050,7 +11050,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7387211</v>
+        <v>7387943</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11062,13 +11062,13 @@
         <v>45224.75</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -11077,34 +11077,34 @@
         <v>52</v>
       </c>
       <c r="K119">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
+        <v>4.2</v>
+      </c>
+      <c r="N119">
+        <v>1.533</v>
+      </c>
+      <c r="O119">
+        <v>3.6</v>
+      </c>
+      <c r="P119">
         <v>5.5</v>
       </c>
-      <c r="N119">
-        <v>1.363</v>
-      </c>
-      <c r="O119">
-        <v>4.5</v>
-      </c>
-      <c r="P119">
-        <v>7</v>
-      </c>
       <c r="Q119">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
         <v>1.9</v>
@@ -11113,7 +11113,7 @@
         <v>1.9</v>
       </c>
       <c r="W119">
-        <v>0.363</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11122,16 +11122,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA119">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11762,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7400384</v>
+        <v>7400382</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11774,76 +11774,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G127" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>3.4</v>
+      </c>
+      <c r="M127">
+        <v>3.1</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127">
+        <v>3.4</v>
+      </c>
+      <c r="P127">
+        <v>3.1</v>
+      </c>
+      <c r="Q127">
+        <v>-0.25</v>
+      </c>
+      <c r="R127">
         <v>1.8</v>
       </c>
-      <c r="L127">
-        <v>3</v>
-      </c>
-      <c r="M127">
-        <v>4.5</v>
-      </c>
-      <c r="N127">
-        <v>1.8</v>
-      </c>
-      <c r="O127">
-        <v>3</v>
-      </c>
-      <c r="P127">
-        <v>4.333</v>
-      </c>
-      <c r="Q127">
-        <v>-0.5</v>
-      </c>
-      <c r="R127">
-        <v>1.85</v>
-      </c>
       <c r="S127">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T127">
         <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V127">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W127">
+        <v>-1</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>2.1</v>
+      </c>
+      <c r="Z127">
+        <v>-1</v>
+      </c>
+      <c r="AA127">
+        <v>1</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
         <v>0.8</v>
-      </c>
-      <c r="X127">
-        <v>-1</v>
-      </c>
-      <c r="Y127">
-        <v>-1</v>
-      </c>
-      <c r="Z127">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
-      <c r="AB127">
-        <v>0.95</v>
-      </c>
-      <c r="AC127">
-        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11940,7 +11940,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7400382</v>
+        <v>7400384</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11952,76 +11952,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K129">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M129">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N129">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P129">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA129">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7400381</v>
+        <v>7400383</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,73 +12041,73 @@
         <v>45228.75</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K130">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12118,7 +12118,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7400383</v>
+        <v>7400381</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12130,73 +12130,73 @@
         <v>45228.75</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K131">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>3.75</v>
+      </c>
+      <c r="N131">
+        <v>1.65</v>
+      </c>
+      <c r="O131">
         <v>3.6</v>
       </c>
-      <c r="M131">
-        <v>5</v>
-      </c>
-      <c r="N131">
-        <v>1.45</v>
-      </c>
-      <c r="O131">
-        <v>3.8</v>
-      </c>
       <c r="P131">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7451058</v>
+        <v>7451044</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,76 +12575,76 @@
         <v>45238.75</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K136">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L136">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="N136">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O136">
         <v>3.4</v>
       </c>
       <c r="P136">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T136">
         <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W136">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>-0</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
         <v>1</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
-      <c r="AB136">
-        <v>0.875</v>
-      </c>
-      <c r="AC136">
-        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7448182</v>
+        <v>7451046</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,40 +12664,40 @@
         <v>45238.75</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>54</v>
+      </c>
+      <c r="K137">
         <v>3</v>
       </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-      <c r="J137" t="s">
-        <v>52</v>
-      </c>
-      <c r="K137">
-        <v>1.727</v>
-      </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N137">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P137">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
         <v>1.9</v>
@@ -12709,31 +12709,31 @@
         <v>2.5</v>
       </c>
       <c r="U137">
+        <v>1.825</v>
+      </c>
+      <c r="V137">
         <v>1.975</v>
       </c>
-      <c r="V137">
-        <v>1.825</v>
-      </c>
       <c r="W137">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC137">
-        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12741,7 +12741,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7452316</v>
+        <v>7451045</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12753,55 +12753,55 @@
         <v>45238.75</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
         <v>53</v>
       </c>
       <c r="K138">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N138">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O138">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q138">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T138">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12810,16 +12810,16 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB138">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12830,7 +12830,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7451046</v>
+        <v>7450477</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12842,40 +12842,40 @@
         <v>45238.75</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K139">
+        <v>2.1</v>
+      </c>
+      <c r="L139">
+        <v>3.3</v>
+      </c>
+      <c r="M139">
         <v>3</v>
       </c>
-      <c r="L139">
-        <v>3.2</v>
-      </c>
-      <c r="M139">
-        <v>2.2</v>
-      </c>
       <c r="N139">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="O139">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P139">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R139">
         <v>1.9</v>
@@ -12884,19 +12884,19 @@
         <v>1.9</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X139">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
@@ -12908,10 +12908,10 @@
         <v>0.45</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC139">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12919,7 +12919,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7451045</v>
+        <v>7451058</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12931,40 +12931,40 @@
         <v>45238.75</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K140">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N140">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="O140">
         <v>3.4</v>
       </c>
       <c r="P140">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
         <v>2</v>
@@ -12973,31 +12973,31 @@
         <v>1.8</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
         <v>1</v>
       </c>
-      <c r="Z140">
-        <v>-1</v>
-      </c>
       <c r="AA140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13008,7 +13008,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7451044</v>
+        <v>7452316</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13020,76 +13020,76 @@
         <v>45238.75</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K141">
+        <v>5</v>
+      </c>
+      <c r="L141">
         <v>3.6</v>
       </c>
-      <c r="L141">
+      <c r="M141">
+        <v>1.615</v>
+      </c>
+      <c r="N141">
+        <v>3.6</v>
+      </c>
+      <c r="O141">
         <v>3.5</v>
       </c>
-      <c r="M141">
-        <v>1.8</v>
-      </c>
-      <c r="N141">
-        <v>2.3</v>
-      </c>
-      <c r="O141">
-        <v>3.4</v>
-      </c>
       <c r="P141">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7450477</v>
+        <v>7448182</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,13 +13109,13 @@
         <v>45238.75</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -13124,22 +13124,22 @@
         <v>52</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N142">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O142">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P142">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q142">
         <v>-1.25</v>
@@ -13151,16 +13151,16 @@
         <v>1.9</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13169,16 +13169,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA142">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -14966,7 +14966,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7693875</v>
+        <v>7694909</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14978,76 +14978,76 @@
         <v>45304.75</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L163">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N163">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7694909</v>
+        <v>7693875</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45304.75</v>
       </c>
       <c r="F164" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L164">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M164">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N164">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q164">
+        <v>-0.25</v>
+      </c>
+      <c r="R164">
+        <v>1.85</v>
+      </c>
+      <c r="S164">
+        <v>1.95</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
+        <v>2</v>
+      </c>
+      <c r="V164">
+        <v>1.8</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
+        <v>2.1</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
         <v>-0.5</v>
       </c>
-      <c r="R164">
-        <v>1.975</v>
-      </c>
-      <c r="S164">
-        <v>1.825</v>
-      </c>
-      <c r="T164">
-        <v>3</v>
-      </c>
-      <c r="U164">
-        <v>1.975</v>
-      </c>
-      <c r="V164">
-        <v>1.825</v>
-      </c>
-      <c r="W164">
-        <v>0.909</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
-      <c r="Y164">
-        <v>-1</v>
-      </c>
-      <c r="Z164">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB164">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7726349</v>
+        <v>7726352</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,13 +15868,13 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -15883,34 +15883,34 @@
         <v>52</v>
       </c>
       <c r="K173">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M173">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N173">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P173">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
         <v>1.85</v>
       </c>
-      <c r="S173">
-        <v>1.95</v>
-      </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U173">
         <v>1.95</v>
@@ -15919,7 +15919,7 @@
         <v>1.85</v>
       </c>
       <c r="W173">
-        <v>1.45</v>
+        <v>0.444</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15928,10 +15928,10 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -15945,7 +15945,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7726352</v>
+        <v>7726349</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15957,13 +15957,13 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -15972,34 +15972,34 @@
         <v>52</v>
       </c>
       <c r="K174">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L174">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N174">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="O174">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P174">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q174">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R174">
+        <v>1.85</v>
+      </c>
+      <c r="S174">
         <v>1.95</v>
       </c>
-      <c r="S174">
-        <v>1.85</v>
-      </c>
       <c r="T174">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U174">
         <v>1.95</v>
@@ -16008,7 +16008,7 @@
         <v>1.85</v>
       </c>
       <c r="W174">
-        <v>0.444</v>
+        <v>1.45</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16017,10 +16017,10 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7749670</v>
+        <v>7749789</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,40 +16402,40 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>52</v>
       </c>
       <c r="K179">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M179">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="N179">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O179">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
         <v>1.85</v>
@@ -16447,13 +16447,13 @@
         <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16462,16 +16462,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>0.425</v>
+      </c>
+      <c r="AA179">
         <v>-0.5</v>
       </c>
-      <c r="AA179">
-        <v>0.475</v>
-      </c>
       <c r="AB179">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7749789</v>
+        <v>7749669</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,76 +16491,76 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L180">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M180">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N180">
         <v>1.65</v>
       </c>
       <c r="O180">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P180">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q180">
         <v>-0.75</v>
       </c>
       <c r="R180">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S180">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W180">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7749669</v>
+        <v>7749670</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K181">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L181">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M181">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N181">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O181">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>5.75</v>
+        <v>9</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X181">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA181">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC181">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7754831</v>
+        <v>7754830</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16669,73 +16669,73 @@
         <v>45319.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G182" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K182">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="L182">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M182">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N182">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="O182">
         <v>3.8</v>
       </c>
       <c r="P182">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R182">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X182">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA182">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16746,7 +16746,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7754830</v>
+        <v>7754831</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16758,73 +16758,73 @@
         <v>45319.58333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K183">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="L183">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M183">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N183">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O183">
         <v>3.8</v>
       </c>
       <c r="P183">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q183">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R183">
+        <v>1.85</v>
+      </c>
+      <c r="S183">
+        <v>1.95</v>
+      </c>
+      <c r="T183">
+        <v>2.5</v>
+      </c>
+      <c r="U183">
+        <v>1.875</v>
+      </c>
+      <c r="V183">
         <v>1.925</v>
       </c>
-      <c r="S183">
-        <v>1.875</v>
-      </c>
-      <c r="T183">
-        <v>2.75</v>
-      </c>
-      <c r="U183">
-        <v>1.825</v>
-      </c>
-      <c r="V183">
-        <v>1.975</v>
-      </c>
       <c r="W183">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB183">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -17102,7 +17102,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7785346</v>
+        <v>7785358</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17114,76 +17114,76 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G187" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H187">
+        <v>2</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>52</v>
+      </c>
+      <c r="K187">
+        <v>2.5</v>
+      </c>
+      <c r="L187">
+        <v>3.3</v>
+      </c>
+      <c r="M187">
+        <v>2.4</v>
+      </c>
+      <c r="N187">
+        <v>1.833</v>
+      </c>
+      <c r="O187">
+        <v>3.6</v>
+      </c>
+      <c r="P187">
+        <v>3.4</v>
+      </c>
+      <c r="Q187">
+        <v>-0.5</v>
+      </c>
+      <c r="R187">
+        <v>1.9</v>
+      </c>
+      <c r="S187">
+        <v>1.9</v>
+      </c>
+      <c r="T187">
         <v>3</v>
       </c>
-      <c r="I187">
-        <v>3</v>
-      </c>
-      <c r="J187" t="s">
-        <v>54</v>
-      </c>
-      <c r="K187">
-        <v>3.75</v>
-      </c>
-      <c r="L187">
-        <v>3</v>
-      </c>
-      <c r="M187">
-        <v>1.952</v>
-      </c>
-      <c r="N187">
-        <v>2.6</v>
-      </c>
-      <c r="O187">
-        <v>2.7</v>
-      </c>
-      <c r="P187">
-        <v>2.75</v>
-      </c>
-      <c r="Q187">
+      <c r="U187">
+        <v>1.95</v>
+      </c>
+      <c r="V187">
+        <v>1.85</v>
+      </c>
+      <c r="W187">
+        <v>0.833</v>
+      </c>
+      <c r="X187">
+        <v>-1</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA187">
+        <v>-1</v>
+      </c>
+      <c r="AB187">
         <v>0</v>
       </c>
-      <c r="R187">
-        <v>1.85</v>
-      </c>
-      <c r="S187">
-        <v>1.95</v>
-      </c>
-      <c r="T187">
-        <v>2</v>
-      </c>
-      <c r="U187">
-        <v>1.8</v>
-      </c>
-      <c r="V187">
-        <v>2</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>1.7</v>
-      </c>
-      <c r="Y187">
-        <v>-1</v>
-      </c>
-      <c r="Z187">
-        <v>0</v>
-      </c>
-      <c r="AA187">
+      <c r="AC187">
         <v>-0</v>
-      </c>
-      <c r="AB187">
-        <v>0.8</v>
-      </c>
-      <c r="AC187">
-        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17191,7 +17191,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7785358</v>
+        <v>7785346</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17203,76 +17203,76 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K188">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L188">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M188">
-        <v>2.4</v>
+        <v>1.952</v>
       </c>
       <c r="N188">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P188">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R188">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17280,7 +17280,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7785360</v>
+        <v>7785359</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17292,58 +17292,58 @@
         <v>45326.75</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
         <v>52</v>
       </c>
       <c r="K189">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L189">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M189">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N189">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S189">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>0.75</v>
+        <v>0.571</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17352,13 +17352,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17369,7 +17369,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7785359</v>
+        <v>7785360</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17381,58 +17381,58 @@
         <v>45326.75</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>52</v>
       </c>
       <c r="K190">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L190">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M190">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N190">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O190">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q190">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S190">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T190">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W190">
-        <v>0.571</v>
+        <v>0.75</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17441,13 +17441,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17636,7 +17636,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7797364</v>
+        <v>7797363</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17648,58 +17648,58 @@
         <v>45329.75</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H193">
+        <v>3</v>
+      </c>
+      <c r="I193">
         <v>1</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
       </c>
       <c r="J193" t="s">
         <v>52</v>
       </c>
       <c r="K193">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L193">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M193">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N193">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q193">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R193">
+        <v>1.825</v>
+      </c>
+      <c r="S193">
+        <v>1.975</v>
+      </c>
+      <c r="T193">
+        <v>2.5</v>
+      </c>
+      <c r="U193">
         <v>1.95</v>
       </c>
-      <c r="S193">
+      <c r="V193">
         <v>1.85</v>
       </c>
-      <c r="T193">
-        <v>2</v>
-      </c>
-      <c r="U193">
-        <v>1.9</v>
-      </c>
-      <c r="V193">
-        <v>1.9</v>
-      </c>
       <c r="W193">
-        <v>0.909</v>
+        <v>0.45</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17708,16 +17708,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
+        <v>0.825</v>
+      </c>
+      <c r="AA193">
+        <v>-1</v>
+      </c>
+      <c r="AB193">
         <v>0.95</v>
       </c>
-      <c r="AA193">
-        <v>-1</v>
-      </c>
-      <c r="AB193">
-        <v>-1</v>
-      </c>
       <c r="AC193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7797363</v>
+        <v>7797364</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,58 +17826,58 @@
         <v>45329.75</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>52</v>
       </c>
       <c r="K195">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L195">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M195">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N195">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O195">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P195">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U195">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>0.45</v>
+        <v>0.909</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17886,16 +17886,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17992,7 +17992,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7797361</v>
+        <v>7797367</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18004,10 +18004,10 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -18019,34 +18019,34 @@
         <v>52</v>
       </c>
       <c r="K197">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L197">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M197">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N197">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O197">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P197">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R197">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S197">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
         <v>1.9</v>
@@ -18055,7 +18055,7 @@
         <v>1.9</v>
       </c>
       <c r="W197">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18064,7 +18064,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18081,7 +18081,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7797366</v>
+        <v>7797361</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18093,13 +18093,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G198" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H198">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -18108,25 +18108,25 @@
         <v>52</v>
       </c>
       <c r="K198">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L198">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M198">
+        <v>2.6</v>
+      </c>
+      <c r="N198">
+        <v>1.8</v>
+      </c>
+      <c r="O198">
+        <v>3.6</v>
+      </c>
+      <c r="P198">
         <v>3.5</v>
       </c>
-      <c r="N198">
-        <v>1.25</v>
-      </c>
-      <c r="O198">
-        <v>6</v>
-      </c>
-      <c r="P198">
-        <v>7.5</v>
-      </c>
       <c r="Q198">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
         <v>1.85</v>
@@ -18135,16 +18135,16 @@
         <v>1.95</v>
       </c>
       <c r="T198">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18159,7 +18159,7 @@
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18170,7 +18170,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7797367</v>
+        <v>7797366</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18182,13 +18182,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H199">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -18197,43 +18197,43 @@
         <v>52</v>
       </c>
       <c r="K199">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L199">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M199">
+        <v>3.5</v>
+      </c>
+      <c r="N199">
+        <v>1.25</v>
+      </c>
+      <c r="O199">
+        <v>6</v>
+      </c>
+      <c r="P199">
+        <v>7.5</v>
+      </c>
+      <c r="Q199">
+        <v>-1.75</v>
+      </c>
+      <c r="R199">
+        <v>1.85</v>
+      </c>
+      <c r="S199">
+        <v>1.95</v>
+      </c>
+      <c r="T199">
         <v>3</v>
       </c>
-      <c r="N199">
-        <v>1.5</v>
-      </c>
-      <c r="O199">
-        <v>3.75</v>
-      </c>
-      <c r="P199">
-        <v>6</v>
-      </c>
-      <c r="Q199">
-        <v>-1</v>
-      </c>
-      <c r="R199">
-        <v>1.9</v>
-      </c>
-      <c r="S199">
-        <v>1.9</v>
-      </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W199">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18242,13 +18242,13 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC199">
         <v>-1</v>
@@ -18348,7 +18348,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7813122</v>
+        <v>7813335</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18360,61 +18360,61 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G201" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201" t="s">
+        <v>54</v>
+      </c>
+      <c r="K201">
+        <v>2.75</v>
+      </c>
+      <c r="L201">
+        <v>3.3</v>
+      </c>
+      <c r="M201">
+        <v>2.25</v>
+      </c>
+      <c r="N201">
+        <v>2.5</v>
+      </c>
+      <c r="O201">
+        <v>3.2</v>
+      </c>
+      <c r="P201">
+        <v>2.45</v>
+      </c>
+      <c r="Q201">
         <v>0</v>
       </c>
-      <c r="J201" t="s">
-        <v>52</v>
-      </c>
-      <c r="K201">
-        <v>1.7</v>
-      </c>
-      <c r="L201">
-        <v>3.4</v>
-      </c>
-      <c r="M201">
-        <v>4.333</v>
-      </c>
-      <c r="N201">
-        <v>1.6</v>
-      </c>
-      <c r="O201">
-        <v>3.5</v>
-      </c>
-      <c r="P201">
-        <v>5</v>
-      </c>
-      <c r="Q201">
-        <v>-1</v>
-      </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W201">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y201">
         <v>-1</v>
@@ -18429,7 +18429,7 @@
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7813335</v>
+        <v>7813122</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,61 +18449,61 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G202" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K202">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="L202">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N202">
+        <v>1.6</v>
+      </c>
+      <c r="O202">
+        <v>3.5</v>
+      </c>
+      <c r="P202">
+        <v>5</v>
+      </c>
+      <c r="Q202">
+        <v>-1</v>
+      </c>
+      <c r="R202">
+        <v>1.95</v>
+      </c>
+      <c r="S202">
+        <v>1.75</v>
+      </c>
+      <c r="T202">
         <v>2.5</v>
       </c>
-      <c r="O202">
-        <v>3.2</v>
-      </c>
-      <c r="P202">
-        <v>2.45</v>
-      </c>
-      <c r="Q202">
-        <v>0</v>
-      </c>
-      <c r="R202">
-        <v>1.925</v>
-      </c>
-      <c r="S202">
-        <v>1.875</v>
-      </c>
-      <c r="T202">
-        <v>2.75</v>
-      </c>
       <c r="U202">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V202">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X202">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
@@ -18518,7 +18518,7 @@
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18615,7 +18615,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7813338</v>
+        <v>7813339</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18627,73 +18627,73 @@
         <v>45333.75</v>
       </c>
       <c r="F204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H204">
         <v>3</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
         <v>52</v>
       </c>
       <c r="K204">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L204">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M204">
-        <v>2.6</v>
+        <v>8.5</v>
       </c>
       <c r="N204">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="O204">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P204">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="Q204">
+        <v>-1.75</v>
+      </c>
+      <c r="R204">
+        <v>1.975</v>
+      </c>
+      <c r="S204">
+        <v>1.825</v>
+      </c>
+      <c r="T204">
+        <v>2.75</v>
+      </c>
+      <c r="U204">
+        <v>1.75</v>
+      </c>
+      <c r="V204">
+        <v>1.95</v>
+      </c>
+      <c r="W204">
+        <v>0.25</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.4875</v>
+      </c>
+      <c r="AA204">
         <v>-0.5</v>
       </c>
-      <c r="R204">
-        <v>1.95</v>
-      </c>
-      <c r="S204">
-        <v>1.85</v>
-      </c>
-      <c r="T204">
-        <v>2.5</v>
-      </c>
-      <c r="U204">
-        <v>1.95</v>
-      </c>
-      <c r="V204">
-        <v>1.75</v>
-      </c>
-      <c r="W204">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X204">
-        <v>-1</v>
-      </c>
-      <c r="Y204">
-        <v>-1</v>
-      </c>
-      <c r="Z204">
-        <v>0.95</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
       <c r="AB204">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18704,7 +18704,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7813339</v>
+        <v>7813338</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18716,58 +18716,58 @@
         <v>45333.75</v>
       </c>
       <c r="F205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H205">
         <v>3</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
         <v>52</v>
       </c>
       <c r="K205">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M205">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="N205">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O205">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P205">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="Q205">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
+        <v>1.95</v>
+      </c>
+      <c r="V205">
         <v>1.75</v>
       </c>
-      <c r="V205">
-        <v>1.95</v>
-      </c>
       <c r="W205">
-        <v>0.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18776,13 +18776,13 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -19060,7 +19060,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7851262</v>
+        <v>7851263</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19072,40 +19072,40 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H209">
         <v>1</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K209">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L209">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N209">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O209">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P209">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q209">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
         <v>1.9</v>
@@ -19114,28 +19114,28 @@
         <v>1.9</v>
       </c>
       <c r="T209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y209">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA209">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB209">
         <v>0</v>
@@ -19238,7 +19238,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7851263</v>
+        <v>7851262</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19250,40 +19250,40 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G211" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K211">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L211">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M211">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N211">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O211">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P211">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R211">
         <v>1.9</v>
@@ -19292,28 +19292,28 @@
         <v>1.9</v>
       </c>
       <c r="T211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U211">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V211">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB211">
         <v>0</v>
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7881216</v>
+        <v>7881213</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,10 +20051,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G220" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H220">
         <v>4</v>
@@ -20066,43 +20066,43 @@
         <v>52</v>
       </c>
       <c r="K220">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L220">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M220">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N220">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O220">
         <v>3.6</v>
       </c>
       <c r="P220">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q220">
         <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S220">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W220">
-        <v>0.5329999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20111,13 +20111,13 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC220">
         <v>-1</v>
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7881215</v>
+        <v>7881214</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,40 +20140,40 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K221">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L221">
         <v>3.2</v>
       </c>
       <c r="M221">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N221">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O221">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P221">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
         <v>1.775</v>
@@ -20182,7 +20182,7 @@
         <v>2.025</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
         <v>2</v>
@@ -20191,25 +20191,25 @@
         <v>1.8</v>
       </c>
       <c r="W221">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z221">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC221">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7881214</v>
+        <v>7881215</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,40 +20229,40 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K222">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L222">
         <v>3.2</v>
       </c>
       <c r="M222">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N222">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O222">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P222">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q222">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R222">
         <v>1.775</v>
@@ -20271,7 +20271,7 @@
         <v>2.025</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
         <v>2</v>
@@ -20280,25 +20280,25 @@
         <v>1.8</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA222">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7881213</v>
+        <v>7881216</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,10 +20318,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F223" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H223">
         <v>4</v>
@@ -20333,43 +20333,43 @@
         <v>52</v>
       </c>
       <c r="K223">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L223">
+        <v>3.2</v>
+      </c>
+      <c r="M223">
         <v>3.5</v>
       </c>
-      <c r="M223">
-        <v>2.375</v>
-      </c>
       <c r="N223">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O223">
         <v>3.6</v>
       </c>
       <c r="P223">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q223">
         <v>-0.75</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S223">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W223">
-        <v>0.615</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20378,13 +20378,13 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC223">
         <v>-1</v>

--- a/Guatemala Primera Division/Guatemala Primera Division.xlsx
+++ b/Guatemala Primera Division/Guatemala Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -115,13 +115,13 @@
     <t>Marquense</t>
   </si>
   <si>
+    <t>Cuilapa FC</t>
+  </si>
+  <si>
     <t>Suchitepequez</t>
   </si>
   <si>
     <t>Universidad de San Carlos</t>
-  </si>
-  <si>
-    <t>Cuilapa FC</t>
   </si>
   <si>
     <t>Deportivo Barberena FC</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC225"/>
+  <dimension ref="A1:AC227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6996288</v>
+        <v>6997109</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1008,46 +1008,46 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N6">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
         <v>1.95</v>
@@ -1059,22 +1059,22 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6996285</v>
+        <v>6996288</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1097,46 +1097,46 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L7">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N7">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O7">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q7">
         <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
         <v>1.95</v>
@@ -1145,25 +1145,25 @@
         <v>1.85</v>
       </c>
       <c r="W7">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1171,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6997109</v>
+        <v>6996285</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1186,43 +1186,43 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M8">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
+        <v>1.975</v>
+      </c>
+      <c r="S8">
         <v>1.825</v>
-      </c>
-      <c r="S8">
-        <v>1.975</v>
       </c>
       <c r="T8">
         <v>2.25</v>
@@ -1234,19 +1234,19 @@
         <v>1.85</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA8">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
         <v>-1</v>
@@ -1631,7 +1631,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1809,7 +1809,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7060392</v>
+        <v>7060393</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2340,76 +2340,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>1.952</v>
+        <v>1.615</v>
       </c>
       <c r="L21">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N21">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O21">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P21">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
+        <v>1.95</v>
+      </c>
+      <c r="T21">
+        <v>2.75</v>
+      </c>
+      <c r="U21">
         <v>1.825</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>1.975</v>
       </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
-      <c r="V21">
-        <v>1.8</v>
-      </c>
       <c r="W21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2429,7 +2429,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2506,7 +2506,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7060394</v>
+        <v>7060392</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2521,55 +2521,55 @@
         <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>52</v>
       </c>
       <c r="K23">
-        <v>1.615</v>
+        <v>1.952</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N23">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>0.6659999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2578,16 +2578,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2595,7 +2595,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7060393</v>
+        <v>7060394</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2607,19 +2607,19 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K24">
         <v>1.615</v>
@@ -2631,25 +2631,25 @@
         <v>5</v>
       </c>
       <c r="N24">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U24">
         <v>1.825</v>
@@ -2658,25 +2658,25 @@
         <v>1.975</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X24">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3129,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7072447</v>
+        <v>7072542</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3141,76 +3141,76 @@
         <v>45154.75</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M30">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N30">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P30">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3218,7 +3218,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7072542</v>
+        <v>7072447</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3230,76 +3230,76 @@
         <v>45154.75</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L31">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M31">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N31">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z31">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7072448</v>
+        <v>7072543</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,19 +3408,19 @@
         <v>45154.75</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K33">
         <v>1.727</v>
@@ -3432,52 +3432,52 @@
         <v>4</v>
       </c>
       <c r="N33">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X33">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7072543</v>
+        <v>7072448</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,19 +3497,19 @@
         <v>45154.75</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K34">
         <v>1.727</v>
@@ -3521,52 +3521,52 @@
         <v>4</v>
       </c>
       <c r="N34">
+        <v>1.6</v>
+      </c>
+      <c r="O34">
+        <v>3.6</v>
+      </c>
+      <c r="P34">
+        <v>4.75</v>
+      </c>
+      <c r="Q34">
+        <v>-0.75</v>
+      </c>
+      <c r="R34">
         <v>1.8</v>
       </c>
-      <c r="O34">
-        <v>3.2</v>
-      </c>
-      <c r="P34">
-        <v>4</v>
-      </c>
-      <c r="Q34">
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>2.25</v>
+      </c>
+      <c r="U34">
+        <v>1.95</v>
+      </c>
+      <c r="V34">
+        <v>1.85</v>
+      </c>
+      <c r="W34">
+        <v>-1</v>
+      </c>
+      <c r="X34">
+        <v>2.6</v>
+      </c>
+      <c r="Y34">
+        <v>-1</v>
+      </c>
+      <c r="Z34">
+        <v>-1</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
         <v>-0.5</v>
       </c>
-      <c r="R34">
-        <v>1.85</v>
-      </c>
-      <c r="S34">
-        <v>1.95</v>
-      </c>
-      <c r="T34">
-        <v>2</v>
-      </c>
-      <c r="U34">
-        <v>1.975</v>
-      </c>
-      <c r="V34">
-        <v>1.725</v>
-      </c>
-      <c r="W34">
-        <v>0.8</v>
-      </c>
-      <c r="X34">
-        <v>-1</v>
-      </c>
-      <c r="Y34">
-        <v>-1</v>
-      </c>
-      <c r="Z34">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA34">
-        <v>-1</v>
-      </c>
-      <c r="AB34">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3752,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7106032</v>
+        <v>7106174</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3764,49 +3764,49 @@
         <v>45161.75</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N37">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P37">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q37">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U37">
         <v>1.85</v>
@@ -3815,25 +3815,25 @@
         <v>1.95</v>
       </c>
       <c r="W37">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB37">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3853,7 +3853,7 @@
         <v>45161.75</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
         <v>47</v>
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7106174</v>
+        <v>7106032</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3942,49 +3942,49 @@
         <v>45161.75</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O39">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
         <v>1.85</v>
@@ -3993,25 +3993,25 @@
         <v>1.95</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X39">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4197,7 +4197,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7107137</v>
+        <v>7107133</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4209,40 +4209,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>1.8</v>
+      </c>
+      <c r="L42">
+        <v>3.2</v>
+      </c>
+      <c r="M42">
         <v>4</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42">
-        <v>2.1</v>
-      </c>
-      <c r="L42">
-        <v>3.3</v>
-      </c>
-      <c r="M42">
+      <c r="N42">
+        <v>1.85</v>
+      </c>
+      <c r="O42">
         <v>3</v>
       </c>
-      <c r="N42">
-        <v>1.45</v>
-      </c>
-      <c r="O42">
-        <v>4</v>
-      </c>
       <c r="P42">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
         <v>1.9</v>
@@ -4251,34 +4251,34 @@
         <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
       <c r="AB42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7107133</v>
+        <v>7107137</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4298,40 +4298,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>1.45</v>
+      </c>
+      <c r="O43">
         <v>4</v>
       </c>
-      <c r="N43">
-        <v>1.85</v>
-      </c>
-      <c r="O43">
-        <v>3</v>
-      </c>
       <c r="P43">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R43">
         <v>1.9</v>
@@ -4340,34 +4340,34 @@
         <v>1.9</v>
       </c>
       <c r="T43">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X43">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4387,7 +4387,7 @@
         <v>45162.625</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7128524</v>
+        <v>7128481</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,43 +4565,43 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M46">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N46">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O46">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P46">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S46">
         <v>1.975</v>
@@ -4610,31 +4610,31 @@
         <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X46">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4731,7 +4731,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7128481</v>
+        <v>7128524</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4743,43 +4743,43 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48" t="s">
+        <v>54</v>
+      </c>
+      <c r="K48">
+        <v>2.4</v>
+      </c>
+      <c r="L48">
+        <v>3.2</v>
+      </c>
+      <c r="M48">
+        <v>2.6</v>
+      </c>
+      <c r="N48">
+        <v>2.4</v>
+      </c>
+      <c r="O48">
+        <v>3.2</v>
+      </c>
+      <c r="P48">
+        <v>2.6</v>
+      </c>
+      <c r="Q48">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48">
-        <v>1.571</v>
-      </c>
-      <c r="L48">
-        <v>3.75</v>
-      </c>
-      <c r="M48">
-        <v>4.75</v>
-      </c>
-      <c r="N48">
-        <v>1.444</v>
-      </c>
-      <c r="O48">
-        <v>3.8</v>
-      </c>
-      <c r="P48">
-        <v>7</v>
-      </c>
-      <c r="Q48">
-        <v>-1</v>
-      </c>
       <c r="R48">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
         <v>1.975</v>
@@ -4788,31 +4788,31 @@
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5366,7 +5366,7 @@
         <v>45171.875</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5532,7 +5532,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7158484</v>
+        <v>7158507</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5544,73 +5544,73 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K57">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L57">
         <v>3.2</v>
       </c>
       <c r="M57">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S57">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA57">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB57">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5621,7 +5621,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7158507</v>
+        <v>7158484</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5633,73 +5633,73 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L58">
         <v>3.2</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N58">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z58">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5814,7 +5814,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6155,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7189246</v>
+        <v>7189205</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6167,55 +6167,55 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>1</v>
-      </c>
-      <c r="I64">
-        <v>3</v>
       </c>
       <c r="J64" t="s">
         <v>53</v>
       </c>
       <c r="K64">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O64">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6224,19 +6224,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7189416</v>
+        <v>7189246</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,46 +6256,46 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s">
         <v>34</v>
       </c>
-      <c r="G65" t="s">
-        <v>45</v>
-      </c>
       <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65" t="s">
+        <v>53</v>
+      </c>
+      <c r="K65">
+        <v>1.727</v>
+      </c>
+      <c r="L65">
+        <v>3.5</v>
+      </c>
+      <c r="M65">
         <v>4</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65" t="s">
-        <v>52</v>
-      </c>
-      <c r="K65">
-        <v>1.5</v>
-      </c>
-      <c r="L65">
+      <c r="N65">
+        <v>1.8</v>
+      </c>
+      <c r="O65">
+        <v>3.25</v>
+      </c>
+      <c r="P65">
         <v>4</v>
       </c>
-      <c r="M65">
-        <v>5</v>
-      </c>
-      <c r="N65">
-        <v>1.45</v>
-      </c>
-      <c r="O65">
-        <v>4.2</v>
-      </c>
-      <c r="P65">
-        <v>5.5</v>
-      </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
         <v>2.25</v>
@@ -6307,19 +6307,19 @@
         <v>1.975</v>
       </c>
       <c r="W65">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z65">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB65">
         <v>0.825</v>
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7189791</v>
+        <v>7189416</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6348,55 +6348,55 @@
         <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>52</v>
       </c>
       <c r="K66">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="L66">
         <v>4</v>
       </c>
       <c r="M66">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="N66">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="O66">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P66">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S66">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T66">
         <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>1.7</v>
+        <v>0.45</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6405,13 +6405,13 @@
         <v>-1</v>
       </c>
       <c r="Z66">
+        <v>0.8</v>
+      </c>
+      <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
         <v>0.825</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
-      <c r="AB66">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6422,7 +6422,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7189205</v>
+        <v>7189791</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6434,76 +6434,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K67">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L67">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N67">
+        <v>2.7</v>
+      </c>
+      <c r="O67">
+        <v>3.75</v>
+      </c>
+      <c r="P67">
         <v>2.15</v>
       </c>
-      <c r="O67">
-        <v>2.8</v>
-      </c>
-      <c r="P67">
-        <v>3.4</v>
-      </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T67">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6689,7 +6689,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7203080</v>
+        <v>7203412</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6701,13 +6701,13 @@
         <v>45182.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6716,31 +6716,31 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L70">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
+        <v>2.5</v>
+      </c>
+      <c r="N70">
+        <v>1.571</v>
+      </c>
+      <c r="O70">
+        <v>3.6</v>
+      </c>
+      <c r="P70">
         <v>5</v>
-      </c>
-      <c r="N70">
-        <v>1.6</v>
-      </c>
-      <c r="O70">
-        <v>3.4</v>
-      </c>
-      <c r="P70">
-        <v>5.5</v>
       </c>
       <c r="Q70">
         <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T70">
         <v>2.25</v>
@@ -6752,7 +6752,7 @@
         <v>1.825</v>
       </c>
       <c r="W70">
-        <v>0.6000000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6761,16 +6761,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6778,7 +6778,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7203412</v>
+        <v>7203080</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6790,13 +6790,13 @@
         <v>45182.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6805,31 +6805,31 @@
         <v>52</v>
       </c>
       <c r="K71">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M71">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N71">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q71">
         <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
         <v>2.25</v>
@@ -6841,7 +6841,7 @@
         <v>1.825</v>
       </c>
       <c r="W71">
-        <v>0.571</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6850,16 +6850,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7146,7 +7146,7 @@
         <v>45182.875</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -7327,7 +7327,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>5</v>
@@ -7416,7 +7416,7 @@
         <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7579,7 +7579,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7223342</v>
+        <v>7223489</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7591,76 +7591,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K80">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L80">
         <v>3.2</v>
       </c>
       <c r="M80">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N80">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O80">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q80">
+        <v>-0.75</v>
+      </c>
+      <c r="R80">
+        <v>1.9</v>
+      </c>
+      <c r="S80">
+        <v>1.9</v>
+      </c>
+      <c r="T80">
+        <v>2.25</v>
+      </c>
+      <c r="U80">
+        <v>1.85</v>
+      </c>
+      <c r="V80">
+        <v>1.95</v>
+      </c>
+      <c r="W80">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>-1</v>
+      </c>
+      <c r="Z80">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>-0.5</v>
       </c>
-      <c r="R80">
-        <v>1.85</v>
-      </c>
-      <c r="S80">
-        <v>1.95</v>
-      </c>
-      <c r="T80">
-        <v>2</v>
-      </c>
-      <c r="U80">
-        <v>1.975</v>
-      </c>
-      <c r="V80">
-        <v>1.825</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>3.75</v>
-      </c>
-      <c r="Z80">
-        <v>-1</v>
-      </c>
-      <c r="AA80">
-        <v>0.95</v>
-      </c>
-      <c r="AB80">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7668,7 +7668,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7223489</v>
+        <v>7223342</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7680,76 +7680,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K81">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L81">
         <v>3.2</v>
       </c>
       <c r="M81">
+        <v>4</v>
+      </c>
+      <c r="N81">
+        <v>1.8</v>
+      </c>
+      <c r="O81">
+        <v>3</v>
+      </c>
+      <c r="P81">
+        <v>4.75</v>
+      </c>
+      <c r="Q81">
+        <v>-0.5</v>
+      </c>
+      <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
+        <v>1.95</v>
+      </c>
+      <c r="T81">
+        <v>2</v>
+      </c>
+      <c r="U81">
+        <v>1.975</v>
+      </c>
+      <c r="V81">
+        <v>1.825</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
         <v>3.75</v>
       </c>
-      <c r="N81">
-        <v>1.666</v>
-      </c>
-      <c r="O81">
-        <v>3.4</v>
-      </c>
-      <c r="P81">
-        <v>4.5</v>
-      </c>
-      <c r="Q81">
-        <v>-0.75</v>
-      </c>
-      <c r="R81">
-        <v>1.9</v>
-      </c>
-      <c r="S81">
-        <v>1.9</v>
-      </c>
-      <c r="T81">
-        <v>2.25</v>
-      </c>
-      <c r="U81">
-        <v>1.85</v>
-      </c>
-      <c r="V81">
-        <v>1.95</v>
-      </c>
-      <c r="W81">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
       <c r="Z81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7772,7 +7772,7 @@
         <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8113,7 +8113,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7249817</v>
+        <v>7249889</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8128,37 +8128,37 @@
         <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K86">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M86">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N86">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O86">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="Q86">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
         <v>1.9</v>
@@ -8170,16 +8170,16 @@
         <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W86">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y86">
         <v>-1</v>
@@ -8194,7 +8194,7 @@
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8214,7 +8214,7 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
         <v>42</v>
@@ -8469,7 +8469,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7249889</v>
+        <v>7249817</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8481,40 +8481,40 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K90">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L90">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M90">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P90">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R90">
         <v>1.9</v>
@@ -8526,16 +8526,16 @@
         <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X90">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8550,7 +8550,7 @@
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8751,7 +8751,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8840,7 +8840,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8914,7 +8914,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7265140</v>
+        <v>7265139</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8926,76 +8926,76 @@
         <v>45196.75</v>
       </c>
       <c r="F95" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K95">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L95">
         <v>3</v>
       </c>
       <c r="M95">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O95">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P95">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U95">
+        <v>1.775</v>
+      </c>
+      <c r="V95">
+        <v>2.025</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
         <v>1.9</v>
       </c>
-      <c r="V95">
-        <v>1.9</v>
-      </c>
-      <c r="W95">
-        <v>1.5</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7265138</v>
+        <v>7265140</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,76 +9015,76 @@
         <v>45196.75</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L96">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M96">
+        <v>2.75</v>
+      </c>
+      <c r="N96">
+        <v>2.5</v>
+      </c>
+      <c r="O96">
         <v>3.2</v>
       </c>
-      <c r="N96">
-        <v>1.65</v>
-      </c>
-      <c r="O96">
-        <v>3.6</v>
-      </c>
       <c r="P96">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X96">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9092,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7265139</v>
+        <v>7265138</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9104,16 +9104,16 @@
         <v>45196.75</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>54</v>
@@ -9122,43 +9122,43 @@
         <v>2</v>
       </c>
       <c r="L97">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M97">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N97">
+        <v>1.65</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
+        <v>4.5</v>
+      </c>
+      <c r="Q97">
+        <v>-0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
         <v>1.95</v>
       </c>
-      <c r="O97">
-        <v>2.9</v>
-      </c>
-      <c r="P97">
-        <v>4.2</v>
-      </c>
-      <c r="Q97">
-        <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.975</v>
-      </c>
-      <c r="S97">
-        <v>1.725</v>
-      </c>
-      <c r="T97">
-        <v>2</v>
-      </c>
-      <c r="U97">
-        <v>1.775</v>
-      </c>
       <c r="V97">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9167,13 +9167,13 @@
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB97">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7265144</v>
+        <v>7265142</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9282,16 +9282,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>1</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>52</v>
@@ -9300,40 +9300,40 @@
         <v>2</v>
       </c>
       <c r="L99">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N99">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O99">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P99">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9342,16 +9342,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9359,7 +9359,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7265142</v>
+        <v>7265144</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9371,16 +9371,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
@@ -9389,40 +9389,40 @@
         <v>2</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M100">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N100">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
         <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9431,16 +9431,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
+        <v>0.75</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>0.95</v>
-      </c>
-      <c r="AC100">
-        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9626,7 +9626,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7281783</v>
+        <v>7281758</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9638,16 +9638,16 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>52</v>
@@ -9662,34 +9662,34 @@
         <v>3.75</v>
       </c>
       <c r="N103">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q103">
         <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
         <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9698,16 +9698,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC103">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9715,7 +9715,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7281782</v>
+        <v>7281756</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9727,73 +9727,73 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9804,7 +9804,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7281758</v>
+        <v>7281782</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9816,73 +9816,73 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K105">
+        <v>2.5</v>
+      </c>
+      <c r="L105">
+        <v>3.3</v>
+      </c>
+      <c r="M105">
+        <v>2.5</v>
+      </c>
+      <c r="N105">
         <v>1.909</v>
       </c>
-      <c r="L105">
-        <v>3.2</v>
-      </c>
-      <c r="M105">
-        <v>3.75</v>
-      </c>
-      <c r="N105">
-        <v>1.8</v>
-      </c>
       <c r="O105">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q105">
         <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB105">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9893,7 +9893,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7281757</v>
+        <v>7281783</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9905,16 +9905,16 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>52</v>
@@ -9929,34 +9929,34 @@
         <v>3.75</v>
       </c>
       <c r="N106">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P106">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
         <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9965,16 +9965,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9982,7 +9982,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7281756</v>
+        <v>7281757</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9994,58 +9994,58 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H107">
         <v>5</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
         <v>52</v>
       </c>
       <c r="K107">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L107">
+        <v>3.2</v>
+      </c>
+      <c r="M107">
+        <v>3.75</v>
+      </c>
+      <c r="N107">
+        <v>1.666</v>
+      </c>
+      <c r="O107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>4</v>
-      </c>
-      <c r="N107">
-        <v>1.6</v>
-      </c>
-      <c r="O107">
-        <v>3.6</v>
-      </c>
       <c r="P107">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q107">
         <v>-0.75</v>
       </c>
       <c r="R107">
+        <v>1.9</v>
+      </c>
+      <c r="S107">
+        <v>1.9</v>
+      </c>
+      <c r="T107">
+        <v>2.25</v>
+      </c>
+      <c r="U107">
         <v>1.8</v>
       </c>
-      <c r="S107">
-        <v>2</v>
-      </c>
-      <c r="T107">
-        <v>2.5</v>
-      </c>
-      <c r="U107">
-        <v>1.9</v>
-      </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>0.6000000000000001</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10054,13 +10054,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>0.8</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10261,7 +10261,7 @@
         <v>45217.66666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>36</v>
@@ -10516,7 +10516,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7372551</v>
+        <v>7376644</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10528,58 +10528,58 @@
         <v>45221.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G113" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>52</v>
       </c>
       <c r="K113">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L113">
         <v>3.6</v>
       </c>
       <c r="M113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N113">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O113">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="W113">
-        <v>0.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10588,13 +10588,13 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10605,7 +10605,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7376644</v>
+        <v>7372551</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10617,58 +10617,58 @@
         <v>45221.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
         <v>52</v>
       </c>
       <c r="K114">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L114">
         <v>3.6</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N114">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P114">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S114">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
-        <v>0.7270000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10677,13 +10677,13 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10694,7 +10694,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7372552</v>
+        <v>7373217</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10706,40 +10706,40 @@
         <v>45221.75</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K115">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M115">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N115">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="O115">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
         <v>1.9</v>
@@ -10751,31 +10751,31 @@
         <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC115">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10783,7 +10783,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7373217</v>
+        <v>7372552</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10795,40 +10795,40 @@
         <v>45221.75</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K116">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
+        <v>3.1</v>
+      </c>
+      <c r="M116">
+        <v>2.8</v>
+      </c>
+      <c r="N116">
+        <v>1.85</v>
+      </c>
+      <c r="O116">
         <v>3.2</v>
       </c>
-      <c r="M116">
-        <v>4.333</v>
-      </c>
-      <c r="N116">
-        <v>1.666</v>
-      </c>
-      <c r="O116">
-        <v>3.4</v>
-      </c>
       <c r="P116">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
         <v>1.9</v>
@@ -10840,31 +10840,31 @@
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
       <c r="AB116">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10961,7 +10961,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7387211</v>
+        <v>7387942</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10973,61 +10973,61 @@
         <v>45224.75</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K118">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M118">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N118">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q118">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
@@ -11036,13 +11036,13 @@
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11050,7 +11050,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7387943</v>
+        <v>7387211</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11062,13 +11062,13 @@
         <v>45224.75</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -11077,34 +11077,34 @@
         <v>52</v>
       </c>
       <c r="K119">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M119">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N119">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P119">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R119">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U119">
         <v>1.9</v>
@@ -11113,7 +11113,7 @@
         <v>1.9</v>
       </c>
       <c r="W119">
-        <v>0.5329999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11122,16 +11122,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC119">
-        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7387942</v>
+        <v>7387943</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11151,76 +11151,76 @@
         <v>45224.75</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K120">
+        <v>1.727</v>
+      </c>
+      <c r="L120">
+        <v>3.4</v>
+      </c>
+      <c r="M120">
+        <v>4.2</v>
+      </c>
+      <c r="N120">
+        <v>1.533</v>
+      </c>
+      <c r="O120">
+        <v>3.6</v>
+      </c>
+      <c r="P120">
+        <v>5.5</v>
+      </c>
+      <c r="Q120">
+        <v>-0.75</v>
+      </c>
+      <c r="R120">
+        <v>1.75</v>
+      </c>
+      <c r="S120">
+        <v>1.95</v>
+      </c>
+      <c r="T120">
         <v>2.5</v>
       </c>
-      <c r="L120">
-        <v>3</v>
-      </c>
-      <c r="M120">
-        <v>2.6</v>
-      </c>
-      <c r="N120">
-        <v>1.909</v>
-      </c>
-      <c r="O120">
-        <v>3.2</v>
-      </c>
-      <c r="P120">
-        <v>3.6</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>2</v>
-      </c>
-      <c r="S120">
-        <v>1.8</v>
-      </c>
-      <c r="T120">
-        <v>2.25</v>
-      </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X120">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA120">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11240,10 +11240,10 @@
         <v>45224.77083333334</v>
       </c>
       <c r="F121" t="s">
+        <v>33</v>
+      </c>
+      <c r="G121" t="s">
         <v>35</v>
-      </c>
-      <c r="G121" t="s">
-        <v>34</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11329,7 +11329,7 @@
         <v>45224.875</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
         <v>49</v>
@@ -11777,7 +11777,7 @@
         <v>45</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11851,7 +11851,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7400385</v>
+        <v>7400384</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11863,58 +11863,58 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H128">
         <v>4</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>52</v>
       </c>
       <c r="K128">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L128">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N128">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O128">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P128">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q128">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S128">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W128">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11923,13 +11923,13 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11940,7 +11940,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7400384</v>
+        <v>7400385</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11952,73 +11952,73 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H129">
         <v>4</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>52</v>
       </c>
       <c r="K129">
+        <v>1.5</v>
+      </c>
+      <c r="L129">
+        <v>3.75</v>
+      </c>
+      <c r="M129">
+        <v>5.5</v>
+      </c>
+      <c r="N129">
+        <v>1.4</v>
+      </c>
+      <c r="O129">
+        <v>4.2</v>
+      </c>
+      <c r="P129">
+        <v>6.5</v>
+      </c>
+      <c r="Q129">
+        <v>-1.25</v>
+      </c>
+      <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
+        <v>1.975</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
         <v>1.8</v>
       </c>
-      <c r="L129">
-        <v>3</v>
-      </c>
-      <c r="M129">
-        <v>4.5</v>
-      </c>
-      <c r="N129">
-        <v>1.8</v>
-      </c>
-      <c r="O129">
-        <v>3</v>
-      </c>
-      <c r="P129">
-        <v>4.333</v>
-      </c>
-      <c r="Q129">
-        <v>-0.5</v>
-      </c>
-      <c r="R129">
-        <v>1.85</v>
-      </c>
-      <c r="S129">
-        <v>1.95</v>
-      </c>
-      <c r="T129">
-        <v>2.5</v>
-      </c>
-      <c r="U129">
-        <v>1.95</v>
-      </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W129">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
+        <v>0.825</v>
+      </c>
+      <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
         <v>0.8</v>
-      </c>
-      <c r="X129">
-        <v>-1</v>
-      </c>
-      <c r="Y129">
-        <v>-1</v>
-      </c>
-      <c r="Z129">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA129">
-        <v>-1</v>
-      </c>
-      <c r="AB129">
-        <v>0.95</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12222,7 +12222,7 @@
         <v>43</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12489,7 +12489,7 @@
         <v>46</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>6</v>
@@ -12575,7 +12575,7 @@
         <v>45238.75</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
         <v>36</v>
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7451046</v>
+        <v>7451045</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,76 +12664,76 @@
         <v>45238.75</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L137">
         <v>3.2</v>
       </c>
       <c r="M137">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N137">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O137">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12741,7 +12741,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7451045</v>
+        <v>7450477</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12753,76 +12753,76 @@
         <v>45238.75</v>
       </c>
       <c r="F138" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
         <v>1</v>
       </c>
-      <c r="I138">
-        <v>2</v>
-      </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K138">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M138">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N138">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P138">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V138">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB138">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12830,7 +12830,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7450477</v>
+        <v>7452316</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12842,40 +12842,40 @@
         <v>45238.75</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K139">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L139">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N139">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="O139">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P139">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q139">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R139">
         <v>1.9</v>
@@ -12887,31 +12887,31 @@
         <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W139">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB139">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AC139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12919,7 +12919,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7451058</v>
+        <v>7451046</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12931,76 +12931,76 @@
         <v>45238.75</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>54</v>
+      </c>
+      <c r="K140">
         <v>3</v>
       </c>
-      <c r="I140">
-        <v>2</v>
-      </c>
-      <c r="J140" t="s">
-        <v>52</v>
-      </c>
-      <c r="K140">
-        <v>1.909</v>
-      </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M140">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N140">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q140">
+        <v>-0.25</v>
+      </c>
+      <c r="R140">
+        <v>1.9</v>
+      </c>
+      <c r="S140">
+        <v>1.9</v>
+      </c>
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
+        <v>1.825</v>
+      </c>
+      <c r="V140">
+        <v>1.975</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>2.3</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
         <v>-0.5</v>
       </c>
-      <c r="R140">
-        <v>2</v>
-      </c>
-      <c r="S140">
-        <v>1.8</v>
-      </c>
-      <c r="T140">
-        <v>2.75</v>
-      </c>
-      <c r="U140">
-        <v>1.875</v>
-      </c>
-      <c r="V140">
-        <v>1.925</v>
-      </c>
-      <c r="W140">
-        <v>0.909</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
-      <c r="Z140">
-        <v>1</v>
-      </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13008,7 +13008,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7452316</v>
+        <v>7448182</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13020,40 +13020,40 @@
         <v>45238.75</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H141">
+        <v>3</v>
+      </c>
+      <c r="I141">
         <v>1</v>
       </c>
-      <c r="I141">
-        <v>3</v>
-      </c>
       <c r="J141" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K141">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="L141">
         <v>3.6</v>
       </c>
       <c r="M141">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="N141">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O141">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P141">
-        <v>1.85</v>
+        <v>7.5</v>
       </c>
       <c r="Q141">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R141">
         <v>1.9</v>
@@ -13062,31 +13062,31 @@
         <v>1.9</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7448182</v>
+        <v>7451058</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,58 +13109,58 @@
         <v>45238.75</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>3</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>52</v>
       </c>
       <c r="K142">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N142">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13169,13 +13169,13 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13468,7 +13468,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13554,7 +13554,7 @@
         <v>45249.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
         <v>37</v>
@@ -13913,7 +13913,7 @@
         <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14088,7 +14088,7 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
         <v>42</v>
@@ -14358,7 +14358,7 @@
         <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14533,7 +14533,7 @@
         <v>45269.70833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>32</v>
@@ -14889,7 +14889,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
         <v>48</v>
@@ -14966,7 +14966,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7694909</v>
+        <v>7693875</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14978,76 +14978,76 @@
         <v>45304.75</v>
       </c>
       <c r="F163" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K163">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M163">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N163">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O163">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>1.85</v>
+      </c>
+      <c r="S163">
+        <v>1.95</v>
+      </c>
+      <c r="T163">
+        <v>2.5</v>
+      </c>
+      <c r="U163">
+        <v>2</v>
+      </c>
+      <c r="V163">
+        <v>1.8</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
+        <v>2.1</v>
+      </c>
+      <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
         <v>-0.5</v>
       </c>
-      <c r="R163">
-        <v>1.975</v>
-      </c>
-      <c r="S163">
-        <v>1.825</v>
-      </c>
-      <c r="T163">
-        <v>3</v>
-      </c>
-      <c r="U163">
-        <v>1.975</v>
-      </c>
-      <c r="V163">
-        <v>1.825</v>
-      </c>
-      <c r="W163">
-        <v>0.909</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
-      </c>
-      <c r="Y163">
-        <v>-1</v>
-      </c>
-      <c r="Z163">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7693875</v>
+        <v>7694909</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45304.75</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K164">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N164">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X164">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA164">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC164">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15337,7 +15337,7 @@
         <v>45</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H167">
         <v>5</v>
@@ -15426,7 +15426,7 @@
         <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15515,7 +15515,7 @@
         <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15678,7 +15678,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7728658</v>
+        <v>7726349</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15690,40 +15690,40 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171">
         <v>0</v>
       </c>
-      <c r="I171">
-        <v>3</v>
-      </c>
       <c r="J171" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K171">
+        <v>3.5</v>
+      </c>
+      <c r="L171">
+        <v>3.3</v>
+      </c>
+      <c r="M171">
+        <v>1.909</v>
+      </c>
+      <c r="N171">
+        <v>2.45</v>
+      </c>
+      <c r="O171">
         <v>3.2</v>
       </c>
-      <c r="L171">
-        <v>3</v>
-      </c>
-      <c r="M171">
-        <v>2.2</v>
-      </c>
-      <c r="N171">
-        <v>5.5</v>
-      </c>
-      <c r="O171">
-        <v>3.4</v>
-      </c>
       <c r="P171">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="Q171">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R171">
         <v>1.85</v>
@@ -15732,34 +15732,34 @@
         <v>1.95</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
+        <v>1.95</v>
+      </c>
+      <c r="V171">
         <v>1.85</v>
       </c>
-      <c r="V171">
-        <v>1.95</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC171">
-        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15779,7 +15779,7 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
         <v>51</v>
@@ -15945,7 +15945,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7726349</v>
+        <v>7728658</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15957,40 +15957,40 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G174" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K174">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M174">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N174">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="O174">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P174">
-        <v>2.55</v>
+        <v>1.571</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R174">
         <v>1.85</v>
@@ -15999,34 +15999,34 @@
         <v>1.95</v>
       </c>
       <c r="T174">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
+        <v>1.85</v>
+      </c>
+      <c r="V174">
         <v>1.95</v>
       </c>
-      <c r="V174">
-        <v>1.85</v>
-      </c>
       <c r="W174">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z174">
+        <v>-1</v>
+      </c>
+      <c r="AA174">
+        <v>0.95</v>
+      </c>
+      <c r="AB174">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16224,7 +16224,7 @@
         <v>45312.875</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -16313,10 +16313,10 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7749789</v>
+        <v>7749669</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,76 +16402,76 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K179">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L179">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M179">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N179">
         <v>1.65</v>
       </c>
       <c r="O179">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P179">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q179">
         <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W179">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7749669</v>
+        <v>7749670</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,76 +16491,76 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K180">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L180">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M180">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N180">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O180">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>5.75</v>
+        <v>9</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T180">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V180">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X180">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC180">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7749670</v>
+        <v>7749789</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,40 +16580,40 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>52</v>
       </c>
       <c r="K181">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M181">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="N181">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P181">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q181">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R181">
         <v>1.85</v>
@@ -16625,13 +16625,13 @@
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W181">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16640,16 +16640,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
+        <v>0.425</v>
+      </c>
+      <c r="AA181">
         <v>-0.5</v>
       </c>
-      <c r="AA181">
-        <v>0.475</v>
-      </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17203,7 +17203,7 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
         <v>37</v>
@@ -17280,7 +17280,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7785359</v>
+        <v>7785360</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17292,58 +17292,58 @@
         <v>45326.75</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H189">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>52</v>
       </c>
       <c r="K189">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L189">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M189">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N189">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S189">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W189">
-        <v>0.571</v>
+        <v>0.75</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17352,13 +17352,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17369,7 +17369,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7785360</v>
+        <v>7785359</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17381,58 +17381,58 @@
         <v>45326.75</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
         <v>52</v>
       </c>
       <c r="K190">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L190">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M190">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N190">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R190">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W190">
-        <v>0.75</v>
+        <v>0.571</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17441,13 +17441,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17470,7 +17470,7 @@
         <v>45326.875</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G191" t="s">
         <v>39</v>
@@ -17636,7 +17636,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7797363</v>
+        <v>7797364</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17648,58 +17648,58 @@
         <v>45329.75</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
         <v>52</v>
       </c>
       <c r="K193">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N193">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>0.45</v>
+        <v>0.909</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17708,16 +17708,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17725,7 +17725,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7797362</v>
+        <v>7797363</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17737,58 +17737,58 @@
         <v>45329.75</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G194" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H194">
+        <v>3</v>
+      </c>
+      <c r="I194">
         <v>1</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>52</v>
       </c>
       <c r="K194">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L194">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M194">
         <v>4.75</v>
       </c>
       <c r="N194">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O194">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P194">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q194">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R194">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S194">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T194">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W194">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17797,16 +17797,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA194">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC194">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7797364</v>
+        <v>7797362</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,10 +17826,10 @@
         <v>45329.75</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G195" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17841,43 +17841,43 @@
         <v>52</v>
       </c>
       <c r="K195">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L195">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
+        <v>4.75</v>
+      </c>
+      <c r="N195">
+        <v>1.4</v>
+      </c>
+      <c r="O195">
+        <v>4</v>
+      </c>
+      <c r="P195">
+        <v>7</v>
+      </c>
+      <c r="Q195">
+        <v>-1.5</v>
+      </c>
+      <c r="R195">
+        <v>1.925</v>
+      </c>
+      <c r="S195">
+        <v>1.775</v>
+      </c>
+      <c r="T195">
         <v>3</v>
       </c>
-      <c r="N195">
-        <v>1.909</v>
-      </c>
-      <c r="O195">
-        <v>3.4</v>
-      </c>
-      <c r="P195">
-        <v>3.5</v>
-      </c>
-      <c r="Q195">
-        <v>-0.5</v>
-      </c>
-      <c r="R195">
-        <v>1.95</v>
-      </c>
-      <c r="S195">
-        <v>1.85</v>
-      </c>
-      <c r="T195">
-        <v>2</v>
-      </c>
       <c r="U195">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17886,16 +17886,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17915,7 +17915,7 @@
         <v>45329.79861111111</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
         <v>48</v>
@@ -18630,7 +18630,7 @@
         <v>43</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H204">
         <v>3</v>
@@ -18805,7 +18805,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G206" t="s">
         <v>36</v>
@@ -18894,7 +18894,7 @@
         <v>45339.875</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
         <v>41</v>
@@ -19072,7 +19072,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
         <v>42</v>
@@ -19520,7 +19520,7 @@
         <v>47</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19609,7 +19609,7 @@
         <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19698,7 +19698,7 @@
         <v>45</v>
       </c>
       <c r="G216" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19962,7 +19962,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
         <v>51</v>
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7881213</v>
+        <v>7881214</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H220">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K220">
         <v>2.5</v>
       </c>
       <c r="L220">
+        <v>3.2</v>
+      </c>
+      <c r="M220">
+        <v>2.5</v>
+      </c>
+      <c r="N220">
+        <v>1.727</v>
+      </c>
+      <c r="O220">
         <v>3.5</v>
       </c>
-      <c r="M220">
-        <v>2.375</v>
-      </c>
-      <c r="N220">
-        <v>1.615</v>
-      </c>
-      <c r="O220">
-        <v>3.6</v>
-      </c>
       <c r="P220">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q220">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W220">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z220">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB220">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7881214</v>
+        <v>7881213</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,76 +20140,76 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G221" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H221">
+        <v>4</v>
+      </c>
+      <c r="I221">
         <v>1</v>
       </c>
-      <c r="I221">
-        <v>2</v>
-      </c>
       <c r="J221" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K221">
         <v>2.5</v>
       </c>
       <c r="L221">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M221">
+        <v>2.375</v>
+      </c>
+      <c r="N221">
+        <v>1.615</v>
+      </c>
+      <c r="O221">
+        <v>3.6</v>
+      </c>
+      <c r="P221">
+        <v>4.333</v>
+      </c>
+      <c r="Q221">
+        <v>-0.75</v>
+      </c>
+      <c r="R221">
+        <v>1.85</v>
+      </c>
+      <c r="S221">
+        <v>1.95</v>
+      </c>
+      <c r="T221">
         <v>2.5</v>
       </c>
-      <c r="N221">
-        <v>1.727</v>
-      </c>
-      <c r="O221">
-        <v>3.5</v>
-      </c>
-      <c r="P221">
-        <v>4</v>
-      </c>
-      <c r="Q221">
-        <v>-0.5</v>
-      </c>
-      <c r="R221">
-        <v>1.775</v>
-      </c>
-      <c r="S221">
-        <v>2.025</v>
-      </c>
-      <c r="T221">
-        <v>2.75</v>
-      </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V221">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA221">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20229,7 +20229,7 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
         <v>36</v>
@@ -20496,7 +20496,7 @@
         <v>45347.875</v>
       </c>
       <c r="F225" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G225" t="s">
         <v>49</v>
@@ -20565,6 +20565,184 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AC225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>7905008</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45353.75</v>
+      </c>
+      <c r="F226" t="s">
+        <v>42</v>
+      </c>
+      <c r="G226" t="s">
+        <v>47</v>
+      </c>
+      <c r="H226">
+        <v>4</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
+        <v>52</v>
+      </c>
+      <c r="K226">
+        <v>2.1</v>
+      </c>
+      <c r="L226">
+        <v>3</v>
+      </c>
+      <c r="M226">
+        <v>3.4</v>
+      </c>
+      <c r="N226">
+        <v>1.4</v>
+      </c>
+      <c r="O226">
+        <v>3.75</v>
+      </c>
+      <c r="P226">
+        <v>8</v>
+      </c>
+      <c r="Q226">
+        <v>-1</v>
+      </c>
+      <c r="R226">
+        <v>1.775</v>
+      </c>
+      <c r="S226">
+        <v>2.025</v>
+      </c>
+      <c r="T226">
+        <v>2.25</v>
+      </c>
+      <c r="U226">
+        <v>2.025</v>
+      </c>
+      <c r="V226">
+        <v>1.775</v>
+      </c>
+      <c r="W226">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X226">
+        <v>-1</v>
+      </c>
+      <c r="Y226">
+        <v>-1</v>
+      </c>
+      <c r="Z226">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA226">
+        <v>-1</v>
+      </c>
+      <c r="AB226">
+        <v>1.025</v>
+      </c>
+      <c r="AC226">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>7905007</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45353.75</v>
+      </c>
+      <c r="F227" t="s">
+        <v>37</v>
+      </c>
+      <c r="G227" t="s">
+        <v>51</v>
+      </c>
+      <c r="H227">
+        <v>2</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227" t="s">
+        <v>52</v>
+      </c>
+      <c r="K227">
+        <v>2.1</v>
+      </c>
+      <c r="L227">
+        <v>3.3</v>
+      </c>
+      <c r="M227">
+        <v>3</v>
+      </c>
+      <c r="N227">
+        <v>1.333</v>
+      </c>
+      <c r="O227">
+        <v>4.75</v>
+      </c>
+      <c r="P227">
+        <v>7.5</v>
+      </c>
+      <c r="Q227">
+        <v>-1.25</v>
+      </c>
+      <c r="R227">
+        <v>1.75</v>
+      </c>
+      <c r="S227">
+        <v>1.95</v>
+      </c>
+      <c r="T227">
+        <v>2.5</v>
+      </c>
+      <c r="U227">
+        <v>1.825</v>
+      </c>
+      <c r="V227">
+        <v>1.975</v>
+      </c>
+      <c r="W227">
+        <v>0.333</v>
+      </c>
+      <c r="X227">
+        <v>-1</v>
+      </c>
+      <c r="Y227">
+        <v>-1</v>
+      </c>
+      <c r="Z227">
+        <v>-0.5</v>
+      </c>
+      <c r="AA227">
+        <v>0.475</v>
+      </c>
+      <c r="AB227">
+        <v>0.825</v>
+      </c>
+      <c r="AC227">
         <v>-1</v>
       </c>
     </row>

--- a/Guatemala Primera Division/Guatemala Primera Division.xlsx
+++ b/Guatemala Primera Division/Guatemala Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -145,10 +145,10 @@
     <t>CS Deportivo Sacachispas</t>
   </si>
   <si>
-    <t>Juventud Pinulteca FC</t>
+    <t>Deportivo San Pedro</t>
   </si>
   <si>
-    <t>Deportivo San Pedro</t>
+    <t>Juventud Pinulteca FC</t>
   </si>
   <si>
     <t>Mictln</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC227"/>
+  <dimension ref="A1:AC236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1275,7 +1275,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7025358</v>
+        <v>7025357</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1898,16 +1898,16 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K16">
         <v>1.615</v>
@@ -1919,52 +1919,52 @@
         <v>5</v>
       </c>
       <c r="N16">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="V16">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y16">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB16">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1972,7 +1972,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7025357</v>
+        <v>7025358</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1987,16 +1987,16 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17">
         <v>1.615</v>
@@ -2008,52 +2008,52 @@
         <v>5</v>
       </c>
       <c r="N17">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="O17">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="V17">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AC17">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2165,7 +2165,7 @@
         <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7060393</v>
+        <v>7060342</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2340,76 +2340,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O21">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P21">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7060342</v>
+        <v>7060392</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,49 +2429,49 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22">
+        <v>1.952</v>
+      </c>
+      <c r="L22">
         <v>3.3</v>
       </c>
-      <c r="L22">
-        <v>3.2</v>
-      </c>
       <c r="M22">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O22">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2480,19 +2480,19 @@
         <v>1.8</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
@@ -2506,7 +2506,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7060392</v>
+        <v>7060393</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2518,76 +2518,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>1.952</v>
+        <v>1.615</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P23">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R23">
+        <v>1.85</v>
+      </c>
+      <c r="S23">
+        <v>1.95</v>
+      </c>
+      <c r="T23">
+        <v>2.75</v>
+      </c>
+      <c r="U23">
         <v>1.825</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>1.975</v>
       </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
-      </c>
-      <c r="V23">
-        <v>1.8</v>
-      </c>
       <c r="W23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2877,7 +2877,7 @@
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7072542</v>
+        <v>7072543</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3144,7 +3144,7 @@
         <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3156,43 +3156,43 @@
         <v>52</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P30">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W30">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3201,13 +3201,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3307,7 +3307,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7072459</v>
+        <v>7072448</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3319,10 +3319,10 @@
         <v>45154.75</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3334,61 +3334,61 @@
         <v>54</v>
       </c>
       <c r="K32">
+        <v>1.727</v>
+      </c>
+      <c r="L32">
+        <v>3.5</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>1.6</v>
+      </c>
+      <c r="O32">
+        <v>3.6</v>
+      </c>
+      <c r="P32">
+        <v>4.75</v>
+      </c>
+      <c r="Q32">
+        <v>-0.75</v>
+      </c>
+      <c r="R32">
+        <v>1.8</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
         <v>2.25</v>
       </c>
-      <c r="L32">
-        <v>3</v>
-      </c>
-      <c r="M32">
-        <v>3</v>
-      </c>
-      <c r="N32">
-        <v>2.5</v>
-      </c>
-      <c r="O32">
-        <v>2.8</v>
-      </c>
-      <c r="P32">
-        <v>3</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.725</v>
-      </c>
-      <c r="S32">
-        <v>2.075</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
       <c r="U32">
+        <v>1.95</v>
+      </c>
+      <c r="V32">
         <v>1.85</v>
       </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7072543</v>
+        <v>7072459</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,76 +3408,76 @@
         <v>45154.75</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33">
+        <v>2.5</v>
+      </c>
+      <c r="O33">
+        <v>2.8</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1.725</v>
+      </c>
+      <c r="S33">
+        <v>2.075</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>1.85</v>
+      </c>
+      <c r="V33">
+        <v>1.95</v>
+      </c>
+      <c r="W33">
+        <v>-1</v>
+      </c>
+      <c r="X33">
         <v>1.8</v>
       </c>
-      <c r="O33">
-        <v>3.2</v>
-      </c>
-      <c r="P33">
-        <v>4</v>
-      </c>
-      <c r="Q33">
-        <v>-0.5</v>
-      </c>
-      <c r="R33">
-        <v>1.85</v>
-      </c>
-      <c r="S33">
-        <v>1.95</v>
-      </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-      <c r="U33">
-        <v>1.975</v>
-      </c>
-      <c r="V33">
-        <v>1.725</v>
-      </c>
-      <c r="W33">
-        <v>0.8</v>
-      </c>
-      <c r="X33">
-        <v>-1</v>
-      </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7072448</v>
+        <v>7072542</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,34 +3497,34 @@
         <v>45154.75</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L34">
+        <v>3.25</v>
+      </c>
+      <c r="M34">
         <v>3.5</v>
       </c>
-      <c r="M34">
-        <v>4</v>
-      </c>
       <c r="N34">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P34">
         <v>4.75</v>
@@ -3533,40 +3533,40 @@
         <v>-0.75</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
         <v>2.25</v>
       </c>
       <c r="U34">
+        <v>1.85</v>
+      </c>
+      <c r="V34">
         <v>1.95</v>
       </c>
-      <c r="V34">
-        <v>1.85</v>
-      </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X34">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC34">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3752,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7106174</v>
+        <v>7106041</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3764,76 +3764,76 @@
         <v>45161.75</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L37">
+        <v>3.2</v>
+      </c>
+      <c r="M37">
+        <v>2.3</v>
+      </c>
+      <c r="N37">
+        <v>2.3</v>
+      </c>
+      <c r="O37">
         <v>3</v>
       </c>
-      <c r="M37">
-        <v>3.5</v>
-      </c>
-      <c r="N37">
+      <c r="P37">
+        <v>2.875</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
         <v>1.75</v>
       </c>
-      <c r="O37">
-        <v>3.1</v>
-      </c>
-      <c r="P37">
-        <v>4.333</v>
-      </c>
-      <c r="Q37">
-        <v>-0.5</v>
-      </c>
-      <c r="R37">
-        <v>1.85</v>
-      </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X37">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3841,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7106041</v>
+        <v>7106032</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3853,58 +3853,58 @@
         <v>45161.75</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
         <v>1</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>52</v>
       </c>
       <c r="K38">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
         <v>3.2</v>
       </c>
       <c r="M38">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S38">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
-        <v>1.3</v>
+        <v>0.615</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3913,16 +3913,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7106032</v>
+        <v>7106173</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3942,58 +3942,58 @@
         <v>45161.75</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>52</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L39">
         <v>3.2</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N39">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
         <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>0.615</v>
+        <v>0.571</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4002,13 +4002,13 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4019,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7106173</v>
+        <v>7106174</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4031,76 +4031,76 @@
         <v>45161.75</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K40">
         <v>2</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M40">
         <v>3.5</v>
       </c>
       <c r="N40">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P40">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4197,7 +4197,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7107133</v>
+        <v>7107137</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4209,40 +4209,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>1.45</v>
+      </c>
+      <c r="O42">
         <v>4</v>
       </c>
-      <c r="N42">
-        <v>1.85</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
       <c r="P42">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R42">
         <v>1.9</v>
@@ -4251,34 +4251,34 @@
         <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7107137</v>
+        <v>7107133</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4298,40 +4298,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43">
+        <v>1.8</v>
+      </c>
+      <c r="L43">
+        <v>3.2</v>
+      </c>
+      <c r="M43">
         <v>4</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43">
-        <v>2.1</v>
-      </c>
-      <c r="L43">
-        <v>3.3</v>
-      </c>
-      <c r="M43">
+      <c r="N43">
+        <v>1.85</v>
+      </c>
+      <c r="O43">
         <v>3</v>
       </c>
-      <c r="N43">
-        <v>1.45</v>
-      </c>
-      <c r="O43">
-        <v>4</v>
-      </c>
       <c r="P43">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
         <v>1.9</v>
@@ -4340,34 +4340,34 @@
         <v>1.9</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
       <c r="AB43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7128481</v>
+        <v>7128480</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,13 +4565,13 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -4580,43 +4580,43 @@
         <v>52</v>
       </c>
       <c r="K46">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L46">
+        <v>3.1</v>
+      </c>
+      <c r="M46">
         <v>3.75</v>
       </c>
-      <c r="M46">
-        <v>4.75</v>
-      </c>
       <c r="N46">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O46">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>0.444</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4625,16 +4625,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4642,7 +4642,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7128480</v>
+        <v>7128481</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4654,13 +4654,13 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4669,61 +4669,61 @@
         <v>52</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L47">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M47">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N47">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q47">
+        <v>-1</v>
+      </c>
+      <c r="R47">
+        <v>1.725</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
+        <v>1.8</v>
+      </c>
+      <c r="W47">
+        <v>0.444</v>
+      </c>
+      <c r="X47">
+        <v>-1</v>
+      </c>
+      <c r="Y47">
+        <v>-1</v>
+      </c>
+      <c r="Z47">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>-1</v>
+      </c>
+      <c r="AB47">
         <v>-0.5</v>
       </c>
-      <c r="R47">
-        <v>1.85</v>
-      </c>
-      <c r="S47">
-        <v>1.95</v>
-      </c>
-      <c r="T47">
-        <v>1.75</v>
-      </c>
-      <c r="U47">
-        <v>1.85</v>
-      </c>
-      <c r="V47">
-        <v>1.95</v>
-      </c>
-      <c r="W47">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
-      <c r="Y47">
-        <v>-1</v>
-      </c>
-      <c r="Z47">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA47">
-        <v>-1</v>
-      </c>
-      <c r="AB47">
-        <v>-1</v>
-      </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5010,7 +5010,7 @@
         <v>45165.75</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
         <v>39</v>
@@ -5099,7 +5099,7 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
         <v>48</v>
@@ -5191,7 +5191,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5532,7 +5532,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7158507</v>
+        <v>7158508</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5544,58 +5544,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>52</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L57">
         <v>3.2</v>
       </c>
       <c r="M57">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N57">
-        <v>1.615</v>
+        <v>1.55</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P57">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
-        <v>0.615</v>
+        <v>0.55</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5604,16 +5604,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7158508</v>
+        <v>7158507</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5722,58 +5722,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
         <v>52</v>
       </c>
       <c r="K59">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
         <v>3.2</v>
       </c>
       <c r="M59">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N59">
-        <v>1.55</v>
+        <v>1.615</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P59">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>0.55</v>
+        <v>0.615</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5782,16 +5782,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5900,7 +5900,7 @@
         <v>45172.75</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
         <v>38</v>
@@ -6155,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7189205</v>
+        <v>7189246</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6167,76 +6167,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
         <v>53</v>
       </c>
       <c r="K64">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L64">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>1.8</v>
+      </c>
+      <c r="O64">
+        <v>3.25</v>
+      </c>
+      <c r="P64">
+        <v>4</v>
+      </c>
+      <c r="Q64">
+        <v>-0.5</v>
+      </c>
+      <c r="R64">
+        <v>1.825</v>
+      </c>
+      <c r="S64">
+        <v>1.975</v>
+      </c>
+      <c r="T64">
+        <v>2.25</v>
+      </c>
+      <c r="U64">
+        <v>1.825</v>
+      </c>
+      <c r="V64">
+        <v>1.975</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
         <v>3</v>
       </c>
-      <c r="N64">
-        <v>2.15</v>
-      </c>
-      <c r="O64">
-        <v>2.8</v>
-      </c>
-      <c r="P64">
-        <v>3.4</v>
-      </c>
-      <c r="Q64">
-        <v>-0.25</v>
-      </c>
-      <c r="R64">
-        <v>1.85</v>
-      </c>
-      <c r="S64">
-        <v>1.95</v>
-      </c>
-      <c r="T64">
-        <v>2</v>
-      </c>
-      <c r="U64">
-        <v>1.95</v>
-      </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>2.4</v>
-      </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7189246</v>
+        <v>7189416</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,46 +6256,46 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K65">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N65">
+        <v>1.45</v>
+      </c>
+      <c r="O65">
+        <v>4.2</v>
+      </c>
+      <c r="P65">
+        <v>5.5</v>
+      </c>
+      <c r="Q65">
+        <v>-1</v>
+      </c>
+      <c r="R65">
         <v>1.8</v>
       </c>
-      <c r="O65">
-        <v>3.25</v>
-      </c>
-      <c r="P65">
-        <v>4</v>
-      </c>
-      <c r="Q65">
-        <v>-0.5</v>
-      </c>
-      <c r="R65">
-        <v>1.825</v>
-      </c>
       <c r="S65">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T65">
         <v>2.25</v>
@@ -6307,19 +6307,19 @@
         <v>1.975</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA65">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>0.825</v>
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7189416</v>
+        <v>7189205</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6345,76 +6345,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K66">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="O66">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="P66">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6437,7 +6437,7 @@
         <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6615,7 +6615,7 @@
         <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7203472</v>
+        <v>7203452</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6882,55 +6882,55 @@
         <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>52</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6939,16 +6939,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6956,7 +6956,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7203452</v>
+        <v>7203472</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6971,55 +6971,55 @@
         <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
         <v>1</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M73">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N73">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O73">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q73">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
+        <v>1.975</v>
+      </c>
+      <c r="T73">
+        <v>2.5</v>
+      </c>
+      <c r="U73">
         <v>1.95</v>
       </c>
-      <c r="T73">
-        <v>3</v>
-      </c>
-      <c r="U73">
-        <v>1.9</v>
-      </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7028,16 +7028,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
+        <v>0.4125</v>
+      </c>
+      <c r="AA73">
         <v>-0.5</v>
       </c>
-      <c r="AA73">
-        <v>0.475</v>
-      </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7858,7 +7858,7 @@
         <v>45186.75</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
         <v>46</v>
@@ -7947,7 +7947,7 @@
         <v>45186.77083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s">
         <v>36</v>
@@ -8113,7 +8113,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7249889</v>
+        <v>7249817</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8125,40 +8125,40 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K86">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L86">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M86">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N86">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P86">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R86">
         <v>1.9</v>
@@ -8170,16 +8170,16 @@
         <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X86">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
@@ -8194,7 +8194,7 @@
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8291,7 +8291,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7249890</v>
+        <v>7249833</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8303,76 +8303,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G88" t="s">
         <v>44</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K88">
         <v>2.75</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M88">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N88">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O88">
         <v>3.25</v>
       </c>
       <c r="P88">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
+        <v>1.85</v>
+      </c>
+      <c r="S88">
         <v>1.95</v>
-      </c>
-      <c r="S88">
-        <v>1.85</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
+        <v>1.85</v>
+      </c>
+      <c r="V88">
         <v>1.95</v>
       </c>
-      <c r="V88">
-        <v>1.85</v>
-      </c>
       <c r="W88">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X88">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB88">
-        <v>-0.5</v>
-      </c>
       <c r="AC88">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8380,7 +8380,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7249833</v>
+        <v>7249889</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8392,76 +8392,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K89">
+        <v>2.2</v>
+      </c>
+      <c r="L89">
+        <v>3.3</v>
+      </c>
+      <c r="M89">
+        <v>2.8</v>
+      </c>
+      <c r="N89">
+        <v>1.833</v>
+      </c>
+      <c r="O89">
+        <v>3.4</v>
+      </c>
+      <c r="P89">
+        <v>3.5</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>1.9</v>
+      </c>
+      <c r="T89">
         <v>2.75</v>
       </c>
-      <c r="L89">
-        <v>3.2</v>
-      </c>
-      <c r="M89">
-        <v>2.3</v>
-      </c>
-      <c r="N89">
-        <v>2.1</v>
-      </c>
-      <c r="O89">
-        <v>3.25</v>
-      </c>
-      <c r="P89">
-        <v>3.1</v>
-      </c>
-      <c r="Q89">
-        <v>-0.25</v>
-      </c>
-      <c r="R89">
-        <v>1.85</v>
-      </c>
-      <c r="S89">
-        <v>1.95</v>
-      </c>
-      <c r="T89">
-        <v>2.25</v>
-      </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W89">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8469,7 +8469,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7249817</v>
+        <v>7249890</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8481,61 +8481,61 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K90">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="N90">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O90">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P90">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q90">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8544,13 +8544,13 @@
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC90">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8926,7 +8926,7 @@
         <v>45196.75</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s">
         <v>32</v>
@@ -9193,7 +9193,7 @@
         <v>45196.77083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -9270,7 +9270,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7265142</v>
+        <v>7265144</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9282,16 +9282,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>52</v>
@@ -9300,40 +9300,40 @@
         <v>2</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M99">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9342,16 +9342,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
+        <v>0.75</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>0.95</v>
-      </c>
-      <c r="AC99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9359,7 +9359,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7265144</v>
+        <v>7265142</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9371,16 +9371,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
         <v>1</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
@@ -9389,40 +9389,40 @@
         <v>2</v>
       </c>
       <c r="L100">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N100">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O100">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P100">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
         <v>2.25</v>
       </c>
       <c r="U100">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9431,16 +9431,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9626,7 +9626,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7281758</v>
+        <v>7281757</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9638,13 +9638,13 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I103">
         <v>3</v>
@@ -9662,49 +9662,49 @@
         <v>3.75</v>
       </c>
       <c r="N103">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
         <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W103">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
         <v>0.8</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>0.825</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>0.825</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9908,7 +9908,7 @@
         <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9982,7 +9982,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7281757</v>
+        <v>7281758</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9994,13 +9994,13 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I107">
         <v>3</v>
@@ -10018,34 +10018,34 @@
         <v>3.75</v>
       </c>
       <c r="N107">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>0.6659999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10054,13 +10054,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10439,7 +10439,7 @@
         <v>45217.77083333334</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G112" t="s">
         <v>37</v>
@@ -10516,7 +10516,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7376644</v>
+        <v>7372551</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10528,58 +10528,58 @@
         <v>45221.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
         <v>52</v>
       </c>
       <c r="K113">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L113">
         <v>3.6</v>
       </c>
       <c r="M113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N113">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P113">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
-        <v>0.7270000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10588,13 +10588,13 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10605,7 +10605,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7372551</v>
+        <v>7376644</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10617,58 +10617,58 @@
         <v>45221.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G114" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
         <v>52</v>
       </c>
       <c r="K114">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L114">
         <v>3.6</v>
       </c>
       <c r="M114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N114">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O114">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="W114">
-        <v>0.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10677,13 +10677,13 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10694,7 +10694,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7373217</v>
+        <v>7372552</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10709,37 +10709,37 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K115">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L115">
+        <v>3.1</v>
+      </c>
+      <c r="M115">
+        <v>2.8</v>
+      </c>
+      <c r="N115">
+        <v>1.85</v>
+      </c>
+      <c r="O115">
         <v>3.2</v>
       </c>
-      <c r="M115">
-        <v>4.333</v>
-      </c>
-      <c r="N115">
-        <v>1.666</v>
-      </c>
-      <c r="O115">
-        <v>3.4</v>
-      </c>
       <c r="P115">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
         <v>1.9</v>
@@ -10751,31 +10751,31 @@
         <v>2.25</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10783,7 +10783,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7372552</v>
+        <v>7373217</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10798,37 +10798,37 @@
         <v>44</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N116">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
         <v>1.9</v>
@@ -10840,31 +10840,31 @@
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X116">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10887,7 +10887,7 @@
         <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11673,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7400380</v>
+        <v>7400384</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11685,13 +11685,13 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -11700,25 +11700,25 @@
         <v>52</v>
       </c>
       <c r="K126">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L126">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M126">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N126">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O126">
         <v>3</v>
       </c>
       <c r="P126">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
         <v>1.85</v>
@@ -11727,16 +11727,16 @@
         <v>1.95</v>
       </c>
       <c r="T126">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11751,7 +11751,7 @@
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11851,7 +11851,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7400384</v>
+        <v>7400380</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11863,13 +11863,13 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -11878,25 +11878,25 @@
         <v>52</v>
       </c>
       <c r="K128">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M128">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N128">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O128">
         <v>3</v>
       </c>
       <c r="P128">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
         <v>1.85</v>
@@ -11905,16 +11905,16 @@
         <v>1.95</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W128">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11929,7 +11929,7 @@
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7400383</v>
+        <v>7400381</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,73 +12041,73 @@
         <v>45228.75</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K130">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L130">
+        <v>3.4</v>
+      </c>
+      <c r="M130">
+        <v>3.75</v>
+      </c>
+      <c r="N130">
+        <v>1.65</v>
+      </c>
+      <c r="O130">
         <v>3.6</v>
       </c>
-      <c r="M130">
-        <v>5</v>
-      </c>
-      <c r="N130">
-        <v>1.45</v>
-      </c>
-      <c r="O130">
-        <v>3.8</v>
-      </c>
       <c r="P130">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12118,7 +12118,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7400381</v>
+        <v>7400383</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12130,73 +12130,73 @@
         <v>45228.75</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K131">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N131">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X131">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12219,7 +12219,7 @@
         <v>45228.77083333334</v>
       </c>
       <c r="F132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
@@ -12311,7 +12311,7 @@
         <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7451044</v>
+        <v>7448182</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,76 +12575,76 @@
         <v>45238.75</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K136">
+        <v>1.727</v>
+      </c>
+      <c r="L136">
         <v>3.6</v>
       </c>
-      <c r="L136">
-        <v>3.5</v>
-      </c>
       <c r="M136">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="N136">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O136">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X136">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7451045</v>
+        <v>7450477</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,76 +12664,76 @@
         <v>45238.75</v>
       </c>
       <c r="F137" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
         <v>1</v>
       </c>
-      <c r="I137">
-        <v>2</v>
-      </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K137">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M137">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N137">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P137">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB137">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12741,7 +12741,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7450477</v>
+        <v>7451046</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12753,40 +12753,40 @@
         <v>45238.75</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L138">
+        <v>3.2</v>
+      </c>
+      <c r="M138">
+        <v>2.2</v>
+      </c>
+      <c r="N138">
+        <v>2.2</v>
+      </c>
+      <c r="O138">
         <v>3.3</v>
       </c>
-      <c r="M138">
-        <v>3</v>
-      </c>
-      <c r="N138">
-        <v>1.4</v>
-      </c>
-      <c r="O138">
-        <v>4.333</v>
-      </c>
       <c r="P138">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q138">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
         <v>1.9</v>
@@ -12795,19 +12795,19 @@
         <v>1.9</v>
       </c>
       <c r="T138">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y138">
         <v>-1</v>
@@ -12819,10 +12819,10 @@
         <v>0.45</v>
       </c>
       <c r="AB138">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12830,7 +12830,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7452316</v>
+        <v>7451044</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12842,76 +12842,76 @@
         <v>45238.75</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K139">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M139">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="N139">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q139">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T139">
         <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12919,7 +12919,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7451046</v>
+        <v>7452316</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12931,40 +12931,40 @@
         <v>45238.75</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K140">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L140">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="N140">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="O140">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R140">
         <v>1.9</v>
@@ -12973,34 +12973,34 @@
         <v>1.9</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13008,7 +13008,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7448182</v>
+        <v>7451058</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13020,58 +13020,58 @@
         <v>45238.75</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H141">
         <v>3</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>52</v>
       </c>
       <c r="K141">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N141">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13080,13 +13080,13 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7451058</v>
+        <v>7451045</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,40 +13109,40 @@
         <v>45238.75</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K142">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N142">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="O142">
         <v>3.4</v>
       </c>
       <c r="P142">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
         <v>2</v>
@@ -13151,31 +13151,31 @@
         <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13735,7 +13735,7 @@
         <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -14266,7 +14266,7 @@
         <v>45256.72916666666</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G155" t="s">
         <v>37</v>
@@ -14447,7 +14447,7 @@
         <v>48</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14622,7 +14622,7 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
         <v>48</v>
@@ -14714,7 +14714,7 @@
         <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14800,7 +14800,7 @@
         <v>45277.70833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G161" t="s">
         <v>32</v>
@@ -14966,7 +14966,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7693875</v>
+        <v>7694909</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14978,76 +14978,76 @@
         <v>45304.75</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L163">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N163">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7694909</v>
+        <v>7693875</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45304.75</v>
       </c>
       <c r="F164" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L164">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M164">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N164">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q164">
+        <v>-0.25</v>
+      </c>
+      <c r="R164">
+        <v>1.85</v>
+      </c>
+      <c r="S164">
+        <v>1.95</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
+        <v>2</v>
+      </c>
+      <c r="V164">
+        <v>1.8</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
+        <v>2.1</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
         <v>-0.5</v>
       </c>
-      <c r="R164">
-        <v>1.975</v>
-      </c>
-      <c r="S164">
-        <v>1.825</v>
-      </c>
-      <c r="T164">
-        <v>3</v>
-      </c>
-      <c r="U164">
-        <v>1.975</v>
-      </c>
-      <c r="V164">
-        <v>1.825</v>
-      </c>
-      <c r="W164">
-        <v>0.909</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
-      <c r="Y164">
-        <v>-1</v>
-      </c>
-      <c r="Z164">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB164">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15159,7 +15159,7 @@
         <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H165">
         <v>4</v>
@@ -15678,7 +15678,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7726349</v>
+        <v>7728658</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15690,40 +15690,40 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K171">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L171">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M171">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N171">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P171">
-        <v>2.55</v>
+        <v>1.571</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R171">
         <v>1.85</v>
@@ -15732,34 +15732,34 @@
         <v>1.95</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
+        <v>1.85</v>
+      </c>
+      <c r="V171">
         <v>1.95</v>
       </c>
-      <c r="V171">
-        <v>1.85</v>
-      </c>
       <c r="W171">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
+        <v>0.95</v>
+      </c>
+      <c r="AB171">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA171">
-        <v>-1</v>
-      </c>
-      <c r="AB171">
-        <v>-1</v>
-      </c>
       <c r="AC171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7726348</v>
+        <v>7726352</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,76 +15779,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
         <v>0</v>
       </c>
-      <c r="I172">
-        <v>1</v>
-      </c>
       <c r="J172" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K172">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L172">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M172">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N172">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="O172">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P172">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R172">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S172">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7726352</v>
+        <v>7726349</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,13 +15868,13 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -15883,34 +15883,34 @@
         <v>52</v>
       </c>
       <c r="K173">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="L173">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M173">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N173">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R173">
+        <v>1.85</v>
+      </c>
+      <c r="S173">
         <v>1.95</v>
       </c>
-      <c r="S173">
-        <v>1.85</v>
-      </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
         <v>1.95</v>
@@ -15919,7 +15919,7 @@
         <v>1.85</v>
       </c>
       <c r="W173">
-        <v>0.444</v>
+        <v>1.45</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15928,10 +15928,10 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -15945,7 +15945,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7728658</v>
+        <v>7726348</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15957,55 +15957,55 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
         <v>53</v>
       </c>
       <c r="K174">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L174">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N174">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="O174">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="Q174">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W174">
         <v>-1</v>
@@ -16014,19 +16014,19 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.571</v>
+        <v>3.333</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16034,7 +16034,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7726350</v>
+        <v>7726351</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16049,10 +16049,10 @@
         <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -16061,43 +16061,43 @@
         <v>52</v>
       </c>
       <c r="K175">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M175">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N175">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P175">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q175">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R175">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
         <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16106,16 +16106,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7726351</v>
+        <v>7726350</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16138,10 +16138,10 @@
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16150,43 +16150,43 @@
         <v>52</v>
       </c>
       <c r="K176">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M176">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N176">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="O176">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q176">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T176">
         <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16195,16 +16195,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA176">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7749670</v>
+        <v>7749789</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,40 +16491,40 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>52</v>
       </c>
       <c r="K180">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M180">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="N180">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P180">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q180">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R180">
         <v>1.85</v>
@@ -16536,13 +16536,13 @@
         <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W180">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16551,16 +16551,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
+        <v>0.425</v>
+      </c>
+      <c r="AA180">
         <v>-0.5</v>
       </c>
-      <c r="AA180">
-        <v>0.475</v>
-      </c>
       <c r="AB180">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7749789</v>
+        <v>7749670</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,40 +16580,40 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
         <v>1</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>52</v>
       </c>
       <c r="K181">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="L181">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M181">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="N181">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O181">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R181">
         <v>1.85</v>
@@ -16625,13 +16625,13 @@
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16640,16 +16640,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC181">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7754830</v>
+        <v>7754831</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16669,73 +16669,73 @@
         <v>45319.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K182">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="L182">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M182">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N182">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O182">
         <v>3.8</v>
       </c>
       <c r="P182">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q182">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R182">
+        <v>1.85</v>
+      </c>
+      <c r="S182">
+        <v>1.95</v>
+      </c>
+      <c r="T182">
+        <v>2.5</v>
+      </c>
+      <c r="U182">
+        <v>1.875</v>
+      </c>
+      <c r="V182">
         <v>1.925</v>
       </c>
-      <c r="S182">
-        <v>1.875</v>
-      </c>
-      <c r="T182">
-        <v>2.75</v>
-      </c>
-      <c r="U182">
-        <v>1.825</v>
-      </c>
-      <c r="V182">
-        <v>1.975</v>
-      </c>
       <c r="W182">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16746,7 +16746,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7754831</v>
+        <v>7754830</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16758,73 +16758,73 @@
         <v>45319.58333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K183">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="L183">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M183">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N183">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="O183">
         <v>3.8</v>
       </c>
       <c r="P183">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X183">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -17280,7 +17280,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7785360</v>
+        <v>7785359</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17295,55 +17295,55 @@
         <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
         <v>52</v>
       </c>
       <c r="K189">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L189">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M189">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N189">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S189">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>0.75</v>
+        <v>0.571</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17352,13 +17352,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17369,7 +17369,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7785359</v>
+        <v>7785360</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17384,55 +17384,55 @@
         <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>52</v>
       </c>
       <c r="K190">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L190">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M190">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N190">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O190">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q190">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S190">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T190">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W190">
-        <v>0.571</v>
+        <v>0.75</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17441,13 +17441,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17562,7 +17562,7 @@
         <v>50</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17636,7 +17636,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7797364</v>
+        <v>7797363</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17648,58 +17648,58 @@
         <v>45329.75</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H193">
+        <v>3</v>
+      </c>
+      <c r="I193">
         <v>1</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
       </c>
       <c r="J193" t="s">
         <v>52</v>
       </c>
       <c r="K193">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L193">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M193">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N193">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q193">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R193">
+        <v>1.825</v>
+      </c>
+      <c r="S193">
+        <v>1.975</v>
+      </c>
+      <c r="T193">
+        <v>2.5</v>
+      </c>
+      <c r="U193">
         <v>1.95</v>
       </c>
-      <c r="S193">
+      <c r="V193">
         <v>1.85</v>
       </c>
-      <c r="T193">
-        <v>2</v>
-      </c>
-      <c r="U193">
-        <v>1.9</v>
-      </c>
-      <c r="V193">
-        <v>1.9</v>
-      </c>
       <c r="W193">
-        <v>0.909</v>
+        <v>0.45</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17708,16 +17708,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
+        <v>0.825</v>
+      </c>
+      <c r="AA193">
+        <v>-1</v>
+      </c>
+      <c r="AB193">
         <v>0.95</v>
       </c>
-      <c r="AA193">
-        <v>-1</v>
-      </c>
-      <c r="AB193">
-        <v>-1</v>
-      </c>
       <c r="AC193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17725,7 +17725,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7797363</v>
+        <v>7797362</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17737,58 +17737,58 @@
         <v>45329.75</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>52</v>
       </c>
       <c r="K194">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L194">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M194">
         <v>4.75</v>
       </c>
       <c r="N194">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O194">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P194">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q194">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R194">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S194">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U194">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V194">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W194">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17797,16 +17797,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB194">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7797362</v>
+        <v>7797364</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,10 +17826,10 @@
         <v>45329.75</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17841,43 +17841,43 @@
         <v>52</v>
       </c>
       <c r="K195">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L195">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M195">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N195">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O195">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P195">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q195">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S195">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17886,16 +17886,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA195">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17992,7 +17992,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7797367</v>
+        <v>7797366</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18004,13 +18004,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -18019,43 +18019,43 @@
         <v>52</v>
       </c>
       <c r="K197">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L197">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M197">
+        <v>3.5</v>
+      </c>
+      <c r="N197">
+        <v>1.25</v>
+      </c>
+      <c r="O197">
+        <v>6</v>
+      </c>
+      <c r="P197">
+        <v>7.5</v>
+      </c>
+      <c r="Q197">
+        <v>-1.75</v>
+      </c>
+      <c r="R197">
+        <v>1.85</v>
+      </c>
+      <c r="S197">
+        <v>1.95</v>
+      </c>
+      <c r="T197">
         <v>3</v>
       </c>
-      <c r="N197">
-        <v>1.5</v>
-      </c>
-      <c r="O197">
-        <v>3.75</v>
-      </c>
-      <c r="P197">
-        <v>6</v>
-      </c>
-      <c r="Q197">
-        <v>-1</v>
-      </c>
-      <c r="R197">
-        <v>1.9</v>
-      </c>
-      <c r="S197">
-        <v>1.9</v>
-      </c>
-      <c r="T197">
-        <v>2.5</v>
-      </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V197">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W197">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18064,13 +18064,13 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18081,7 +18081,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7797361</v>
+        <v>7797367</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18093,10 +18093,10 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H198">
         <v>3</v>
@@ -18108,34 +18108,34 @@
         <v>52</v>
       </c>
       <c r="K198">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L198">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M198">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N198">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O198">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P198">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S198">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
         <v>1.9</v>
@@ -18144,7 +18144,7 @@
         <v>1.9</v>
       </c>
       <c r="W198">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18153,7 +18153,7 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA198">
         <v>-1</v>
@@ -18170,7 +18170,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7797366</v>
+        <v>7797361</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18182,13 +18182,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H199">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -18197,25 +18197,25 @@
         <v>52</v>
       </c>
       <c r="K199">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L199">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M199">
+        <v>2.6</v>
+      </c>
+      <c r="N199">
+        <v>1.8</v>
+      </c>
+      <c r="O199">
+        <v>3.6</v>
+      </c>
+      <c r="P199">
         <v>3.5</v>
       </c>
-      <c r="N199">
-        <v>1.25</v>
-      </c>
-      <c r="O199">
-        <v>6</v>
-      </c>
-      <c r="P199">
-        <v>7.5</v>
-      </c>
       <c r="Q199">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
         <v>1.85</v>
@@ -18224,16 +18224,16 @@
         <v>1.95</v>
       </c>
       <c r="T199">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U199">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18248,7 +18248,7 @@
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC199">
         <v>-1</v>
@@ -18348,7 +18348,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7813335</v>
+        <v>7813122</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18360,61 +18360,61 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K201">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="L201">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N201">
+        <v>1.6</v>
+      </c>
+      <c r="O201">
+        <v>3.5</v>
+      </c>
+      <c r="P201">
+        <v>5</v>
+      </c>
+      <c r="Q201">
+        <v>-1</v>
+      </c>
+      <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>1.75</v>
+      </c>
+      <c r="T201">
         <v>2.5</v>
       </c>
-      <c r="O201">
-        <v>3.2</v>
-      </c>
-      <c r="P201">
-        <v>2.45</v>
-      </c>
-      <c r="Q201">
-        <v>0</v>
-      </c>
-      <c r="R201">
-        <v>1.925</v>
-      </c>
-      <c r="S201">
-        <v>1.875</v>
-      </c>
-      <c r="T201">
-        <v>2.75</v>
-      </c>
       <c r="U201">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X201">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
@@ -18429,7 +18429,7 @@
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7813122</v>
+        <v>7813335</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,61 +18449,61 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202" t="s">
+        <v>54</v>
+      </c>
+      <c r="K202">
+        <v>2.75</v>
+      </c>
+      <c r="L202">
+        <v>3.3</v>
+      </c>
+      <c r="M202">
+        <v>2.25</v>
+      </c>
+      <c r="N202">
+        <v>2.5</v>
+      </c>
+      <c r="O202">
+        <v>3.2</v>
+      </c>
+      <c r="P202">
+        <v>2.45</v>
+      </c>
+      <c r="Q202">
         <v>0</v>
       </c>
-      <c r="J202" t="s">
-        <v>52</v>
-      </c>
-      <c r="K202">
-        <v>1.7</v>
-      </c>
-      <c r="L202">
-        <v>3.4</v>
-      </c>
-      <c r="M202">
-        <v>4.333</v>
-      </c>
-      <c r="N202">
-        <v>1.6</v>
-      </c>
-      <c r="O202">
-        <v>3.5</v>
-      </c>
-      <c r="P202">
-        <v>5</v>
-      </c>
-      <c r="Q202">
-        <v>-1</v>
-      </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W202">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y202">
         <v>-1</v>
@@ -18518,7 +18518,7 @@
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18615,7 +18615,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7813339</v>
+        <v>7813338</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18630,55 +18630,55 @@
         <v>43</v>
       </c>
       <c r="G204" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H204">
         <v>3</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>52</v>
       </c>
       <c r="K204">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L204">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M204">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="N204">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O204">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P204">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="Q204">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S204">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
+        <v>1.95</v>
+      </c>
+      <c r="V204">
         <v>1.75</v>
       </c>
-      <c r="V204">
-        <v>1.95</v>
-      </c>
       <c r="W204">
-        <v>0.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18687,13 +18687,13 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA204">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18704,7 +18704,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7813338</v>
+        <v>7813339</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18719,70 +18719,70 @@
         <v>44</v>
       </c>
       <c r="G205" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H205">
         <v>3</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
         <v>52</v>
       </c>
       <c r="K205">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M205">
-        <v>2.6</v>
+        <v>8.5</v>
       </c>
       <c r="N205">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="O205">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P205">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="Q205">
+        <v>-1.75</v>
+      </c>
+      <c r="R205">
+        <v>1.975</v>
+      </c>
+      <c r="S205">
+        <v>1.825</v>
+      </c>
+      <c r="T205">
+        <v>2.75</v>
+      </c>
+      <c r="U205">
+        <v>1.75</v>
+      </c>
+      <c r="V205">
+        <v>1.95</v>
+      </c>
+      <c r="W205">
+        <v>0.25</v>
+      </c>
+      <c r="X205">
+        <v>-1</v>
+      </c>
+      <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>0.4875</v>
+      </c>
+      <c r="AA205">
         <v>-0.5</v>
       </c>
-      <c r="R205">
-        <v>1.95</v>
-      </c>
-      <c r="S205">
-        <v>1.85</v>
-      </c>
-      <c r="T205">
-        <v>2.5</v>
-      </c>
-      <c r="U205">
-        <v>1.95</v>
-      </c>
-      <c r="V205">
-        <v>1.75</v>
-      </c>
-      <c r="W205">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X205">
-        <v>-1</v>
-      </c>
-      <c r="Y205">
-        <v>-1</v>
-      </c>
-      <c r="Z205">
-        <v>0.95</v>
-      </c>
-      <c r="AA205">
-        <v>-1</v>
-      </c>
       <c r="AB205">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -19060,7 +19060,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7851263</v>
+        <v>7851262</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19072,40 +19072,40 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G209" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H209">
         <v>1</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K209">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L209">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M209">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N209">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O209">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P209">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R209">
         <v>1.9</v>
@@ -19114,28 +19114,28 @@
         <v>1.9</v>
       </c>
       <c r="T209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U209">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB209">
         <v>0</v>
@@ -19149,7 +19149,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7851261</v>
+        <v>7851263</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19161,76 +19161,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210" t="s">
+        <v>54</v>
+      </c>
+      <c r="K210">
+        <v>2.875</v>
+      </c>
+      <c r="L210">
+        <v>3.2</v>
+      </c>
+      <c r="M210">
+        <v>2.2</v>
+      </c>
+      <c r="N210">
+        <v>2.1</v>
+      </c>
+      <c r="O210">
+        <v>3.25</v>
+      </c>
+      <c r="P210">
         <v>3</v>
       </c>
-      <c r="I210">
+      <c r="Q210">
+        <v>-0.25</v>
+      </c>
+      <c r="R210">
+        <v>1.9</v>
+      </c>
+      <c r="S210">
+        <v>1.9</v>
+      </c>
+      <c r="T210">
+        <v>2</v>
+      </c>
+      <c r="U210">
+        <v>1.775</v>
+      </c>
+      <c r="V210">
+        <v>2.025</v>
+      </c>
+      <c r="W210">
+        <v>-1</v>
+      </c>
+      <c r="X210">
+        <v>2.25</v>
+      </c>
+      <c r="Y210">
+        <v>-1</v>
+      </c>
+      <c r="Z210">
+        <v>-0.5</v>
+      </c>
+      <c r="AA210">
+        <v>0.45</v>
+      </c>
+      <c r="AB210">
         <v>0</v>
       </c>
-      <c r="J210" t="s">
-        <v>52</v>
-      </c>
-      <c r="K210">
-        <v>1.909</v>
-      </c>
-      <c r="L210">
-        <v>3.4</v>
-      </c>
-      <c r="M210">
-        <v>3.5</v>
-      </c>
-      <c r="N210">
-        <v>1.444</v>
-      </c>
-      <c r="O210">
-        <v>4</v>
-      </c>
-      <c r="P210">
-        <v>5.5</v>
-      </c>
-      <c r="Q210">
-        <v>-1.25</v>
-      </c>
-      <c r="R210">
-        <v>1.925</v>
-      </c>
-      <c r="S210">
-        <v>1.875</v>
-      </c>
-      <c r="T210">
-        <v>3.25</v>
-      </c>
-      <c r="U210">
-        <v>1.85</v>
-      </c>
-      <c r="V210">
-        <v>1.95</v>
-      </c>
-      <c r="W210">
-        <v>0.444</v>
-      </c>
-      <c r="X210">
-        <v>-1</v>
-      </c>
-      <c r="Y210">
-        <v>-1</v>
-      </c>
-      <c r="Z210">
-        <v>0.925</v>
-      </c>
-      <c r="AA210">
-        <v>-1</v>
-      </c>
-      <c r="AB210">
-        <v>-0.5</v>
-      </c>
       <c r="AC210">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19238,7 +19238,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7851262</v>
+        <v>7851261</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19250,76 +19250,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G211" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K211">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L211">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M211">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N211">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="O211">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P211">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q211">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R211">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S211">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T211">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U211">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V211">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA211">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19339,7 +19339,7 @@
         <v>45340.75</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G212" t="s">
         <v>48</v>
@@ -19606,7 +19606,7 @@
         <v>45343.75</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G215" t="s">
         <v>34</v>
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7881214</v>
+        <v>7881215</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,40 +20051,40 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H220">
         <v>1</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K220">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L220">
         <v>3.2</v>
       </c>
       <c r="M220">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N220">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P220">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q220">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R220">
         <v>1.775</v>
@@ -20093,7 +20093,7 @@
         <v>2.025</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
         <v>2</v>
@@ -20102,25 +20102,25 @@
         <v>1.8</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA220">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7881213</v>
+        <v>7881216</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,10 +20140,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H221">
         <v>4</v>
@@ -20155,43 +20155,43 @@
         <v>52</v>
       </c>
       <c r="K221">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L221">
+        <v>3.2</v>
+      </c>
+      <c r="M221">
         <v>3.5</v>
       </c>
-      <c r="M221">
-        <v>2.375</v>
-      </c>
       <c r="N221">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O221">
         <v>3.6</v>
       </c>
       <c r="P221">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q221">
         <v>-0.75</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
-        <v>0.615</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20200,13 +20200,13 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7881215</v>
+        <v>7881214</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,40 +20229,40 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K222">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L222">
         <v>3.2</v>
       </c>
       <c r="M222">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N222">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O222">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q222">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R222">
         <v>1.775</v>
@@ -20271,7 +20271,7 @@
         <v>2.025</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
         <v>2</v>
@@ -20280,25 +20280,25 @@
         <v>1.8</v>
       </c>
       <c r="W222">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z222">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC222">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7881216</v>
+        <v>7881213</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,10 +20318,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F223" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G223" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H223">
         <v>4</v>
@@ -20333,43 +20333,43 @@
         <v>52</v>
       </c>
       <c r="K223">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L223">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N223">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O223">
         <v>3.6</v>
       </c>
       <c r="P223">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q223">
         <v>-0.75</v>
       </c>
       <c r="R223">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S223">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V223">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W223">
-        <v>0.5329999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20378,13 +20378,13 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20407,7 +20407,7 @@
         <v>45347.75</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G224" t="s">
         <v>47</v>
@@ -20573,7 +20573,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7905008</v>
+        <v>7905007</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20585,13 +20585,13 @@
         <v>45353.75</v>
       </c>
       <c r="F226" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G226" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I226">
         <v>1</v>
@@ -20603,40 +20603,40 @@
         <v>2.1</v>
       </c>
       <c r="L226">
+        <v>3.3</v>
+      </c>
+      <c r="M226">
         <v>3</v>
       </c>
-      <c r="M226">
-        <v>3.4</v>
-      </c>
       <c r="N226">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O226">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P226">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q226">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R226">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S226">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U226">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V226">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W226">
-        <v>0.3999999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20645,13 +20645,13 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB226">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC226">
         <v>-1</v>
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7905007</v>
+        <v>7905008</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,13 +20674,13 @@
         <v>45353.75</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G227" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I227">
         <v>1</v>
@@ -20692,57 +20692,858 @@
         <v>2.1</v>
       </c>
       <c r="L227">
+        <v>3</v>
+      </c>
+      <c r="M227">
+        <v>3.4</v>
+      </c>
+      <c r="N227">
+        <v>1.4</v>
+      </c>
+      <c r="O227">
+        <v>3.75</v>
+      </c>
+      <c r="P227">
+        <v>8</v>
+      </c>
+      <c r="Q227">
+        <v>-1</v>
+      </c>
+      <c r="R227">
+        <v>1.775</v>
+      </c>
+      <c r="S227">
+        <v>2.025</v>
+      </c>
+      <c r="T227">
+        <v>2.25</v>
+      </c>
+      <c r="U227">
+        <v>2.025</v>
+      </c>
+      <c r="V227">
+        <v>1.775</v>
+      </c>
+      <c r="W227">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X227">
+        <v>-1</v>
+      </c>
+      <c r="Y227">
+        <v>-1</v>
+      </c>
+      <c r="Z227">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA227">
+        <v>-1</v>
+      </c>
+      <c r="AB227">
+        <v>1.025</v>
+      </c>
+      <c r="AC227">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>7908992</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45354.58333333334</v>
+      </c>
+      <c r="F228" t="s">
+        <v>40</v>
+      </c>
+      <c r="G228" t="s">
+        <v>38</v>
+      </c>
+      <c r="H228">
+        <v>2</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228" t="s">
+        <v>52</v>
+      </c>
+      <c r="K228">
+        <v>1.4</v>
+      </c>
+      <c r="L228">
+        <v>4</v>
+      </c>
+      <c r="M228">
+        <v>7</v>
+      </c>
+      <c r="N228">
+        <v>1.444</v>
+      </c>
+      <c r="O228">
+        <v>4</v>
+      </c>
+      <c r="P228">
+        <v>6</v>
+      </c>
+      <c r="Q228">
+        <v>-1</v>
+      </c>
+      <c r="R228">
+        <v>1.75</v>
+      </c>
+      <c r="S228">
+        <v>1.95</v>
+      </c>
+      <c r="T228">
+        <v>2.5</v>
+      </c>
+      <c r="U228">
+        <v>1.85</v>
+      </c>
+      <c r="V228">
+        <v>1.95</v>
+      </c>
+      <c r="W228">
+        <v>0.444</v>
+      </c>
+      <c r="X228">
+        <v>-1</v>
+      </c>
+      <c r="Y228">
+        <v>-1</v>
+      </c>
+      <c r="Z228">
+        <v>0.75</v>
+      </c>
+      <c r="AA228">
+        <v>-1</v>
+      </c>
+      <c r="AB228">
+        <v>-1</v>
+      </c>
+      <c r="AC228">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>7908983</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45354.58333333334</v>
+      </c>
+      <c r="F229" t="s">
+        <v>33</v>
+      </c>
+      <c r="G229" t="s">
+        <v>45</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229">
+        <v>3</v>
+      </c>
+      <c r="J229" t="s">
+        <v>53</v>
+      </c>
+      <c r="K229">
+        <v>2.3</v>
+      </c>
+      <c r="L229">
         <v>3.3</v>
       </c>
-      <c r="M227">
+      <c r="M229">
+        <v>2.75</v>
+      </c>
+      <c r="N229">
+        <v>1.909</v>
+      </c>
+      <c r="O229">
+        <v>3.3</v>
+      </c>
+      <c r="P229">
+        <v>3.5</v>
+      </c>
+      <c r="Q229">
+        <v>-0.5</v>
+      </c>
+      <c r="R229">
+        <v>1.975</v>
+      </c>
+      <c r="S229">
+        <v>1.825</v>
+      </c>
+      <c r="T229">
+        <v>2.5</v>
+      </c>
+      <c r="U229">
+        <v>1.975</v>
+      </c>
+      <c r="V229">
+        <v>1.825</v>
+      </c>
+      <c r="W229">
+        <v>-1</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>2.5</v>
+      </c>
+      <c r="Z229">
+        <v>-1</v>
+      </c>
+      <c r="AA229">
+        <v>0.825</v>
+      </c>
+      <c r="AB229">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC229">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>7909083</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45354.75</v>
+      </c>
+      <c r="F230" t="s">
+        <v>43</v>
+      </c>
+      <c r="G230" t="s">
+        <v>49</v>
+      </c>
+      <c r="H230">
         <v>3</v>
       </c>
-      <c r="N227">
-        <v>1.333</v>
-      </c>
-      <c r="O227">
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>52</v>
+      </c>
+      <c r="K230">
+        <v>1.909</v>
+      </c>
+      <c r="L230">
+        <v>3.4</v>
+      </c>
+      <c r="M230">
+        <v>3.5</v>
+      </c>
+      <c r="N230">
+        <v>1.5</v>
+      </c>
+      <c r="O230">
+        <v>4.2</v>
+      </c>
+      <c r="P230">
+        <v>5</v>
+      </c>
+      <c r="Q230">
+        <v>-1</v>
+      </c>
+      <c r="R230">
+        <v>1.8</v>
+      </c>
+      <c r="S230">
+        <v>2</v>
+      </c>
+      <c r="T230">
+        <v>2.75</v>
+      </c>
+      <c r="U230">
+        <v>1.825</v>
+      </c>
+      <c r="V230">
+        <v>1.975</v>
+      </c>
+      <c r="W230">
+        <v>0.5</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
+        <v>-1</v>
+      </c>
+      <c r="Z230">
+        <v>0.8</v>
+      </c>
+      <c r="AA230">
+        <v>-1</v>
+      </c>
+      <c r="AB230">
+        <v>0.825</v>
+      </c>
+      <c r="AC230">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>7906814</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45354.75</v>
+      </c>
+      <c r="F231" t="s">
+        <v>44</v>
+      </c>
+      <c r="G231" t="s">
+        <v>36</v>
+      </c>
+      <c r="H231">
+        <v>2</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>52</v>
+      </c>
+      <c r="K231">
+        <v>1.727</v>
+      </c>
+      <c r="L231">
+        <v>3.5</v>
+      </c>
+      <c r="M231">
+        <v>4</v>
+      </c>
+      <c r="N231">
+        <v>1.363</v>
+      </c>
+      <c r="O231">
+        <v>4</v>
+      </c>
+      <c r="P231">
+        <v>7</v>
+      </c>
+      <c r="Q231">
+        <v>-1.25</v>
+      </c>
+      <c r="R231">
+        <v>1.925</v>
+      </c>
+      <c r="S231">
+        <v>1.875</v>
+      </c>
+      <c r="T231">
+        <v>2.5</v>
+      </c>
+      <c r="U231">
+        <v>1.8</v>
+      </c>
+      <c r="V231">
+        <v>2</v>
+      </c>
+      <c r="W231">
+        <v>0.363</v>
+      </c>
+      <c r="X231">
+        <v>-1</v>
+      </c>
+      <c r="Y231">
+        <v>-1</v>
+      </c>
+      <c r="Z231">
+        <v>-0.5</v>
+      </c>
+      <c r="AA231">
+        <v>0.4375</v>
+      </c>
+      <c r="AB231">
+        <v>0.8</v>
+      </c>
+      <c r="AC231">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>7907354</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45354.91666666666</v>
+      </c>
+      <c r="F232" t="s">
+        <v>34</v>
+      </c>
+      <c r="G232" t="s">
+        <v>46</v>
+      </c>
+      <c r="H232">
+        <v>4</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232" t="s">
+        <v>52</v>
+      </c>
+      <c r="K232">
+        <v>1.666</v>
+      </c>
+      <c r="L232">
+        <v>3.8</v>
+      </c>
+      <c r="M232">
+        <v>4</v>
+      </c>
+      <c r="N232">
+        <v>1.363</v>
+      </c>
+      <c r="O232">
         <v>4.75</v>
       </c>
-      <c r="P227">
-        <v>7.5</v>
-      </c>
-      <c r="Q227">
+      <c r="P232">
+        <v>5.75</v>
+      </c>
+      <c r="Q232">
         <v>-1.25</v>
       </c>
-      <c r="R227">
-        <v>1.75</v>
-      </c>
-      <c r="S227">
+      <c r="R232">
+        <v>1.8</v>
+      </c>
+      <c r="S232">
+        <v>2</v>
+      </c>
+      <c r="T232">
+        <v>3</v>
+      </c>
+      <c r="U232">
+        <v>1.9</v>
+      </c>
+      <c r="V232">
+        <v>1.9</v>
+      </c>
+      <c r="W232">
+        <v>0.363</v>
+      </c>
+      <c r="X232">
+        <v>-1</v>
+      </c>
+      <c r="Y232">
+        <v>-1</v>
+      </c>
+      <c r="Z232">
+        <v>0.8</v>
+      </c>
+      <c r="AA232">
+        <v>-1</v>
+      </c>
+      <c r="AB232">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC232">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>7921261</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45357.58333333334</v>
+      </c>
+      <c r="F233" t="s">
+        <v>36</v>
+      </c>
+      <c r="G233" t="s">
+        <v>42</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233" t="s">
+        <v>53</v>
+      </c>
+      <c r="K233">
+        <v>1.727</v>
+      </c>
+      <c r="L233">
+        <v>3.6</v>
+      </c>
+      <c r="M233">
+        <v>4</v>
+      </c>
+      <c r="N233">
+        <v>1.666</v>
+      </c>
+      <c r="O233">
+        <v>3.6</v>
+      </c>
+      <c r="P233">
+        <v>4.333</v>
+      </c>
+      <c r="Q233">
+        <v>-0.75</v>
+      </c>
+      <c r="R233">
+        <v>1.9</v>
+      </c>
+      <c r="S233">
+        <v>1.9</v>
+      </c>
+      <c r="T233">
+        <v>2.25</v>
+      </c>
+      <c r="U233">
         <v>1.95</v>
       </c>
-      <c r="T227">
+      <c r="V233">
+        <v>1.85</v>
+      </c>
+      <c r="W233">
+        <v>-1</v>
+      </c>
+      <c r="X233">
+        <v>-1</v>
+      </c>
+      <c r="Y233">
+        <v>3.333</v>
+      </c>
+      <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>7921493</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45357.75</v>
+      </c>
+      <c r="F234" t="s">
+        <v>35</v>
+      </c>
+      <c r="G234" t="s">
+        <v>37</v>
+      </c>
+      <c r="H234">
+        <v>2</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234" t="s">
+        <v>52</v>
+      </c>
+      <c r="K234">
+        <v>1.571</v>
+      </c>
+      <c r="L234">
+        <v>3.8</v>
+      </c>
+      <c r="M234">
+        <v>4.75</v>
+      </c>
+      <c r="N234">
+        <v>1.615</v>
+      </c>
+      <c r="O234">
+        <v>3.5</v>
+      </c>
+      <c r="P234">
+        <v>5</v>
+      </c>
+      <c r="Q234">
+        <v>-0.75</v>
+      </c>
+      <c r="R234">
+        <v>1.825</v>
+      </c>
+      <c r="S234">
+        <v>1.975</v>
+      </c>
+      <c r="T234">
+        <v>2.25</v>
+      </c>
+      <c r="U234">
+        <v>2</v>
+      </c>
+      <c r="V234">
+        <v>1.8</v>
+      </c>
+      <c r="W234">
+        <v>0.615</v>
+      </c>
+      <c r="X234">
+        <v>-1</v>
+      </c>
+      <c r="Y234">
+        <v>-1</v>
+      </c>
+      <c r="Z234">
+        <v>0.825</v>
+      </c>
+      <c r="AA234">
+        <v>-1</v>
+      </c>
+      <c r="AB234">
+        <v>-0.5</v>
+      </c>
+      <c r="AC234">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>7921262</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45357.75</v>
+      </c>
+      <c r="F235" t="s">
+        <v>50</v>
+      </c>
+      <c r="G235" t="s">
+        <v>40</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235" t="s">
+        <v>54</v>
+      </c>
+      <c r="K235">
+        <v>3.25</v>
+      </c>
+      <c r="L235">
+        <v>3.6</v>
+      </c>
+      <c r="M235">
+        <v>1.909</v>
+      </c>
+      <c r="N235">
+        <v>1.8</v>
+      </c>
+      <c r="O235">
+        <v>3.75</v>
+      </c>
+      <c r="P235">
+        <v>3.6</v>
+      </c>
+      <c r="Q235">
+        <v>-0.5</v>
+      </c>
+      <c r="R235">
+        <v>1.85</v>
+      </c>
+      <c r="S235">
+        <v>1.95</v>
+      </c>
+      <c r="T235">
+        <v>2.75</v>
+      </c>
+      <c r="U235">
+        <v>1.8</v>
+      </c>
+      <c r="V235">
+        <v>2</v>
+      </c>
+      <c r="W235">
+        <v>-1</v>
+      </c>
+      <c r="X235">
+        <v>2.75</v>
+      </c>
+      <c r="Y235">
+        <v>-1</v>
+      </c>
+      <c r="Z235">
+        <v>-1</v>
+      </c>
+      <c r="AA235">
+        <v>0.95</v>
+      </c>
+      <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>7921263</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45357.75</v>
+      </c>
+      <c r="F236" t="s">
+        <v>47</v>
+      </c>
+      <c r="G236" t="s">
+        <v>48</v>
+      </c>
+      <c r="H236">
+        <v>3</v>
+      </c>
+      <c r="I236">
+        <v>2</v>
+      </c>
+      <c r="J236" t="s">
+        <v>52</v>
+      </c>
+      <c r="K236">
+        <v>4</v>
+      </c>
+      <c r="L236">
+        <v>3.3</v>
+      </c>
+      <c r="M236">
+        <v>1.8</v>
+      </c>
+      <c r="N236">
+        <v>1.833</v>
+      </c>
+      <c r="O236">
+        <v>3.3</v>
+      </c>
+      <c r="P236">
+        <v>3.75</v>
+      </c>
+      <c r="Q236">
+        <v>-0.5</v>
+      </c>
+      <c r="R236">
+        <v>1.85</v>
+      </c>
+      <c r="S236">
+        <v>1.95</v>
+      </c>
+      <c r="T236">
         <v>2.5</v>
       </c>
-      <c r="U227">
-        <v>1.825</v>
-      </c>
-      <c r="V227">
-        <v>1.975</v>
-      </c>
-      <c r="W227">
-        <v>0.333</v>
-      </c>
-      <c r="X227">
-        <v>-1</v>
-      </c>
-      <c r="Y227">
-        <v>-1</v>
-      </c>
-      <c r="Z227">
-        <v>-0.5</v>
-      </c>
-      <c r="AA227">
-        <v>0.475</v>
-      </c>
-      <c r="AB227">
-        <v>0.825</v>
-      </c>
-      <c r="AC227">
+      <c r="U236">
+        <v>2</v>
+      </c>
+      <c r="V236">
+        <v>1.8</v>
+      </c>
+      <c r="W236">
+        <v>0.833</v>
+      </c>
+      <c r="X236">
+        <v>-1</v>
+      </c>
+      <c r="Y236">
+        <v>-1</v>
+      </c>
+      <c r="Z236">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA236">
+        <v>-1</v>
+      </c>
+      <c r="AB236">
+        <v>1</v>
+      </c>
+      <c r="AC236">
         <v>-1</v>
       </c>
     </row>

--- a/Guatemala Primera Division/Guatemala Primera Division.xlsx
+++ b/Guatemala Primera Division/Guatemala Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Marquense</t>
   </si>
   <si>
-    <t>Cuilapa FC</t>
+    <t>Suchitepequez</t>
   </si>
   <si>
-    <t>Suchitepequez</t>
+    <t>Cuilapa FC</t>
   </si>
   <si>
     <t>Universidad de San Carlos</t>
@@ -145,10 +145,10 @@
     <t>CS Deportivo Sacachispas</t>
   </si>
   <si>
-    <t>Deportivo San Pedro</t>
+    <t>Juventud Pinulteca FC</t>
   </si>
   <si>
-    <t>Juventud Pinulteca FC</t>
+    <t>Deportivo San Pedro</t>
   </si>
   <si>
     <t>Mictln</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC236"/>
+  <dimension ref="A1:AC238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6997109</v>
+        <v>6996288</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1008,46 +1008,46 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M6">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N6">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O6">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
         <v>1.95</v>
@@ -1059,22 +1059,22 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y6">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6996288</v>
+        <v>6997109</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1097,46 +1097,46 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N7">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P7">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
         <v>1.95</v>
@@ -1148,22 +1148,22 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1275,7 +1275,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1631,7 +1631,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1809,7 +1809,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7025357</v>
+        <v>7025358</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1898,16 +1898,16 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16">
         <v>1.615</v>
@@ -1919,52 +1919,52 @@
         <v>5</v>
       </c>
       <c r="N16">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="O16">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="V16">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AC16">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1972,7 +1972,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7025358</v>
+        <v>7025357</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1987,16 +1987,16 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17">
         <v>1.615</v>
@@ -2008,52 +2008,52 @@
         <v>5</v>
       </c>
       <c r="N17">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R17">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S17">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="V17">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y17">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB17">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2165,7 +2165,7 @@
         <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2340,7 +2340,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7060392</v>
+        <v>7060393</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,76 +2429,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>1.952</v>
+        <v>1.615</v>
       </c>
       <c r="L22">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N22">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P22">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R22">
+        <v>1.85</v>
+      </c>
+      <c r="S22">
+        <v>1.95</v>
+      </c>
+      <c r="T22">
+        <v>2.75</v>
+      </c>
+      <c r="U22">
         <v>1.825</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>1.975</v>
       </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
-      <c r="V22">
-        <v>1.8</v>
-      </c>
       <c r="W22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7060393</v>
+        <v>7060394</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2518,19 +2518,19 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K23">
         <v>1.615</v>
@@ -2542,25 +2542,25 @@
         <v>5</v>
       </c>
       <c r="N23">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U23">
         <v>1.825</v>
@@ -2569,25 +2569,25 @@
         <v>1.975</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X23">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2595,7 +2595,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7060394</v>
+        <v>7060392</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2607,58 +2607,58 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>52</v>
       </c>
       <c r="K24">
-        <v>1.615</v>
+        <v>1.952</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N24">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>0.6659999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2667,16 +2667,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2877,7 +2877,7 @@
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7072543</v>
+        <v>7072447</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3141,76 +3141,76 @@
         <v>45154.75</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N30">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O30">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q30">
         <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3218,7 +3218,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7072447</v>
+        <v>7072448</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3230,40 +3230,40 @@
         <v>45154.75</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
         <v>1.8</v>
@@ -3275,19 +3275,19 @@
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y31">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>-1</v>
@@ -3296,10 +3296,10 @@
         <v>1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3307,7 +3307,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7072448</v>
+        <v>7072542</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3319,34 +3319,34 @@
         <v>45154.75</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
+        <v>3.25</v>
+      </c>
+      <c r="M32">
         <v>3.5</v>
       </c>
-      <c r="M32">
-        <v>4</v>
-      </c>
       <c r="N32">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P32">
         <v>4.75</v>
@@ -3355,40 +3355,40 @@
         <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
+        <v>1.85</v>
+      </c>
+      <c r="V32">
         <v>1.95</v>
       </c>
-      <c r="V32">
-        <v>1.85</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X32">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC32">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7072459</v>
+        <v>7072543</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,76 +3408,76 @@
         <v>45154.75</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N33">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
+        <v>1.95</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>1.975</v>
+      </c>
+      <c r="V33">
         <v>1.725</v>
       </c>
-      <c r="S33">
-        <v>2.075</v>
-      </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-      <c r="U33">
-        <v>1.85</v>
-      </c>
-      <c r="V33">
-        <v>1.95</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X33">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7072542</v>
+        <v>7072459</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,49 +3497,49 @@
         <v>45154.75</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L34">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O34">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P34">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U34">
         <v>1.85</v>
@@ -3548,25 +3548,25 @@
         <v>1.95</v>
       </c>
       <c r="W34">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3764,7 +3764,7 @@
         <v>45161.75</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>47</v>
@@ -3841,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7106032</v>
+        <v>7106173</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3853,58 +3853,58 @@
         <v>45161.75</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>52</v>
       </c>
       <c r="K38">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L38">
         <v>3.2</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N38">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q38">
         <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>0.615</v>
+        <v>0.571</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3913,13 +3913,13 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7106173</v>
+        <v>7106174</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3942,76 +3942,76 @@
         <v>45161.75</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K39">
         <v>2</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M39">
         <v>3.5</v>
       </c>
       <c r="N39">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4019,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7106174</v>
+        <v>7106032</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4031,49 +4031,49 @@
         <v>45161.75</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O40">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
         <v>1.85</v>
@@ -4082,25 +4082,25 @@
         <v>1.95</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X40">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4197,7 +4197,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7107137</v>
+        <v>7107133</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4209,40 +4209,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>1.8</v>
+      </c>
+      <c r="L42">
+        <v>3.2</v>
+      </c>
+      <c r="M42">
         <v>4</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42">
-        <v>2.1</v>
-      </c>
-      <c r="L42">
-        <v>3.3</v>
-      </c>
-      <c r="M42">
+      <c r="N42">
+        <v>1.85</v>
+      </c>
+      <c r="O42">
         <v>3</v>
       </c>
-      <c r="N42">
-        <v>1.45</v>
-      </c>
-      <c r="O42">
-        <v>4</v>
-      </c>
       <c r="P42">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
         <v>1.9</v>
@@ -4251,34 +4251,34 @@
         <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
       <c r="AB42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7107133</v>
+        <v>7107137</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4298,40 +4298,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>1.45</v>
+      </c>
+      <c r="O43">
         <v>4</v>
       </c>
-      <c r="N43">
-        <v>1.85</v>
-      </c>
-      <c r="O43">
-        <v>3</v>
-      </c>
       <c r="P43">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R43">
         <v>1.9</v>
@@ -4340,34 +4340,34 @@
         <v>1.9</v>
       </c>
       <c r="T43">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X43">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4387,7 +4387,7 @@
         <v>45162.625</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -4657,7 +4657,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -5010,7 +5010,7 @@
         <v>45165.75</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
         <v>39</v>
@@ -5099,7 +5099,7 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
         <v>48</v>
@@ -5191,7 +5191,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5366,7 +5366,7 @@
         <v>45171.875</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5621,7 +5621,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7158484</v>
+        <v>7158507</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5633,73 +5633,73 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K58">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
         <v>3.2</v>
       </c>
       <c r="M58">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S58">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA58">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7158507</v>
+        <v>7158484</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5722,73 +5722,73 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K59">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L59">
         <v>3.2</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N59">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O59">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S59">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z59">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB59">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5900,7 +5900,7 @@
         <v>45172.75</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s">
         <v>38</v>
@@ -6170,7 +6170,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7189416</v>
+        <v>7189205</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,76 +6256,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K65">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="O65">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="P65">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z65">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7189205</v>
+        <v>7189416</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6345,76 +6345,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K66">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L66">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N66">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="O66">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="P66">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S66">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6434,10 +6434,10 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6615,7 +6615,7 @@
         <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6689,7 +6689,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7203412</v>
+        <v>7203080</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6701,13 +6701,13 @@
         <v>45182.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6716,31 +6716,31 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N70">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q70">
         <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
         <v>2.25</v>
@@ -6752,7 +6752,7 @@
         <v>1.825</v>
       </c>
       <c r="W70">
-        <v>0.571</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6761,16 +6761,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6778,7 +6778,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7203080</v>
+        <v>7203412</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6790,13 +6790,13 @@
         <v>45182.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6805,31 +6805,31 @@
         <v>52</v>
       </c>
       <c r="K71">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
+        <v>2.5</v>
+      </c>
+      <c r="N71">
+        <v>1.571</v>
+      </c>
+      <c r="O71">
+        <v>3.6</v>
+      </c>
+      <c r="P71">
         <v>5</v>
-      </c>
-      <c r="N71">
-        <v>1.6</v>
-      </c>
-      <c r="O71">
-        <v>3.4</v>
-      </c>
-      <c r="P71">
-        <v>5.5</v>
       </c>
       <c r="Q71">
         <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T71">
         <v>2.25</v>
@@ -6841,7 +6841,7 @@
         <v>1.825</v>
       </c>
       <c r="W71">
-        <v>0.6000000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6850,16 +6850,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6867,7 +6867,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7203452</v>
+        <v>7203437</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6879,13 +6879,13 @@
         <v>45182.75</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6894,40 +6894,40 @@
         <v>52</v>
       </c>
       <c r="K72">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L72">
+        <v>3.2</v>
+      </c>
+      <c r="M72">
         <v>4</v>
-      </c>
-      <c r="M72">
-        <v>7</v>
       </c>
       <c r="N72">
         <v>1.363</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P72">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q72">
         <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
         <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W72">
         <v>0.363</v>
@@ -6939,16 +6939,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6956,7 +6956,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7203472</v>
+        <v>7203452</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6971,55 +6971,55 @@
         <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N73">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P73">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7028,16 +7028,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7045,7 +7045,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7203437</v>
+        <v>7203472</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7057,46 +7057,46 @@
         <v>45182.75</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L74">
         <v>3.2</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N74">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
         <v>2.5</v>
@@ -7105,10 +7105,10 @@
         <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7117,10 +7117,10 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
         <v>0.95</v>
@@ -7146,7 +7146,7 @@
         <v>45182.875</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -7327,7 +7327,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>5</v>
@@ -7416,7 +7416,7 @@
         <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7772,7 +7772,7 @@
         <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7858,7 +7858,7 @@
         <v>45186.75</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s">
         <v>46</v>
@@ -7947,7 +7947,7 @@
         <v>45186.77083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
         <v>36</v>
@@ -8113,7 +8113,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7249817</v>
+        <v>7249833</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8125,58 +8125,58 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G86" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>52</v>
       </c>
       <c r="K86">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M86">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N86">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="O86">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P86">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="Q86">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>0.25</v>
+        <v>1.1</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8185,16 +8185,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8214,7 +8214,7 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
         <v>42</v>
@@ -8291,7 +8291,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7249833</v>
+        <v>7249817</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8303,58 +8303,58 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>52</v>
       </c>
       <c r="K88">
+        <v>1.363</v>
+      </c>
+      <c r="L88">
+        <v>4</v>
+      </c>
+      <c r="M88">
+        <v>7.5</v>
+      </c>
+      <c r="N88">
+        <v>1.25</v>
+      </c>
+      <c r="O88">
+        <v>4.75</v>
+      </c>
+      <c r="P88">
+        <v>9</v>
+      </c>
+      <c r="Q88">
+        <v>-1.5</v>
+      </c>
+      <c r="R88">
+        <v>1.9</v>
+      </c>
+      <c r="S88">
+        <v>1.9</v>
+      </c>
+      <c r="T88">
         <v>2.75</v>
       </c>
-      <c r="L88">
-        <v>3.2</v>
-      </c>
-      <c r="M88">
-        <v>2.3</v>
-      </c>
-      <c r="N88">
-        <v>2.1</v>
-      </c>
-      <c r="O88">
-        <v>3.25</v>
-      </c>
-      <c r="P88">
-        <v>3.1</v>
-      </c>
-      <c r="Q88">
-        <v>-0.25</v>
-      </c>
-      <c r="R88">
-        <v>1.85</v>
-      </c>
-      <c r="S88">
-        <v>1.95</v>
-      </c>
-      <c r="T88">
-        <v>2.25</v>
-      </c>
       <c r="U88">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>1.1</v>
+        <v>0.25</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8363,16 +8363,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8392,7 +8392,7 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8484,7 +8484,7 @@
         <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8751,7 +8751,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8840,7 +8840,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8914,7 +8914,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7265139</v>
+        <v>7265138</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8926,16 +8926,16 @@
         <v>45196.75</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>54</v>
@@ -8944,43 +8944,43 @@
         <v>2</v>
       </c>
       <c r="L95">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N95">
+        <v>1.65</v>
+      </c>
+      <c r="O95">
+        <v>3.6</v>
+      </c>
+      <c r="P95">
+        <v>4.5</v>
+      </c>
+      <c r="Q95">
+        <v>-0.75</v>
+      </c>
+      <c r="R95">
+        <v>1.8</v>
+      </c>
+      <c r="S95">
+        <v>2</v>
+      </c>
+      <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
         <v>1.95</v>
       </c>
-      <c r="O95">
-        <v>2.9</v>
-      </c>
-      <c r="P95">
-        <v>4.2</v>
-      </c>
-      <c r="Q95">
-        <v>-0.5</v>
-      </c>
-      <c r="R95">
-        <v>1.975</v>
-      </c>
-      <c r="S95">
-        <v>1.725</v>
-      </c>
-      <c r="T95">
-        <v>2</v>
-      </c>
-      <c r="U95">
-        <v>1.775</v>
-      </c>
       <c r="V95">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y95">
         <v>-1</v>
@@ -8989,13 +8989,13 @@
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7265140</v>
+        <v>7265139</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,76 +9015,76 @@
         <v>45196.75</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K96">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L96">
         <v>3</v>
       </c>
       <c r="M96">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P96">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U96">
+        <v>1.775</v>
+      </c>
+      <c r="V96">
+        <v>2.025</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
         <v>1.9</v>
       </c>
-      <c r="V96">
-        <v>1.9</v>
-      </c>
-      <c r="W96">
-        <v>1.5</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9092,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7265138</v>
+        <v>7265140</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9104,76 +9104,76 @@
         <v>45196.75</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L97">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M97">
+        <v>2.75</v>
+      </c>
+      <c r="N97">
+        <v>2.5</v>
+      </c>
+      <c r="O97">
         <v>3.2</v>
       </c>
-      <c r="N97">
-        <v>1.65</v>
-      </c>
-      <c r="O97">
-        <v>3.6</v>
-      </c>
       <c r="P97">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X97">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9193,7 +9193,7 @@
         <v>45196.77083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -9270,7 +9270,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7265144</v>
+        <v>7265142</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9282,16 +9282,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>1</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>52</v>
@@ -9300,40 +9300,40 @@
         <v>2</v>
       </c>
       <c r="L99">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N99">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O99">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P99">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9342,16 +9342,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9359,7 +9359,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7265142</v>
+        <v>7265144</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9371,16 +9371,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
@@ -9389,40 +9389,40 @@
         <v>2</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M100">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N100">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
         <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9431,16 +9431,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
+        <v>0.75</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>0.95</v>
-      </c>
-      <c r="AC100">
-        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9638,7 +9638,7 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>51</v>
@@ -9715,7 +9715,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7281756</v>
+        <v>7281758</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9727,58 +9727,58 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>52</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N104">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P104">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W104">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9787,13 +9787,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9893,7 +9893,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7281783</v>
+        <v>7281756</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9905,13 +9905,13 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9920,34 +9920,34 @@
         <v>52</v>
       </c>
       <c r="K106">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L106">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N106">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O106">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
         <v>1.9</v>
@@ -9956,7 +9956,7 @@
         <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.909</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9965,16 +9965,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC106">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9982,7 +9982,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7281758</v>
+        <v>7281783</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9994,16 +9994,16 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
         <v>44</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>52</v>
@@ -10018,34 +10018,34 @@
         <v>3.75</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10054,16 +10054,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10439,7 +10439,7 @@
         <v>45217.77083333334</v>
       </c>
       <c r="F112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
         <v>37</v>
@@ -10516,7 +10516,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7372551</v>
+        <v>7376644</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10528,58 +10528,58 @@
         <v>45221.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G113" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>52</v>
       </c>
       <c r="K113">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L113">
         <v>3.6</v>
       </c>
       <c r="M113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N113">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O113">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="W113">
-        <v>0.5</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10588,13 +10588,13 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10605,7 +10605,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7376644</v>
+        <v>7372551</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10617,58 +10617,58 @@
         <v>45221.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
         <v>52</v>
       </c>
       <c r="K114">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L114">
         <v>3.6</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N114">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P114">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S114">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
-        <v>0.7270000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10677,13 +10677,13 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10706,7 +10706,7 @@
         <v>45221.75</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s">
         <v>40</v>
@@ -10795,7 +10795,7 @@
         <v>45221.75</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
         <v>42</v>
@@ -10887,7 +10887,7 @@
         <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11050,7 +11050,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7387211</v>
+        <v>7387943</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11062,13 +11062,13 @@
         <v>45224.75</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -11077,34 +11077,34 @@
         <v>52</v>
       </c>
       <c r="K119">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
+        <v>4.2</v>
+      </c>
+      <c r="N119">
+        <v>1.533</v>
+      </c>
+      <c r="O119">
+        <v>3.6</v>
+      </c>
+      <c r="P119">
         <v>5.5</v>
       </c>
-      <c r="N119">
-        <v>1.363</v>
-      </c>
-      <c r="O119">
-        <v>4.5</v>
-      </c>
-      <c r="P119">
-        <v>7</v>
-      </c>
       <c r="Q119">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
         <v>1.9</v>
@@ -11113,7 +11113,7 @@
         <v>1.9</v>
       </c>
       <c r="W119">
-        <v>0.363</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11122,16 +11122,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA119">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7387943</v>
+        <v>7387211</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11151,13 +11151,13 @@
         <v>45224.75</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -11166,34 +11166,34 @@
         <v>52</v>
       </c>
       <c r="K120">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M120">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N120">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P120">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R120">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U120">
         <v>1.9</v>
@@ -11202,7 +11202,7 @@
         <v>1.9</v>
       </c>
       <c r="W120">
-        <v>0.5329999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11211,16 +11211,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC120">
-        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11240,7 +11240,7 @@
         <v>45224.77083333334</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
         <v>35</v>
@@ -11329,7 +11329,7 @@
         <v>45224.875</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
         <v>49</v>
@@ -11673,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7400384</v>
+        <v>7400385</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11685,73 +11685,73 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>4</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>52</v>
       </c>
       <c r="K126">
+        <v>1.5</v>
+      </c>
+      <c r="L126">
+        <v>3.75</v>
+      </c>
+      <c r="M126">
+        <v>5.5</v>
+      </c>
+      <c r="N126">
+        <v>1.4</v>
+      </c>
+      <c r="O126">
+        <v>4.2</v>
+      </c>
+      <c r="P126">
+        <v>6.5</v>
+      </c>
+      <c r="Q126">
+        <v>-1.25</v>
+      </c>
+      <c r="R126">
+        <v>1.825</v>
+      </c>
+      <c r="S126">
+        <v>1.975</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
         <v>1.8</v>
       </c>
-      <c r="L126">
-        <v>3</v>
-      </c>
-      <c r="M126">
-        <v>4.5</v>
-      </c>
-      <c r="N126">
-        <v>1.8</v>
-      </c>
-      <c r="O126">
-        <v>3</v>
-      </c>
-      <c r="P126">
-        <v>4.333</v>
-      </c>
-      <c r="Q126">
-        <v>-0.5</v>
-      </c>
-      <c r="R126">
-        <v>1.85</v>
-      </c>
-      <c r="S126">
-        <v>1.95</v>
-      </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
-      <c r="U126">
-        <v>1.95</v>
-      </c>
       <c r="V126">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W126">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
+        <v>0.825</v>
+      </c>
+      <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
         <v>0.8</v>
-      </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
-      <c r="Z126">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA126">
-        <v>-1</v>
-      </c>
-      <c r="AB126">
-        <v>0.95</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11762,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7400382</v>
+        <v>7400384</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11774,76 +11774,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K127">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L127">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M127">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N127">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P127">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T127">
         <v>2.5</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11851,7 +11851,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7400380</v>
+        <v>7400382</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11863,76 +11863,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L128">
+        <v>3.4</v>
+      </c>
+      <c r="M128">
         <v>3.1</v>
       </c>
-      <c r="M128">
-        <v>4</v>
-      </c>
       <c r="N128">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O128">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q128">
         <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S128">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V128">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="W128">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z128">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11940,7 +11940,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7400385</v>
+        <v>7400380</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11952,58 +11952,58 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>52</v>
       </c>
       <c r="K129">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M129">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N129">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O129">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P129">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
+        <v>1.95</v>
+      </c>
+      <c r="T129">
+        <v>2</v>
+      </c>
+      <c r="U129">
         <v>1.975</v>
       </c>
-      <c r="T129">
-        <v>2.75</v>
-      </c>
-      <c r="U129">
-        <v>1.8</v>
-      </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W129">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12012,13 +12012,13 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7400381</v>
+        <v>7400383</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,73 +12041,73 @@
         <v>45228.75</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K130">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12118,7 +12118,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7400383</v>
+        <v>7400381</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12130,73 +12130,73 @@
         <v>45228.75</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K131">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>3.75</v>
+      </c>
+      <c r="N131">
+        <v>1.65</v>
+      </c>
+      <c r="O131">
         <v>3.6</v>
       </c>
-      <c r="M131">
-        <v>5</v>
-      </c>
-      <c r="N131">
-        <v>1.45</v>
-      </c>
-      <c r="O131">
-        <v>3.8</v>
-      </c>
       <c r="P131">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12219,10 +12219,10 @@
         <v>45228.77083333334</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12311,7 +12311,7 @@
         <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12489,7 +12489,7 @@
         <v>46</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>6</v>
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7448182</v>
+        <v>7451045</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,73 +12575,73 @@
         <v>45238.75</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>53</v>
+      </c>
+      <c r="K136">
+        <v>2.5</v>
+      </c>
+      <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
+        <v>2.5</v>
+      </c>
+      <c r="N136">
+        <v>3.2</v>
+      </c>
+      <c r="O136">
+        <v>3.4</v>
+      </c>
+      <c r="P136">
+        <v>2</v>
+      </c>
+      <c r="Q136">
+        <v>0.25</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>1.8</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>1.8</v>
+      </c>
+      <c r="V136">
+        <v>2</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
         <v>1</v>
       </c>
-      <c r="J136" t="s">
-        <v>52</v>
-      </c>
-      <c r="K136">
-        <v>1.727</v>
-      </c>
-      <c r="L136">
-        <v>3.6</v>
-      </c>
-      <c r="M136">
-        <v>4</v>
-      </c>
-      <c r="N136">
-        <v>1.363</v>
-      </c>
-      <c r="O136">
-        <v>4</v>
-      </c>
-      <c r="P136">
-        <v>7.5</v>
-      </c>
-      <c r="Q136">
-        <v>-1.25</v>
-      </c>
-      <c r="R136">
-        <v>1.9</v>
-      </c>
-      <c r="S136">
-        <v>1.9</v>
-      </c>
-      <c r="T136">
-        <v>2.5</v>
-      </c>
-      <c r="U136">
-        <v>1.975</v>
-      </c>
-      <c r="V136">
-        <v>1.825</v>
-      </c>
-      <c r="W136">
-        <v>0.363</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
       <c r="Z136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12667,7 +12667,7 @@
         <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12741,7 +12741,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7451046</v>
+        <v>7448182</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12753,40 +12753,40 @@
         <v>45238.75</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N138">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O138">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P138">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R138">
         <v>1.9</v>
@@ -12798,31 +12798,31 @@
         <v>2.5</v>
       </c>
       <c r="U138">
+        <v>1.975</v>
+      </c>
+      <c r="V138">
         <v>1.825</v>
       </c>
-      <c r="V138">
-        <v>1.975</v>
-      </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X138">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12830,7 +12830,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7451044</v>
+        <v>7452316</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12842,76 +12842,76 @@
         <v>45238.75</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K139">
+        <v>5</v>
+      </c>
+      <c r="L139">
         <v>3.6</v>
       </c>
-      <c r="L139">
+      <c r="M139">
+        <v>1.615</v>
+      </c>
+      <c r="N139">
+        <v>3.6</v>
+      </c>
+      <c r="O139">
         <v>3.5</v>
       </c>
-      <c r="M139">
-        <v>1.8</v>
-      </c>
-      <c r="N139">
-        <v>2.3</v>
-      </c>
-      <c r="O139">
-        <v>3.4</v>
-      </c>
       <c r="P139">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R139">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
         <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC139">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12919,7 +12919,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7452316</v>
+        <v>7451046</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12931,40 +12931,40 @@
         <v>45238.75</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>54</v>
+      </c>
+      <c r="K140">
         <v>3</v>
       </c>
-      <c r="J140" t="s">
-        <v>53</v>
-      </c>
-      <c r="K140">
-        <v>5</v>
-      </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M140">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="N140">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q140">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
         <v>1.9</v>
@@ -12973,34 +12973,34 @@
         <v>1.9</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB140">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7451045</v>
+        <v>7451044</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,49 +13109,49 @@
         <v>45238.75</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N142">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
         <v>3.4</v>
       </c>
       <c r="P142">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
         <v>1.8</v>
@@ -13163,22 +13163,22 @@
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>-0</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
         <v>1</v>
-      </c>
-      <c r="Z142">
-        <v>-1</v>
-      </c>
-      <c r="AA142">
-        <v>0.8</v>
-      </c>
-      <c r="AB142">
-        <v>0.8</v>
-      </c>
-      <c r="AC142">
-        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13275,7 +13275,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7477706</v>
+        <v>7477707</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13287,40 +13287,40 @@
         <v>45245.95833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K144">
         <v>2</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N144">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P144">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
         <v>1.9</v>
@@ -13329,34 +13329,34 @@
         <v>1.9</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X144">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC144">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13364,7 +13364,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7477707</v>
+        <v>7477706</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13376,40 +13376,40 @@
         <v>45245.95833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K145">
         <v>2</v>
       </c>
       <c r="L145">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M145">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N145">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R145">
         <v>1.9</v>
@@ -13418,34 +13418,34 @@
         <v>1.9</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
       <c r="AB145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13468,7 +13468,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13554,7 +13554,7 @@
         <v>45249.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>37</v>
@@ -13735,7 +13735,7 @@
         <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -14266,7 +14266,7 @@
         <v>45256.72916666666</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
         <v>37</v>
@@ -14447,7 +14447,7 @@
         <v>48</v>
       </c>
       <c r="G157" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14622,7 +14622,7 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G159" t="s">
         <v>48</v>
@@ -14714,7 +14714,7 @@
         <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14800,7 +14800,7 @@
         <v>45277.70833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
         <v>32</v>
@@ -14966,7 +14966,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7694909</v>
+        <v>7693875</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14978,76 +14978,76 @@
         <v>45304.75</v>
       </c>
       <c r="F163" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K163">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M163">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N163">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O163">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>1.85</v>
+      </c>
+      <c r="S163">
+        <v>1.95</v>
+      </c>
+      <c r="T163">
+        <v>2.5</v>
+      </c>
+      <c r="U163">
+        <v>2</v>
+      </c>
+      <c r="V163">
+        <v>1.8</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
+        <v>2.1</v>
+      </c>
+      <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
         <v>-0.5</v>
       </c>
-      <c r="R163">
-        <v>1.975</v>
-      </c>
-      <c r="S163">
-        <v>1.825</v>
-      </c>
-      <c r="T163">
-        <v>3</v>
-      </c>
-      <c r="U163">
-        <v>1.975</v>
-      </c>
-      <c r="V163">
-        <v>1.825</v>
-      </c>
-      <c r="W163">
-        <v>0.909</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
-      </c>
-      <c r="Y163">
-        <v>-1</v>
-      </c>
-      <c r="Z163">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7693875</v>
+        <v>7694909</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45304.75</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K164">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N164">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X164">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA164">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC164">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15144,7 +15144,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7697287</v>
+        <v>7697288</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15156,13 +15156,13 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -15171,31 +15171,31 @@
         <v>52</v>
       </c>
       <c r="K165">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N165">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="O165">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P165">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R165">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S165">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
         <v>2.75</v>
@@ -15207,7 +15207,7 @@
         <v>1.9</v>
       </c>
       <c r="W165">
-        <v>1.05</v>
+        <v>0.444</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15216,16 +15216,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB165">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15233,7 +15233,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7697288</v>
+        <v>7697287</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15245,13 +15245,13 @@
         <v>45305.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -15260,31 +15260,31 @@
         <v>52</v>
       </c>
       <c r="K166">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N166">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P166">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q166">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
         <v>2.75</v>
@@ -15296,7 +15296,7 @@
         <v>1.9</v>
       </c>
       <c r="W166">
-        <v>0.444</v>
+        <v>1.05</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15305,16 +15305,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA166">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15337,7 +15337,7 @@
         <v>45</v>
       </c>
       <c r="G167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H167">
         <v>5</v>
@@ -15426,7 +15426,7 @@
         <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15678,7 +15678,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7728658</v>
+        <v>7726349</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15690,40 +15690,40 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171">
         <v>0</v>
       </c>
-      <c r="I171">
-        <v>3</v>
-      </c>
       <c r="J171" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K171">
+        <v>3.5</v>
+      </c>
+      <c r="L171">
+        <v>3.3</v>
+      </c>
+      <c r="M171">
+        <v>1.909</v>
+      </c>
+      <c r="N171">
+        <v>2.45</v>
+      </c>
+      <c r="O171">
         <v>3.2</v>
       </c>
-      <c r="L171">
-        <v>3</v>
-      </c>
-      <c r="M171">
-        <v>2.2</v>
-      </c>
-      <c r="N171">
-        <v>5.5</v>
-      </c>
-      <c r="O171">
-        <v>3.4</v>
-      </c>
       <c r="P171">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="Q171">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R171">
         <v>1.85</v>
@@ -15732,34 +15732,34 @@
         <v>1.95</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
+        <v>1.95</v>
+      </c>
+      <c r="V171">
         <v>1.85</v>
       </c>
-      <c r="V171">
-        <v>1.95</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC171">
-        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7726349</v>
+        <v>7728658</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,40 +15868,40 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J173" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K173">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M173">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="N173">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P173">
-        <v>2.55</v>
+        <v>1.571</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R173">
         <v>1.85</v>
@@ -15910,34 +15910,34 @@
         <v>1.95</v>
       </c>
       <c r="T173">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
+        <v>1.85</v>
+      </c>
+      <c r="V173">
         <v>1.95</v>
       </c>
-      <c r="V173">
-        <v>1.85</v>
-      </c>
       <c r="W173">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z173">
+        <v>-1</v>
+      </c>
+      <c r="AA173">
+        <v>0.95</v>
+      </c>
+      <c r="AB173">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
       <c r="AC173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15957,7 +15957,7 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
         <v>51</v>
@@ -16046,7 +16046,7 @@
         <v>45312.75</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
         <v>45</v>
@@ -16135,7 +16135,7 @@
         <v>45312.75</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
         <v>46</v>
@@ -16224,7 +16224,7 @@
         <v>45312.875</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -16316,7 +16316,7 @@
         <v>35</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16494,7 +16494,7 @@
         <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H180">
         <v>1</v>
@@ -16583,7 +16583,7 @@
         <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -16657,7 +16657,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7754831</v>
+        <v>7754830</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16669,73 +16669,73 @@
         <v>45319.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G182" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K182">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="L182">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M182">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N182">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="O182">
         <v>3.8</v>
       </c>
       <c r="P182">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R182">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X182">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA182">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16746,7 +16746,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7754830</v>
+        <v>7754831</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16758,73 +16758,73 @@
         <v>45319.58333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K183">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="L183">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M183">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N183">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O183">
         <v>3.8</v>
       </c>
       <c r="P183">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q183">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R183">
+        <v>1.85</v>
+      </c>
+      <c r="S183">
+        <v>1.95</v>
+      </c>
+      <c r="T183">
+        <v>2.5</v>
+      </c>
+      <c r="U183">
+        <v>1.875</v>
+      </c>
+      <c r="V183">
         <v>1.925</v>
       </c>
-      <c r="S183">
-        <v>1.875</v>
-      </c>
-      <c r="T183">
-        <v>2.75</v>
-      </c>
-      <c r="U183">
-        <v>1.825</v>
-      </c>
-      <c r="V183">
-        <v>1.975</v>
-      </c>
       <c r="W183">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB183">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -17102,7 +17102,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7785358</v>
+        <v>7785346</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17114,76 +17114,76 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K187">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L187">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M187">
-        <v>2.4</v>
+        <v>1.952</v>
       </c>
       <c r="N187">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O187">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P187">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W187">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC187">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17191,7 +17191,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7785346</v>
+        <v>7785358</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17203,76 +17203,76 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>52</v>
+      </c>
+      <c r="K188">
+        <v>2.5</v>
+      </c>
+      <c r="L188">
+        <v>3.3</v>
+      </c>
+      <c r="M188">
+        <v>2.4</v>
+      </c>
+      <c r="N188">
+        <v>1.833</v>
+      </c>
+      <c r="O188">
+        <v>3.6</v>
+      </c>
+      <c r="P188">
+        <v>3.4</v>
+      </c>
+      <c r="Q188">
+        <v>-0.5</v>
+      </c>
+      <c r="R188">
+        <v>1.9</v>
+      </c>
+      <c r="S188">
+        <v>1.9</v>
+      </c>
+      <c r="T188">
         <v>3</v>
       </c>
-      <c r="I188">
-        <v>3</v>
-      </c>
-      <c r="J188" t="s">
-        <v>54</v>
-      </c>
-      <c r="K188">
-        <v>3.75</v>
-      </c>
-      <c r="L188">
-        <v>3</v>
-      </c>
-      <c r="M188">
-        <v>1.952</v>
-      </c>
-      <c r="N188">
-        <v>2.6</v>
-      </c>
-      <c r="O188">
-        <v>2.7</v>
-      </c>
-      <c r="P188">
-        <v>2.75</v>
-      </c>
-      <c r="Q188">
+      <c r="U188">
+        <v>1.95</v>
+      </c>
+      <c r="V188">
+        <v>1.85</v>
+      </c>
+      <c r="W188">
+        <v>0.833</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
         <v>0</v>
       </c>
-      <c r="R188">
-        <v>1.85</v>
-      </c>
-      <c r="S188">
-        <v>1.95</v>
-      </c>
-      <c r="T188">
-        <v>2</v>
-      </c>
-      <c r="U188">
-        <v>1.8</v>
-      </c>
-      <c r="V188">
-        <v>2</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>1.7</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
-      <c r="Z188">
-        <v>0</v>
-      </c>
-      <c r="AA188">
+      <c r="AC188">
         <v>-0</v>
-      </c>
-      <c r="AB188">
-        <v>0.8</v>
-      </c>
-      <c r="AC188">
-        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17292,7 +17292,7 @@
         <v>45326.75</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
         <v>38</v>
@@ -17381,7 +17381,7 @@
         <v>45326.75</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
         <v>35</v>
@@ -17470,7 +17470,7 @@
         <v>45326.875</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
         <v>39</v>
@@ -17562,7 +17562,7 @@
         <v>50</v>
       </c>
       <c r="G192" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17636,7 +17636,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7797363</v>
+        <v>7797362</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17648,58 +17648,58 @@
         <v>45329.75</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
         <v>52</v>
       </c>
       <c r="K193">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L193">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
         <v>4.75</v>
       </c>
       <c r="N193">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P193">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q193">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R193">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S193">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W193">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17708,16 +17708,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17725,7 +17725,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7797362</v>
+        <v>7797364</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17737,10 +17737,10 @@
         <v>45329.75</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17752,43 +17752,43 @@
         <v>52</v>
       </c>
       <c r="K194">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L194">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M194">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N194">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O194">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P194">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q194">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S194">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U194">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17797,16 +17797,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA194">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7797364</v>
+        <v>7797363</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,58 +17826,58 @@
         <v>45329.75</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G195" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H195">
+        <v>3</v>
+      </c>
+      <c r="I195">
         <v>1</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>52</v>
       </c>
       <c r="K195">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L195">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M195">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N195">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O195">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P195">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R195">
+        <v>1.825</v>
+      </c>
+      <c r="S195">
+        <v>1.975</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
         <v>1.95</v>
       </c>
-      <c r="S195">
+      <c r="V195">
         <v>1.85</v>
       </c>
-      <c r="T195">
-        <v>2</v>
-      </c>
-      <c r="U195">
-        <v>1.9</v>
-      </c>
-      <c r="V195">
-        <v>1.9</v>
-      </c>
       <c r="W195">
-        <v>0.909</v>
+        <v>0.45</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17886,16 +17886,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
+        <v>0.825</v>
+      </c>
+      <c r="AA195">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
         <v>0.95</v>
       </c>
-      <c r="AA195">
-        <v>-1</v>
-      </c>
-      <c r="AB195">
-        <v>-1</v>
-      </c>
       <c r="AC195">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17915,7 +17915,7 @@
         <v>45329.79861111111</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
         <v>48</v>
@@ -17992,7 +17992,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7797366</v>
+        <v>7797361</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18004,13 +18004,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G197" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H197">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -18019,25 +18019,25 @@
         <v>52</v>
       </c>
       <c r="K197">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L197">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M197">
+        <v>2.6</v>
+      </c>
+      <c r="N197">
+        <v>1.8</v>
+      </c>
+      <c r="O197">
+        <v>3.6</v>
+      </c>
+      <c r="P197">
         <v>3.5</v>
       </c>
-      <c r="N197">
-        <v>1.25</v>
-      </c>
-      <c r="O197">
-        <v>6</v>
-      </c>
-      <c r="P197">
-        <v>7.5</v>
-      </c>
       <c r="Q197">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
         <v>1.85</v>
@@ -18046,16 +18046,16 @@
         <v>1.95</v>
       </c>
       <c r="T197">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18070,7 +18070,7 @@
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC197">
         <v>-1</v>
@@ -18081,7 +18081,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7797367</v>
+        <v>7797366</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18093,13 +18093,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -18108,43 +18108,43 @@
         <v>52</v>
       </c>
       <c r="K198">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L198">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M198">
+        <v>3.5</v>
+      </c>
+      <c r="N198">
+        <v>1.25</v>
+      </c>
+      <c r="O198">
+        <v>6</v>
+      </c>
+      <c r="P198">
+        <v>7.5</v>
+      </c>
+      <c r="Q198">
+        <v>-1.75</v>
+      </c>
+      <c r="R198">
+        <v>1.85</v>
+      </c>
+      <c r="S198">
+        <v>1.95</v>
+      </c>
+      <c r="T198">
         <v>3</v>
       </c>
-      <c r="N198">
-        <v>1.5</v>
-      </c>
-      <c r="O198">
-        <v>3.75</v>
-      </c>
-      <c r="P198">
-        <v>6</v>
-      </c>
-      <c r="Q198">
-        <v>-1</v>
-      </c>
-      <c r="R198">
-        <v>1.9</v>
-      </c>
-      <c r="S198">
-        <v>1.9</v>
-      </c>
-      <c r="T198">
-        <v>2.5</v>
-      </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W198">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18153,13 +18153,13 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA198">
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18170,7 +18170,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7797361</v>
+        <v>7797367</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18182,10 +18182,10 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H199">
         <v>3</v>
@@ -18197,34 +18197,34 @@
         <v>52</v>
       </c>
       <c r="K199">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L199">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M199">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N199">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O199">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P199">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R199">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
         <v>1.9</v>
@@ -18233,7 +18233,7 @@
         <v>1.9</v>
       </c>
       <c r="W199">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18242,7 +18242,7 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA199">
         <v>-1</v>
@@ -18627,7 +18627,7 @@
         <v>45333.75</v>
       </c>
       <c r="F204" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G204" t="s">
         <v>40</v>
@@ -18716,10 +18716,10 @@
         <v>45333.75</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H205">
         <v>3</v>
@@ -18894,7 +18894,7 @@
         <v>45339.875</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G207" t="s">
         <v>41</v>
@@ -19060,7 +19060,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7851262</v>
+        <v>7851261</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19072,76 +19072,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K209">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L209">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M209">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N209">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="O209">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P209">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q209">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U209">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC209">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19161,7 +19161,7 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
         <v>42</v>
@@ -19238,7 +19238,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7851261</v>
+        <v>7851262</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19250,76 +19250,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G211" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>2</v>
+      </c>
+      <c r="J211" t="s">
+        <v>53</v>
+      </c>
+      <c r="K211">
+        <v>2.3</v>
+      </c>
+      <c r="L211">
+        <v>3.3</v>
+      </c>
+      <c r="M211">
+        <v>2.75</v>
+      </c>
+      <c r="N211">
+        <v>1.333</v>
+      </c>
+      <c r="O211">
+        <v>5</v>
+      </c>
+      <c r="P211">
+        <v>6.5</v>
+      </c>
+      <c r="Q211">
+        <v>-1.5</v>
+      </c>
+      <c r="R211">
+        <v>1.9</v>
+      </c>
+      <c r="S211">
+        <v>1.9</v>
+      </c>
+      <c r="T211">
         <v>3</v>
       </c>
-      <c r="I211">
+      <c r="U211">
+        <v>1.9</v>
+      </c>
+      <c r="V211">
+        <v>1.9</v>
+      </c>
+      <c r="W211">
+        <v>-1</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>5.5</v>
+      </c>
+      <c r="Z211">
+        <v>-1</v>
+      </c>
+      <c r="AA211">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB211">
         <v>0</v>
       </c>
-      <c r="J211" t="s">
-        <v>52</v>
-      </c>
-      <c r="K211">
-        <v>1.909</v>
-      </c>
-      <c r="L211">
-        <v>3.4</v>
-      </c>
-      <c r="M211">
-        <v>3.5</v>
-      </c>
-      <c r="N211">
-        <v>1.444</v>
-      </c>
-      <c r="O211">
-        <v>4</v>
-      </c>
-      <c r="P211">
-        <v>5.5</v>
-      </c>
-      <c r="Q211">
-        <v>-1.25</v>
-      </c>
-      <c r="R211">
-        <v>1.925</v>
-      </c>
-      <c r="S211">
-        <v>1.875</v>
-      </c>
-      <c r="T211">
-        <v>3.25</v>
-      </c>
-      <c r="U211">
-        <v>1.85</v>
-      </c>
-      <c r="V211">
-        <v>1.95</v>
-      </c>
-      <c r="W211">
-        <v>0.444</v>
-      </c>
-      <c r="X211">
-        <v>-1</v>
-      </c>
-      <c r="Y211">
-        <v>-1</v>
-      </c>
-      <c r="Z211">
-        <v>0.925</v>
-      </c>
-      <c r="AA211">
-        <v>-1</v>
-      </c>
-      <c r="AB211">
-        <v>-0.5</v>
-      </c>
       <c r="AC211">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19339,7 +19339,7 @@
         <v>45340.75</v>
       </c>
       <c r="F212" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G212" t="s">
         <v>48</v>
@@ -19520,7 +19520,7 @@
         <v>47</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19606,10 +19606,10 @@
         <v>45343.75</v>
       </c>
       <c r="F215" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7881215</v>
+        <v>7881216</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,40 +20051,40 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H220">
+        <v>4</v>
+      </c>
+      <c r="I220">
         <v>1</v>
-      </c>
-      <c r="I220">
-        <v>0</v>
       </c>
       <c r="J220" t="s">
         <v>52</v>
       </c>
       <c r="K220">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="L220">
         <v>3.2</v>
       </c>
       <c r="M220">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N220">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O220">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P220">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="Q220">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
         <v>1.775</v>
@@ -20093,16 +20093,16 @@
         <v>2.025</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V220">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W220">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20117,10 +20117,10 @@
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC220">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7881216</v>
+        <v>7881215</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,40 +20140,40 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
         <v>52</v>
       </c>
       <c r="K221">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L221">
         <v>3.2</v>
       </c>
       <c r="M221">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N221">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O221">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q221">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R221">
         <v>1.775</v>
@@ -20182,16 +20182,16 @@
         <v>2.025</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W221">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20206,10 +20206,10 @@
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20232,7 +20232,7 @@
         <v>41</v>
       </c>
       <c r="G222" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20407,7 +20407,7 @@
         <v>45347.75</v>
       </c>
       <c r="F224" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G224" t="s">
         <v>47</v>
@@ -20496,7 +20496,7 @@
         <v>45347.875</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G225" t="s">
         <v>49</v>
@@ -20852,7 +20852,7 @@
         <v>45354.58333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G229" t="s">
         <v>45</v>
@@ -20941,7 +20941,7 @@
         <v>45354.75</v>
       </c>
       <c r="F230" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G230" t="s">
         <v>49</v>
@@ -21030,7 +21030,7 @@
         <v>45354.75</v>
       </c>
       <c r="F231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G231" t="s">
         <v>36</v>
@@ -21119,7 +21119,7 @@
         <v>45354.91666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G232" t="s">
         <v>46</v>
@@ -21285,7 +21285,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7921493</v>
+        <v>7921262</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21297,76 +21297,76 @@
         <v>45357.75</v>
       </c>
       <c r="F234" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G234" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234">
         <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K234">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L234">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M234">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N234">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O234">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P234">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q234">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S234">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V234">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W234">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB234">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21374,7 +21374,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7921262</v>
+        <v>7921263</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21386,37 +21386,37 @@
         <v>45357.75</v>
       </c>
       <c r="F235" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K235">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L235">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M235">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N235">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O235">
+        <v>3.3</v>
+      </c>
+      <c r="P235">
         <v>3.75</v>
-      </c>
-      <c r="P235">
-        <v>3.6</v>
       </c>
       <c r="Q235">
         <v>-0.5</v>
@@ -21428,34 +21428,34 @@
         <v>1.95</v>
       </c>
       <c r="T235">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U235">
+        <v>2</v>
+      </c>
+      <c r="V235">
         <v>1.8</v>
       </c>
-      <c r="V235">
-        <v>2</v>
-      </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X235">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA235">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC235">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7921263</v>
+        <v>7921493</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,49 +21475,49 @@
         <v>45357.75</v>
       </c>
       <c r="F236" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G236" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
         <v>52</v>
       </c>
       <c r="K236">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="L236">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M236">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="N236">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="O236">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P236">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S236">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T236">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U236">
         <v>2</v>
@@ -21526,7 +21526,7 @@
         <v>1.8</v>
       </c>
       <c r="W236">
-        <v>0.833</v>
+        <v>0.615</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21535,16 +21535,194 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA236">
         <v>-1</v>
       </c>
       <c r="AB236">
+        <v>-0.5</v>
+      </c>
+      <c r="AC236">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>7921522</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45357.95833333334</v>
+      </c>
+      <c r="F237" t="s">
+        <v>45</v>
+      </c>
+      <c r="G237" t="s">
+        <v>43</v>
+      </c>
+      <c r="H237">
+        <v>3</v>
+      </c>
+      <c r="I237">
         <v>1</v>
       </c>
-      <c r="AC236">
-        <v>-1</v>
+      <c r="J237" t="s">
+        <v>52</v>
+      </c>
+      <c r="K237">
+        <v>2.75</v>
+      </c>
+      <c r="L237">
+        <v>3.3</v>
+      </c>
+      <c r="M237">
+        <v>2.3</v>
+      </c>
+      <c r="N237">
+        <v>1.75</v>
+      </c>
+      <c r="O237">
+        <v>3.4</v>
+      </c>
+      <c r="P237">
+        <v>4.333</v>
+      </c>
+      <c r="Q237">
+        <v>-0.5</v>
+      </c>
+      <c r="R237">
+        <v>1.8</v>
+      </c>
+      <c r="S237">
+        <v>2</v>
+      </c>
+      <c r="T237">
+        <v>2.25</v>
+      </c>
+      <c r="U237">
+        <v>1.9</v>
+      </c>
+      <c r="V237">
+        <v>1.9</v>
+      </c>
+      <c r="W237">
+        <v>0.75</v>
+      </c>
+      <c r="X237">
+        <v>-1</v>
+      </c>
+      <c r="Y237">
+        <v>-1</v>
+      </c>
+      <c r="Z237">
+        <v>0.8</v>
+      </c>
+      <c r="AA237">
+        <v>-1</v>
+      </c>
+      <c r="AB237">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC237">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>7921521</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45357.95833333334</v>
+      </c>
+      <c r="F238" t="s">
+        <v>32</v>
+      </c>
+      <c r="G238" t="s">
+        <v>33</v>
+      </c>
+      <c r="H238">
+        <v>3</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238" t="s">
+        <v>52</v>
+      </c>
+      <c r="K238">
+        <v>1.615</v>
+      </c>
+      <c r="L238">
+        <v>3.5</v>
+      </c>
+      <c r="M238">
+        <v>4.75</v>
+      </c>
+      <c r="N238">
+        <v>1.444</v>
+      </c>
+      <c r="O238">
+        <v>3.8</v>
+      </c>
+      <c r="P238">
+        <v>6.5</v>
+      </c>
+      <c r="Q238">
+        <v>-1.25</v>
+      </c>
+      <c r="R238">
+        <v>1.9</v>
+      </c>
+      <c r="S238">
+        <v>1.9</v>
+      </c>
+      <c r="T238">
+        <v>2.75</v>
+      </c>
+      <c r="U238">
+        <v>1.9</v>
+      </c>
+      <c r="V238">
+        <v>1.9</v>
+      </c>
+      <c r="W238">
+        <v>0.444</v>
+      </c>
+      <c r="X238">
+        <v>-1</v>
+      </c>
+      <c r="Y238">
+        <v>-1</v>
+      </c>
+      <c r="Z238">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA238">
+        <v>-1</v>
+      </c>
+      <c r="AB238">
+        <v>0.45</v>
+      </c>
+      <c r="AC238">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Guatemala Primera Division/Guatemala Primera Division.xlsx
+++ b/Guatemala Primera Division/Guatemala Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -115,13 +115,13 @@
     <t>Marquense</t>
   </si>
   <si>
-    <t>Suchitepequez</t>
+    <t>Universidad de San Carlos</t>
   </si>
   <si>
     <t>Cuilapa FC</t>
   </si>
   <si>
-    <t>Universidad de San Carlos</t>
+    <t>Suchitepequez</t>
   </si>
   <si>
     <t>Deportivo Barberena FC</t>
@@ -145,10 +145,10 @@
     <t>CS Deportivo Sacachispas</t>
   </si>
   <si>
-    <t>Juventud Pinulteca FC</t>
+    <t>Deportivo San Pedro</t>
   </si>
   <si>
-    <t>Deportivo San Pedro</t>
+    <t>Juventud Pinulteca FC</t>
   </si>
   <si>
     <t>Mictln</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC238"/>
+  <dimension ref="A1:AC245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6996288</v>
+        <v>6996285</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1008,46 +1008,46 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>1.727</v>
+      </c>
+      <c r="O6">
         <v>3.4</v>
       </c>
-      <c r="N6">
-        <v>1.65</v>
-      </c>
-      <c r="O6">
-        <v>3.6</v>
-      </c>
       <c r="P6">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q6">
         <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
         <v>1.95</v>
@@ -1056,25 +1056,25 @@
         <v>1.85</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X6">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1171,7 +1171,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6996285</v>
+        <v>6996288</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1186,46 +1186,46 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q8">
         <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
         <v>1.95</v>
@@ -1234,25 +1234,25 @@
         <v>1.85</v>
       </c>
       <c r="W8">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1275,7 +1275,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1631,7 +1631,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1883,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7025358</v>
+        <v>7025357</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1898,16 +1898,16 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K16">
         <v>1.615</v>
@@ -1919,52 +1919,52 @@
         <v>5</v>
       </c>
       <c r="N16">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="V16">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y16">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB16">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1972,7 +1972,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7025357</v>
+        <v>7025358</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1987,16 +1987,16 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17">
         <v>1.615</v>
@@ -2008,52 +2008,52 @@
         <v>5</v>
       </c>
       <c r="N17">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="O17">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S17">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>2.075</v>
       </c>
       <c r="V17">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AC17">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2165,7 +2165,7 @@
         <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7060393</v>
+        <v>7060392</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,76 +2429,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>1.615</v>
+        <v>1.952</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O22">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X22">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2518,7 +2518,7 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>47</v>
@@ -2595,7 +2595,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7060392</v>
+        <v>7060393</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2607,76 +2607,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>1.952</v>
+        <v>1.615</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N24">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
+        <v>2.75</v>
+      </c>
+      <c r="U24">
         <v>1.825</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>1.975</v>
       </c>
-      <c r="T24">
-        <v>2.5</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <v>1.8</v>
-      </c>
       <c r="W24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2877,7 +2877,7 @@
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7072447</v>
+        <v>7072459</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3141,76 +3141,76 @@
         <v>45154.75</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P30">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R30">
+        <v>1.725</v>
+      </c>
+      <c r="S30">
+        <v>2.075</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>1.85</v>
+      </c>
+      <c r="V30">
+        <v>1.95</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
         <v>1.8</v>
       </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
-      <c r="T30">
-        <v>2.25</v>
-      </c>
-      <c r="U30">
-        <v>1.9</v>
-      </c>
-      <c r="V30">
-        <v>1.9</v>
-      </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
       <c r="Y30">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3307,7 +3307,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7072542</v>
+        <v>7072447</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3319,76 +3319,76 @@
         <v>45154.75</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L32">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="N32">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z32">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3408,10 +3408,10 @@
         <v>45154.75</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7072459</v>
+        <v>7072542</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,49 +3497,49 @@
         <v>45154.75</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K34">
+        <v>1.909</v>
+      </c>
+      <c r="L34">
+        <v>3.25</v>
+      </c>
+      <c r="M34">
+        <v>3.5</v>
+      </c>
+      <c r="N34">
+        <v>1.7</v>
+      </c>
+      <c r="O34">
+        <v>3.1</v>
+      </c>
+      <c r="P34">
+        <v>4.75</v>
+      </c>
+      <c r="Q34">
+        <v>-0.75</v>
+      </c>
+      <c r="R34">
+        <v>1.925</v>
+      </c>
+      <c r="S34">
+        <v>1.875</v>
+      </c>
+      <c r="T34">
         <v>2.25</v>
-      </c>
-      <c r="L34">
-        <v>3</v>
-      </c>
-      <c r="M34">
-        <v>3</v>
-      </c>
-      <c r="N34">
-        <v>2.5</v>
-      </c>
-      <c r="O34">
-        <v>2.8</v>
-      </c>
-      <c r="P34">
-        <v>3</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>1.725</v>
-      </c>
-      <c r="S34">
-        <v>2.075</v>
-      </c>
-      <c r="T34">
-        <v>2</v>
       </c>
       <c r="U34">
         <v>1.85</v>
@@ -3548,25 +3548,25 @@
         <v>1.95</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X34">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3752,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7106041</v>
+        <v>7106032</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3764,58 +3764,58 @@
         <v>45161.75</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
         <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>52</v>
       </c>
       <c r="K37">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L37">
         <v>3.2</v>
       </c>
       <c r="M37">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S37">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>1.3</v>
+        <v>0.615</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3824,16 +3824,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3856,7 +3856,7 @@
         <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H38">
         <v>4</v>
@@ -4019,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7106032</v>
+        <v>7106041</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4031,58 +4031,58 @@
         <v>45161.75</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>52</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L40">
         <v>3.2</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N40">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R40">
+        <v>1.75</v>
+      </c>
+      <c r="S40">
+        <v>2.05</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>1.925</v>
+      </c>
+      <c r="V40">
         <v>1.875</v>
       </c>
-      <c r="S40">
-        <v>1.925</v>
-      </c>
-      <c r="T40">
-        <v>2.25</v>
-      </c>
-      <c r="U40">
-        <v>1.85</v>
-      </c>
-      <c r="V40">
-        <v>1.95</v>
-      </c>
       <c r="W40">
-        <v>0.615</v>
+        <v>1.3</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4091,16 +4091,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
+        <v>0.75</v>
+      </c>
+      <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
         <v>0.875</v>
-      </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
-      <c r="AB40">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC40">
-        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4212,7 +4212,7 @@
         <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>45162.625</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>41</v>
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7128480</v>
+        <v>7128524</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,76 +4565,76 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>54</v>
+      </c>
+      <c r="K46">
+        <v>2.4</v>
+      </c>
+      <c r="L46">
+        <v>3.2</v>
+      </c>
+      <c r="M46">
+        <v>2.6</v>
+      </c>
+      <c r="N46">
+        <v>2.4</v>
+      </c>
+      <c r="O46">
+        <v>3.2</v>
+      </c>
+      <c r="P46">
+        <v>2.6</v>
+      </c>
+      <c r="Q46">
         <v>0</v>
       </c>
-      <c r="J46" t="s">
-        <v>52</v>
-      </c>
-      <c r="K46">
-        <v>1.909</v>
-      </c>
-      <c r="L46">
-        <v>3.1</v>
-      </c>
-      <c r="M46">
-        <v>3.75</v>
-      </c>
-      <c r="N46">
-        <v>1.65</v>
-      </c>
-      <c r="O46">
-        <v>3.25</v>
-      </c>
-      <c r="P46">
-        <v>5</v>
-      </c>
-      <c r="Q46">
-        <v>-0.5</v>
-      </c>
       <c r="R46">
+        <v>1.825</v>
+      </c>
+      <c r="S46">
+        <v>1.975</v>
+      </c>
+      <c r="T46">
+        <v>2.25</v>
+      </c>
+      <c r="U46">
+        <v>1.95</v>
+      </c>
+      <c r="V46">
         <v>1.85</v>
       </c>
-      <c r="S46">
-        <v>1.95</v>
-      </c>
-      <c r="T46">
-        <v>1.75</v>
-      </c>
-      <c r="U46">
-        <v>1.85</v>
-      </c>
-      <c r="V46">
-        <v>1.95</v>
-      </c>
       <c r="W46">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4642,7 +4642,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7128481</v>
+        <v>7128480</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4654,13 +4654,13 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4669,43 +4669,43 @@
         <v>52</v>
       </c>
       <c r="K47">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
+        <v>3.1</v>
+      </c>
+      <c r="M47">
         <v>3.75</v>
       </c>
-      <c r="M47">
-        <v>4.75</v>
-      </c>
       <c r="N47">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O47">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q47">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>0.444</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4714,16 +4714,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4731,7 +4731,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7128524</v>
+        <v>7128481</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4743,43 +4743,43 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K48">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M48">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N48">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O48">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P48">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S48">
         <v>1.975</v>
@@ -4788,31 +4788,31 @@
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X48">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5010,7 +5010,7 @@
         <v>45165.75</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
         <v>39</v>
@@ -5099,7 +5099,7 @@
         <v>45165.77083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
         <v>48</v>
@@ -5191,7 +5191,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5366,7 +5366,7 @@
         <v>45171.875</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5621,7 +5621,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7158507</v>
+        <v>7158484</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5633,73 +5633,73 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K58">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L58">
         <v>3.2</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N58">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z58">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7158484</v>
+        <v>7158507</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5722,73 +5722,73 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K59">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
         <v>3.2</v>
       </c>
       <c r="M59">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P59">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S59">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA59">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5814,7 +5814,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5900,7 +5900,7 @@
         <v>45172.75</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
         <v>38</v>
@@ -6170,7 +6170,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7189205</v>
+        <v>7189791</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,76 +6256,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L65">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N65">
+        <v>2.7</v>
+      </c>
+      <c r="O65">
+        <v>3.75</v>
+      </c>
+      <c r="P65">
         <v>2.15</v>
       </c>
-      <c r="O65">
-        <v>2.8</v>
-      </c>
-      <c r="P65">
-        <v>3.4</v>
-      </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7189416</v>
+        <v>7189205</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6345,76 +6345,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K66">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="O66">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="P66">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6422,7 +6422,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7189791</v>
+        <v>7189416</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6434,58 +6434,58 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>52</v>
       </c>
       <c r="K67">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="L67">
         <v>4</v>
       </c>
       <c r="M67">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="N67">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P67">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R67">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S67">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T67">
         <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>1.7</v>
+        <v>0.45</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6494,13 +6494,13 @@
         <v>-1</v>
       </c>
       <c r="Z67">
+        <v>0.8</v>
+      </c>
+      <c r="AA67">
+        <v>-1</v>
+      </c>
+      <c r="AB67">
         <v>0.825</v>
-      </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
-      <c r="AB67">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6615,7 +6615,7 @@
         <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6867,7 +6867,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7203437</v>
+        <v>7203472</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6879,46 +6879,46 @@
         <v>45182.75</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>52</v>
       </c>
       <c r="K72">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L72">
         <v>3.2</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N72">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O72">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
         <v>2.5</v>
@@ -6927,10 +6927,10 @@
         <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6939,10 +6939,10 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
         <v>0.95</v>
@@ -6956,7 +6956,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7203452</v>
+        <v>7203437</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6968,13 +6968,13 @@
         <v>45182.75</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6983,40 +6983,40 @@
         <v>52</v>
       </c>
       <c r="K73">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L73">
+        <v>3.2</v>
+      </c>
+      <c r="M73">
         <v>4</v>
-      </c>
-      <c r="M73">
-        <v>7</v>
       </c>
       <c r="N73">
         <v>1.363</v>
       </c>
       <c r="O73">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q73">
         <v>-1.25</v>
       </c>
       <c r="R73">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W73">
         <v>0.363</v>
@@ -7028,16 +7028,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7045,7 +7045,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7203472</v>
+        <v>7203452</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7060,55 +7060,55 @@
         <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L74">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N74">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P74">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7117,16 +7117,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7146,7 +7146,7 @@
         <v>45182.875</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -7416,7 +7416,7 @@
         <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -7683,7 +7683,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7858,7 +7858,7 @@
         <v>45186.75</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
         <v>46</v>
@@ -7947,7 +7947,7 @@
         <v>45186.77083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s">
         <v>36</v>
@@ -8113,7 +8113,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7249833</v>
+        <v>7249890</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8125,76 +8125,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
         <v>43</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K86">
         <v>2.75</v>
       </c>
       <c r="L86">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N86">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O86">
         <v>3.25</v>
       </c>
       <c r="P86">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
+        <v>1.95</v>
+      </c>
+      <c r="S86">
         <v>1.85</v>
-      </c>
-      <c r="S86">
-        <v>1.95</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
+        <v>1.95</v>
+      </c>
+      <c r="V86">
         <v>1.85</v>
       </c>
-      <c r="V86">
-        <v>1.95</v>
-      </c>
       <c r="W86">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8202,7 +8202,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7249832</v>
+        <v>7249889</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8214,76 +8214,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K87">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="N87">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O87">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W87">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8303,7 +8303,7 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>51</v>
@@ -8380,7 +8380,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7249889</v>
+        <v>7249833</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8392,76 +8392,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L89">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N89">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P89">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X89">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC89">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8469,7 +8469,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7249890</v>
+        <v>7249832</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8481,76 +8481,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K90">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L90">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M90">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="N90">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O90">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P90">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X90">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC90">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8840,7 +8840,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -8914,7 +8914,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7265138</v>
+        <v>7265140</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8926,76 +8926,76 @@
         <v>45196.75</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L95">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M95">
+        <v>2.75</v>
+      </c>
+      <c r="N95">
+        <v>2.5</v>
+      </c>
+      <c r="O95">
         <v>3.2</v>
       </c>
-      <c r="N95">
-        <v>1.65</v>
-      </c>
-      <c r="O95">
-        <v>3.6</v>
-      </c>
       <c r="P95">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X95">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9015,7 +9015,7 @@
         <v>45196.75</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9092,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7265140</v>
+        <v>7265138</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9104,76 +9104,76 @@
         <v>45196.75</v>
       </c>
       <c r="F97" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K97">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L97">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M97">
+        <v>3.2</v>
+      </c>
+      <c r="N97">
+        <v>1.65</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
+        <v>4.5</v>
+      </c>
+      <c r="Q97">
+        <v>-0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
         <v>2.75</v>
       </c>
-      <c r="N97">
-        <v>2.5</v>
-      </c>
-      <c r="O97">
-        <v>3.2</v>
-      </c>
-      <c r="P97">
-        <v>2.625</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
+      <c r="U97">
+        <v>1.95</v>
+      </c>
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="S97">
-        <v>1.95</v>
-      </c>
-      <c r="T97">
-        <v>2.25</v>
-      </c>
-      <c r="U97">
-        <v>1.9</v>
-      </c>
-      <c r="V97">
-        <v>1.9</v>
-      </c>
       <c r="W97">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>1</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
-      <c r="AC97">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9193,7 +9193,7 @@
         <v>45196.77083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -9270,7 +9270,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7265142</v>
+        <v>7265144</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9282,16 +9282,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>52</v>
@@ -9300,40 +9300,40 @@
         <v>2</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M99">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9342,16 +9342,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
+        <v>0.75</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>0.95</v>
-      </c>
-      <c r="AC99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9359,7 +9359,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7265144</v>
+        <v>7265142</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9371,16 +9371,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
         <v>1</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
@@ -9389,40 +9389,40 @@
         <v>2</v>
       </c>
       <c r="L100">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N100">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O100">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P100">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
         <v>2.25</v>
       </c>
       <c r="U100">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9431,16 +9431,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9626,7 +9626,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7281757</v>
+        <v>7281783</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9638,16 +9638,16 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>52</v>
@@ -9662,34 +9662,34 @@
         <v>3.75</v>
       </c>
       <c r="N103">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T103">
         <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9698,16 +9698,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9727,10 +9727,10 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -9804,7 +9804,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7281782</v>
+        <v>7281757</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9816,73 +9816,73 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I105">
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K105">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N105">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O105">
         <v>3.5</v>
       </c>
       <c r="P105">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA105">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9893,7 +9893,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7281756</v>
+        <v>7281782</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9905,73 +9905,73 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K106">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L106">
+        <v>3.3</v>
+      </c>
+      <c r="M106">
+        <v>2.5</v>
+      </c>
+      <c r="N106">
+        <v>1.909</v>
+      </c>
+      <c r="O106">
         <v>3.5</v>
       </c>
-      <c r="M106">
-        <v>4</v>
-      </c>
-      <c r="N106">
-        <v>1.6</v>
-      </c>
-      <c r="O106">
-        <v>3.6</v>
-      </c>
       <c r="P106">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
         <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB106">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9982,7 +9982,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7281783</v>
+        <v>7281756</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9994,13 +9994,13 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -10009,34 +10009,34 @@
         <v>52</v>
       </c>
       <c r="K107">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N107">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O107">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
         <v>1.9</v>
@@ -10045,7 +10045,7 @@
         <v>1.9</v>
       </c>
       <c r="W107">
-        <v>0.909</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10054,16 +10054,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC107">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10261,7 +10261,7 @@
         <v>45217.66666666666</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
         <v>36</v>
@@ -10439,7 +10439,7 @@
         <v>45217.77083333334</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G112" t="s">
         <v>37</v>
@@ -10694,7 +10694,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7372552</v>
+        <v>7373217</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10709,37 +10709,37 @@
         <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K115">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M115">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N115">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="O115">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
         <v>1.9</v>
@@ -10751,31 +10751,31 @@
         <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC115">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10783,7 +10783,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7373217</v>
+        <v>7372552</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10798,37 +10798,37 @@
         <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K116">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
+        <v>3.1</v>
+      </c>
+      <c r="M116">
+        <v>2.8</v>
+      </c>
+      <c r="N116">
+        <v>1.85</v>
+      </c>
+      <c r="O116">
         <v>3.2</v>
       </c>
-      <c r="M116">
-        <v>4.333</v>
-      </c>
-      <c r="N116">
-        <v>1.666</v>
-      </c>
-      <c r="O116">
-        <v>3.4</v>
-      </c>
       <c r="P116">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
         <v>1.9</v>
@@ -10840,31 +10840,31 @@
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
       <c r="AB116">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10887,7 +10887,7 @@
         <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10961,7 +10961,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7387942</v>
+        <v>7387211</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10973,61 +10973,61 @@
         <v>45224.75</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K118">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L118">
+        <v>4</v>
+      </c>
+      <c r="M118">
+        <v>5.5</v>
+      </c>
+      <c r="N118">
+        <v>1.363</v>
+      </c>
+      <c r="O118">
+        <v>4.5</v>
+      </c>
+      <c r="P118">
+        <v>7</v>
+      </c>
+      <c r="Q118">
+        <v>-1.5</v>
+      </c>
+      <c r="R118">
+        <v>1.975</v>
+      </c>
+      <c r="S118">
+        <v>1.825</v>
+      </c>
+      <c r="T118">
         <v>3</v>
       </c>
-      <c r="M118">
-        <v>2.6</v>
-      </c>
-      <c r="N118">
-        <v>1.909</v>
-      </c>
-      <c r="O118">
-        <v>3.2</v>
-      </c>
-      <c r="P118">
-        <v>3.6</v>
-      </c>
-      <c r="Q118">
-        <v>-0.5</v>
-      </c>
-      <c r="R118">
-        <v>2</v>
-      </c>
-      <c r="S118">
-        <v>1.8</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X118">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
@@ -11036,13 +11036,13 @@
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7387211</v>
+        <v>7387942</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11151,61 +11151,61 @@
         <v>45224.75</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K120">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M120">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N120">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O120">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q120">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11214,13 +11214,13 @@
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11243,7 +11243,7 @@
         <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11329,7 +11329,7 @@
         <v>45224.875</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>49</v>
@@ -11673,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7400385</v>
+        <v>7400382</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11685,76 +11685,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F126" t="s">
+        <v>45</v>
+      </c>
+      <c r="G126" t="s">
         <v>33</v>
       </c>
-      <c r="G126" t="s">
-        <v>31</v>
-      </c>
       <c r="H126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K126">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L126">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N126">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O126">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P126">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q126">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
+        <v>2</v>
+      </c>
+      <c r="V126">
         <v>1.8</v>
       </c>
-      <c r="V126">
-        <v>2</v>
-      </c>
       <c r="W126">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
         <v>0.8</v>
-      </c>
-      <c r="AC126">
-        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11851,7 +11851,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7400382</v>
+        <v>7400385</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11863,76 +11863,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H128">
+        <v>4</v>
+      </c>
+      <c r="I128">
         <v>0</v>
       </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
       <c r="J128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K128">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N128">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P128">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R128">
+        <v>1.825</v>
+      </c>
+      <c r="S128">
+        <v>1.975</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
         <v>1.8</v>
       </c>
-      <c r="S128">
-        <v>2</v>
-      </c>
-      <c r="T128">
-        <v>2.5</v>
-      </c>
-      <c r="U128">
-        <v>2</v>
-      </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC128">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12041,7 +12041,7 @@
         <v>45228.75</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
         <v>41</v>
@@ -12219,7 +12219,7 @@
         <v>45228.77083333334</v>
       </c>
       <c r="F132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
         <v>34</v>
@@ -12311,7 +12311,7 @@
         <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12489,7 +12489,7 @@
         <v>46</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>6</v>
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7451045</v>
+        <v>7451046</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,76 +12575,76 @@
         <v>45238.75</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K136">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L136">
         <v>3.2</v>
       </c>
       <c r="M136">
+        <v>2.2</v>
+      </c>
+      <c r="N136">
+        <v>2.2</v>
+      </c>
+      <c r="O136">
+        <v>3.3</v>
+      </c>
+      <c r="P136">
+        <v>2.8</v>
+      </c>
+      <c r="Q136">
+        <v>-0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
+        <v>1.9</v>
+      </c>
+      <c r="T136">
         <v>2.5</v>
       </c>
-      <c r="N136">
-        <v>3.2</v>
-      </c>
-      <c r="O136">
-        <v>3.4</v>
-      </c>
-      <c r="P136">
-        <v>2</v>
-      </c>
-      <c r="Q136">
-        <v>0.25</v>
-      </c>
-      <c r="R136">
-        <v>2</v>
-      </c>
-      <c r="S136">
-        <v>1.8</v>
-      </c>
-      <c r="T136">
-        <v>2.25</v>
-      </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7450477</v>
+        <v>7448182</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,13 +12664,13 @@
         <v>45238.75</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -12679,22 +12679,22 @@
         <v>52</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N137">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O137">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q137">
         <v>-1.25</v>
@@ -12706,16 +12706,16 @@
         <v>1.9</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12724,16 +12724,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12741,7 +12741,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7448182</v>
+        <v>7451058</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12753,58 +12753,58 @@
         <v>45238.75</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>3</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
         <v>52</v>
       </c>
       <c r="K138">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M138">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N138">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W138">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12813,13 +12813,13 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12919,7 +12919,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7451046</v>
+        <v>7451044</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12931,76 +12931,76 @@
         <v>45238.75</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>54</v>
       </c>
       <c r="K140">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L140">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N140">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O140">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13008,7 +13008,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7451058</v>
+        <v>7450477</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13020,58 +13020,58 @@
         <v>45238.75</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>52</v>
       </c>
       <c r="K141">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N141">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O141">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P141">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13080,16 +13080,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7451044</v>
+        <v>7451045</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,49 +13109,49 @@
         <v>45238.75</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K142">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="N142">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="O142">
         <v>3.4</v>
       </c>
       <c r="P142">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
         <v>1.8</v>
       </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
         <v>1.8</v>
@@ -13163,22 +13163,22 @@
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13468,7 +13468,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13554,7 +13554,7 @@
         <v>45249.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
         <v>37</v>
@@ -13735,7 +13735,7 @@
         <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13913,7 +13913,7 @@
         <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14088,7 +14088,7 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
         <v>42</v>
@@ -14266,7 +14266,7 @@
         <v>45256.72916666666</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G155" t="s">
         <v>37</v>
@@ -14358,7 +14358,7 @@
         <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14447,7 +14447,7 @@
         <v>48</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14533,7 +14533,7 @@
         <v>45269.70833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
         <v>32</v>
@@ -14622,7 +14622,7 @@
         <v>45270.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
         <v>48</v>
@@ -14714,7 +14714,7 @@
         <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -14800,7 +14800,7 @@
         <v>45277.70833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G161" t="s">
         <v>32</v>
@@ -14889,7 +14889,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
         <v>48</v>
@@ -14966,7 +14966,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7693875</v>
+        <v>7694909</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14978,76 +14978,76 @@
         <v>45304.75</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L163">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N163">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7694909</v>
+        <v>7693875</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45304.75</v>
       </c>
       <c r="F164" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L164">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M164">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N164">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q164">
+        <v>-0.25</v>
+      </c>
+      <c r="R164">
+        <v>1.85</v>
+      </c>
+      <c r="S164">
+        <v>1.95</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
+        <v>2</v>
+      </c>
+      <c r="V164">
+        <v>1.8</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
+        <v>2.1</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
         <v>-0.5</v>
       </c>
-      <c r="R164">
-        <v>1.975</v>
-      </c>
-      <c r="S164">
-        <v>1.825</v>
-      </c>
-      <c r="T164">
-        <v>3</v>
-      </c>
-      <c r="U164">
-        <v>1.975</v>
-      </c>
-      <c r="V164">
-        <v>1.825</v>
-      </c>
-      <c r="W164">
-        <v>0.909</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
-      <c r="Y164">
-        <v>-1</v>
-      </c>
-      <c r="Z164">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB164">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15248,7 +15248,7 @@
         <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -15426,7 +15426,7 @@
         <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15515,7 +15515,7 @@
         <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15678,7 +15678,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7726349</v>
+        <v>7726348</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15690,76 +15690,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K171">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L171">
         <v>3.3</v>
       </c>
       <c r="M171">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N171">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O171">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S171">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T171">
         <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7726352</v>
+        <v>7728658</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,76 +15779,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K172">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="L172">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M172">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N172">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="O172">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P172">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q172">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R172">
+        <v>1.85</v>
+      </c>
+      <c r="S172">
         <v>1.95</v>
       </c>
-      <c r="S172">
+      <c r="T172">
+        <v>2.25</v>
+      </c>
+      <c r="U172">
         <v>1.85</v>
       </c>
-      <c r="T172">
-        <v>3</v>
-      </c>
-      <c r="U172">
+      <c r="V172">
         <v>1.95</v>
       </c>
-      <c r="V172">
-        <v>1.85</v>
-      </c>
       <c r="W172">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC172">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7728658</v>
+        <v>7726352</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,76 +15868,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
         <v>0</v>
       </c>
-      <c r="I173">
+      <c r="J173" t="s">
+        <v>52</v>
+      </c>
+      <c r="K173">
+        <v>1.615</v>
+      </c>
+      <c r="L173">
+        <v>3.75</v>
+      </c>
+      <c r="M173">
+        <v>4.333</v>
+      </c>
+      <c r="N173">
+        <v>1.444</v>
+      </c>
+      <c r="O173">
+        <v>4</v>
+      </c>
+      <c r="P173">
+        <v>6.5</v>
+      </c>
+      <c r="Q173">
+        <v>-1.25</v>
+      </c>
+      <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>1.85</v>
+      </c>
+      <c r="T173">
         <v>3</v>
       </c>
-      <c r="J173" t="s">
-        <v>53</v>
-      </c>
-      <c r="K173">
-        <v>3.2</v>
-      </c>
-      <c r="L173">
-        <v>3</v>
-      </c>
-      <c r="M173">
-        <v>2.2</v>
-      </c>
-      <c r="N173">
-        <v>5.5</v>
-      </c>
-      <c r="O173">
-        <v>3.4</v>
-      </c>
-      <c r="P173">
-        <v>1.571</v>
-      </c>
-      <c r="Q173">
-        <v>0.75</v>
-      </c>
-      <c r="R173">
+      <c r="U173">
+        <v>1.95</v>
+      </c>
+      <c r="V173">
         <v>1.85</v>
       </c>
-      <c r="S173">
-        <v>1.95</v>
-      </c>
-      <c r="T173">
-        <v>2.25</v>
-      </c>
-      <c r="U173">
-        <v>1.85</v>
-      </c>
-      <c r="V173">
-        <v>1.95</v>
-      </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA173">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC173">
-        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7726348</v>
+        <v>7726349</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15957,76 +15957,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
         <v>0</v>
       </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
       <c r="J174" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K174">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="L174">
         <v>3.3</v>
       </c>
       <c r="M174">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N174">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P174">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R174">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V174">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16046,7 +16046,7 @@
         <v>45312.75</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G175" t="s">
         <v>45</v>
@@ -16135,7 +16135,7 @@
         <v>45312.75</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G176" t="s">
         <v>46</v>
@@ -16224,7 +16224,7 @@
         <v>45312.875</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -16313,7 +16313,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G178" t="s">
         <v>34</v>
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7749789</v>
+        <v>7749670</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,40 +16491,40 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
         <v>1</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>52</v>
       </c>
       <c r="K180">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="L180">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M180">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="N180">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O180">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
         <v>1.85</v>
@@ -16536,13 +16536,13 @@
         <v>2.5</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16551,16 +16551,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC180">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7749670</v>
+        <v>7749789</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,40 +16580,40 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>52</v>
       </c>
       <c r="K181">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M181">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="N181">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P181">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q181">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R181">
         <v>1.85</v>
@@ -16625,13 +16625,13 @@
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W181">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16640,16 +16640,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
+        <v>0.425</v>
+      </c>
+      <c r="AA181">
         <v>-0.5</v>
       </c>
-      <c r="AA181">
-        <v>0.475</v>
-      </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17280,7 +17280,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7785359</v>
+        <v>7785360</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17295,55 +17295,55 @@
         <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H189">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>52</v>
       </c>
       <c r="K189">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L189">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M189">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N189">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S189">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V189">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W189">
-        <v>0.571</v>
+        <v>0.75</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17352,13 +17352,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17369,7 +17369,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7785360</v>
+        <v>7785359</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17384,55 +17384,55 @@
         <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
         <v>52</v>
       </c>
       <c r="K190">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L190">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M190">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N190">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R190">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W190">
-        <v>0.75</v>
+        <v>0.571</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17441,13 +17441,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17470,7 +17470,7 @@
         <v>45326.875</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
         <v>39</v>
@@ -17562,7 +17562,7 @@
         <v>50</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17636,7 +17636,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7797362</v>
+        <v>7797364</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17648,10 +17648,10 @@
         <v>45329.75</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17663,43 +17663,43 @@
         <v>52</v>
       </c>
       <c r="K193">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N193">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O193">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q193">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U193">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17708,16 +17708,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA193">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17725,7 +17725,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7797364</v>
+        <v>7797362</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17737,10 +17737,10 @@
         <v>45329.75</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17752,43 +17752,43 @@
         <v>52</v>
       </c>
       <c r="K194">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L194">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M194">
+        <v>4.75</v>
+      </c>
+      <c r="N194">
+        <v>1.4</v>
+      </c>
+      <c r="O194">
+        <v>4</v>
+      </c>
+      <c r="P194">
+        <v>7</v>
+      </c>
+      <c r="Q194">
+        <v>-1.5</v>
+      </c>
+      <c r="R194">
+        <v>1.925</v>
+      </c>
+      <c r="S194">
+        <v>1.775</v>
+      </c>
+      <c r="T194">
         <v>3</v>
       </c>
-      <c r="N194">
-        <v>1.909</v>
-      </c>
-      <c r="O194">
-        <v>3.4</v>
-      </c>
-      <c r="P194">
-        <v>3.5</v>
-      </c>
-      <c r="Q194">
-        <v>-0.5</v>
-      </c>
-      <c r="R194">
-        <v>1.95</v>
-      </c>
-      <c r="S194">
-        <v>1.85</v>
-      </c>
-      <c r="T194">
-        <v>2</v>
-      </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W194">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17797,16 +17797,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17826,7 +17826,7 @@
         <v>45329.75</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
         <v>42</v>
@@ -18081,7 +18081,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7797366</v>
+        <v>7797367</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18093,13 +18093,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G198" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H198">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -18108,43 +18108,43 @@
         <v>52</v>
       </c>
       <c r="K198">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L198">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M198">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N198">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="O198">
+        <v>3.75</v>
+      </c>
+      <c r="P198">
         <v>6</v>
       </c>
-      <c r="P198">
-        <v>7.5</v>
-      </c>
       <c r="Q198">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S198">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T198">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18153,13 +18153,13 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA198">
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18170,7 +18170,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7797367</v>
+        <v>7797366</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18182,13 +18182,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H199">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -18197,43 +18197,43 @@
         <v>52</v>
       </c>
       <c r="K199">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L199">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M199">
+        <v>3.5</v>
+      </c>
+      <c r="N199">
+        <v>1.25</v>
+      </c>
+      <c r="O199">
+        <v>6</v>
+      </c>
+      <c r="P199">
+        <v>7.5</v>
+      </c>
+      <c r="Q199">
+        <v>-1.75</v>
+      </c>
+      <c r="R199">
+        <v>1.85</v>
+      </c>
+      <c r="S199">
+        <v>1.95</v>
+      </c>
+      <c r="T199">
         <v>3</v>
       </c>
-      <c r="N199">
-        <v>1.5</v>
-      </c>
-      <c r="O199">
-        <v>3.75</v>
-      </c>
-      <c r="P199">
-        <v>6</v>
-      </c>
-      <c r="Q199">
-        <v>-1</v>
-      </c>
-      <c r="R199">
-        <v>1.9</v>
-      </c>
-      <c r="S199">
-        <v>1.9</v>
-      </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W199">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18242,13 +18242,13 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC199">
         <v>-1</v>
@@ -18627,7 +18627,7 @@
         <v>45333.75</v>
       </c>
       <c r="F204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G204" t="s">
         <v>40</v>
@@ -18716,7 +18716,7 @@
         <v>45333.75</v>
       </c>
       <c r="F205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G205" t="s">
         <v>34</v>
@@ -18805,7 +18805,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
         <v>36</v>
@@ -18894,7 +18894,7 @@
         <v>45339.875</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>41</v>
@@ -19060,7 +19060,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7851261</v>
+        <v>7851263</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19072,76 +19072,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209" t="s">
+        <v>54</v>
+      </c>
+      <c r="K209">
+        <v>2.875</v>
+      </c>
+      <c r="L209">
+        <v>3.2</v>
+      </c>
+      <c r="M209">
+        <v>2.2</v>
+      </c>
+      <c r="N209">
+        <v>2.1</v>
+      </c>
+      <c r="O209">
+        <v>3.25</v>
+      </c>
+      <c r="P209">
         <v>3</v>
       </c>
-      <c r="I209">
+      <c r="Q209">
+        <v>-0.25</v>
+      </c>
+      <c r="R209">
+        <v>1.9</v>
+      </c>
+      <c r="S209">
+        <v>1.9</v>
+      </c>
+      <c r="T209">
+        <v>2</v>
+      </c>
+      <c r="U209">
+        <v>1.775</v>
+      </c>
+      <c r="V209">
+        <v>2.025</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>2.25</v>
+      </c>
+      <c r="Y209">
+        <v>-1</v>
+      </c>
+      <c r="Z209">
+        <v>-0.5</v>
+      </c>
+      <c r="AA209">
+        <v>0.45</v>
+      </c>
+      <c r="AB209">
         <v>0</v>
       </c>
-      <c r="J209" t="s">
-        <v>52</v>
-      </c>
-      <c r="K209">
-        <v>1.909</v>
-      </c>
-      <c r="L209">
-        <v>3.4</v>
-      </c>
-      <c r="M209">
-        <v>3.5</v>
-      </c>
-      <c r="N209">
-        <v>1.444</v>
-      </c>
-      <c r="O209">
-        <v>4</v>
-      </c>
-      <c r="P209">
-        <v>5.5</v>
-      </c>
-      <c r="Q209">
-        <v>-1.25</v>
-      </c>
-      <c r="R209">
-        <v>1.925</v>
-      </c>
-      <c r="S209">
-        <v>1.875</v>
-      </c>
-      <c r="T209">
-        <v>3.25</v>
-      </c>
-      <c r="U209">
-        <v>1.85</v>
-      </c>
-      <c r="V209">
-        <v>1.95</v>
-      </c>
-      <c r="W209">
-        <v>0.444</v>
-      </c>
-      <c r="X209">
-        <v>-1</v>
-      </c>
-      <c r="Y209">
-        <v>-1</v>
-      </c>
-      <c r="Z209">
-        <v>0.925</v>
-      </c>
-      <c r="AA209">
-        <v>-1</v>
-      </c>
-      <c r="AB209">
-        <v>-0.5</v>
-      </c>
       <c r="AC209">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19149,7 +19149,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7851263</v>
+        <v>7851261</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19161,76 +19161,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G210" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K210">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M210">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N210">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O210">
+        <v>4</v>
+      </c>
+      <c r="P210">
+        <v>5.5</v>
+      </c>
+      <c r="Q210">
+        <v>-1.25</v>
+      </c>
+      <c r="R210">
+        <v>1.925</v>
+      </c>
+      <c r="S210">
+        <v>1.875</v>
+      </c>
+      <c r="T210">
         <v>3.25</v>
       </c>
-      <c r="P210">
-        <v>3</v>
-      </c>
-      <c r="Q210">
-        <v>-0.25</v>
-      </c>
-      <c r="R210">
-        <v>1.9</v>
-      </c>
-      <c r="S210">
-        <v>1.9</v>
-      </c>
-      <c r="T210">
-        <v>2</v>
-      </c>
       <c r="U210">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V210">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X210">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
+        <v>0.925</v>
+      </c>
+      <c r="AA210">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
         <v>-0.5</v>
       </c>
-      <c r="AA210">
-        <v>0.45</v>
-      </c>
-      <c r="AB210">
-        <v>0</v>
-      </c>
       <c r="AC210">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19339,7 +19339,7 @@
         <v>45340.75</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G212" t="s">
         <v>48</v>
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7864156</v>
+        <v>7864114</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,76 +19517,76 @@
         <v>45343.75</v>
       </c>
       <c r="F214" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K214">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M214">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N214">
-        <v>1.952</v>
+        <v>1.571</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P214">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V214">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W214">
-        <v>0.952</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7864114</v>
+        <v>7864156</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,76 +19606,76 @@
         <v>45343.75</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K215">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L215">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M215">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N215">
-        <v>1.571</v>
+        <v>1.952</v>
       </c>
       <c r="O215">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P215">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
         <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V215">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>0.952</v>
       </c>
       <c r="X215">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA215">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19698,7 +19698,7 @@
         <v>45</v>
       </c>
       <c r="G216" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7864116</v>
+        <v>7864117</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,34 +19784,34 @@
         <v>45343.95833333334</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H217">
         <v>3</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K217">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L217">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M217">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N217">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O217">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P217">
         <v>6</v>
@@ -19820,13 +19820,13 @@
         <v>-1.25</v>
       </c>
       <c r="R217">
+        <v>1.75</v>
+      </c>
+      <c r="S217">
         <v>1.95</v>
       </c>
-      <c r="S217">
-        <v>1.85</v>
-      </c>
       <c r="T217">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U217">
         <v>1.8</v>
@@ -19835,25 +19835,25 @@
         <v>2</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X217">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA217">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7864117</v>
+        <v>7864116</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,34 +19873,34 @@
         <v>45343.95833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H218">
         <v>3</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K218">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L218">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M218">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N218">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O218">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P218">
         <v>6</v>
@@ -19909,13 +19909,13 @@
         <v>-1.25</v>
       </c>
       <c r="R218">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S218">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T218">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
         <v>1.8</v>
@@ -19924,25 +19924,25 @@
         <v>2</v>
       </c>
       <c r="W218">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB218">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC218">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19962,7 +19962,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G219" t="s">
         <v>51</v>
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7881215</v>
+        <v>7881214</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,40 +20140,40 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K221">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L221">
         <v>3.2</v>
       </c>
       <c r="M221">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N221">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O221">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P221">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
         <v>1.775</v>
@@ -20182,7 +20182,7 @@
         <v>2.025</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
         <v>2</v>
@@ -20191,25 +20191,25 @@
         <v>1.8</v>
       </c>
       <c r="W221">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z221">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC221">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7881214</v>
+        <v>7881213</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,76 +20229,76 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G222" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H222">
+        <v>4</v>
+      </c>
+      <c r="I222">
         <v>1</v>
       </c>
-      <c r="I222">
-        <v>2</v>
-      </c>
       <c r="J222" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K222">
         <v>2.5</v>
       </c>
       <c r="L222">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M222">
+        <v>2.375</v>
+      </c>
+      <c r="N222">
+        <v>1.615</v>
+      </c>
+      <c r="O222">
+        <v>3.6</v>
+      </c>
+      <c r="P222">
+        <v>4.333</v>
+      </c>
+      <c r="Q222">
+        <v>-0.75</v>
+      </c>
+      <c r="R222">
+        <v>1.85</v>
+      </c>
+      <c r="S222">
+        <v>1.95</v>
+      </c>
+      <c r="T222">
         <v>2.5</v>
       </c>
-      <c r="N222">
-        <v>1.727</v>
-      </c>
-      <c r="O222">
-        <v>3.5</v>
-      </c>
-      <c r="P222">
-        <v>4</v>
-      </c>
-      <c r="Q222">
-        <v>-0.5</v>
-      </c>
-      <c r="R222">
-        <v>1.775</v>
-      </c>
-      <c r="S222">
-        <v>2.025</v>
-      </c>
-      <c r="T222">
-        <v>2.75</v>
-      </c>
       <c r="U222">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V222">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA222">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7881213</v>
+        <v>7881215</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,58 +20318,58 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F223" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G223" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H223">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
         <v>52</v>
       </c>
       <c r="K223">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M223">
+        <v>2.2</v>
+      </c>
+      <c r="N223">
         <v>2.375</v>
       </c>
-      <c r="N223">
-        <v>1.615</v>
-      </c>
       <c r="O223">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P223">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S223">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T223">
         <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V223">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W223">
-        <v>0.615</v>
+        <v>1.375</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20378,16 +20378,16 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20407,7 +20407,7 @@
         <v>45347.75</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G224" t="s">
         <v>47</v>
@@ -20496,7 +20496,7 @@
         <v>45347.875</v>
       </c>
       <c r="F225" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G225" t="s">
         <v>49</v>
@@ -20941,7 +20941,7 @@
         <v>45354.75</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G230" t="s">
         <v>49</v>
@@ -21030,7 +21030,7 @@
         <v>45354.75</v>
       </c>
       <c r="F231" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G231" t="s">
         <v>36</v>
@@ -21119,7 +21119,7 @@
         <v>45354.91666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
         <v>46</v>
@@ -21285,7 +21285,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7921262</v>
+        <v>7921493</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21297,76 +21297,76 @@
         <v>45357.75</v>
       </c>
       <c r="F234" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234">
         <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K234">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L234">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M234">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N234">
+        <v>1.615</v>
+      </c>
+      <c r="O234">
+        <v>3.5</v>
+      </c>
+      <c r="P234">
+        <v>5</v>
+      </c>
+      <c r="Q234">
+        <v>-0.75</v>
+      </c>
+      <c r="R234">
+        <v>1.825</v>
+      </c>
+      <c r="S234">
+        <v>1.975</v>
+      </c>
+      <c r="T234">
+        <v>2.25</v>
+      </c>
+      <c r="U234">
+        <v>2</v>
+      </c>
+      <c r="V234">
         <v>1.8</v>
       </c>
-      <c r="O234">
-        <v>3.75</v>
-      </c>
-      <c r="P234">
-        <v>3.6</v>
-      </c>
-      <c r="Q234">
+      <c r="W234">
+        <v>0.615</v>
+      </c>
+      <c r="X234">
+        <v>-1</v>
+      </c>
+      <c r="Y234">
+        <v>-1</v>
+      </c>
+      <c r="Z234">
+        <v>0.825</v>
+      </c>
+      <c r="AA234">
+        <v>-1</v>
+      </c>
+      <c r="AB234">
         <v>-0.5</v>
       </c>
-      <c r="R234">
-        <v>1.85</v>
-      </c>
-      <c r="S234">
-        <v>1.95</v>
-      </c>
-      <c r="T234">
-        <v>2.75</v>
-      </c>
-      <c r="U234">
-        <v>1.8</v>
-      </c>
-      <c r="V234">
-        <v>2</v>
-      </c>
-      <c r="W234">
-        <v>-1</v>
-      </c>
-      <c r="X234">
-        <v>2.75</v>
-      </c>
-      <c r="Y234">
-        <v>-1</v>
-      </c>
-      <c r="Z234">
-        <v>-1</v>
-      </c>
-      <c r="AA234">
-        <v>0.95</v>
-      </c>
-      <c r="AB234">
-        <v>-1</v>
-      </c>
       <c r="AC234">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21374,7 +21374,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7921263</v>
+        <v>7921262</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21386,37 +21386,37 @@
         <v>45357.75</v>
       </c>
       <c r="F235" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G235" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K235">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L235">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M235">
+        <v>1.909</v>
+      </c>
+      <c r="N235">
         <v>1.8</v>
       </c>
-      <c r="N235">
-        <v>1.833</v>
-      </c>
       <c r="O235">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P235">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q235">
         <v>-0.5</v>
@@ -21428,34 +21428,34 @@
         <v>1.95</v>
       </c>
       <c r="T235">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V235">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W235">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
         <v>1</v>
-      </c>
-      <c r="AC235">
-        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7921493</v>
+        <v>7921263</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,49 +21475,49 @@
         <v>45357.75</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G236" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
         <v>52</v>
       </c>
       <c r="K236">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="L236">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M236">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="N236">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O236">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P236">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U236">
         <v>2</v>
@@ -21526,7 +21526,7 @@
         <v>1.8</v>
       </c>
       <c r="W236">
-        <v>0.615</v>
+        <v>0.833</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21535,16 +21535,16 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA236">
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC236">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21567,7 +21567,7 @@
         <v>45</v>
       </c>
       <c r="G237" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H237">
         <v>3</v>
@@ -21656,7 +21656,7 @@
         <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H238">
         <v>3</v>
@@ -21723,6 +21723,629 @@
       </c>
       <c r="AC238">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>7936807</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45360.95833333334</v>
+      </c>
+      <c r="F239" t="s">
+        <v>42</v>
+      </c>
+      <c r="G239" t="s">
+        <v>45</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239" t="s">
+        <v>52</v>
+      </c>
+      <c r="K239">
+        <v>2.2</v>
+      </c>
+      <c r="L239">
+        <v>3.2</v>
+      </c>
+      <c r="M239">
+        <v>2.9</v>
+      </c>
+      <c r="N239">
+        <v>1.8</v>
+      </c>
+      <c r="O239">
+        <v>3.4</v>
+      </c>
+      <c r="P239">
+        <v>3.8</v>
+      </c>
+      <c r="Q239">
+        <v>-0.5</v>
+      </c>
+      <c r="R239">
+        <v>1.825</v>
+      </c>
+      <c r="S239">
+        <v>1.975</v>
+      </c>
+      <c r="T239">
+        <v>2.25</v>
+      </c>
+      <c r="U239">
+        <v>1.9</v>
+      </c>
+      <c r="V239">
+        <v>1.9</v>
+      </c>
+      <c r="W239">
+        <v>0.8</v>
+      </c>
+      <c r="X239">
+        <v>-1</v>
+      </c>
+      <c r="Y239">
+        <v>-1</v>
+      </c>
+      <c r="Z239">
+        <v>0.825</v>
+      </c>
+      <c r="AA239">
+        <v>-1</v>
+      </c>
+      <c r="AB239">
+        <v>-1</v>
+      </c>
+      <c r="AC239">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>7941300</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45361.58333333334</v>
+      </c>
+      <c r="F240" t="s">
+        <v>34</v>
+      </c>
+      <c r="G240" t="s">
+        <v>33</v>
+      </c>
+      <c r="H240">
+        <v>2</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240" t="s">
+        <v>52</v>
+      </c>
+      <c r="K240">
+        <v>4</v>
+      </c>
+      <c r="L240">
+        <v>3.5</v>
+      </c>
+      <c r="M240">
+        <v>1.727</v>
+      </c>
+      <c r="N240">
+        <v>8</v>
+      </c>
+      <c r="O240">
+        <v>5.25</v>
+      </c>
+      <c r="P240">
+        <v>1.25</v>
+      </c>
+      <c r="Q240">
+        <v>1.75</v>
+      </c>
+      <c r="R240">
+        <v>1.875</v>
+      </c>
+      <c r="S240">
+        <v>1.925</v>
+      </c>
+      <c r="T240">
+        <v>3</v>
+      </c>
+      <c r="U240">
+        <v>1.825</v>
+      </c>
+      <c r="V240">
+        <v>1.975</v>
+      </c>
+      <c r="W240">
+        <v>7</v>
+      </c>
+      <c r="X240">
+        <v>-1</v>
+      </c>
+      <c r="Y240">
+        <v>-1</v>
+      </c>
+      <c r="Z240">
+        <v>0.875</v>
+      </c>
+      <c r="AA240">
+        <v>-1</v>
+      </c>
+      <c r="AB240">
+        <v>-1</v>
+      </c>
+      <c r="AC240">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>7941222</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45361.58333333334</v>
+      </c>
+      <c r="F241" t="s">
+        <v>47</v>
+      </c>
+      <c r="G241" t="s">
+        <v>36</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>3</v>
+      </c>
+      <c r="J241" t="s">
+        <v>53</v>
+      </c>
+      <c r="K241">
+        <v>1.909</v>
+      </c>
+      <c r="L241">
+        <v>3.3</v>
+      </c>
+      <c r="M241">
+        <v>3.5</v>
+      </c>
+      <c r="N241">
+        <v>1.75</v>
+      </c>
+      <c r="O241">
+        <v>3.5</v>
+      </c>
+      <c r="P241">
+        <v>3.8</v>
+      </c>
+      <c r="Q241">
+        <v>-0.5</v>
+      </c>
+      <c r="R241">
+        <v>1.8</v>
+      </c>
+      <c r="S241">
+        <v>2</v>
+      </c>
+      <c r="T241">
+        <v>2.5</v>
+      </c>
+      <c r="U241">
+        <v>1.975</v>
+      </c>
+      <c r="V241">
+        <v>1.825</v>
+      </c>
+      <c r="W241">
+        <v>-1</v>
+      </c>
+      <c r="X241">
+        <v>-1</v>
+      </c>
+      <c r="Y241">
+        <v>2.8</v>
+      </c>
+      <c r="Z241">
+        <v>-1</v>
+      </c>
+      <c r="AA241">
+        <v>1</v>
+      </c>
+      <c r="AB241">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC241">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>7941221</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45361.58333333334</v>
+      </c>
+      <c r="F242" t="s">
+        <v>41</v>
+      </c>
+      <c r="G242" t="s">
+        <v>40</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242" t="s">
+        <v>54</v>
+      </c>
+      <c r="K242">
+        <v>2.875</v>
+      </c>
+      <c r="L242">
+        <v>3.25</v>
+      </c>
+      <c r="M242">
+        <v>2.2</v>
+      </c>
+      <c r="N242">
+        <v>1.8</v>
+      </c>
+      <c r="O242">
+        <v>3.5</v>
+      </c>
+      <c r="P242">
+        <v>3.8</v>
+      </c>
+      <c r="Q242">
+        <v>-0.5</v>
+      </c>
+      <c r="R242">
+        <v>1.85</v>
+      </c>
+      <c r="S242">
+        <v>1.95</v>
+      </c>
+      <c r="T242">
+        <v>2.5</v>
+      </c>
+      <c r="U242">
+        <v>1.95</v>
+      </c>
+      <c r="V242">
+        <v>1.85</v>
+      </c>
+      <c r="W242">
+        <v>-1</v>
+      </c>
+      <c r="X242">
+        <v>2.5</v>
+      </c>
+      <c r="Y242">
+        <v>-1</v>
+      </c>
+      <c r="Z242">
+        <v>-1</v>
+      </c>
+      <c r="AA242">
+        <v>0.95</v>
+      </c>
+      <c r="AB242">
+        <v>-1</v>
+      </c>
+      <c r="AC242">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>7941223</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45361.75</v>
+      </c>
+      <c r="F243" t="s">
+        <v>43</v>
+      </c>
+      <c r="G243" t="s">
+        <v>32</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243" t="s">
+        <v>54</v>
+      </c>
+      <c r="K243">
+        <v>1.909</v>
+      </c>
+      <c r="L243">
+        <v>3.5</v>
+      </c>
+      <c r="M243">
+        <v>3.4</v>
+      </c>
+      <c r="N243">
+        <v>1.95</v>
+      </c>
+      <c r="O243">
+        <v>3.4</v>
+      </c>
+      <c r="P243">
+        <v>3.3</v>
+      </c>
+      <c r="Q243">
+        <v>-0.5</v>
+      </c>
+      <c r="R243">
+        <v>2</v>
+      </c>
+      <c r="S243">
+        <v>1.8</v>
+      </c>
+      <c r="T243">
+        <v>2.25</v>
+      </c>
+      <c r="U243">
+        <v>1.8</v>
+      </c>
+      <c r="V243">
+        <v>2</v>
+      </c>
+      <c r="W243">
+        <v>-1</v>
+      </c>
+      <c r="X243">
+        <v>2.4</v>
+      </c>
+      <c r="Y243">
+        <v>-1</v>
+      </c>
+      <c r="Z243">
+        <v>-1</v>
+      </c>
+      <c r="AA243">
+        <v>0.8</v>
+      </c>
+      <c r="AB243">
+        <v>-1</v>
+      </c>
+      <c r="AC243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>7941224</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45361.75</v>
+      </c>
+      <c r="F244" t="s">
+        <v>44</v>
+      </c>
+      <c r="G244" t="s">
+        <v>51</v>
+      </c>
+      <c r="H244">
+        <v>2</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244" t="s">
+        <v>52</v>
+      </c>
+      <c r="K244">
+        <v>1.8</v>
+      </c>
+      <c r="L244">
+        <v>3.3</v>
+      </c>
+      <c r="M244">
+        <v>4</v>
+      </c>
+      <c r="N244">
+        <v>1.3</v>
+      </c>
+      <c r="O244">
+        <v>4.75</v>
+      </c>
+      <c r="P244">
+        <v>8.5</v>
+      </c>
+      <c r="Q244">
+        <v>-1.5</v>
+      </c>
+      <c r="R244">
+        <v>1.9</v>
+      </c>
+      <c r="S244">
+        <v>1.9</v>
+      </c>
+      <c r="T244">
+        <v>2.75</v>
+      </c>
+      <c r="U244">
+        <v>1.95</v>
+      </c>
+      <c r="V244">
+        <v>1.85</v>
+      </c>
+      <c r="W244">
+        <v>0.3</v>
+      </c>
+      <c r="X244">
+        <v>-1</v>
+      </c>
+      <c r="Y244">
+        <v>-1</v>
+      </c>
+      <c r="Z244">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA244">
+        <v>-1</v>
+      </c>
+      <c r="AB244">
+        <v>-1</v>
+      </c>
+      <c r="AC244">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>7941661</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45361.91666666666</v>
+      </c>
+      <c r="F245" t="s">
+        <v>35</v>
+      </c>
+      <c r="G245" t="s">
+        <v>38</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245" t="s">
+        <v>54</v>
+      </c>
+      <c r="K245">
+        <v>1.533</v>
+      </c>
+      <c r="L245">
+        <v>4</v>
+      </c>
+      <c r="M245">
+        <v>5</v>
+      </c>
+      <c r="N245">
+        <v>1.333</v>
+      </c>
+      <c r="O245">
+        <v>5</v>
+      </c>
+      <c r="P245">
+        <v>6.5</v>
+      </c>
+      <c r="Q245">
+        <v>-1.5</v>
+      </c>
+      <c r="R245">
+        <v>1.95</v>
+      </c>
+      <c r="S245">
+        <v>1.85</v>
+      </c>
+      <c r="T245">
+        <v>2.75</v>
+      </c>
+      <c r="U245">
+        <v>1.9</v>
+      </c>
+      <c r="V245">
+        <v>1.9</v>
+      </c>
+      <c r="W245">
+        <v>-1</v>
+      </c>
+      <c r="X245">
+        <v>4</v>
+      </c>
+      <c r="Y245">
+        <v>-1</v>
+      </c>
+      <c r="Z245">
+        <v>-1</v>
+      </c>
+      <c r="AA245">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB245">
+        <v>-1</v>
+      </c>
+      <c r="AC245">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Guatemala Primera Division/Guatemala Primera Division.xlsx
+++ b/Guatemala Primera Division/Guatemala Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC260"/>
+  <dimension ref="A1:AC262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7060394</v>
+        <v>7060342</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,76 +2429,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P22">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2595,7 +2595,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7060342</v>
+        <v>7060394</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2607,76 +2607,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K24">
+        <v>1.615</v>
+      </c>
+      <c r="L24">
+        <v>3.5</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>1.666</v>
+      </c>
+      <c r="O24">
         <v>3.3</v>
       </c>
-      <c r="L24">
-        <v>3.2</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24">
-        <v>2.8</v>
-      </c>
-      <c r="O24">
-        <v>3.1</v>
-      </c>
       <c r="P24">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3129,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7072543</v>
+        <v>7072459</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3141,76 +3141,76 @@
         <v>45154.75</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30">
+        <v>2.5</v>
+      </c>
+      <c r="O30">
+        <v>2.8</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>1.725</v>
+      </c>
+      <c r="S30">
+        <v>2.075</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>1.85</v>
+      </c>
+      <c r="V30">
+        <v>1.95</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
         <v>1.8</v>
       </c>
-      <c r="O30">
-        <v>3.2</v>
-      </c>
-      <c r="P30">
-        <v>4</v>
-      </c>
-      <c r="Q30">
-        <v>-0.5</v>
-      </c>
-      <c r="R30">
-        <v>1.85</v>
-      </c>
-      <c r="S30">
-        <v>1.95</v>
-      </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
-      <c r="V30">
-        <v>1.725</v>
-      </c>
-      <c r="W30">
-        <v>0.8</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3218,7 +3218,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7072542</v>
+        <v>7072543</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3230,10 +3230,10 @@
         <v>45154.75</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3245,43 +3245,43 @@
         <v>52</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L31">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P31">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W31">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3290,13 +3290,13 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3307,7 +3307,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7072459</v>
+        <v>7072448</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3319,10 +3319,10 @@
         <v>45154.75</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3334,61 +3334,61 @@
         <v>54</v>
       </c>
       <c r="K32">
+        <v>1.727</v>
+      </c>
+      <c r="L32">
+        <v>3.5</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>1.6</v>
+      </c>
+      <c r="O32">
+        <v>3.6</v>
+      </c>
+      <c r="P32">
+        <v>4.75</v>
+      </c>
+      <c r="Q32">
+        <v>-0.75</v>
+      </c>
+      <c r="R32">
+        <v>1.8</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
         <v>2.25</v>
       </c>
-      <c r="L32">
-        <v>3</v>
-      </c>
-      <c r="M32">
-        <v>3</v>
-      </c>
-      <c r="N32">
-        <v>2.5</v>
-      </c>
-      <c r="O32">
-        <v>2.8</v>
-      </c>
-      <c r="P32">
-        <v>3</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>1.725</v>
-      </c>
-      <c r="S32">
-        <v>2.075</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
       <c r="U32">
+        <v>1.95</v>
+      </c>
+      <c r="V32">
         <v>1.85</v>
       </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7072448</v>
+        <v>7072542</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,34 +3408,34 @@
         <v>45154.75</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L33">
+        <v>3.25</v>
+      </c>
+      <c r="M33">
         <v>3.5</v>
       </c>
-      <c r="M33">
-        <v>4</v>
-      </c>
       <c r="N33">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P33">
         <v>4.75</v>
@@ -3444,40 +3444,40 @@
         <v>-0.75</v>
       </c>
       <c r="R33">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
+        <v>1.85</v>
+      </c>
+      <c r="V33">
         <v>1.95</v>
       </c>
-      <c r="V33">
-        <v>1.85</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X33">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB33">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC33">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3752,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7106041</v>
+        <v>7106174</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3764,76 +3764,76 @@
         <v>45161.75</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>3.5</v>
+      </c>
+      <c r="N37">
+        <v>1.75</v>
+      </c>
+      <c r="O37">
+        <v>3.1</v>
+      </c>
+      <c r="P37">
+        <v>4.333</v>
+      </c>
+      <c r="Q37">
+        <v>-0.5</v>
+      </c>
+      <c r="R37">
+        <v>1.85</v>
+      </c>
+      <c r="S37">
+        <v>1.95</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>1.85</v>
+      </c>
+      <c r="V37">
+        <v>1.95</v>
+      </c>
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>2.1</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
+        <v>0.95</v>
+      </c>
+      <c r="AB37">
         <v>0</v>
       </c>
-      <c r="J37" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37">
-        <v>2.75</v>
-      </c>
-      <c r="L37">
-        <v>3.2</v>
-      </c>
-      <c r="M37">
-        <v>2.3</v>
-      </c>
-      <c r="N37">
-        <v>2.3</v>
-      </c>
-      <c r="O37">
-        <v>3</v>
-      </c>
-      <c r="P37">
-        <v>2.875</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>1.75</v>
-      </c>
-      <c r="S37">
-        <v>2.05</v>
-      </c>
-      <c r="T37">
-        <v>2</v>
-      </c>
-      <c r="U37">
-        <v>1.925</v>
-      </c>
-      <c r="V37">
-        <v>1.875</v>
-      </c>
-      <c r="W37">
-        <v>1.3</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>0.75</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7106174</v>
+        <v>7106041</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3942,76 +3942,76 @@
         <v>45161.75</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L39">
+        <v>3.2</v>
+      </c>
+      <c r="M39">
+        <v>2.3</v>
+      </c>
+      <c r="N39">
+        <v>2.3</v>
+      </c>
+      <c r="O39">
         <v>3</v>
       </c>
-      <c r="M39">
-        <v>3.5</v>
-      </c>
-      <c r="N39">
+      <c r="P39">
+        <v>2.875</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
         <v>1.75</v>
       </c>
-      <c r="O39">
-        <v>3.1</v>
-      </c>
-      <c r="P39">
-        <v>4.333</v>
-      </c>
-      <c r="Q39">
-        <v>-0.5</v>
-      </c>
-      <c r="R39">
-        <v>1.85</v>
-      </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T39">
         <v>2</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X39">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4197,7 +4197,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7107133</v>
+        <v>7107137</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4209,40 +4209,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>1.45</v>
+      </c>
+      <c r="O42">
         <v>4</v>
       </c>
-      <c r="N42">
-        <v>1.85</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
       <c r="P42">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R42">
         <v>1.9</v>
@@ -4251,34 +4251,34 @@
         <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7107137</v>
+        <v>7107133</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4298,40 +4298,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43">
+        <v>1.8</v>
+      </c>
+      <c r="L43">
+        <v>3.2</v>
+      </c>
+      <c r="M43">
         <v>4</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43">
-        <v>2.1</v>
-      </c>
-      <c r="L43">
-        <v>3.3</v>
-      </c>
-      <c r="M43">
+      <c r="N43">
+        <v>1.85</v>
+      </c>
+      <c r="O43">
         <v>3</v>
       </c>
-      <c r="N43">
-        <v>1.45</v>
-      </c>
-      <c r="O43">
-        <v>4</v>
-      </c>
       <c r="P43">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
         <v>1.9</v>
@@ -4340,34 +4340,34 @@
         <v>1.9</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
       <c r="AB43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7158508</v>
+        <v>7158507</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5633,58 +5633,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>52</v>
       </c>
       <c r="K58">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L58">
         <v>3.2</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N58">
-        <v>1.55</v>
+        <v>1.615</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q58">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S58">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>0.55</v>
+        <v>0.615</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5693,16 +5693,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA58">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7158507</v>
+        <v>7158508</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5722,58 +5722,58 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>52</v>
       </c>
       <c r="K59">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L59">
         <v>3.2</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N59">
-        <v>1.615</v>
+        <v>1.55</v>
       </c>
       <c r="O59">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>0.615</v>
+        <v>0.55</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5782,16 +5782,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7189246</v>
+        <v>7189791</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,40 +6256,40 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>3</v>
-      </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K65">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N65">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O65">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P65">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
         <v>1.825</v>
@@ -6301,28 +6301,28 @@
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA65">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6422,7 +6422,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7189791</v>
+        <v>7189246</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6434,40 +6434,40 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K67">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L67">
+        <v>3.5</v>
+      </c>
+      <c r="M67">
         <v>4</v>
       </c>
-      <c r="M67">
-        <v>1.833</v>
-      </c>
       <c r="N67">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P67">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
         <v>1.825</v>
@@ -6479,28 +6479,28 @@
         <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB67">
         <v>0.825</v>
-      </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
-      <c r="AB67">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6867,7 +6867,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7203437</v>
+        <v>7203472</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6879,46 +6879,46 @@
         <v>45182.75</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>52</v>
       </c>
       <c r="K72">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L72">
         <v>3.2</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N72">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O72">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
         <v>2.5</v>
@@ -6927,10 +6927,10 @@
         <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6939,10 +6939,10 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
         <v>0.95</v>
@@ -6956,7 +6956,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7203452</v>
+        <v>7203437</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6968,13 +6968,13 @@
         <v>45182.75</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6983,40 +6983,40 @@
         <v>52</v>
       </c>
       <c r="K73">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L73">
+        <v>3.2</v>
+      </c>
+      <c r="M73">
         <v>4</v>
-      </c>
-      <c r="M73">
-        <v>7</v>
       </c>
       <c r="N73">
         <v>1.363</v>
       </c>
       <c r="O73">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q73">
         <v>-1.25</v>
       </c>
       <c r="R73">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W73">
         <v>0.363</v>
@@ -7028,16 +7028,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7045,7 +7045,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7203472</v>
+        <v>7203452</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7057,58 +7057,58 @@
         <v>45182.75</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L74">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N74">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P74">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7117,16 +7117,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7579,7 +7579,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7223342</v>
+        <v>7223489</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7591,76 +7591,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K80">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L80">
         <v>3.2</v>
       </c>
       <c r="M80">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N80">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O80">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q80">
+        <v>-0.75</v>
+      </c>
+      <c r="R80">
+        <v>1.9</v>
+      </c>
+      <c r="S80">
+        <v>1.9</v>
+      </c>
+      <c r="T80">
+        <v>2.25</v>
+      </c>
+      <c r="U80">
+        <v>1.85</v>
+      </c>
+      <c r="V80">
+        <v>1.95</v>
+      </c>
+      <c r="W80">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>-1</v>
+      </c>
+      <c r="Z80">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>-0.5</v>
       </c>
-      <c r="R80">
-        <v>1.85</v>
-      </c>
-      <c r="S80">
-        <v>1.95</v>
-      </c>
-      <c r="T80">
-        <v>2</v>
-      </c>
-      <c r="U80">
-        <v>1.975</v>
-      </c>
-      <c r="V80">
-        <v>1.825</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>3.75</v>
-      </c>
-      <c r="Z80">
-        <v>-1</v>
-      </c>
-      <c r="AA80">
-        <v>0.95</v>
-      </c>
-      <c r="AB80">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7668,7 +7668,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7223489</v>
+        <v>7223342</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7680,76 +7680,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K81">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L81">
         <v>3.2</v>
       </c>
       <c r="M81">
+        <v>4</v>
+      </c>
+      <c r="N81">
+        <v>1.8</v>
+      </c>
+      <c r="O81">
+        <v>3</v>
+      </c>
+      <c r="P81">
+        <v>4.75</v>
+      </c>
+      <c r="Q81">
+        <v>-0.5</v>
+      </c>
+      <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
+        <v>1.95</v>
+      </c>
+      <c r="T81">
+        <v>2</v>
+      </c>
+      <c r="U81">
+        <v>1.975</v>
+      </c>
+      <c r="V81">
+        <v>1.825</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
         <v>3.75</v>
       </c>
-      <c r="N81">
-        <v>1.666</v>
-      </c>
-      <c r="O81">
-        <v>3.4</v>
-      </c>
-      <c r="P81">
-        <v>4.5</v>
-      </c>
-      <c r="Q81">
-        <v>-0.75</v>
-      </c>
-      <c r="R81">
-        <v>1.9</v>
-      </c>
-      <c r="S81">
-        <v>1.9</v>
-      </c>
-      <c r="T81">
-        <v>2.25</v>
-      </c>
-      <c r="U81">
-        <v>1.85</v>
-      </c>
-      <c r="V81">
-        <v>1.95</v>
-      </c>
-      <c r="W81">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
       <c r="Z81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8113,7 +8113,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7249817</v>
+        <v>7249832</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8125,13 +8125,13 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8140,43 +8140,43 @@
         <v>52</v>
       </c>
       <c r="K86">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M86">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="N86">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="O86">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q86">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>0.25</v>
+        <v>1.55</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8185,16 +8185,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8202,7 +8202,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7249832</v>
+        <v>7249817</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8214,13 +8214,13 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -8229,43 +8229,43 @@
         <v>52</v>
       </c>
       <c r="K87">
-        <v>3.25</v>
+        <v>1.363</v>
       </c>
       <c r="L87">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="N87">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="O87">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P87">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>1.55</v>
+        <v>0.25</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8274,16 +8274,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8291,7 +8291,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7249833</v>
+        <v>7249890</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8303,76 +8303,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K88">
         <v>2.75</v>
       </c>
       <c r="L88">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M88">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N88">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
         <v>3.25</v>
       </c>
       <c r="P88">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
+        <v>1.95</v>
+      </c>
+      <c r="S88">
         <v>1.85</v>
-      </c>
-      <c r="S88">
-        <v>1.95</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
+        <v>1.95</v>
+      </c>
+      <c r="V88">
         <v>1.85</v>
       </c>
-      <c r="V88">
-        <v>1.95</v>
-      </c>
       <c r="W88">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
       <c r="AB88">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8380,7 +8380,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7249890</v>
+        <v>7249833</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8392,76 +8392,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K89">
         <v>2.75</v>
       </c>
       <c r="L89">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N89">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O89">
         <v>3.25</v>
       </c>
       <c r="P89">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
+        <v>1.85</v>
+      </c>
+      <c r="S89">
         <v>1.95</v>
-      </c>
-      <c r="S89">
-        <v>1.85</v>
       </c>
       <c r="T89">
         <v>2.25</v>
       </c>
       <c r="U89">
+        <v>1.85</v>
+      </c>
+      <c r="V89">
         <v>1.95</v>
       </c>
-      <c r="V89">
-        <v>1.85</v>
-      </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X89">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB89">
-        <v>-0.5</v>
-      </c>
       <c r="AC89">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8914,7 +8914,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7265139</v>
+        <v>7265138</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8926,16 +8926,16 @@
         <v>45196.75</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>54</v>
@@ -8944,43 +8944,43 @@
         <v>2</v>
       </c>
       <c r="L95">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N95">
+        <v>1.65</v>
+      </c>
+      <c r="O95">
+        <v>3.6</v>
+      </c>
+      <c r="P95">
+        <v>4.5</v>
+      </c>
+      <c r="Q95">
+        <v>-0.75</v>
+      </c>
+      <c r="R95">
+        <v>1.8</v>
+      </c>
+      <c r="S95">
+        <v>2</v>
+      </c>
+      <c r="T95">
+        <v>2.75</v>
+      </c>
+      <c r="U95">
         <v>1.95</v>
       </c>
-      <c r="O95">
-        <v>2.9</v>
-      </c>
-      <c r="P95">
-        <v>4.2</v>
-      </c>
-      <c r="Q95">
-        <v>-0.5</v>
-      </c>
-      <c r="R95">
-        <v>1.975</v>
-      </c>
-      <c r="S95">
-        <v>1.725</v>
-      </c>
-      <c r="T95">
-        <v>2</v>
-      </c>
-      <c r="U95">
-        <v>1.775</v>
-      </c>
       <c r="V95">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y95">
         <v>-1</v>
@@ -8989,13 +8989,13 @@
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7265138</v>
+        <v>7265139</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,16 +9015,16 @@
         <v>45196.75</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>54</v>
@@ -9033,43 +9033,43 @@
         <v>2</v>
       </c>
       <c r="L96">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M96">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P96">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y96">
         <v>-1</v>
@@ -9078,13 +9078,13 @@
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9626,7 +9626,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7281783</v>
+        <v>7281758</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9638,16 +9638,16 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>52</v>
@@ -9662,34 +9662,34 @@
         <v>3.75</v>
       </c>
       <c r="N103">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q103">
         <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
         <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9698,16 +9698,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC103">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9804,7 +9804,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7281758</v>
+        <v>7281782</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9816,73 +9816,73 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K105">
+        <v>2.5</v>
+      </c>
+      <c r="L105">
+        <v>3.3</v>
+      </c>
+      <c r="M105">
+        <v>2.5</v>
+      </c>
+      <c r="N105">
         <v>1.909</v>
       </c>
-      <c r="L105">
-        <v>3.2</v>
-      </c>
-      <c r="M105">
-        <v>3.75</v>
-      </c>
-      <c r="N105">
-        <v>1.8</v>
-      </c>
       <c r="O105">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q105">
         <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB105">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9982,7 +9982,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7281782</v>
+        <v>7281783</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9994,37 +9994,37 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K107">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L107">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N107">
         <v>1.909</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
@@ -10036,34 +10036,34 @@
         <v>1.85</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10694,7 +10694,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7372552</v>
+        <v>7373217</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10706,40 +10706,40 @@
         <v>45221.75</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K115">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M115">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N115">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="O115">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
         <v>1.9</v>
@@ -10751,31 +10751,31 @@
         <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X115">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC115">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10783,7 +10783,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7373217</v>
+        <v>7372552</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10795,40 +10795,40 @@
         <v>45221.75</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K116">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
+        <v>3.1</v>
+      </c>
+      <c r="M116">
+        <v>2.8</v>
+      </c>
+      <c r="N116">
+        <v>1.85</v>
+      </c>
+      <c r="O116">
         <v>3.2</v>
       </c>
-      <c r="M116">
-        <v>4.333</v>
-      </c>
-      <c r="N116">
-        <v>1.666</v>
-      </c>
-      <c r="O116">
-        <v>3.4</v>
-      </c>
       <c r="P116">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
         <v>1.9</v>
@@ -10840,31 +10840,31 @@
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W116">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
       <c r="AB116">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7400380</v>
+        <v>7400385</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11685,58 +11685,58 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>52</v>
       </c>
       <c r="K126">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="L126">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M126">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N126">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O126">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P126">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V126">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="W126">
-        <v>1.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11745,13 +11745,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11762,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7400385</v>
+        <v>7400384</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11774,58 +11774,58 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H127">
         <v>4</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
         <v>52</v>
       </c>
       <c r="K127">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L127">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M127">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N127">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O127">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P127">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q127">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11834,13 +11834,13 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11851,7 +11851,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7400384</v>
+        <v>7400380</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11863,13 +11863,13 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -11878,25 +11878,25 @@
         <v>52</v>
       </c>
       <c r="K128">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M128">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N128">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O128">
         <v>3</v>
       </c>
       <c r="P128">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
         <v>1.85</v>
@@ -11905,16 +11905,16 @@
         <v>1.95</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W128">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11929,7 +11929,7 @@
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7400383</v>
+        <v>7400381</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,73 +12041,73 @@
         <v>45228.75</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K130">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L130">
+        <v>3.4</v>
+      </c>
+      <c r="M130">
+        <v>3.75</v>
+      </c>
+      <c r="N130">
+        <v>1.65</v>
+      </c>
+      <c r="O130">
         <v>3.6</v>
       </c>
-      <c r="M130">
-        <v>5</v>
-      </c>
-      <c r="N130">
-        <v>1.45</v>
-      </c>
-      <c r="O130">
-        <v>3.8</v>
-      </c>
       <c r="P130">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12118,7 +12118,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7400381</v>
+        <v>7400383</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12130,73 +12130,73 @@
         <v>45228.75</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K131">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N131">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X131">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7450477</v>
+        <v>7448182</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,13 +12575,13 @@
         <v>45238.75</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -12590,22 +12590,22 @@
         <v>52</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L136">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N136">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O136">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q136">
         <v>-1.25</v>
@@ -12617,16 +12617,16 @@
         <v>1.9</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12635,16 +12635,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7451045</v>
+        <v>7450477</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,76 +12664,76 @@
         <v>45238.75</v>
       </c>
       <c r="F137" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
         <v>1</v>
       </c>
-      <c r="I137">
-        <v>2</v>
-      </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K137">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M137">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N137">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P137">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB137">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12741,7 +12741,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7451058</v>
+        <v>7452316</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12753,46 +12753,46 @@
         <v>45238.75</v>
       </c>
       <c r="F138" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
         <v>3</v>
       </c>
-      <c r="I138">
-        <v>2</v>
-      </c>
       <c r="J138" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
+        <v>1.615</v>
+      </c>
+      <c r="N138">
+        <v>3.6</v>
+      </c>
+      <c r="O138">
         <v>3.5</v>
       </c>
-      <c r="N138">
-        <v>1.909</v>
-      </c>
-      <c r="O138">
-        <v>3.4</v>
-      </c>
       <c r="P138">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
         <v>2.75</v>
@@ -12804,19 +12804,19 @@
         <v>1.925</v>
       </c>
       <c r="W138">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB138">
         <v>0.875</v>
@@ -12830,7 +12830,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7448182</v>
+        <v>7451046</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12842,40 +12842,40 @@
         <v>45238.75</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>54</v>
+      </c>
+      <c r="K139">
         <v>3</v>
       </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-      <c r="J139" t="s">
-        <v>52</v>
-      </c>
-      <c r="K139">
-        <v>1.727</v>
-      </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N139">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P139">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q139">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
         <v>1.9</v>
@@ -12887,31 +12887,31 @@
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.825</v>
+      </c>
+      <c r="V139">
         <v>1.975</v>
       </c>
-      <c r="V139">
-        <v>1.825</v>
-      </c>
       <c r="W139">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12919,7 +12919,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7451044</v>
+        <v>7451058</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12931,76 +12931,76 @@
         <v>45238.75</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K140">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
+        <v>3.4</v>
+      </c>
+      <c r="M140">
         <v>3.5</v>
       </c>
-      <c r="M140">
-        <v>1.8</v>
-      </c>
       <c r="N140">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O140">
         <v>3.4</v>
       </c>
       <c r="P140">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
         <v>1.8</v>
-      </c>
-      <c r="S140">
-        <v>2</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X140">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13008,7 +13008,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7452316</v>
+        <v>7451045</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13020,55 +13020,55 @@
         <v>45238.75</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>53</v>
       </c>
       <c r="K141">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="N141">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O141">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q141">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13077,16 +13077,16 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7451046</v>
+        <v>7451044</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,76 +13109,76 @@
         <v>45238.75</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>54</v>
       </c>
       <c r="K142">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N142">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA142">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13275,7 +13275,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7477706</v>
+        <v>7477707</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13287,40 +13287,40 @@
         <v>45245.95833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K144">
         <v>2</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N144">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P144">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
         <v>1.9</v>
@@ -13329,34 +13329,34 @@
         <v>1.9</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X144">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC144">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13364,7 +13364,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7477707</v>
+        <v>7477706</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13376,40 +13376,40 @@
         <v>45245.95833333334</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K145">
         <v>2</v>
       </c>
       <c r="L145">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M145">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N145">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R145">
         <v>1.9</v>
@@ -13418,34 +13418,34 @@
         <v>1.9</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
       <c r="AB145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7749670</v>
+        <v>7749669</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,76 +16402,76 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K179">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M179">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N179">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O179">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P179">
-        <v>9</v>
+        <v>5.75</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W179">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB179">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7749669</v>
+        <v>7749670</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K181">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L181">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M181">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N181">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O181">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>5.75</v>
+        <v>9</v>
       </c>
       <c r="Q181">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X181">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA181">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC181">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7754830</v>
+        <v>7754831</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16669,73 +16669,73 @@
         <v>45319.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K182">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="L182">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M182">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N182">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O182">
         <v>3.8</v>
       </c>
       <c r="P182">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q182">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R182">
+        <v>1.85</v>
+      </c>
+      <c r="S182">
+        <v>1.95</v>
+      </c>
+      <c r="T182">
+        <v>2.5</v>
+      </c>
+      <c r="U182">
+        <v>1.875</v>
+      </c>
+      <c r="V182">
         <v>1.925</v>
       </c>
-      <c r="S182">
-        <v>1.875</v>
-      </c>
-      <c r="T182">
-        <v>2.75</v>
-      </c>
-      <c r="U182">
-        <v>1.825</v>
-      </c>
-      <c r="V182">
-        <v>1.975</v>
-      </c>
       <c r="W182">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16746,7 +16746,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7754831</v>
+        <v>7754830</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16758,73 +16758,73 @@
         <v>45319.58333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K183">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="L183">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M183">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N183">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="O183">
         <v>3.8</v>
       </c>
       <c r="P183">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X183">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -17102,7 +17102,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7785358</v>
+        <v>7785346</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17114,76 +17114,76 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K187">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L187">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M187">
-        <v>2.4</v>
+        <v>1.952</v>
       </c>
       <c r="N187">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O187">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P187">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W187">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC187">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17191,7 +17191,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7785346</v>
+        <v>7785358</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17203,76 +17203,76 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>52</v>
+      </c>
+      <c r="K188">
+        <v>2.5</v>
+      </c>
+      <c r="L188">
+        <v>3.3</v>
+      </c>
+      <c r="M188">
+        <v>2.4</v>
+      </c>
+      <c r="N188">
+        <v>1.833</v>
+      </c>
+      <c r="O188">
+        <v>3.6</v>
+      </c>
+      <c r="P188">
+        <v>3.4</v>
+      </c>
+      <c r="Q188">
+        <v>-0.5</v>
+      </c>
+      <c r="R188">
+        <v>1.9</v>
+      </c>
+      <c r="S188">
+        <v>1.9</v>
+      </c>
+      <c r="T188">
         <v>3</v>
       </c>
-      <c r="I188">
-        <v>3</v>
-      </c>
-      <c r="J188" t="s">
-        <v>54</v>
-      </c>
-      <c r="K188">
-        <v>3.75</v>
-      </c>
-      <c r="L188">
-        <v>3</v>
-      </c>
-      <c r="M188">
-        <v>1.952</v>
-      </c>
-      <c r="N188">
-        <v>2.6</v>
-      </c>
-      <c r="O188">
-        <v>2.7</v>
-      </c>
-      <c r="P188">
-        <v>2.75</v>
-      </c>
-      <c r="Q188">
+      <c r="U188">
+        <v>1.95</v>
+      </c>
+      <c r="V188">
+        <v>1.85</v>
+      </c>
+      <c r="W188">
+        <v>0.833</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
         <v>0</v>
       </c>
-      <c r="R188">
-        <v>1.85</v>
-      </c>
-      <c r="S188">
-        <v>1.95</v>
-      </c>
-      <c r="T188">
-        <v>2</v>
-      </c>
-      <c r="U188">
-        <v>1.8</v>
-      </c>
-      <c r="V188">
-        <v>2</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>1.7</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
-      <c r="Z188">
-        <v>0</v>
-      </c>
-      <c r="AA188">
+      <c r="AC188">
         <v>-0</v>
-      </c>
-      <c r="AB188">
-        <v>0.8</v>
-      </c>
-      <c r="AC188">
-        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17280,7 +17280,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7785360</v>
+        <v>7785359</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17292,58 +17292,58 @@
         <v>45326.75</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
         <v>52</v>
       </c>
       <c r="K189">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L189">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M189">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N189">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S189">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>0.75</v>
+        <v>0.571</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17352,13 +17352,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17369,7 +17369,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7785359</v>
+        <v>7785360</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17381,58 +17381,58 @@
         <v>45326.75</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>52</v>
       </c>
       <c r="K190">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L190">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M190">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N190">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O190">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q190">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S190">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T190">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V190">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W190">
-        <v>0.571</v>
+        <v>0.75</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17441,13 +17441,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17636,7 +17636,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7797363</v>
+        <v>7797364</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17648,58 +17648,58 @@
         <v>45329.75</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
         <v>52</v>
       </c>
       <c r="K193">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N193">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>0.45</v>
+        <v>0.909</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17708,16 +17708,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17725,7 +17725,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7797362</v>
+        <v>7797363</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17737,58 +17737,58 @@
         <v>45329.75</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H194">
+        <v>3</v>
+      </c>
+      <c r="I194">
         <v>1</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>52</v>
       </c>
       <c r="K194">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L194">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M194">
         <v>4.75</v>
       </c>
       <c r="N194">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O194">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P194">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q194">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R194">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S194">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T194">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W194">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17797,16 +17797,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA194">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC194">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7797364</v>
+        <v>7797362</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17826,10 +17826,10 @@
         <v>45329.75</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G195" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17841,43 +17841,43 @@
         <v>52</v>
       </c>
       <c r="K195">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L195">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
+        <v>4.75</v>
+      </c>
+      <c r="N195">
+        <v>1.4</v>
+      </c>
+      <c r="O195">
+        <v>4</v>
+      </c>
+      <c r="P195">
+        <v>7</v>
+      </c>
+      <c r="Q195">
+        <v>-1.5</v>
+      </c>
+      <c r="R195">
+        <v>1.925</v>
+      </c>
+      <c r="S195">
+        <v>1.775</v>
+      </c>
+      <c r="T195">
         <v>3</v>
       </c>
-      <c r="N195">
-        <v>1.909</v>
-      </c>
-      <c r="O195">
-        <v>3.4</v>
-      </c>
-      <c r="P195">
-        <v>3.5</v>
-      </c>
-      <c r="Q195">
-        <v>-0.5</v>
-      </c>
-      <c r="R195">
-        <v>1.95</v>
-      </c>
-      <c r="S195">
-        <v>1.85</v>
-      </c>
-      <c r="T195">
-        <v>2</v>
-      </c>
       <c r="U195">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17886,16 +17886,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -18081,7 +18081,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7797367</v>
+        <v>7797366</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18093,13 +18093,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -18108,43 +18108,43 @@
         <v>52</v>
       </c>
       <c r="K198">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L198">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M198">
+        <v>3.5</v>
+      </c>
+      <c r="N198">
+        <v>1.25</v>
+      </c>
+      <c r="O198">
+        <v>6</v>
+      </c>
+      <c r="P198">
+        <v>7.5</v>
+      </c>
+      <c r="Q198">
+        <v>-1.75</v>
+      </c>
+      <c r="R198">
+        <v>1.85</v>
+      </c>
+      <c r="S198">
+        <v>1.95</v>
+      </c>
+      <c r="T198">
         <v>3</v>
       </c>
-      <c r="N198">
-        <v>1.5</v>
-      </c>
-      <c r="O198">
-        <v>3.75</v>
-      </c>
-      <c r="P198">
-        <v>6</v>
-      </c>
-      <c r="Q198">
-        <v>-1</v>
-      </c>
-      <c r="R198">
-        <v>1.9</v>
-      </c>
-      <c r="S198">
-        <v>1.9</v>
-      </c>
-      <c r="T198">
-        <v>2.5</v>
-      </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W198">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18153,13 +18153,13 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA198">
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18170,7 +18170,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7797366</v>
+        <v>7797367</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18182,13 +18182,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H199">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -18197,43 +18197,43 @@
         <v>52</v>
       </c>
       <c r="K199">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L199">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M199">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N199">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="O199">
+        <v>3.75</v>
+      </c>
+      <c r="P199">
         <v>6</v>
       </c>
-      <c r="P199">
-        <v>7.5</v>
-      </c>
       <c r="Q199">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R199">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S199">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T199">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18242,13 +18242,13 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC199">
         <v>-1</v>
@@ -18348,7 +18348,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7813335</v>
+        <v>7813122</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18360,61 +18360,61 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K201">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="L201">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N201">
+        <v>1.6</v>
+      </c>
+      <c r="O201">
+        <v>3.5</v>
+      </c>
+      <c r="P201">
+        <v>5</v>
+      </c>
+      <c r="Q201">
+        <v>-1</v>
+      </c>
+      <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>1.75</v>
+      </c>
+      <c r="T201">
         <v>2.5</v>
       </c>
-      <c r="O201">
-        <v>3.2</v>
-      </c>
-      <c r="P201">
-        <v>2.45</v>
-      </c>
-      <c r="Q201">
-        <v>0</v>
-      </c>
-      <c r="R201">
-        <v>1.925</v>
-      </c>
-      <c r="S201">
-        <v>1.875</v>
-      </c>
-      <c r="T201">
-        <v>2.75</v>
-      </c>
       <c r="U201">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X201">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
@@ -18429,7 +18429,7 @@
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7813122</v>
+        <v>7813335</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,61 +18449,61 @@
         <v>45333.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H202">
         <v>1</v>
       </c>
       <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202" t="s">
+        <v>54</v>
+      </c>
+      <c r="K202">
+        <v>2.75</v>
+      </c>
+      <c r="L202">
+        <v>3.3</v>
+      </c>
+      <c r="M202">
+        <v>2.25</v>
+      </c>
+      <c r="N202">
+        <v>2.5</v>
+      </c>
+      <c r="O202">
+        <v>3.2</v>
+      </c>
+      <c r="P202">
+        <v>2.45</v>
+      </c>
+      <c r="Q202">
         <v>0</v>
       </c>
-      <c r="J202" t="s">
-        <v>52</v>
-      </c>
-      <c r="K202">
-        <v>1.7</v>
-      </c>
-      <c r="L202">
-        <v>3.4</v>
-      </c>
-      <c r="M202">
-        <v>4.333</v>
-      </c>
-      <c r="N202">
-        <v>1.6</v>
-      </c>
-      <c r="O202">
-        <v>3.5</v>
-      </c>
-      <c r="P202">
-        <v>5</v>
-      </c>
-      <c r="Q202">
-        <v>-1</v>
-      </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W202">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y202">
         <v>-1</v>
@@ -18518,7 +18518,7 @@
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18615,7 +18615,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7813338</v>
+        <v>7813339</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18627,73 +18627,73 @@
         <v>45333.75</v>
       </c>
       <c r="F204" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H204">
         <v>3</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
         <v>52</v>
       </c>
       <c r="K204">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L204">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M204">
-        <v>2.6</v>
+        <v>8.5</v>
       </c>
       <c r="N204">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="O204">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P204">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="Q204">
+        <v>-1.75</v>
+      </c>
+      <c r="R204">
+        <v>1.975</v>
+      </c>
+      <c r="S204">
+        <v>1.825</v>
+      </c>
+      <c r="T204">
+        <v>2.75</v>
+      </c>
+      <c r="U204">
+        <v>1.75</v>
+      </c>
+      <c r="V204">
+        <v>1.95</v>
+      </c>
+      <c r="W204">
+        <v>0.25</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.4875</v>
+      </c>
+      <c r="AA204">
         <v>-0.5</v>
       </c>
-      <c r="R204">
-        <v>1.95</v>
-      </c>
-      <c r="S204">
-        <v>1.85</v>
-      </c>
-      <c r="T204">
-        <v>2.5</v>
-      </c>
-      <c r="U204">
-        <v>1.95</v>
-      </c>
-      <c r="V204">
-        <v>1.75</v>
-      </c>
-      <c r="W204">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X204">
-        <v>-1</v>
-      </c>
-      <c r="Y204">
-        <v>-1</v>
-      </c>
-      <c r="Z204">
-        <v>0.95</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
       <c r="AB204">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC204">
         <v>-1</v>
@@ -18704,7 +18704,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7813339</v>
+        <v>7813338</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18716,58 +18716,58 @@
         <v>45333.75</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H205">
         <v>3</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
         <v>52</v>
       </c>
       <c r="K205">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M205">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="N205">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O205">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P205">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="Q205">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
+        <v>1.95</v>
+      </c>
+      <c r="V205">
         <v>1.75</v>
       </c>
-      <c r="V205">
-        <v>1.95</v>
-      </c>
       <c r="W205">
-        <v>0.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18776,13 +18776,13 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AA205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC205">
         <v>-1</v>
@@ -19060,7 +19060,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7851262</v>
+        <v>7851261</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19072,76 +19072,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K209">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L209">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M209">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N209">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="O209">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P209">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q209">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U209">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC209">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19149,7 +19149,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7851263</v>
+        <v>7851262</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19161,40 +19161,40 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G210" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H210">
         <v>1</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K210">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M210">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N210">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O210">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P210">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R210">
         <v>1.9</v>
@@ -19203,28 +19203,28 @@
         <v>1.9</v>
       </c>
       <c r="T210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U210">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V210">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB210">
         <v>0</v>
@@ -19238,7 +19238,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7851261</v>
+        <v>7851263</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19250,76 +19250,76 @@
         <v>45340.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>54</v>
+      </c>
+      <c r="K211">
+        <v>2.875</v>
+      </c>
+      <c r="L211">
+        <v>3.2</v>
+      </c>
+      <c r="M211">
+        <v>2.2</v>
+      </c>
+      <c r="N211">
+        <v>2.1</v>
+      </c>
+      <c r="O211">
+        <v>3.25</v>
+      </c>
+      <c r="P211">
         <v>3</v>
       </c>
-      <c r="I211">
+      <c r="Q211">
+        <v>-0.25</v>
+      </c>
+      <c r="R211">
+        <v>1.9</v>
+      </c>
+      <c r="S211">
+        <v>1.9</v>
+      </c>
+      <c r="T211">
+        <v>2</v>
+      </c>
+      <c r="U211">
+        <v>1.775</v>
+      </c>
+      <c r="V211">
+        <v>2.025</v>
+      </c>
+      <c r="W211">
+        <v>-1</v>
+      </c>
+      <c r="X211">
+        <v>2.25</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>-0.5</v>
+      </c>
+      <c r="AA211">
+        <v>0.45</v>
+      </c>
+      <c r="AB211">
         <v>0</v>
       </c>
-      <c r="J211" t="s">
-        <v>52</v>
-      </c>
-      <c r="K211">
-        <v>1.909</v>
-      </c>
-      <c r="L211">
-        <v>3.4</v>
-      </c>
-      <c r="M211">
-        <v>3.5</v>
-      </c>
-      <c r="N211">
-        <v>1.444</v>
-      </c>
-      <c r="O211">
-        <v>4</v>
-      </c>
-      <c r="P211">
-        <v>5.5</v>
-      </c>
-      <c r="Q211">
-        <v>-1.25</v>
-      </c>
-      <c r="R211">
-        <v>1.925</v>
-      </c>
-      <c r="S211">
-        <v>1.875</v>
-      </c>
-      <c r="T211">
-        <v>3.25</v>
-      </c>
-      <c r="U211">
-        <v>1.85</v>
-      </c>
-      <c r="V211">
-        <v>1.95</v>
-      </c>
-      <c r="W211">
-        <v>0.444</v>
-      </c>
-      <c r="X211">
-        <v>-1</v>
-      </c>
-      <c r="Y211">
-        <v>-1</v>
-      </c>
-      <c r="Z211">
-        <v>0.925</v>
-      </c>
-      <c r="AA211">
-        <v>-1</v>
-      </c>
-      <c r="AB211">
-        <v>-0.5</v>
-      </c>
       <c r="AC211">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7864117</v>
+        <v>7864116</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,34 +19784,34 @@
         <v>45343.95833333334</v>
       </c>
       <c r="F217" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G217" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H217">
         <v>3</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J217" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K217">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L217">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M217">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N217">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="O217">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P217">
         <v>6</v>
@@ -19820,13 +19820,13 @@
         <v>-1.25</v>
       </c>
       <c r="R217">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T217">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U217">
         <v>1.8</v>
@@ -19835,25 +19835,25 @@
         <v>2</v>
       </c>
       <c r="W217">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB217">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC217">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19861,7 +19861,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7864116</v>
+        <v>7864117</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19873,34 +19873,34 @@
         <v>45343.95833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G218" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H218">
         <v>3</v>
       </c>
       <c r="I218">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K218">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L218">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M218">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N218">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O218">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P218">
         <v>6</v>
@@ -19909,13 +19909,13 @@
         <v>-1.25</v>
       </c>
       <c r="R218">
+        <v>1.75</v>
+      </c>
+      <c r="S218">
         <v>1.95</v>
       </c>
-      <c r="S218">
-        <v>1.85</v>
-      </c>
       <c r="T218">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U218">
         <v>1.8</v>
@@ -19924,25 +19924,25 @@
         <v>2</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X218">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA218">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7881213</v>
+        <v>7881216</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,10 +20051,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H220">
         <v>4</v>
@@ -20066,43 +20066,43 @@
         <v>52</v>
       </c>
       <c r="K220">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L220">
+        <v>3.2</v>
+      </c>
+      <c r="M220">
         <v>3.5</v>
       </c>
-      <c r="M220">
-        <v>2.375</v>
-      </c>
       <c r="N220">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O220">
         <v>3.6</v>
       </c>
       <c r="P220">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q220">
         <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W220">
-        <v>0.615</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20111,13 +20111,13 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC220">
         <v>-1</v>
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7881214</v>
+        <v>7881215</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,40 +20140,40 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K221">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L221">
         <v>3.2</v>
       </c>
       <c r="M221">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N221">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R221">
         <v>1.775</v>
@@ -20182,7 +20182,7 @@
         <v>2.025</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
         <v>2</v>
@@ -20191,25 +20191,25 @@
         <v>1.8</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA221">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7881216</v>
+        <v>7881213</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,10 +20229,10 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G222" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H222">
         <v>4</v>
@@ -20244,43 +20244,43 @@
         <v>52</v>
       </c>
       <c r="K222">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L222">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M222">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N222">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O222">
         <v>3.6</v>
       </c>
       <c r="P222">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q222">
         <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S222">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V222">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W222">
-        <v>0.5329999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20289,13 +20289,13 @@
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA222">
         <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7881215</v>
+        <v>7881214</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,40 +20318,40 @@
         <v>45347.58333333334</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H223">
         <v>1</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K223">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L223">
         <v>3.2</v>
       </c>
       <c r="M223">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N223">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O223">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P223">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q223">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
         <v>1.775</v>
@@ -20360,7 +20360,7 @@
         <v>2.025</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
         <v>2</v>
@@ -20369,25 +20369,25 @@
         <v>1.8</v>
       </c>
       <c r="W223">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z223">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC223">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -21374,7 +21374,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7921263</v>
+        <v>7921493</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21386,49 +21386,49 @@
         <v>45357.75</v>
       </c>
       <c r="F235" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G235" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
         <v>52</v>
       </c>
       <c r="K235">
-        <v>4</v>
+        <v>1.571</v>
       </c>
       <c r="L235">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M235">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="N235">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="O235">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P235">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q235">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R235">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S235">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T235">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U235">
         <v>2</v>
@@ -21437,7 +21437,7 @@
         <v>1.8</v>
       </c>
       <c r="W235">
-        <v>0.833</v>
+        <v>0.615</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21446,16 +21446,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7921493</v>
+        <v>7921263</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,49 +21475,49 @@
         <v>45357.75</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G236" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
         <v>52</v>
       </c>
       <c r="K236">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="L236">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M236">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="N236">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O236">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P236">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U236">
         <v>2</v>
@@ -21526,7 +21526,7 @@
         <v>1.8</v>
       </c>
       <c r="W236">
-        <v>0.615</v>
+        <v>0.833</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21535,16 +21535,16 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA236">
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC236">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21819,7 +21819,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7941221</v>
+        <v>7941222</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21831,31 +21831,31 @@
         <v>45361.58333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G240" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H240">
         <v>1</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J240" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K240">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L240">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M240">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N240">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O240">
         <v>3.5</v>
@@ -21867,40 +21867,40 @@
         <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S240">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC240">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21908,7 +21908,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7941222</v>
+        <v>7941221</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21920,31 +21920,31 @@
         <v>45361.58333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H241">
         <v>1</v>
       </c>
       <c r="I241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K241">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L241">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M241">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N241">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O241">
         <v>3.5</v>
@@ -21956,40 +21956,40 @@
         <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S241">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T241">
         <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y241">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB241">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22442,7 +22442,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7967004</v>
+        <v>7967003</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22454,58 +22454,58 @@
         <v>45367.95833333334</v>
       </c>
       <c r="F247" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G247" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H247">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
         <v>52</v>
       </c>
       <c r="K247">
-        <v>1.3</v>
+        <v>1.222</v>
       </c>
       <c r="L247">
         <v>5.25</v>
       </c>
       <c r="M247">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="N247">
-        <v>1.111</v>
+        <v>1.222</v>
       </c>
       <c r="O247">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="P247">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q247">
-        <v>-2.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R247">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S247">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U247">
+        <v>1.85</v>
+      </c>
+      <c r="V247">
         <v>1.95</v>
       </c>
-      <c r="V247">
-        <v>1.85</v>
-      </c>
       <c r="W247">
-        <v>0.111</v>
+        <v>0.222</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22514,16 +22514,16 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB247">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22620,7 +22620,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7967003</v>
+        <v>7967004</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22632,58 +22632,58 @@
         <v>45367.95833333334</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G249" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="s">
         <v>52</v>
       </c>
       <c r="K249">
-        <v>1.222</v>
+        <v>1.3</v>
       </c>
       <c r="L249">
         <v>5.25</v>
       </c>
       <c r="M249">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="N249">
-        <v>1.222</v>
+        <v>1.111</v>
       </c>
       <c r="O249">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="P249">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q249">
-        <v>-1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R249">
+        <v>1.8</v>
+      </c>
+      <c r="S249">
+        <v>2</v>
+      </c>
+      <c r="T249">
+        <v>3.5</v>
+      </c>
+      <c r="U249">
+        <v>1.95</v>
+      </c>
+      <c r="V249">
         <v>1.85</v>
       </c>
-      <c r="S249">
-        <v>1.95</v>
-      </c>
-      <c r="T249">
-        <v>2.75</v>
-      </c>
-      <c r="U249">
-        <v>1.85</v>
-      </c>
-      <c r="V249">
-        <v>1.95</v>
-      </c>
       <c r="W249">
-        <v>0.222</v>
+        <v>0.111</v>
       </c>
       <c r="X249">
         <v>-1</v>
@@ -22692,16 +22692,16 @@
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA249">
+        <v>-1</v>
+      </c>
+      <c r="AB249">
         <v>0.95</v>
       </c>
-      <c r="AB249">
-        <v>0.425</v>
-      </c>
       <c r="AC249">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22709,7 +22709,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7969988</v>
+        <v>7969989</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22721,10 +22721,10 @@
         <v>45368.58333333334</v>
       </c>
       <c r="F250" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G250" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -22736,46 +22736,46 @@
         <v>54</v>
       </c>
       <c r="K250">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L250">
         <v>3.25</v>
       </c>
       <c r="M250">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N250">
-        <v>1.615</v>
+        <v>1.45</v>
       </c>
       <c r="O250">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P250">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q250">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R250">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S250">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U250">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V250">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Y250">
         <v>-1</v>
@@ -22784,13 +22784,13 @@
         <v>-1</v>
       </c>
       <c r="AA250">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC250">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22798,7 +22798,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7969930</v>
+        <v>7969988</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22810,49 +22810,49 @@
         <v>45368.58333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K251">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="L251">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M251">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N251">
-        <v>1.3</v>
+        <v>1.615</v>
       </c>
       <c r="O251">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P251">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q251">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R251">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U251">
         <v>1.9</v>
@@ -22861,19 +22861,19 @@
         <v>1.9</v>
       </c>
       <c r="W251">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
         <v>-1</v>
@@ -22887,7 +22887,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7969989</v>
+        <v>7969930</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22899,76 +22899,76 @@
         <v>45368.58333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G252" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K252">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="L252">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M252">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N252">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="O252">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P252">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q252">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R252">
+        <v>1.875</v>
+      </c>
+      <c r="S252">
+        <v>1.925</v>
+      </c>
+      <c r="T252">
+        <v>2.75</v>
+      </c>
+      <c r="U252">
         <v>1.9</v>
       </c>
-      <c r="S252">
+      <c r="V252">
         <v>1.9</v>
       </c>
-      <c r="T252">
-        <v>2.25</v>
-      </c>
-      <c r="U252">
-        <v>1.8</v>
-      </c>
-      <c r="V252">
-        <v>2</v>
-      </c>
       <c r="W252">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X252">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA252">
+        <v>-1</v>
+      </c>
+      <c r="AB252">
+        <v>-1</v>
+      </c>
+      <c r="AC252">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB252">
-        <v>-0.5</v>
-      </c>
-      <c r="AC252">
-        <v>0.5</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23154,7 +23154,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>8003934</v>
+        <v>8003933</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23166,58 +23166,58 @@
         <v>45375.75</v>
       </c>
       <c r="F255" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G255" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H255">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" t="s">
         <v>52</v>
       </c>
       <c r="K255">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L255">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M255">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N255">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O255">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P255">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q255">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R255">
+        <v>1.75</v>
+      </c>
+      <c r="S255">
         <v>1.95</v>
       </c>
-      <c r="S255">
-        <v>1.85</v>
-      </c>
       <c r="T255">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U255">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V255">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W255">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -23226,16 +23226,16 @@
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA255">
         <v>-1</v>
       </c>
       <c r="AB255">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23243,7 +23243,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>8003933</v>
+        <v>8003934</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23255,58 +23255,58 @@
         <v>45375.75</v>
       </c>
       <c r="F256" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G256" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H256">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="s">
         <v>52</v>
       </c>
       <c r="K256">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L256">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M256">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N256">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O256">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P256">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q256">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R256">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S256">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T256">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U256">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V256">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W256">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X256">
         <v>-1</v>
@@ -23315,16 +23315,16 @@
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA256">
         <v>-1</v>
       </c>
       <c r="AB256">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC256">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23421,7 +23421,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>8015645</v>
+        <v>8015354</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23430,64 +23430,79 @@
         <v>28</v>
       </c>
       <c r="E258" s="2">
-        <v>45378.875</v>
+        <v>45378.75</v>
       </c>
       <c r="F258" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G258" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="H258">
+        <v>2</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" t="s">
+        <v>52</v>
       </c>
       <c r="K258">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L258">
+        <v>3.5</v>
+      </c>
+      <c r="M258">
+        <v>4.75</v>
+      </c>
+      <c r="N258">
+        <v>1.533</v>
+      </c>
+      <c r="O258">
         <v>3.6</v>
       </c>
-      <c r="M258">
-        <v>5</v>
-      </c>
-      <c r="N258">
-        <v>1.363</v>
-      </c>
-      <c r="O258">
-        <v>4.2</v>
-      </c>
       <c r="P258">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q258">
         <v>-1</v>
       </c>
       <c r="R258">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S258">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T258">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U258">
+        <v>1.95</v>
+      </c>
+      <c r="V258">
         <v>1.85</v>
       </c>
-      <c r="V258">
-        <v>1.95</v>
-      </c>
       <c r="W258">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X258">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y258">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
         <v>0</v>
       </c>
       <c r="AA258">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB258">
+        <v>0.95</v>
+      </c>
+      <c r="AC258">
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23495,7 +23510,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>8015571</v>
+        <v>8015355</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23504,64 +23519,79 @@
         <v>28</v>
       </c>
       <c r="E259" s="2">
-        <v>45378.95833333334</v>
+        <v>45378.77083333334</v>
       </c>
       <c r="F259" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G259" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259" t="s">
+        <v>52</v>
       </c>
       <c r="K259">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M259">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="N259">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O259">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P259">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="Q259">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R259">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S259">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T259">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V259">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W259">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA259">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB259">
+        <v>-1</v>
+      </c>
+      <c r="AC259">
+        <v>0.825</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23569,7 +23599,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>8015644</v>
+        <v>8015645</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23578,43 +23608,52 @@
         <v>28</v>
       </c>
       <c r="E260" s="2">
-        <v>45378.95833333334</v>
+        <v>45378.875</v>
       </c>
       <c r="F260" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G260" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260" t="s">
+        <v>53</v>
       </c>
       <c r="K260">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L260">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M260">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N260">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O260">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P260">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q260">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R260">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S260">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T260">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U260">
         <v>1.85</v>
@@ -23623,19 +23662,203 @@
         <v>1.95</v>
       </c>
       <c r="W260">
+        <v>-1</v>
+      </c>
+      <c r="X260">
+        <v>-1</v>
+      </c>
+      <c r="Y260">
+        <v>6</v>
+      </c>
+      <c r="Z260">
+        <v>-1</v>
+      </c>
+      <c r="AA260">
+        <v>1</v>
+      </c>
+      <c r="AB260">
+        <v>-1</v>
+      </c>
+      <c r="AC260">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>8015571</v>
+      </c>
+      <c r="C261" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45378.95833333334</v>
+      </c>
+      <c r="F261" t="s">
+        <v>32</v>
+      </c>
+      <c r="G261" t="s">
+        <v>41</v>
+      </c>
+      <c r="H261">
+        <v>2</v>
+      </c>
+      <c r="I261">
+        <v>2</v>
+      </c>
+      <c r="J261" t="s">
+        <v>54</v>
+      </c>
+      <c r="K261">
+        <v>1.5</v>
+      </c>
+      <c r="L261">
+        <v>4</v>
+      </c>
+      <c r="M261">
+        <v>5</v>
+      </c>
+      <c r="N261">
+        <v>1.3</v>
+      </c>
+      <c r="O261">
+        <v>4.5</v>
+      </c>
+      <c r="P261">
+        <v>8</v>
+      </c>
+      <c r="Q261">
+        <v>-1.5</v>
+      </c>
+      <c r="R261">
+        <v>1.925</v>
+      </c>
+      <c r="S261">
+        <v>1.875</v>
+      </c>
+      <c r="T261">
+        <v>2.75</v>
+      </c>
+      <c r="U261">
+        <v>1.925</v>
+      </c>
+      <c r="V261">
+        <v>1.875</v>
+      </c>
+      <c r="W261">
+        <v>-1</v>
+      </c>
+      <c r="X261">
+        <v>3.5</v>
+      </c>
+      <c r="Y261">
+        <v>-1</v>
+      </c>
+      <c r="Z261">
+        <v>-1</v>
+      </c>
+      <c r="AA261">
+        <v>0.875</v>
+      </c>
+      <c r="AB261">
+        <v>0.925</v>
+      </c>
+      <c r="AC261">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>8015644</v>
+      </c>
+      <c r="C262" t="s">
+        <v>28</v>
+      </c>
+      <c r="D262" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45378.95833333334</v>
+      </c>
+      <c r="F262" t="s">
+        <v>38</v>
+      </c>
+      <c r="G262" t="s">
+        <v>46</v>
+      </c>
+      <c r="H262">
+        <v>1</v>
+      </c>
+      <c r="I262">
+        <v>2</v>
+      </c>
+      <c r="J262" t="s">
+        <v>53</v>
+      </c>
+      <c r="K262">
+        <v>1.909</v>
+      </c>
+      <c r="L262">
+        <v>3.5</v>
+      </c>
+      <c r="M262">
+        <v>3.4</v>
+      </c>
+      <c r="N262">
+        <v>1.45</v>
+      </c>
+      <c r="O262">
+        <v>4.5</v>
+      </c>
+      <c r="P262">
+        <v>5.25</v>
+      </c>
+      <c r="Q262">
+        <v>-1.25</v>
+      </c>
+      <c r="R262">
+        <v>1.95</v>
+      </c>
+      <c r="S262">
+        <v>1.85</v>
+      </c>
+      <c r="T262">
+        <v>3</v>
+      </c>
+      <c r="U262">
+        <v>1.9</v>
+      </c>
+      <c r="V262">
+        <v>1.9</v>
+      </c>
+      <c r="W262">
+        <v>-1</v>
+      </c>
+      <c r="X262">
+        <v>-1</v>
+      </c>
+      <c r="Y262">
+        <v>4.25</v>
+      </c>
+      <c r="Z262">
+        <v>-1</v>
+      </c>
+      <c r="AA262">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB262">
         <v>0</v>
       </c>
-      <c r="X260">
-        <v>0</v>
-      </c>
-      <c r="Y260">
-        <v>0</v>
-      </c>
-      <c r="Z260">
-        <v>0</v>
-      </c>
-      <c r="AA260">
-        <v>0</v>
+      <c r="AC262">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Guatemala Primera Division/Guatemala Primera Division.xlsx
+++ b/Guatemala Primera Division/Guatemala Primera Division.xlsx
@@ -2328,7 +2328,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7060392</v>
+        <v>7060342</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2340,49 +2340,49 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>1.952</v>
+        <v>3.3</v>
       </c>
       <c r="L21">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M21">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="O21">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P21">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -2391,19 +2391,19 @@
         <v>1.8</v>
       </c>
       <c r="W21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7060342</v>
+        <v>7060392</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,49 +2429,49 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22">
+        <v>1.952</v>
+      </c>
+      <c r="L22">
         <v>3.3</v>
       </c>
-      <c r="L22">
-        <v>3.2</v>
-      </c>
       <c r="M22">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O22">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2480,19 +2480,19 @@
         <v>1.8</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
@@ -3129,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7072459</v>
+        <v>7072543</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3141,76 +3141,76 @@
         <v>45154.75</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O30">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
+        <v>1.95</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>1.975</v>
+      </c>
+      <c r="V30">
         <v>1.725</v>
       </c>
-      <c r="S30">
-        <v>2.075</v>
-      </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>1.85</v>
-      </c>
-      <c r="V30">
-        <v>1.95</v>
-      </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3218,7 +3218,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7072543</v>
+        <v>7072459</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3230,76 +3230,76 @@
         <v>45154.75</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31">
+        <v>2.5</v>
+      </c>
+      <c r="O31">
+        <v>2.8</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1.725</v>
+      </c>
+      <c r="S31">
+        <v>2.075</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>1.85</v>
+      </c>
+      <c r="V31">
+        <v>1.95</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
         <v>1.8</v>
       </c>
-      <c r="O31">
-        <v>3.2</v>
-      </c>
-      <c r="P31">
-        <v>4</v>
-      </c>
-      <c r="Q31">
-        <v>-0.5</v>
-      </c>
-      <c r="R31">
-        <v>1.85</v>
-      </c>
-      <c r="S31">
-        <v>1.95</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
-      <c r="U31">
-        <v>1.975</v>
-      </c>
-      <c r="V31">
-        <v>1.725</v>
-      </c>
-      <c r="W31">
-        <v>0.8</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3307,7 +3307,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7072448</v>
+        <v>7072447</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3319,40 +3319,40 @@
         <v>45154.75</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N32">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
         <v>1.8</v>
@@ -3364,19 +3364,19 @@
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z32">
         <v>-1</v>
@@ -3385,10 +3385,10 @@
         <v>1</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7072447</v>
+        <v>7072448</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,40 +3497,40 @@
         <v>45154.75</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="L34">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N34">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="O34">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
         <v>1.8</v>
@@ -3542,19 +3542,19 @@
         <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y34">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
         <v>-1</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3752,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7106174</v>
+        <v>7106032</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3764,49 +3764,49 @@
         <v>45161.75</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M37">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O37">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P37">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
         <v>1.85</v>
@@ -3815,25 +3815,25 @@
         <v>1.95</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X37">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3841,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7106173</v>
+        <v>7106041</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3853,13 +3853,13 @@
         <v>45161.75</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3868,43 +3868,43 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L38">
         <v>3.2</v>
       </c>
       <c r="M38">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N38">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>0.571</v>
+        <v>1.3</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3913,16 +3913,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7106041</v>
+        <v>7106173</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3942,13 +3942,13 @@
         <v>45161.75</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3957,43 +3957,43 @@
         <v>52</v>
       </c>
       <c r="K39">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L39">
         <v>3.2</v>
       </c>
       <c r="M39">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>1.3</v>
+        <v>0.571</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4002,16 +4002,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4019,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7106032</v>
+        <v>7106174</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4031,49 +4031,49 @@
         <v>45161.75</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N40">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P40">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
         <v>1.85</v>
@@ -4082,25 +4082,25 @@
         <v>1.95</v>
       </c>
       <c r="W40">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -6155,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7189205</v>
+        <v>7189791</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6167,76 +6167,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K64">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L64">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N64">
+        <v>2.7</v>
+      </c>
+      <c r="O64">
+        <v>3.75</v>
+      </c>
+      <c r="P64">
         <v>2.15</v>
       </c>
-      <c r="O64">
-        <v>2.8</v>
-      </c>
-      <c r="P64">
-        <v>3.4</v>
-      </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V64">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7189791</v>
+        <v>7189205</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,76 +6256,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K65">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M65">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O65">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P65">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q65">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6867,7 +6867,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7203472</v>
+        <v>7203452</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6879,58 +6879,58 @@
         <v>45182.75</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>52</v>
       </c>
       <c r="K72">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6939,16 +6939,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6956,7 +6956,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7203437</v>
+        <v>7203472</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6968,46 +6968,46 @@
         <v>45182.75</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L73">
         <v>3.2</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N73">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q73">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
         <v>2.5</v>
@@ -7016,10 +7016,10 @@
         <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7028,10 +7028,10 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
         <v>0.95</v>
@@ -7045,7 +7045,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7203452</v>
+        <v>7203437</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7057,13 +7057,13 @@
         <v>45182.75</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -7072,40 +7072,40 @@
         <v>52</v>
       </c>
       <c r="K74">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L74">
+        <v>3.2</v>
+      </c>
+      <c r="M74">
         <v>4</v>
-      </c>
-      <c r="M74">
-        <v>7</v>
       </c>
       <c r="N74">
         <v>1.363</v>
       </c>
       <c r="O74">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q74">
         <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
         <v>1.95</v>
       </c>
       <c r="T74">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W74">
         <v>0.363</v>
@@ -7117,16 +7117,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -8380,7 +8380,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7249833</v>
+        <v>7249889</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8392,76 +8392,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K89">
+        <v>2.2</v>
+      </c>
+      <c r="L89">
+        <v>3.3</v>
+      </c>
+      <c r="M89">
+        <v>2.8</v>
+      </c>
+      <c r="N89">
+        <v>1.833</v>
+      </c>
+      <c r="O89">
+        <v>3.4</v>
+      </c>
+      <c r="P89">
+        <v>3.5</v>
+      </c>
+      <c r="Q89">
+        <v>-0.5</v>
+      </c>
+      <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>1.9</v>
+      </c>
+      <c r="T89">
         <v>2.75</v>
       </c>
-      <c r="L89">
-        <v>3.2</v>
-      </c>
-      <c r="M89">
-        <v>2.3</v>
-      </c>
-      <c r="N89">
-        <v>2.1</v>
-      </c>
-      <c r="O89">
-        <v>3.25</v>
-      </c>
-      <c r="P89">
-        <v>3.1</v>
-      </c>
-      <c r="Q89">
-        <v>-0.25</v>
-      </c>
-      <c r="R89">
-        <v>1.85</v>
-      </c>
-      <c r="S89">
-        <v>1.95</v>
-      </c>
-      <c r="T89">
-        <v>2.25</v>
-      </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W89">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8469,7 +8469,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7249889</v>
+        <v>7249833</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8481,76 +8481,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K90">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L90">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P90">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V90">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X90">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC90">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7265144</v>
+        <v>7265142</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9282,16 +9282,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>1</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>52</v>
@@ -9300,40 +9300,40 @@
         <v>2</v>
       </c>
       <c r="L99">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N99">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O99">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P99">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9342,16 +9342,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9359,7 +9359,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7265142</v>
+        <v>7265144</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9371,16 +9371,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
@@ -9389,40 +9389,40 @@
         <v>2</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M100">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N100">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
         <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9431,16 +9431,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
+        <v>0.75</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>0.95</v>
-      </c>
-      <c r="AC100">
-        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -11050,7 +11050,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7387942</v>
+        <v>7387211</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11062,61 +11062,61 @@
         <v>45224.75</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K119">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L119">
+        <v>4</v>
+      </c>
+      <c r="M119">
+        <v>5.5</v>
+      </c>
+      <c r="N119">
+        <v>1.363</v>
+      </c>
+      <c r="O119">
+        <v>4.5</v>
+      </c>
+      <c r="P119">
+        <v>7</v>
+      </c>
+      <c r="Q119">
+        <v>-1.5</v>
+      </c>
+      <c r="R119">
+        <v>1.975</v>
+      </c>
+      <c r="S119">
+        <v>1.825</v>
+      </c>
+      <c r="T119">
         <v>3</v>
       </c>
-      <c r="M119">
-        <v>2.6</v>
-      </c>
-      <c r="N119">
-        <v>1.909</v>
-      </c>
-      <c r="O119">
-        <v>3.2</v>
-      </c>
-      <c r="P119">
-        <v>3.6</v>
-      </c>
-      <c r="Q119">
-        <v>-0.5</v>
-      </c>
-      <c r="R119">
-        <v>2</v>
-      </c>
-      <c r="S119">
-        <v>1.8</v>
-      </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X119">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
@@ -11125,13 +11125,13 @@
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7387211</v>
+        <v>7387942</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11151,61 +11151,61 @@
         <v>45224.75</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K120">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M120">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N120">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O120">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q120">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11214,13 +11214,13 @@
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7448182</v>
+        <v>7452316</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,40 +12575,40 @@
         <v>45238.75</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
         <v>3</v>
       </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K136">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="L136">
         <v>3.6</v>
       </c>
       <c r="M136">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="N136">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>7.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R136">
         <v>1.9</v>
@@ -12617,31 +12617,31 @@
         <v>1.9</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7450477</v>
+        <v>7448182</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,13 +12664,13 @@
         <v>45238.75</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -12679,22 +12679,22 @@
         <v>52</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N137">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O137">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q137">
         <v>-1.25</v>
@@ -12706,16 +12706,16 @@
         <v>1.9</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12724,16 +12724,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12741,7 +12741,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7452316</v>
+        <v>7450477</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12753,40 +12753,40 @@
         <v>45238.75</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
         <v>1</v>
       </c>
-      <c r="I138">
+      <c r="J138" t="s">
+        <v>52</v>
+      </c>
+      <c r="K138">
+        <v>2.1</v>
+      </c>
+      <c r="L138">
+        <v>3.3</v>
+      </c>
+      <c r="M138">
         <v>3</v>
       </c>
-      <c r="J138" t="s">
-        <v>53</v>
-      </c>
-      <c r="K138">
-        <v>5</v>
-      </c>
-      <c r="L138">
-        <v>3.6</v>
-      </c>
-      <c r="M138">
-        <v>1.615</v>
-      </c>
       <c r="N138">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="O138">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P138">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="Q138">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R138">
         <v>1.9</v>
@@ -12798,31 +12798,31 @@
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB138">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12830,7 +12830,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7451046</v>
+        <v>7451044</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12842,76 +12842,76 @@
         <v>45238.75</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>54</v>
       </c>
       <c r="K139">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M139">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N139">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O139">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13008,7 +13008,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7451045</v>
+        <v>7451046</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13020,76 +13020,76 @@
         <v>45238.75</v>
       </c>
       <c r="F141" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K141">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L141">
         <v>3.2</v>
       </c>
       <c r="M141">
+        <v>2.2</v>
+      </c>
+      <c r="N141">
+        <v>2.2</v>
+      </c>
+      <c r="O141">
+        <v>3.3</v>
+      </c>
+      <c r="P141">
+        <v>2.8</v>
+      </c>
+      <c r="Q141">
+        <v>-0.25</v>
+      </c>
+      <c r="R141">
+        <v>1.9</v>
+      </c>
+      <c r="S141">
+        <v>1.9</v>
+      </c>
+      <c r="T141">
         <v>2.5</v>
       </c>
-      <c r="N141">
-        <v>3.2</v>
-      </c>
-      <c r="O141">
-        <v>3.4</v>
-      </c>
-      <c r="P141">
-        <v>2</v>
-      </c>
-      <c r="Q141">
-        <v>0.25</v>
-      </c>
-      <c r="R141">
-        <v>2</v>
-      </c>
-      <c r="S141">
-        <v>1.8</v>
-      </c>
-      <c r="T141">
-        <v>2.25</v>
-      </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7451044</v>
+        <v>7451045</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,49 +13109,49 @@
         <v>45238.75</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K142">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="N142">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="O142">
         <v>3.4</v>
       </c>
       <c r="P142">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
         <v>1.8</v>
       </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
         <v>1.8</v>
@@ -13163,22 +13163,22 @@
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -14966,7 +14966,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7694909</v>
+        <v>7693875</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14978,76 +14978,76 @@
         <v>45304.75</v>
       </c>
       <c r="F163" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K163">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M163">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N163">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O163">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>1.85</v>
+      </c>
+      <c r="S163">
+        <v>1.95</v>
+      </c>
+      <c r="T163">
+        <v>2.5</v>
+      </c>
+      <c r="U163">
+        <v>2</v>
+      </c>
+      <c r="V163">
+        <v>1.8</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
+        <v>2.1</v>
+      </c>
+      <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
         <v>-0.5</v>
       </c>
-      <c r="R163">
-        <v>1.975</v>
-      </c>
-      <c r="S163">
-        <v>1.825</v>
-      </c>
-      <c r="T163">
-        <v>3</v>
-      </c>
-      <c r="U163">
-        <v>1.975</v>
-      </c>
-      <c r="V163">
-        <v>1.825</v>
-      </c>
-      <c r="W163">
-        <v>0.909</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
-      </c>
-      <c r="Y163">
-        <v>-1</v>
-      </c>
-      <c r="Z163">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7693875</v>
+        <v>7694909</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45304.75</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K164">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N164">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P164">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U164">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X164">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA164">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC164">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7726349</v>
+        <v>7726348</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,76 +15868,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K173">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L173">
         <v>3.3</v>
       </c>
       <c r="M173">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N173">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V173">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W173">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7726348</v>
+        <v>7726349</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15957,76 +15957,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
         <v>0</v>
       </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
       <c r="J174" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K174">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="L174">
         <v>3.3</v>
       </c>
       <c r="M174">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N174">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P174">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R174">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V174">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7749789</v>
+        <v>7749670</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,40 +16491,40 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
         <v>1</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>52</v>
       </c>
       <c r="K180">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="L180">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M180">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="N180">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O180">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
         <v>1.85</v>
@@ -16536,13 +16536,13 @@
         <v>2.5</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16551,16 +16551,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC180">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7749670</v>
+        <v>7749789</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,40 +16580,40 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>52</v>
       </c>
       <c r="K181">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M181">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="N181">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P181">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="Q181">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R181">
         <v>1.85</v>
@@ -16625,13 +16625,13 @@
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W181">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16640,16 +16640,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
+        <v>0.425</v>
+      </c>
+      <c r="AA181">
         <v>-0.5</v>
       </c>
-      <c r="AA181">
-        <v>0.475</v>
-      </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17102,7 +17102,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7785346</v>
+        <v>7785358</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17114,76 +17114,76 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G187" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H187">
+        <v>2</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>52</v>
+      </c>
+      <c r="K187">
+        <v>2.5</v>
+      </c>
+      <c r="L187">
+        <v>3.3</v>
+      </c>
+      <c r="M187">
+        <v>2.4</v>
+      </c>
+      <c r="N187">
+        <v>1.833</v>
+      </c>
+      <c r="O187">
+        <v>3.6</v>
+      </c>
+      <c r="P187">
+        <v>3.4</v>
+      </c>
+      <c r="Q187">
+        <v>-0.5</v>
+      </c>
+      <c r="R187">
+        <v>1.9</v>
+      </c>
+      <c r="S187">
+        <v>1.9</v>
+      </c>
+      <c r="T187">
         <v>3</v>
       </c>
-      <c r="I187">
-        <v>3</v>
-      </c>
-      <c r="J187" t="s">
-        <v>54</v>
-      </c>
-      <c r="K187">
-        <v>3.75</v>
-      </c>
-      <c r="L187">
-        <v>3</v>
-      </c>
-      <c r="M187">
-        <v>1.952</v>
-      </c>
-      <c r="N187">
-        <v>2.6</v>
-      </c>
-      <c r="O187">
-        <v>2.7</v>
-      </c>
-      <c r="P187">
-        <v>2.75</v>
-      </c>
-      <c r="Q187">
+      <c r="U187">
+        <v>1.95</v>
+      </c>
+      <c r="V187">
+        <v>1.85</v>
+      </c>
+      <c r="W187">
+        <v>0.833</v>
+      </c>
+      <c r="X187">
+        <v>-1</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA187">
+        <v>-1</v>
+      </c>
+      <c r="AB187">
         <v>0</v>
       </c>
-      <c r="R187">
-        <v>1.85</v>
-      </c>
-      <c r="S187">
-        <v>1.95</v>
-      </c>
-      <c r="T187">
-        <v>2</v>
-      </c>
-      <c r="U187">
-        <v>1.8</v>
-      </c>
-      <c r="V187">
-        <v>2</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>1.7</v>
-      </c>
-      <c r="Y187">
-        <v>-1</v>
-      </c>
-      <c r="Z187">
-        <v>0</v>
-      </c>
-      <c r="AA187">
+      <c r="AC187">
         <v>-0</v>
-      </c>
-      <c r="AB187">
-        <v>0.8</v>
-      </c>
-      <c r="AC187">
-        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17191,7 +17191,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7785358</v>
+        <v>7785346</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17203,76 +17203,76 @@
         <v>45326.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K188">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L188">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M188">
-        <v>2.4</v>
+        <v>1.952</v>
       </c>
       <c r="N188">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P188">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R188">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7864114</v>
+        <v>7864156</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,76 +19517,76 @@
         <v>45343.75</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K214">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L214">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N214">
-        <v>1.571</v>
+        <v>1.952</v>
       </c>
       <c r="O214">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P214">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.952</v>
       </c>
       <c r="X214">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA214">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7864156</v>
+        <v>7864114</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,76 +19606,76 @@
         <v>45343.75</v>
       </c>
       <c r="F215" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K215">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L215">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N215">
-        <v>1.952</v>
+        <v>1.571</v>
       </c>
       <c r="O215">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P215">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S215">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T215">
         <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V215">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>0.952</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20573,7 +20573,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7905007</v>
+        <v>7905008</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20585,13 +20585,13 @@
         <v>45353.75</v>
       </c>
       <c r="F226" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G226" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I226">
         <v>1</v>
@@ -20603,40 +20603,40 @@
         <v>2.1</v>
       </c>
       <c r="L226">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M226">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N226">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O226">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P226">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q226">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R226">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S226">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V226">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W226">
-        <v>0.333</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20645,13 +20645,13 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA226">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC226">
         <v>-1</v>
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7905008</v>
+        <v>7905007</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,13 +20674,13 @@
         <v>45353.75</v>
       </c>
       <c r="F227" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G227" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H227">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I227">
         <v>1</v>
@@ -20692,40 +20692,40 @@
         <v>2.1</v>
       </c>
       <c r="L227">
+        <v>3.3</v>
+      </c>
+      <c r="M227">
         <v>3</v>
       </c>
-      <c r="M227">
-        <v>3.4</v>
-      </c>
       <c r="N227">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O227">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P227">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q227">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R227">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S227">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T227">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V227">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W227">
-        <v>0.3999999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -20734,13 +20734,13 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB227">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -21552,7 +21552,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7921521</v>
+        <v>7921522</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21564,49 +21564,49 @@
         <v>45357.95833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G237" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H237">
         <v>3</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
         <v>52</v>
       </c>
       <c r="K237">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L237">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M237">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N237">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="O237">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P237">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q237">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S237">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
         <v>1.9</v>
@@ -21615,7 +21615,7 @@
         <v>1.9</v>
       </c>
       <c r="W237">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21624,16 +21624,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
+        <v>0.8</v>
+      </c>
+      <c r="AA237">
+        <v>-1</v>
+      </c>
+      <c r="AB237">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA237">
-        <v>-1</v>
-      </c>
-      <c r="AB237">
-        <v>0.45</v>
-      </c>
       <c r="AC237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21641,7 +21641,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7921522</v>
+        <v>7921521</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21653,49 +21653,49 @@
         <v>45357.95833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H238">
         <v>3</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
         <v>52</v>
       </c>
       <c r="K238">
+        <v>1.615</v>
+      </c>
+      <c r="L238">
+        <v>3.5</v>
+      </c>
+      <c r="M238">
+        <v>4.75</v>
+      </c>
+      <c r="N238">
+        <v>1.444</v>
+      </c>
+      <c r="O238">
+        <v>3.8</v>
+      </c>
+      <c r="P238">
+        <v>6.5</v>
+      </c>
+      <c r="Q238">
+        <v>-1.25</v>
+      </c>
+      <c r="R238">
+        <v>1.9</v>
+      </c>
+      <c r="S238">
+        <v>1.9</v>
+      </c>
+      <c r="T238">
         <v>2.75</v>
-      </c>
-      <c r="L238">
-        <v>3.3</v>
-      </c>
-      <c r="M238">
-        <v>2.3</v>
-      </c>
-      <c r="N238">
-        <v>1.75</v>
-      </c>
-      <c r="O238">
-        <v>3.4</v>
-      </c>
-      <c r="P238">
-        <v>4.333</v>
-      </c>
-      <c r="Q238">
-        <v>-0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.8</v>
-      </c>
-      <c r="S238">
-        <v>2</v>
-      </c>
-      <c r="T238">
-        <v>2.25</v>
       </c>
       <c r="U238">
         <v>1.9</v>
@@ -21704,7 +21704,7 @@
         <v>1.9</v>
       </c>
       <c r="W238">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21713,16 +21713,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -22086,7 +22086,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7941223</v>
+        <v>7941224</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22098,76 +22098,76 @@
         <v>45361.75</v>
       </c>
       <c r="F243" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G243" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243">
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K243">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L243">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M243">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N243">
+        <v>1.3</v>
+      </c>
+      <c r="O243">
+        <v>4.75</v>
+      </c>
+      <c r="P243">
+        <v>8.5</v>
+      </c>
+      <c r="Q243">
+        <v>-1.5</v>
+      </c>
+      <c r="R243">
+        <v>1.9</v>
+      </c>
+      <c r="S243">
+        <v>1.9</v>
+      </c>
+      <c r="T243">
+        <v>2.75</v>
+      </c>
+      <c r="U243">
         <v>1.95</v>
       </c>
-      <c r="O243">
-        <v>3.4</v>
-      </c>
-      <c r="P243">
-        <v>3.3</v>
-      </c>
-      <c r="Q243">
-        <v>-0.5</v>
-      </c>
-      <c r="R243">
-        <v>2</v>
-      </c>
-      <c r="S243">
-        <v>1.8</v>
-      </c>
-      <c r="T243">
-        <v>2.25</v>
-      </c>
-      <c r="U243">
-        <v>1.8</v>
-      </c>
       <c r="V243">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X243">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA243">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
         <v>-1</v>
       </c>
       <c r="AC243">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22175,7 +22175,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7941224</v>
+        <v>7941223</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22187,76 +22187,76 @@
         <v>45361.75</v>
       </c>
       <c r="F244" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G244" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244">
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K244">
+        <v>1.909</v>
+      </c>
+      <c r="L244">
+        <v>3.5</v>
+      </c>
+      <c r="M244">
+        <v>3.4</v>
+      </c>
+      <c r="N244">
+        <v>1.95</v>
+      </c>
+      <c r="O244">
+        <v>3.4</v>
+      </c>
+      <c r="P244">
+        <v>3.3</v>
+      </c>
+      <c r="Q244">
+        <v>-0.5</v>
+      </c>
+      <c r="R244">
+        <v>2</v>
+      </c>
+      <c r="S244">
         <v>1.8</v>
       </c>
-      <c r="L244">
-        <v>3.3</v>
-      </c>
-      <c r="M244">
-        <v>4</v>
-      </c>
-      <c r="N244">
-        <v>1.3</v>
-      </c>
-      <c r="O244">
-        <v>4.75</v>
-      </c>
-      <c r="P244">
-        <v>8.5</v>
-      </c>
-      <c r="Q244">
-        <v>-1.5</v>
-      </c>
-      <c r="R244">
-        <v>1.9</v>
-      </c>
-      <c r="S244">
-        <v>1.9</v>
-      </c>
       <c r="T244">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V244">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W244">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB244">
         <v>-1</v>
       </c>
       <c r="AC244">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22442,7 +22442,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7967003</v>
+        <v>7967099</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22454,58 +22454,58 @@
         <v>45367.95833333334</v>
       </c>
       <c r="F247" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G247" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H247">
         <v>2</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
         <v>52</v>
       </c>
       <c r="K247">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="L247">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M247">
-        <v>9.5</v>
+        <v>2.875</v>
       </c>
       <c r="N247">
-        <v>1.222</v>
+        <v>1.8</v>
       </c>
       <c r="O247">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P247">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q247">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S247">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T247">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V247">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W247">
-        <v>0.222</v>
+        <v>0.8</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22514,16 +22514,16 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA247">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22531,7 +22531,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7967099</v>
+        <v>7967003</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22543,76 +22543,76 @@
         <v>45367.95833333334</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G248" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H248">
         <v>2</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="s">
         <v>52</v>
       </c>
       <c r="K248">
-        <v>2.1</v>
+        <v>1.222</v>
       </c>
       <c r="L248">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M248">
-        <v>2.875</v>
+        <v>9.5</v>
       </c>
       <c r="N248">
-        <v>1.8</v>
+        <v>1.222</v>
       </c>
       <c r="O248">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P248">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q248">
+        <v>-1.75</v>
+      </c>
+      <c r="R248">
+        <v>1.85</v>
+      </c>
+      <c r="S248">
+        <v>1.95</v>
+      </c>
+      <c r="T248">
+        <v>2.75</v>
+      </c>
+      <c r="U248">
+        <v>1.85</v>
+      </c>
+      <c r="V248">
+        <v>1.95</v>
+      </c>
+      <c r="W248">
+        <v>0.222</v>
+      </c>
+      <c r="X248">
+        <v>-1</v>
+      </c>
+      <c r="Y248">
+        <v>-1</v>
+      </c>
+      <c r="Z248">
+        <v>-1</v>
+      </c>
+      <c r="AA248">
+        <v>0.95</v>
+      </c>
+      <c r="AB248">
+        <v>0.425</v>
+      </c>
+      <c r="AC248">
         <v>-0.5</v>
-      </c>
-      <c r="R248">
-        <v>1.825</v>
-      </c>
-      <c r="S248">
-        <v>1.975</v>
-      </c>
-      <c r="T248">
-        <v>2.5</v>
-      </c>
-      <c r="U248">
-        <v>1.8</v>
-      </c>
-      <c r="V248">
-        <v>2</v>
-      </c>
-      <c r="W248">
-        <v>0.8</v>
-      </c>
-      <c r="X248">
-        <v>-1</v>
-      </c>
-      <c r="Y248">
-        <v>-1</v>
-      </c>
-      <c r="Z248">
-        <v>0.825</v>
-      </c>
-      <c r="AA248">
-        <v>-1</v>
-      </c>
-      <c r="AB248">
-        <v>-1</v>
-      </c>
-      <c r="AC248">
-        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -23154,7 +23154,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>8003933</v>
+        <v>8003934</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23166,58 +23166,58 @@
         <v>45375.75</v>
       </c>
       <c r="F255" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G255" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H255">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="s">
         <v>52</v>
       </c>
       <c r="K255">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L255">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M255">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N255">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O255">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P255">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q255">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R255">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S255">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T255">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U255">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V255">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W255">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -23226,16 +23226,16 @@
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA255">
         <v>-1</v>
       </c>
       <c r="AB255">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC255">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23243,7 +23243,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>8003934</v>
+        <v>8003933</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23255,58 +23255,58 @@
         <v>45375.75</v>
       </c>
       <c r="F256" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G256" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H256">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" t="s">
         <v>52</v>
       </c>
       <c r="K256">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L256">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M256">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N256">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O256">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P256">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q256">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R256">
+        <v>1.75</v>
+      </c>
+      <c r="S256">
         <v>1.95</v>
       </c>
-      <c r="S256">
-        <v>1.85</v>
-      </c>
       <c r="T256">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U256">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V256">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W256">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="X256">
         <v>-1</v>
@@ -23315,16 +23315,16 @@
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA256">
         <v>-1</v>
       </c>
       <c r="AB256">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23688,7 +23688,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>8015571</v>
+        <v>8015644</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23700,76 +23700,76 @@
         <v>45378.95833333334</v>
       </c>
       <c r="F261" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G261" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261">
         <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K261">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M261">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N261">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="O261">
         <v>4.5</v>
       </c>
       <c r="P261">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="Q261">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R261">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S261">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T261">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U261">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V261">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W261">
         <v>-1</v>
       </c>
       <c r="X261">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z261">
         <v>-1</v>
       </c>
       <c r="AA261">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB261">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23777,7 +23777,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>8015644</v>
+        <v>8015571</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23789,76 +23789,76 @@
         <v>45378.95833333334</v>
       </c>
       <c r="F262" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G262" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262">
         <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K262">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L262">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M262">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N262">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="O262">
         <v>4.5</v>
       </c>
       <c r="P262">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="Q262">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R262">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S262">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T262">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U262">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V262">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W262">
         <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y262">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB262">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC262">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Guatemala Primera Division/Guatemala Primera Division.xlsx
+++ b/Guatemala Primera Division/Guatemala Primera Division.xlsx
@@ -2328,7 +2328,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7060342</v>
+        <v>7060392</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2340,49 +2340,49 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21">
+        <v>1.952</v>
+      </c>
+      <c r="L21">
         <v>3.3</v>
       </c>
-      <c r="L21">
-        <v>3.2</v>
-      </c>
       <c r="M21">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N21">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O21">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -2391,19 +2391,19 @@
         <v>1.8</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
         <v>-1</v>
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7060392</v>
+        <v>7060342</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,49 +2429,49 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>1.952</v>
+        <v>3.3</v>
       </c>
       <c r="L22">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M22">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P22">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -2480,19 +2480,19 @@
         <v>1.8</v>
       </c>
       <c r="W22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z22">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
         <v>-1</v>
@@ -3129,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7072543</v>
+        <v>7072542</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3141,10 +3141,10 @@
         <v>45154.75</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3156,58 +3156,58 @@
         <v>52</v>
       </c>
       <c r="K30">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
+        <v>3.25</v>
+      </c>
+      <c r="M30">
         <v>3.5</v>
       </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
       <c r="N30">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O30">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q30">
+        <v>-0.75</v>
+      </c>
+      <c r="R30">
+        <v>1.925</v>
+      </c>
+      <c r="S30">
+        <v>1.875</v>
+      </c>
+      <c r="T30">
+        <v>2.25</v>
+      </c>
+      <c r="U30">
+        <v>1.85</v>
+      </c>
+      <c r="V30">
+        <v>1.95</v>
+      </c>
+      <c r="W30">
+        <v>0.7</v>
+      </c>
+      <c r="X30">
+        <v>-1</v>
+      </c>
+      <c r="Y30">
+        <v>-1</v>
+      </c>
+      <c r="Z30">
+        <v>0.4625</v>
+      </c>
+      <c r="AA30">
         <v>-0.5</v>
       </c>
-      <c r="R30">
-        <v>1.85</v>
-      </c>
-      <c r="S30">
-        <v>1.95</v>
-      </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
-      <c r="V30">
-        <v>1.725</v>
-      </c>
-      <c r="W30">
-        <v>0.8</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>-1</v>
-      </c>
-      <c r="Z30">
+      <c r="AB30">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
-      <c r="AB30">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3218,7 +3218,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7072459</v>
+        <v>7072448</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3230,10 +3230,10 @@
         <v>45154.75</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3245,61 +3245,61 @@
         <v>54</v>
       </c>
       <c r="K31">
+        <v>1.727</v>
+      </c>
+      <c r="L31">
+        <v>3.5</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <v>1.6</v>
+      </c>
+      <c r="O31">
+        <v>3.6</v>
+      </c>
+      <c r="P31">
+        <v>4.75</v>
+      </c>
+      <c r="Q31">
+        <v>-0.75</v>
+      </c>
+      <c r="R31">
+        <v>1.8</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
         <v>2.25</v>
       </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
-      <c r="M31">
-        <v>3</v>
-      </c>
-      <c r="N31">
-        <v>2.5</v>
-      </c>
-      <c r="O31">
-        <v>2.8</v>
-      </c>
-      <c r="P31">
-        <v>3</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>1.725</v>
-      </c>
-      <c r="S31">
-        <v>2.075</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
       <c r="U31">
+        <v>1.95</v>
+      </c>
+      <c r="V31">
         <v>1.85</v>
       </c>
-      <c r="V31">
-        <v>1.95</v>
-      </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7072542</v>
+        <v>7072543</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,10 +3408,10 @@
         <v>45154.75</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3423,43 +3423,43 @@
         <v>52</v>
       </c>
       <c r="K33">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L33">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N33">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W33">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3468,13 +3468,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7072448</v>
+        <v>7072459</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,10 +3497,10 @@
         <v>45154.75</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3512,61 +3512,61 @@
         <v>54</v>
       </c>
       <c r="K34">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L34">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P34">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R34">
+        <v>1.725</v>
+      </c>
+      <c r="S34">
+        <v>2.075</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="U34">
+        <v>1.85</v>
+      </c>
+      <c r="V34">
+        <v>1.95</v>
+      </c>
+      <c r="W34">
+        <v>-1</v>
+      </c>
+      <c r="X34">
         <v>1.8</v>
       </c>
-      <c r="S34">
-        <v>2</v>
-      </c>
-      <c r="T34">
-        <v>2.25</v>
-      </c>
-      <c r="U34">
-        <v>1.95</v>
-      </c>
-      <c r="V34">
-        <v>1.85</v>
-      </c>
-      <c r="W34">
-        <v>-1</v>
-      </c>
-      <c r="X34">
-        <v>2.6</v>
-      </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3841,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7106041</v>
+        <v>7106173</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3853,13 +3853,13 @@
         <v>45161.75</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3868,43 +3868,43 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L38">
         <v>3.2</v>
       </c>
       <c r="M38">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>1.3</v>
+        <v>0.571</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3913,16 +3913,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7106173</v>
+        <v>7106174</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3942,76 +3942,76 @@
         <v>45161.75</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K39">
         <v>2</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M39">
         <v>3.5</v>
       </c>
       <c r="N39">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4019,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7106174</v>
+        <v>7106041</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4031,76 +4031,76 @@
         <v>45161.75</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L40">
+        <v>3.2</v>
+      </c>
+      <c r="M40">
+        <v>2.3</v>
+      </c>
+      <c r="N40">
+        <v>2.3</v>
+      </c>
+      <c r="O40">
         <v>3</v>
       </c>
-      <c r="M40">
-        <v>3.5</v>
-      </c>
-      <c r="N40">
+      <c r="P40">
+        <v>2.875</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
         <v>1.75</v>
       </c>
-      <c r="O40">
-        <v>3.1</v>
-      </c>
-      <c r="P40">
-        <v>4.333</v>
-      </c>
-      <c r="Q40">
-        <v>-0.5</v>
-      </c>
-      <c r="R40">
-        <v>1.85</v>
-      </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X40">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4642,7 +4642,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7128480</v>
+        <v>7128481</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4654,13 +4654,13 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4669,61 +4669,61 @@
         <v>52</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L47">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M47">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N47">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q47">
+        <v>-1</v>
+      </c>
+      <c r="R47">
+        <v>1.725</v>
+      </c>
+      <c r="S47">
+        <v>1.975</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
+        <v>1.8</v>
+      </c>
+      <c r="W47">
+        <v>0.444</v>
+      </c>
+      <c r="X47">
+        <v>-1</v>
+      </c>
+      <c r="Y47">
+        <v>-1</v>
+      </c>
+      <c r="Z47">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>-1</v>
+      </c>
+      <c r="AB47">
         <v>-0.5</v>
       </c>
-      <c r="R47">
-        <v>1.85</v>
-      </c>
-      <c r="S47">
-        <v>1.95</v>
-      </c>
-      <c r="T47">
-        <v>1.75</v>
-      </c>
-      <c r="U47">
-        <v>1.85</v>
-      </c>
-      <c r="V47">
-        <v>1.95</v>
-      </c>
-      <c r="W47">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
-      <c r="Y47">
-        <v>-1</v>
-      </c>
-      <c r="Z47">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA47">
-        <v>-1</v>
-      </c>
-      <c r="AB47">
-        <v>-1</v>
-      </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4731,7 +4731,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7128481</v>
+        <v>7128480</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4743,13 +4743,13 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -4758,43 +4758,43 @@
         <v>52</v>
       </c>
       <c r="K48">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L48">
+        <v>3.1</v>
+      </c>
+      <c r="M48">
         <v>3.75</v>
       </c>
-      <c r="M48">
-        <v>4.75</v>
-      </c>
       <c r="N48">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O48">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
-        <v>0.444</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4803,16 +4803,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -6155,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7189791</v>
+        <v>7189205</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6167,76 +6167,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K64">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M64">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O64">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P64">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U64">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W64">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB64">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7189205</v>
+        <v>7189791</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,76 +6256,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L65">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N65">
+        <v>2.7</v>
+      </c>
+      <c r="O65">
+        <v>3.75</v>
+      </c>
+      <c r="P65">
         <v>2.15</v>
       </c>
-      <c r="O65">
-        <v>2.8</v>
-      </c>
-      <c r="P65">
-        <v>3.4</v>
-      </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6956,7 +6956,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7203472</v>
+        <v>7203437</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6968,46 +6968,46 @@
         <v>45182.75</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>52</v>
       </c>
       <c r="K73">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L73">
         <v>3.2</v>
       </c>
       <c r="M73">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N73">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
         <v>2.5</v>
@@ -7016,10 +7016,10 @@
         <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W73">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7028,10 +7028,10 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
         <v>0.95</v>
@@ -7045,7 +7045,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7203437</v>
+        <v>7203472</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7057,46 +7057,46 @@
         <v>45182.75</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>52</v>
       </c>
       <c r="K74">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L74">
         <v>3.2</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N74">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
         <v>2.5</v>
@@ -7105,10 +7105,10 @@
         <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7117,10 +7117,10 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
         <v>0.95</v>
@@ -8380,7 +8380,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7249889</v>
+        <v>7249833</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8392,76 +8392,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L89">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M89">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N89">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P89">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X89">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC89">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8469,7 +8469,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7249833</v>
+        <v>7249889</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8481,76 +8481,76 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K90">
+        <v>2.2</v>
+      </c>
+      <c r="L90">
+        <v>3.3</v>
+      </c>
+      <c r="M90">
+        <v>2.8</v>
+      </c>
+      <c r="N90">
+        <v>1.833</v>
+      </c>
+      <c r="O90">
+        <v>3.4</v>
+      </c>
+      <c r="P90">
+        <v>3.5</v>
+      </c>
+      <c r="Q90">
+        <v>-0.5</v>
+      </c>
+      <c r="R90">
+        <v>1.9</v>
+      </c>
+      <c r="S90">
+        <v>1.9</v>
+      </c>
+      <c r="T90">
         <v>2.75</v>
       </c>
-      <c r="L90">
-        <v>3.2</v>
-      </c>
-      <c r="M90">
-        <v>2.3</v>
-      </c>
-      <c r="N90">
-        <v>2.1</v>
-      </c>
-      <c r="O90">
-        <v>3.25</v>
-      </c>
-      <c r="P90">
-        <v>3.1</v>
-      </c>
-      <c r="Q90">
-        <v>-0.25</v>
-      </c>
-      <c r="R90">
-        <v>1.85</v>
-      </c>
-      <c r="S90">
-        <v>1.95</v>
-      </c>
-      <c r="T90">
-        <v>2.25</v>
-      </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W90">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7265142</v>
+        <v>7265144</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9282,16 +9282,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>52</v>
@@ -9300,40 +9300,40 @@
         <v>2</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M99">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9342,16 +9342,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
+        <v>0.75</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>0.95</v>
-      </c>
-      <c r="AC99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9359,7 +9359,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7265144</v>
+        <v>7265142</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9371,16 +9371,16 @@
         <v>45196.95833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
         <v>1</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>52</v>
@@ -9389,40 +9389,40 @@
         <v>2</v>
       </c>
       <c r="L100">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N100">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O100">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P100">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
         <v>2.25</v>
       </c>
       <c r="U100">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V100">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9431,16 +9431,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -11050,7 +11050,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7387211</v>
+        <v>7387942</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11062,61 +11062,61 @@
         <v>45224.75</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K119">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N119">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O119">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P119">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q119">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
@@ -11125,13 +11125,13 @@
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7387942</v>
+        <v>7387211</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11151,61 +11151,61 @@
         <v>45224.75</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K120">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L120">
+        <v>4</v>
+      </c>
+      <c r="M120">
+        <v>5.5</v>
+      </c>
+      <c r="N120">
+        <v>1.363</v>
+      </c>
+      <c r="O120">
+        <v>4.5</v>
+      </c>
+      <c r="P120">
+        <v>7</v>
+      </c>
+      <c r="Q120">
+        <v>-1.5</v>
+      </c>
+      <c r="R120">
+        <v>1.975</v>
+      </c>
+      <c r="S120">
+        <v>1.825</v>
+      </c>
+      <c r="T120">
         <v>3</v>
       </c>
-      <c r="M120">
-        <v>2.6</v>
-      </c>
-      <c r="N120">
-        <v>1.909</v>
-      </c>
-      <c r="O120">
-        <v>3.2</v>
-      </c>
-      <c r="P120">
-        <v>3.6</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>2</v>
-      </c>
-      <c r="S120">
-        <v>1.8</v>
-      </c>
-      <c r="T120">
-        <v>2.25</v>
-      </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X120">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11214,13 +11214,13 @@
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -12830,7 +12830,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7451044</v>
+        <v>7451046</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12842,76 +12842,76 @@
         <v>45238.75</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>54</v>
       </c>
       <c r="K139">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L139">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N139">
+        <v>2.2</v>
+      </c>
+      <c r="O139">
+        <v>3.3</v>
+      </c>
+      <c r="P139">
+        <v>2.8</v>
+      </c>
+      <c r="Q139">
+        <v>-0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.9</v>
+      </c>
+      <c r="S139">
+        <v>1.9</v>
+      </c>
+      <c r="T139">
+        <v>2.5</v>
+      </c>
+      <c r="U139">
+        <v>1.825</v>
+      </c>
+      <c r="V139">
+        <v>1.975</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
         <v>2.3</v>
       </c>
-      <c r="O139">
-        <v>3.4</v>
-      </c>
-      <c r="P139">
-        <v>2.55</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
-        <v>1.8</v>
-      </c>
-      <c r="S139">
-        <v>2</v>
-      </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
-      <c r="U139">
-        <v>1.8</v>
-      </c>
-      <c r="V139">
-        <v>2</v>
-      </c>
-      <c r="W139">
-        <v>-1</v>
-      </c>
-      <c r="X139">
-        <v>2.4</v>
-      </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13008,7 +13008,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7451046</v>
+        <v>7451045</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13020,76 +13020,76 @@
         <v>45238.75</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K141">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L141">
         <v>3.2</v>
       </c>
       <c r="M141">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N141">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O141">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7451045</v>
+        <v>7451044</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,49 +13109,49 @@
         <v>45238.75</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="N142">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
         <v>3.4</v>
       </c>
       <c r="P142">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
         <v>1.8</v>
@@ -13163,22 +13163,22 @@
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>-0</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
         <v>1</v>
-      </c>
-      <c r="Z142">
-        <v>-1</v>
-      </c>
-      <c r="AA142">
-        <v>0.8</v>
-      </c>
-      <c r="AB142">
-        <v>0.8</v>
-      </c>
-      <c r="AC142">
-        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -14966,7 +14966,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7693875</v>
+        <v>7694909</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14978,76 +14978,76 @@
         <v>45304.75</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L163">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N163">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7694909</v>
+        <v>7693875</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45304.75</v>
       </c>
       <c r="F164" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L164">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M164">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N164">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q164">
+        <v>-0.25</v>
+      </c>
+      <c r="R164">
+        <v>1.85</v>
+      </c>
+      <c r="S164">
+        <v>1.95</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
+        <v>2</v>
+      </c>
+      <c r="V164">
+        <v>1.8</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
+        <v>2.1</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
         <v>-0.5</v>
       </c>
-      <c r="R164">
-        <v>1.975</v>
-      </c>
-      <c r="S164">
-        <v>1.825</v>
-      </c>
-      <c r="T164">
-        <v>3</v>
-      </c>
-      <c r="U164">
-        <v>1.975</v>
-      </c>
-      <c r="V164">
-        <v>1.825</v>
-      </c>
-      <c r="W164">
-        <v>0.909</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
-      <c r="Y164">
-        <v>-1</v>
-      </c>
-      <c r="Z164">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB164">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7726348</v>
+        <v>7726349</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,76 +15868,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G173" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
         <v>0</v>
       </c>
-      <c r="I173">
-        <v>1</v>
-      </c>
       <c r="J173" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K173">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="L173">
         <v>3.3</v>
       </c>
       <c r="M173">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N173">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O173">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
         <v>2.75</v>
       </c>
       <c r="U173">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15945,7 +15945,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7726349</v>
+        <v>7726348</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15957,76 +15957,76 @@
         <v>45312.58333333334</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K174">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L174">
         <v>3.3</v>
       </c>
       <c r="M174">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N174">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O174">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T174">
         <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V174">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W174">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7749669</v>
+        <v>7749789</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,76 +16402,76 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K179">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="L179">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M179">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N179">
         <v>1.65</v>
       </c>
       <c r="O179">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q179">
         <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X179">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA179">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB179">
         <v>-1</v>
       </c>
       <c r="AC179">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7749789</v>
+        <v>7749669</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45318.95833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G181" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K181">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L181">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M181">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N181">
         <v>1.65</v>
       </c>
       <c r="O181">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P181">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q181">
         <v>-0.75</v>
       </c>
       <c r="R181">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V181">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W181">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17992,7 +17992,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7797361</v>
+        <v>7797367</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18004,10 +18004,10 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -18019,34 +18019,34 @@
         <v>52</v>
       </c>
       <c r="K197">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L197">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M197">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N197">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O197">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P197">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R197">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S197">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
         <v>1.9</v>
@@ -18055,7 +18055,7 @@
         <v>1.9</v>
       </c>
       <c r="W197">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18064,7 +18064,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18081,7 +18081,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7797366</v>
+        <v>7797361</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18093,13 +18093,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G198" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H198">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -18108,25 +18108,25 @@
         <v>52</v>
       </c>
       <c r="K198">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L198">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M198">
+        <v>2.6</v>
+      </c>
+      <c r="N198">
+        <v>1.8</v>
+      </c>
+      <c r="O198">
+        <v>3.6</v>
+      </c>
+      <c r="P198">
         <v>3.5</v>
       </c>
-      <c r="N198">
-        <v>1.25</v>
-      </c>
-      <c r="O198">
-        <v>6</v>
-      </c>
-      <c r="P198">
-        <v>7.5</v>
-      </c>
       <c r="Q198">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
         <v>1.85</v>
@@ -18135,16 +18135,16 @@
         <v>1.95</v>
       </c>
       <c r="T198">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18159,7 +18159,7 @@
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18170,7 +18170,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7797367</v>
+        <v>7797366</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18182,13 +18182,13 @@
         <v>45329.95833333334</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H199">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -18197,43 +18197,43 @@
         <v>52</v>
       </c>
       <c r="K199">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L199">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M199">
+        <v>3.5</v>
+      </c>
+      <c r="N199">
+        <v>1.25</v>
+      </c>
+      <c r="O199">
+        <v>6</v>
+      </c>
+      <c r="P199">
+        <v>7.5</v>
+      </c>
+      <c r="Q199">
+        <v>-1.75</v>
+      </c>
+      <c r="R199">
+        <v>1.85</v>
+      </c>
+      <c r="S199">
+        <v>1.95</v>
+      </c>
+      <c r="T199">
         <v>3</v>
       </c>
-      <c r="N199">
-        <v>1.5</v>
-      </c>
-      <c r="O199">
-        <v>3.75</v>
-      </c>
-      <c r="P199">
-        <v>6</v>
-      </c>
-      <c r="Q199">
-        <v>-1</v>
-      </c>
-      <c r="R199">
-        <v>1.9</v>
-      </c>
-      <c r="S199">
-        <v>1.9</v>
-      </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W199">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18242,13 +18242,13 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC199">
         <v>-1</v>
@@ -20573,7 +20573,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7905008</v>
+        <v>7905007</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20585,13 +20585,13 @@
         <v>45353.75</v>
       </c>
       <c r="F226" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G226" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I226">
         <v>1</v>
@@ -20603,40 +20603,40 @@
         <v>2.1</v>
       </c>
       <c r="L226">
+        <v>3.3</v>
+      </c>
+      <c r="M226">
         <v>3</v>
       </c>
-      <c r="M226">
-        <v>3.4</v>
-      </c>
       <c r="N226">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O226">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P226">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q226">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R226">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S226">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U226">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V226">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W226">
-        <v>0.3999999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X226">
         <v>-1</v>
@@ -20645,13 +20645,13 @@
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB226">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC226">
         <v>-1</v>
@@ -20662,7 +20662,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7905007</v>
+        <v>7905008</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20674,13 +20674,13 @@
         <v>45353.75</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G227" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I227">
         <v>1</v>
@@ -20692,40 +20692,40 @@
         <v>2.1</v>
       </c>
       <c r="L227">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M227">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N227">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="O227">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P227">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q227">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R227">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S227">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V227">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W227">
-        <v>0.333</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -20734,13 +20734,13 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA227">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -21552,7 +21552,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7921522</v>
+        <v>7921521</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21564,49 +21564,49 @@
         <v>45357.95833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G237" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H237">
         <v>3</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
         <v>52</v>
       </c>
       <c r="K237">
+        <v>1.615</v>
+      </c>
+      <c r="L237">
+        <v>3.5</v>
+      </c>
+      <c r="M237">
+        <v>4.75</v>
+      </c>
+      <c r="N237">
+        <v>1.444</v>
+      </c>
+      <c r="O237">
+        <v>3.8</v>
+      </c>
+      <c r="P237">
+        <v>6.5</v>
+      </c>
+      <c r="Q237">
+        <v>-1.25</v>
+      </c>
+      <c r="R237">
+        <v>1.9</v>
+      </c>
+      <c r="S237">
+        <v>1.9</v>
+      </c>
+      <c r="T237">
         <v>2.75</v>
-      </c>
-      <c r="L237">
-        <v>3.3</v>
-      </c>
-      <c r="M237">
-        <v>2.3</v>
-      </c>
-      <c r="N237">
-        <v>1.75</v>
-      </c>
-      <c r="O237">
-        <v>3.4</v>
-      </c>
-      <c r="P237">
-        <v>4.333</v>
-      </c>
-      <c r="Q237">
-        <v>-0.5</v>
-      </c>
-      <c r="R237">
-        <v>1.8</v>
-      </c>
-      <c r="S237">
-        <v>2</v>
-      </c>
-      <c r="T237">
-        <v>2.25</v>
       </c>
       <c r="U237">
         <v>1.9</v>
@@ -21615,7 +21615,7 @@
         <v>1.9</v>
       </c>
       <c r="W237">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21624,16 +21624,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21641,7 +21641,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7921521</v>
+        <v>7921522</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21653,49 +21653,49 @@
         <v>45357.95833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G238" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H238">
         <v>3</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
         <v>52</v>
       </c>
       <c r="K238">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L238">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M238">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N238">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="O238">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P238">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q238">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
         <v>1.9</v>
@@ -21704,7 +21704,7 @@
         <v>1.9</v>
       </c>
       <c r="W238">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21713,16 +21713,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
+        <v>0.8</v>
+      </c>
+      <c r="AA238">
+        <v>-1</v>
+      </c>
+      <c r="AB238">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA238">
-        <v>-1</v>
-      </c>
-      <c r="AB238">
-        <v>0.45</v>
-      </c>
       <c r="AC238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -22086,7 +22086,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7941224</v>
+        <v>7941223</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22098,76 +22098,76 @@
         <v>45361.75</v>
       </c>
       <c r="F243" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G243" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243">
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K243">
+        <v>1.909</v>
+      </c>
+      <c r="L243">
+        <v>3.5</v>
+      </c>
+      <c r="M243">
+        <v>3.4</v>
+      </c>
+      <c r="N243">
+        <v>1.95</v>
+      </c>
+      <c r="O243">
+        <v>3.4</v>
+      </c>
+      <c r="P243">
+        <v>3.3</v>
+      </c>
+      <c r="Q243">
+        <v>-0.5</v>
+      </c>
+      <c r="R243">
+        <v>2</v>
+      </c>
+      <c r="S243">
         <v>1.8</v>
       </c>
-      <c r="L243">
-        <v>3.3</v>
-      </c>
-      <c r="M243">
-        <v>4</v>
-      </c>
-      <c r="N243">
-        <v>1.3</v>
-      </c>
-      <c r="O243">
-        <v>4.75</v>
-      </c>
-      <c r="P243">
-        <v>8.5</v>
-      </c>
-      <c r="Q243">
-        <v>-1.5</v>
-      </c>
-      <c r="R243">
-        <v>1.9</v>
-      </c>
-      <c r="S243">
-        <v>1.9</v>
-      </c>
       <c r="T243">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U243">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V243">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W243">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB243">
         <v>-1</v>
       </c>
       <c r="AC243">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22175,7 +22175,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7941223</v>
+        <v>7941224</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22187,76 +22187,76 @@
         <v>45361.75</v>
       </c>
       <c r="F244" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G244" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244">
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K244">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L244">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M244">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N244">
+        <v>1.3</v>
+      </c>
+      <c r="O244">
+        <v>4.75</v>
+      </c>
+      <c r="P244">
+        <v>8.5</v>
+      </c>
+      <c r="Q244">
+        <v>-1.5</v>
+      </c>
+      <c r="R244">
+        <v>1.9</v>
+      </c>
+      <c r="S244">
+        <v>1.9</v>
+      </c>
+      <c r="T244">
+        <v>2.75</v>
+      </c>
+      <c r="U244">
         <v>1.95</v>
       </c>
-      <c r="O244">
-        <v>3.4</v>
-      </c>
-      <c r="P244">
-        <v>3.3</v>
-      </c>
-      <c r="Q244">
-        <v>-0.5</v>
-      </c>
-      <c r="R244">
-        <v>2</v>
-      </c>
-      <c r="S244">
-        <v>1.8</v>
-      </c>
-      <c r="T244">
-        <v>2.25</v>
-      </c>
-      <c r="U244">
-        <v>1.8</v>
-      </c>
       <c r="V244">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X244">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA244">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
         <v>-1</v>
       </c>
       <c r="AC244">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:29">

--- a/Guatemala Primera Division/Guatemala Primera Division.xlsx
+++ b/Guatemala Primera Division/Guatemala Primera Division.xlsx
@@ -133,10 +133,10 @@
     <t>Quiche FC</t>
   </si>
   <si>
-    <t>Deportivo Iztapa</t>
+    <t>Sta Lucia FC</t>
   </si>
   <si>
-    <t>Sta Lucia FC</t>
+    <t>Deportivo Iztapa</t>
   </si>
   <si>
     <t>Nueva Concepcion</t>
@@ -830,7 +830,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -919,7 +919,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7025214</v>
+        <v>7025213</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,46 +1542,46 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
         <v>3.2</v>
       </c>
       <c r="M12">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
         <v>1.8</v>
@@ -1590,25 +1590,25 @@
         <v>2</v>
       </c>
       <c r="W12">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z12">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1616,7 +1616,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7025213</v>
+        <v>7025214</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1631,46 +1631,46 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L13">
         <v>3.2</v>
       </c>
       <c r="M13">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N13">
+        <v>1.55</v>
+      </c>
+      <c r="O13">
+        <v>3.8</v>
+      </c>
+      <c r="P13">
+        <v>4.75</v>
+      </c>
+      <c r="Q13">
+        <v>-0.75</v>
+      </c>
+      <c r="R13">
         <v>1.75</v>
       </c>
-      <c r="O13">
-        <v>3.3</v>
-      </c>
-      <c r="P13">
-        <v>4.333</v>
-      </c>
-      <c r="Q13">
-        <v>-0.5</v>
-      </c>
-      <c r="R13">
-        <v>1.8</v>
-      </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
         <v>1.8</v>
@@ -1679,25 +1679,25 @@
         <v>2</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2328,7 +2328,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7060394</v>
+        <v>7060342</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2340,76 +2340,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7060393</v>
+        <v>7060392</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2429,76 +2429,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
         <v>39</v>
       </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>1.615</v>
+        <v>1.952</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O22">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X22">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2506,7 +2506,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7060342</v>
+        <v>7060394</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2518,76 +2518,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23">
+        <v>1.615</v>
+      </c>
+      <c r="L23">
+        <v>3.5</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>1.666</v>
+      </c>
+      <c r="O23">
         <v>3.3</v>
       </c>
-      <c r="L23">
-        <v>3.2</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23">
-        <v>2.8</v>
-      </c>
-      <c r="O23">
-        <v>3.1</v>
-      </c>
       <c r="P23">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2595,7 +2595,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7060392</v>
+        <v>7060393</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2607,76 +2607,76 @@
         <v>45151.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>1.952</v>
+        <v>1.615</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N24">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
+        <v>2.75</v>
+      </c>
+      <c r="U24">
         <v>1.825</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>1.975</v>
       </c>
-      <c r="T24">
-        <v>2.5</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <v>1.8</v>
-      </c>
       <c r="W24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3052,10 +3052,10 @@
         <v>45154.63194444445</v>
       </c>
       <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
         <v>40</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7072543</v>
+        <v>7072447</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3141,76 +3141,76 @@
         <v>45154.75</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N30">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O30">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q30">
         <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7072542</v>
+        <v>7072543</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,10 +3408,10 @@
         <v>45154.75</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3423,43 +3423,43 @@
         <v>52</v>
       </c>
       <c r="K33">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L33">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N33">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W33">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3468,13 +3468,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7072447</v>
+        <v>7072542</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,76 +3497,76 @@
         <v>45154.75</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L34">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M34">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="N34">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O34">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P34">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
         <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3675,7 +3675,7 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
         <v>38</v>
@@ -3752,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7106174</v>
+        <v>7106041</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3764,76 +3764,76 @@
         <v>45161.75</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L37">
+        <v>3.2</v>
+      </c>
+      <c r="M37">
+        <v>2.3</v>
+      </c>
+      <c r="N37">
+        <v>2.3</v>
+      </c>
+      <c r="O37">
         <v>3</v>
       </c>
-      <c r="M37">
-        <v>3.5</v>
-      </c>
-      <c r="N37">
+      <c r="P37">
+        <v>2.875</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
         <v>1.75</v>
       </c>
-      <c r="O37">
-        <v>3.1</v>
-      </c>
-      <c r="P37">
-        <v>4.333</v>
-      </c>
-      <c r="Q37">
-        <v>-0.5</v>
-      </c>
-      <c r="R37">
-        <v>1.85</v>
-      </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X37">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7106041</v>
+        <v>7106174</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3942,76 +3942,76 @@
         <v>45161.75</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>3.5</v>
+      </c>
+      <c r="N39">
+        <v>1.75</v>
+      </c>
+      <c r="O39">
+        <v>3.1</v>
+      </c>
+      <c r="P39">
+        <v>4.333</v>
+      </c>
+      <c r="Q39">
+        <v>-0.5</v>
+      </c>
+      <c r="R39">
+        <v>1.85</v>
+      </c>
+      <c r="S39">
+        <v>1.95</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>1.85</v>
+      </c>
+      <c r="V39">
+        <v>1.95</v>
+      </c>
+      <c r="W39">
+        <v>-1</v>
+      </c>
+      <c r="X39">
+        <v>2.1</v>
+      </c>
+      <c r="Y39">
+        <v>-1</v>
+      </c>
+      <c r="Z39">
+        <v>-1</v>
+      </c>
+      <c r="AA39">
+        <v>0.95</v>
+      </c>
+      <c r="AB39">
         <v>0</v>
       </c>
-      <c r="J39" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39">
-        <v>2.75</v>
-      </c>
-      <c r="L39">
-        <v>3.2</v>
-      </c>
-      <c r="M39">
-        <v>2.3</v>
-      </c>
-      <c r="N39">
-        <v>2.3</v>
-      </c>
-      <c r="O39">
-        <v>3</v>
-      </c>
-      <c r="P39">
-        <v>2.875</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>1.75</v>
-      </c>
-      <c r="S39">
-        <v>2.05</v>
-      </c>
-      <c r="T39">
-        <v>2</v>
-      </c>
-      <c r="U39">
-        <v>1.925</v>
-      </c>
-      <c r="V39">
-        <v>1.875</v>
-      </c>
-      <c r="W39">
-        <v>1.3</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
-      <c r="Y39">
-        <v>-1</v>
-      </c>
-      <c r="Z39">
-        <v>0.75</v>
-      </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4031,7 +4031,7 @@
         <v>45161.75</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
         <v>44</v>
@@ -4197,7 +4197,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7107133</v>
+        <v>7107137</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4209,40 +4209,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>1.45</v>
+      </c>
+      <c r="O42">
         <v>4</v>
       </c>
-      <c r="N42">
-        <v>1.85</v>
-      </c>
-      <c r="O42">
-        <v>3</v>
-      </c>
       <c r="P42">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R42">
         <v>1.9</v>
@@ -4251,34 +4251,34 @@
         <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4286,7 +4286,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7107137</v>
+        <v>7107133</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4298,40 +4298,40 @@
         <v>45161.95833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43">
+        <v>1.8</v>
+      </c>
+      <c r="L43">
+        <v>3.2</v>
+      </c>
+      <c r="M43">
         <v>4</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43">
-        <v>2.1</v>
-      </c>
-      <c r="L43">
-        <v>3.3</v>
-      </c>
-      <c r="M43">
+      <c r="N43">
+        <v>1.85</v>
+      </c>
+      <c r="O43">
         <v>3</v>
       </c>
-      <c r="N43">
-        <v>1.45</v>
-      </c>
-      <c r="O43">
-        <v>4</v>
-      </c>
       <c r="P43">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
         <v>1.9</v>
@@ -4340,34 +4340,34 @@
         <v>1.9</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
       <c r="AB43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4642,7 +4642,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7128524</v>
+        <v>7128481</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4654,43 +4654,43 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K47">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M47">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N47">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P47">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S47">
         <v>1.975</v>
@@ -4699,31 +4699,31 @@
         <v>2.25</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X47">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4731,7 +4731,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7128481</v>
+        <v>7128524</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4743,43 +4743,43 @@
         <v>45165.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48" t="s">
+        <v>54</v>
+      </c>
+      <c r="K48">
+        <v>2.4</v>
+      </c>
+      <c r="L48">
+        <v>3.2</v>
+      </c>
+      <c r="M48">
+        <v>2.6</v>
+      </c>
+      <c r="N48">
+        <v>2.4</v>
+      </c>
+      <c r="O48">
+        <v>3.2</v>
+      </c>
+      <c r="P48">
+        <v>2.6</v>
+      </c>
+      <c r="Q48">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48">
-        <v>1.571</v>
-      </c>
-      <c r="L48">
-        <v>3.75</v>
-      </c>
-      <c r="M48">
-        <v>4.75</v>
-      </c>
-      <c r="N48">
-        <v>1.444</v>
-      </c>
-      <c r="O48">
-        <v>3.8</v>
-      </c>
-      <c r="P48">
-        <v>7</v>
-      </c>
-      <c r="Q48">
-        <v>-1</v>
-      </c>
       <c r="R48">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
         <v>1.975</v>
@@ -4788,31 +4788,31 @@
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4924,7 +4924,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5013,7 +5013,7 @@
         <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5532,7 +5532,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7158508</v>
+        <v>7158484</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5544,76 +5544,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K57">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L57">
         <v>3.2</v>
       </c>
       <c r="M57">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N57">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P57">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5633,7 +5633,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
         <v>41</v>
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7158484</v>
+        <v>7158508</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5722,76 +5722,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K59">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L59">
         <v>3.2</v>
       </c>
       <c r="M59">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6155,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7189246</v>
+        <v>7189791</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6167,40 +6167,40 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>3</v>
-      </c>
       <c r="J64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K64">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L64">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="N64">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O64">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P64">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
         <v>1.825</v>
@@ -6212,28 +6212,28 @@
         <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7189205</v>
+        <v>7189416</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,76 +6256,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65">
         <v>0</v>
       </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K65">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L65">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="O65">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7189416</v>
+        <v>7189205</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6345,76 +6345,76 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K66">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="O66">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="P66">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6422,7 +6422,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7189791</v>
+        <v>7189246</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6434,40 +6434,40 @@
         <v>45179.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K67">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L67">
+        <v>3.5</v>
+      </c>
+      <c r="M67">
         <v>4</v>
       </c>
-      <c r="M67">
-        <v>1.833</v>
-      </c>
       <c r="N67">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P67">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
         <v>1.825</v>
@@ -6479,28 +6479,28 @@
         <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z67">
+        <v>-1</v>
+      </c>
+      <c r="AA67">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB67">
         <v>0.825</v>
-      </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
-      <c r="AB67">
-        <v>0.7749999999999999</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6526,7 +6526,7 @@
         <v>46</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <v>4</v>
@@ -6689,7 +6689,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7203080</v>
+        <v>7203412</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6701,13 +6701,13 @@
         <v>45182.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6716,31 +6716,31 @@
         <v>52</v>
       </c>
       <c r="K70">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L70">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
+        <v>2.5</v>
+      </c>
+      <c r="N70">
+        <v>1.571</v>
+      </c>
+      <c r="O70">
+        <v>3.6</v>
+      </c>
+      <c r="P70">
         <v>5</v>
-      </c>
-      <c r="N70">
-        <v>1.6</v>
-      </c>
-      <c r="O70">
-        <v>3.4</v>
-      </c>
-      <c r="P70">
-        <v>5.5</v>
       </c>
       <c r="Q70">
         <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T70">
         <v>2.25</v>
@@ -6752,7 +6752,7 @@
         <v>1.825</v>
       </c>
       <c r="W70">
-        <v>0.6000000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6761,16 +6761,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6778,7 +6778,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7203412</v>
+        <v>7203080</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6790,13 +6790,13 @@
         <v>45182.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6805,31 +6805,31 @@
         <v>52</v>
       </c>
       <c r="K71">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M71">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N71">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q71">
         <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
         <v>2.25</v>
@@ -6841,7 +6841,7 @@
         <v>1.825</v>
       </c>
       <c r="W71">
-        <v>0.571</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6850,16 +6850,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6867,7 +6867,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7203452</v>
+        <v>7203437</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6879,13 +6879,13 @@
         <v>45182.75</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6894,40 +6894,40 @@
         <v>52</v>
       </c>
       <c r="K72">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L72">
+        <v>3.2</v>
+      </c>
+      <c r="M72">
         <v>4</v>
-      </c>
-      <c r="M72">
-        <v>7</v>
       </c>
       <c r="N72">
         <v>1.363</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P72">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q72">
         <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
         <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W72">
         <v>0.363</v>
@@ -6939,16 +6939,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6956,7 +6956,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7203437</v>
+        <v>7203452</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6968,13 +6968,13 @@
         <v>45182.75</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6983,40 +6983,40 @@
         <v>52</v>
       </c>
       <c r="K73">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N73">
         <v>1.363</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P73">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q73">
         <v>-1.25</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S73">
         <v>1.95</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
         <v>0.363</v>
@@ -7028,16 +7028,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7579,7 +7579,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7223342</v>
+        <v>7223489</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7591,76 +7591,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K80">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L80">
         <v>3.2</v>
       </c>
       <c r="M80">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N80">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O80">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q80">
+        <v>-0.75</v>
+      </c>
+      <c r="R80">
+        <v>1.9</v>
+      </c>
+      <c r="S80">
+        <v>1.9</v>
+      </c>
+      <c r="T80">
+        <v>2.25</v>
+      </c>
+      <c r="U80">
+        <v>1.85</v>
+      </c>
+      <c r="V80">
+        <v>1.95</v>
+      </c>
+      <c r="W80">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>-1</v>
+      </c>
+      <c r="Z80">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>-0.5</v>
       </c>
-      <c r="R80">
-        <v>1.85</v>
-      </c>
-      <c r="S80">
-        <v>1.95</v>
-      </c>
-      <c r="T80">
-        <v>2</v>
-      </c>
-      <c r="U80">
-        <v>1.975</v>
-      </c>
-      <c r="V80">
-        <v>1.825</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>-1</v>
-      </c>
-      <c r="Y80">
-        <v>3.75</v>
-      </c>
-      <c r="Z80">
-        <v>-1</v>
-      </c>
-      <c r="AA80">
-        <v>0.95</v>
-      </c>
-      <c r="AB80">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7668,7 +7668,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7223489</v>
+        <v>7223342</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7680,76 +7680,76 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K81">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L81">
         <v>3.2</v>
       </c>
       <c r="M81">
+        <v>4</v>
+      </c>
+      <c r="N81">
+        <v>1.8</v>
+      </c>
+      <c r="O81">
+        <v>3</v>
+      </c>
+      <c r="P81">
+        <v>4.75</v>
+      </c>
+      <c r="Q81">
+        <v>-0.5</v>
+      </c>
+      <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
+        <v>1.95</v>
+      </c>
+      <c r="T81">
+        <v>2</v>
+      </c>
+      <c r="U81">
+        <v>1.975</v>
+      </c>
+      <c r="V81">
+        <v>1.825</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
         <v>3.75</v>
       </c>
-      <c r="N81">
-        <v>1.666</v>
-      </c>
-      <c r="O81">
-        <v>3.4</v>
-      </c>
-      <c r="P81">
-        <v>4.5</v>
-      </c>
-      <c r="Q81">
-        <v>-0.75</v>
-      </c>
-      <c r="R81">
-        <v>1.9</v>
-      </c>
-      <c r="S81">
-        <v>1.9</v>
-      </c>
-      <c r="T81">
-        <v>2.25</v>
-      </c>
-      <c r="U81">
-        <v>1.85</v>
-      </c>
-      <c r="V81">
-        <v>1.95</v>
-      </c>
-      <c r="W81">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
       <c r="Z81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8039,7 +8039,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8113,7 +8113,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7249890</v>
+        <v>7249817</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8125,61 +8125,61 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K86">
+        <v>1.363</v>
+      </c>
+      <c r="L86">
+        <v>4</v>
+      </c>
+      <c r="M86">
+        <v>7.5</v>
+      </c>
+      <c r="N86">
+        <v>1.25</v>
+      </c>
+      <c r="O86">
+        <v>4.75</v>
+      </c>
+      <c r="P86">
+        <v>9</v>
+      </c>
+      <c r="Q86">
+        <v>-1.5</v>
+      </c>
+      <c r="R86">
+        <v>1.9</v>
+      </c>
+      <c r="S86">
+        <v>1.9</v>
+      </c>
+      <c r="T86">
         <v>2.75</v>
       </c>
-      <c r="L86">
-        <v>3</v>
-      </c>
-      <c r="M86">
-        <v>2.4</v>
-      </c>
-      <c r="N86">
-        <v>1.85</v>
-      </c>
-      <c r="O86">
-        <v>3.25</v>
-      </c>
-      <c r="P86">
-        <v>3.8</v>
-      </c>
-      <c r="Q86">
-        <v>-0.5</v>
-      </c>
-      <c r="R86">
-        <v>1.95</v>
-      </c>
-      <c r="S86">
-        <v>1.85</v>
-      </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X86">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
@@ -8188,13 +8188,13 @@
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8202,7 +8202,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7249833</v>
+        <v>7249832</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8214,58 +8214,58 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H87">
         <v>3</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>52</v>
       </c>
       <c r="K87">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L87">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M87">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O87">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8274,13 +8274,13 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8291,7 +8291,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7249832</v>
+        <v>7249833</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8303,58 +8303,58 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H88">
         <v>3</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>52</v>
       </c>
       <c r="K88">
+        <v>2.75</v>
+      </c>
+      <c r="L88">
+        <v>3.2</v>
+      </c>
+      <c r="M88">
+        <v>2.3</v>
+      </c>
+      <c r="N88">
+        <v>2.1</v>
+      </c>
+      <c r="O88">
         <v>3.25</v>
       </c>
-      <c r="L88">
-        <v>3.25</v>
-      </c>
-      <c r="M88">
-        <v>2</v>
-      </c>
-      <c r="N88">
-        <v>2.55</v>
-      </c>
-      <c r="O88">
+      <c r="P88">
         <v>3.1</v>
       </c>
-      <c r="P88">
-        <v>2.5</v>
-      </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8363,13 +8363,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8395,7 +8395,7 @@
         <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7249817</v>
+        <v>7249890</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8481,61 +8481,61 @@
         <v>45193.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K90">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="N90">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O90">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P90">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="Q90">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8544,13 +8544,13 @@
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC90">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8837,7 +8837,7 @@
         <v>45196.625</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
         <v>33</v>
@@ -8914,7 +8914,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7265138</v>
+        <v>7265139</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8926,16 +8926,16 @@
         <v>45196.75</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>54</v>
@@ -8944,43 +8944,43 @@
         <v>2</v>
       </c>
       <c r="L95">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M95">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P95">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y95">
         <v>-1</v>
@@ -8989,13 +8989,13 @@
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9092,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7265139</v>
+        <v>7265138</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9104,16 +9104,16 @@
         <v>45196.75</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>54</v>
@@ -9122,43 +9122,43 @@
         <v>2</v>
       </c>
       <c r="L97">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M97">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N97">
+        <v>1.65</v>
+      </c>
+      <c r="O97">
+        <v>3.6</v>
+      </c>
+      <c r="P97">
+        <v>4.5</v>
+      </c>
+      <c r="Q97">
+        <v>-0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
         <v>1.95</v>
       </c>
-      <c r="O97">
-        <v>2.9</v>
-      </c>
-      <c r="P97">
-        <v>4.2</v>
-      </c>
-      <c r="Q97">
-        <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.975</v>
-      </c>
-      <c r="S97">
-        <v>1.725</v>
-      </c>
-      <c r="T97">
-        <v>2</v>
-      </c>
-      <c r="U97">
-        <v>1.775</v>
-      </c>
       <c r="V97">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9167,13 +9167,13 @@
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.7250000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB97">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9374,7 +9374,7 @@
         <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9626,7 +9626,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7281782</v>
+        <v>7281756</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9638,73 +9638,73 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K103">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M103">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9715,7 +9715,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7281756</v>
+        <v>7281782</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9727,73 +9727,73 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L104">
+        <v>3.3</v>
+      </c>
+      <c r="M104">
+        <v>2.5</v>
+      </c>
+      <c r="N104">
+        <v>1.909</v>
+      </c>
+      <c r="O104">
         <v>3.5</v>
       </c>
-      <c r="M104">
-        <v>4</v>
-      </c>
-      <c r="N104">
-        <v>1.6</v>
-      </c>
-      <c r="O104">
-        <v>3.6</v>
-      </c>
       <c r="P104">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T104">
         <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9804,7 +9804,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7281783</v>
+        <v>7281758</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9816,16 +9816,16 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
         <v>52</v>
@@ -9840,34 +9840,34 @@
         <v>3.75</v>
       </c>
       <c r="N105">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O105">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q105">
         <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
         <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W105">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9876,16 +9876,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9893,7 +9893,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7281758</v>
+        <v>7281783</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9905,16 +9905,16 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>52</v>
@@ -9929,34 +9929,34 @@
         <v>3.75</v>
       </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O106">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P106">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q106">
         <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
         <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V106">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9965,16 +9965,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10694,7 +10694,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7373217</v>
+        <v>7372552</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10706,40 +10706,40 @@
         <v>45221.75</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K115">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L115">
+        <v>3.1</v>
+      </c>
+      <c r="M115">
+        <v>2.8</v>
+      </c>
+      <c r="N115">
+        <v>1.85</v>
+      </c>
+      <c r="O115">
         <v>3.2</v>
       </c>
-      <c r="M115">
-        <v>4.333</v>
-      </c>
-      <c r="N115">
-        <v>1.666</v>
-      </c>
-      <c r="O115">
-        <v>3.4</v>
-      </c>
       <c r="P115">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
         <v>1.9</v>
@@ -10751,31 +10751,31 @@
         <v>2.25</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10783,7 +10783,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7372552</v>
+        <v>7373217</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10795,40 +10795,40 @@
         <v>45221.75</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N116">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
         <v>1.9</v>
@@ -10840,31 +10840,31 @@
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X116">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10884,7 +10884,7 @@
         <v>45224.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
         <v>44</v>
@@ -10961,7 +10961,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7387943</v>
+        <v>7387942</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10973,76 +10973,76 @@
         <v>45224.75</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K118">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M118">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N118">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O118">
+        <v>3.2</v>
+      </c>
+      <c r="P118">
         <v>3.6</v>
       </c>
-      <c r="P118">
-        <v>5.5</v>
-      </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S118">
+        <v>1.8</v>
+      </c>
+      <c r="T118">
+        <v>2.25</v>
+      </c>
+      <c r="U118">
+        <v>1.85</v>
+      </c>
+      <c r="V118">
         <v>1.95</v>
       </c>
-      <c r="T118">
-        <v>2.5</v>
-      </c>
-      <c r="U118">
-        <v>1.9</v>
-      </c>
-      <c r="V118">
-        <v>1.9</v>
-      </c>
       <c r="W118">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11050,7 +11050,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7387211</v>
+        <v>7387943</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11062,13 +11062,13 @@
         <v>45224.75</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -11077,34 +11077,34 @@
         <v>52</v>
       </c>
       <c r="K119">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
+        <v>4.2</v>
+      </c>
+      <c r="N119">
+        <v>1.533</v>
+      </c>
+      <c r="O119">
+        <v>3.6</v>
+      </c>
+      <c r="P119">
         <v>5.5</v>
       </c>
-      <c r="N119">
-        <v>1.363</v>
-      </c>
-      <c r="O119">
-        <v>4.5</v>
-      </c>
-      <c r="P119">
-        <v>7</v>
-      </c>
       <c r="Q119">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
         <v>1.9</v>
@@ -11113,7 +11113,7 @@
         <v>1.9</v>
       </c>
       <c r="W119">
-        <v>0.363</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11122,16 +11122,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA119">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7387942</v>
+        <v>7387211</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11151,61 +11151,61 @@
         <v>45224.75</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K120">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L120">
+        <v>4</v>
+      </c>
+      <c r="M120">
+        <v>5.5</v>
+      </c>
+      <c r="N120">
+        <v>1.363</v>
+      </c>
+      <c r="O120">
+        <v>4.5</v>
+      </c>
+      <c r="P120">
+        <v>7</v>
+      </c>
+      <c r="Q120">
+        <v>-1.5</v>
+      </c>
+      <c r="R120">
+        <v>1.975</v>
+      </c>
+      <c r="S120">
+        <v>1.825</v>
+      </c>
+      <c r="T120">
         <v>3</v>
       </c>
-      <c r="M120">
-        <v>2.6</v>
-      </c>
-      <c r="N120">
-        <v>1.909</v>
-      </c>
-      <c r="O120">
-        <v>3.2</v>
-      </c>
-      <c r="P120">
-        <v>3.6</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>2</v>
-      </c>
-      <c r="S120">
-        <v>1.8</v>
-      </c>
-      <c r="T120">
-        <v>2.25</v>
-      </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X120">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
@@ -11214,13 +11214,13 @@
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7400382</v>
+        <v>7400385</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11685,76 +11685,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H126">
+        <v>4</v>
+      </c>
+      <c r="I126">
         <v>0</v>
       </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
       <c r="J126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M126">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N126">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P126">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
+        <v>1.825</v>
+      </c>
+      <c r="S126">
+        <v>1.975</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
         <v>1.8</v>
       </c>
-      <c r="S126">
-        <v>2</v>
-      </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
-      <c r="U126">
-        <v>2</v>
-      </c>
       <c r="V126">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11762,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7400380</v>
+        <v>7400384</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11774,13 +11774,13 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -11789,25 +11789,25 @@
         <v>52</v>
       </c>
       <c r="K127">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L127">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M127">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N127">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O127">
         <v>3</v>
       </c>
       <c r="P127">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
         <v>1.85</v>
@@ -11816,16 +11816,16 @@
         <v>1.95</v>
       </c>
       <c r="T127">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11840,7 +11840,7 @@
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11851,7 +11851,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7400384</v>
+        <v>7400382</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11863,76 +11863,76 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G128" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H128">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>3.4</v>
+      </c>
+      <c r="M128">
+        <v>3.1</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128">
+        <v>3.4</v>
+      </c>
+      <c r="P128">
+        <v>3.1</v>
+      </c>
+      <c r="Q128">
+        <v>-0.25</v>
+      </c>
+      <c r="R128">
         <v>1.8</v>
       </c>
-      <c r="L128">
-        <v>3</v>
-      </c>
-      <c r="M128">
-        <v>4.5</v>
-      </c>
-      <c r="N128">
-        <v>1.8</v>
-      </c>
-      <c r="O128">
-        <v>3</v>
-      </c>
-      <c r="P128">
-        <v>4.333</v>
-      </c>
-      <c r="Q128">
-        <v>-0.5</v>
-      </c>
-      <c r="R128">
-        <v>1.85</v>
-      </c>
       <c r="S128">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T128">
         <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W128">
+        <v>-1</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
+        <v>2.1</v>
+      </c>
+      <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
+        <v>1</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
         <v>0.8</v>
-      </c>
-      <c r="X128">
-        <v>-1</v>
-      </c>
-      <c r="Y128">
-        <v>-1</v>
-      </c>
-      <c r="Z128">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
-      <c r="AB128">
-        <v>0.95</v>
-      </c>
-      <c r="AC128">
-        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11940,7 +11940,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7400385</v>
+        <v>7400380</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11952,58 +11952,58 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>52</v>
       </c>
       <c r="K129">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M129">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N129">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O129">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P129">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
+        <v>1.95</v>
+      </c>
+      <c r="T129">
+        <v>2</v>
+      </c>
+      <c r="U129">
         <v>1.975</v>
       </c>
-      <c r="T129">
-        <v>2.75</v>
-      </c>
-      <c r="U129">
-        <v>1.8</v>
-      </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W129">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12012,13 +12012,13 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7400381</v>
+        <v>7400383</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,73 +12041,73 @@
         <v>45228.75</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K130">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12118,7 +12118,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7400383</v>
+        <v>7400381</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12130,73 +12130,73 @@
         <v>45228.75</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K131">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>3.75</v>
+      </c>
+      <c r="N131">
+        <v>1.65</v>
+      </c>
+      <c r="O131">
         <v>3.6</v>
       </c>
-      <c r="M131">
-        <v>5</v>
-      </c>
-      <c r="N131">
-        <v>1.45</v>
-      </c>
-      <c r="O131">
-        <v>3.8</v>
-      </c>
       <c r="P131">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7448182</v>
+        <v>7451044</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,76 +12575,76 @@
         <v>45238.75</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K136">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N136">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P136">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W136">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7452316</v>
+        <v>7448182</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,40 +12664,40 @@
         <v>45238.75</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137">
         <v>1</v>
       </c>
-      <c r="I137">
-        <v>3</v>
-      </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K137">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="L137">
         <v>3.6</v>
       </c>
       <c r="M137">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="N137">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>1.85</v>
+        <v>7.5</v>
       </c>
       <c r="Q137">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
         <v>1.9</v>
@@ -12706,31 +12706,31 @@
         <v>1.9</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12741,7 +12741,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7451058</v>
+        <v>7450477</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12753,58 +12753,58 @@
         <v>45238.75</v>
       </c>
       <c r="F138" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
         <v>52</v>
       </c>
       <c r="K138">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M138">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N138">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P138">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12813,16 +12813,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB138">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12830,7 +12830,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7451046</v>
+        <v>7451045</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12842,76 +12842,76 @@
         <v>45238.75</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K139">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L139">
         <v>3.2</v>
       </c>
       <c r="M139">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N139">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O139">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12919,7 +12919,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7451044</v>
+        <v>7451058</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12931,76 +12931,76 @@
         <v>45238.75</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K140">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
+        <v>3.4</v>
+      </c>
+      <c r="M140">
         <v>3.5</v>
       </c>
-      <c r="M140">
-        <v>1.8</v>
-      </c>
       <c r="N140">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O140">
         <v>3.4</v>
       </c>
       <c r="P140">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
         <v>1.8</v>
-      </c>
-      <c r="S140">
-        <v>2</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X140">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13008,7 +13008,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7450477</v>
+        <v>7452316</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13020,40 +13020,40 @@
         <v>45238.75</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N141">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="O141">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R141">
         <v>1.9</v>
@@ -13065,31 +13065,31 @@
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB141">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7451045</v>
+        <v>7451046</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,76 +13109,76 @@
         <v>45238.75</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L142">
         <v>3.2</v>
       </c>
       <c r="M142">
+        <v>2.2</v>
+      </c>
+      <c r="N142">
+        <v>2.2</v>
+      </c>
+      <c r="O142">
+        <v>3.3</v>
+      </c>
+      <c r="P142">
+        <v>2.8</v>
+      </c>
+      <c r="Q142">
+        <v>-0.25</v>
+      </c>
+      <c r="R142">
+        <v>1.9</v>
+      </c>
+      <c r="S142">
+        <v>1.9</v>
+      </c>
+      <c r="T142">
         <v>2.5</v>
       </c>
-      <c r="N142">
-        <v>3.2</v>
-      </c>
-      <c r="O142">
-        <v>3.4</v>
-      </c>
-      <c r="P142">
-        <v>2</v>
-      </c>
-      <c r="Q142">
-        <v>0.25</v>
-      </c>
-      <c r="R142">
-        <v>2</v>
-      </c>
-      <c r="S142">
-        <v>1.8</v>
-      </c>
-      <c r="T142">
-        <v>2.25</v>
-      </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -14002,7 +14002,7 @@
         <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14177,7 +14177,7 @@
         <v>45256.58333333334</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -14966,7 +14966,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7694909</v>
+        <v>7693875</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14978,76 +14978,76 @@
         <v>45304.75</v>
       </c>
       <c r="F163" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G163" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K163">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3